--- a/translated.xlsx
+++ b/translated.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TomatoPotato\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="11385" firstSheet="2" activeTab="4"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IngrdNL" sheetId="2" r:id="rId2"/>
+    <sheet name="catsNL" sheetId="3" r:id="rId3"/>
+    <sheet name="mealsNL" sheetId="4" r:id="rId4"/>
+    <sheet name="IngrdIT" sheetId="7" r:id="rId5"/>
+    <sheet name="mealsIT" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">IngrdIT!$A$1:$B$97</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="470">
   <si>
     <t>orig</t>
   </si>
@@ -608,22 +624,860 @@
   </si>
   <si>
     <t>la bagna caoda o bagna cauda è una preparazione tipica del piemonte preparata con acciughe, olio e aglio ed utilizzata come intingolo per le verdure fresche della stagione autunnale. essendo una pietanza sostanziosa, solitamente, viene considerato un piatto unico ma talvolta può anche essere servito come antipasto per una cena tra amici... infatti, anticamente, era proprio durante i ritrovi e le cene tra amici che si preparava questo piatto che col tempo è diventato il simbolo dell'amicizia e dell'allegria. le origini della bagna caoda sono in realtà per metà avvolte nel mistero poiché non si sa precisamente quando, dove e chi abbia inventato questo piatto, che infatti non ha neppure una città di residenza, ma si sa invece che i vignaioli del tardo medioevo adottarono questa ricetta per festeggiare un evento importantissimo come poteva essere la spillatura del vino nuovo. per moltissimo tempo, la bagna caoda, è rimasta solo il piatto dei poveri e dei contadini in quanto gli aristocratici la aborrivano per l'abbondanza di aglio. col passare del tempo, questo piatto è stato invece rivalutato e, al giorno d'oggi, sono molte le trattorie e i ristoranti, sopratutto in piemonte, che propongono nel loro menù la bagna caoda. per quanto riguarda l'origine del nome, sappiamo che bagna caoda deriva dai due termini, "bagna" che in piemontese significa salsa o sugo, e "caoda" che sta invece per calda: quindi salsa calda.ed è proprio per questo motivo che la bagna caoda viene servita nei "fujot", particolari recipienti in terracotta o rame con sotto una fiammella che tiene caldo l'intingolo. vi presentiamo qui la ricetta classica depositata presso l’accademia italiana della cucina e una versione preparata con il latte altrettanto gustosa. accompagnate la bagna caoda con le verdure autunnali tipiche della regione tra le quali spicca il famoso cardo gobbo di nizza monferrato, da consumare crudo.</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>parsley</t>
+  </si>
+  <si>
+    <t>onions</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>bell pepper</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>whipped cream</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>mushrooms</t>
+  </si>
+  <si>
+    <t>lemon juice</t>
+  </si>
+  <si>
+    <t>chicken breast</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>thyme</t>
+  </si>
+  <si>
+    <t>herbs</t>
+  </si>
+  <si>
+    <t>soy sauce</t>
+  </si>
+  <si>
+    <t>sambal</t>
+  </si>
+  <si>
+    <t>basil</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>vinegar</t>
+  </si>
+  <si>
+    <t>caster sugar</t>
+  </si>
+  <si>
+    <t>chive</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>coriander</t>
+  </si>
+  <si>
+    <t>oregano</t>
+  </si>
+  <si>
+    <t>nutmeg</t>
+  </si>
+  <si>
+    <t>dairy butter</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>minced beef</t>
+  </si>
+  <si>
+    <t>puff pastry</t>
+  </si>
+  <si>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>sunflower oil</t>
+  </si>
+  <si>
+    <t>chicken bouillon</t>
+  </si>
+  <si>
+    <t>parmesan</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>bread-crumbs</t>
+  </si>
+  <si>
+    <t>powdered sugar</t>
+  </si>
+  <si>
+    <t>vanilla sugar</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>curry powder</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>baking powder</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>broth</t>
+  </si>
+  <si>
+    <t>zucchini</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>margarine</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>cream cheese</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>olives</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>pesto</t>
+  </si>
+  <si>
+    <t>raisins</t>
+  </si>
+  <si>
+    <t>rosemary</t>
+  </si>
+  <si>
+    <t>cayenne pepper</t>
+  </si>
+  <si>
+    <t>chicken breasts</t>
+  </si>
+  <si>
+    <t>spinach</t>
+  </si>
+  <si>
+    <t>shallots</t>
+  </si>
+  <si>
+    <t>walnuts</t>
+  </si>
+  <si>
+    <t>shrimps</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>ginger powder</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>dill</t>
+  </si>
+  <si>
+    <t>cornflour</t>
+  </si>
+  <si>
+    <t>pine nuts</t>
+  </si>
+  <si>
+    <t>chili powder</t>
+  </si>
+  <si>
+    <t>feta</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>capers</t>
+  </si>
+  <si>
+    <t>cumin</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>shallot</t>
+  </si>
+  <si>
+    <t>arugula</t>
+  </si>
+  <si>
+    <t>bay leaves</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>wine vinegar</t>
+  </si>
+  <si>
+    <t>mozzarella</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>FREQ</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>sea salt</t>
+  </si>
+  <si>
+    <t>bulgarian</t>
+  </si>
+  <si>
+    <t>czech</t>
+  </si>
+  <si>
+    <t>argentinian</t>
+  </si>
+  <si>
+    <t>indonesian</t>
+  </si>
+  <si>
+    <t>scottish</t>
+  </si>
+  <si>
+    <t>vietnamese</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>russian</t>
+  </si>
+  <si>
+    <t>australian</t>
+  </si>
+  <si>
+    <t>irish</t>
+  </si>
+  <si>
+    <t>jewish</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>brazilian</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>austrian</t>
+  </si>
+  <si>
+    <t>balkans</t>
+  </si>
+  <si>
+    <t>swiss</t>
+  </si>
+  <si>
+    <t>hungarian</t>
+  </si>
+  <si>
+    <t>montignac</t>
+  </si>
+  <si>
+    <t>portuguese</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>children's kitchen</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>antillean</t>
+  </si>
+  <si>
+    <t>fusion</t>
+  </si>
+  <si>
+    <t>european</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>arabic</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>thai</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>turkish</t>
+  </si>
+  <si>
+    <t>african</t>
+  </si>
+  <si>
+    <t>moroccan</t>
+  </si>
+  <si>
+    <t>surinamese</t>
+  </si>
+  <si>
+    <t>mediterranean</t>
+  </si>
+  <si>
+    <t>mexican</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>greek</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>belgian</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>multicultural</t>
+  </si>
+  <si>
+    <t>casserole</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>cheap and quick</t>
+  </si>
+  <si>
+    <t>italian</t>
+  </si>
+  <si>
+    <t>dutch</t>
+  </si>
+  <si>
+    <t>side dish</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>buffet</t>
+  </si>
+  <si>
+    <t>feast</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>lunch-brunch</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>starter</t>
+  </si>
+  <si>
+    <t>banquet</t>
+  </si>
+  <si>
+    <t>main dish</t>
+  </si>
+  <si>
+    <t>yugoslav</t>
+  </si>
+  <si>
+    <t>listName</t>
+  </si>
+  <si>
+    <t>milkshakes and smoothies</t>
+  </si>
+  <si>
+    <t>soft drinks</t>
+  </si>
+  <si>
+    <t>sauces</t>
+  </si>
+  <si>
+    <t>preserves</t>
+  </si>
+  <si>
+    <t>cheesecake</t>
+  </si>
+  <si>
+    <t>sauces and creams</t>
+  </si>
+  <si>
+    <t>jams</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>drinks</t>
+  </si>
+  <si>
+    <t>salads</t>
+  </si>
+  <si>
+    <t>jams and preserves</t>
+  </si>
+  <si>
+    <t>gnocchi</t>
+  </si>
+  <si>
+    <t>sauces and condiments</t>
+  </si>
+  <si>
+    <t>sauces and gravies</t>
+  </si>
+  <si>
+    <t>leavened cakes</t>
+  </si>
+  <si>
+    <t>ice creams, sorbets and</t>
+  </si>
+  <si>
+    <t>semifreddo</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>savory pies</t>
+  </si>
+  <si>
+    <t>pizzas and focaccia</t>
+  </si>
+  <si>
+    <t>soups and velvety</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>side dishes</t>
+  </si>
+  <si>
+    <t>fresh pasta</t>
+  </si>
+  <si>
+    <t>rice and cereals</t>
+  </si>
+  <si>
+    <t>unique dishes</t>
+  </si>
+  <si>
+    <t>leavened</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>main courses</t>
+  </si>
+  <si>
+    <t>appetizers</t>
+  </si>
+  <si>
+    <t>first dishes</t>
+  </si>
+  <si>
+    <t>desserts</t>
+  </si>
+  <si>
+    <t>al cucchiaio</t>
+  </si>
+  <si>
+    <t>piccola pasticceria</t>
+  </si>
+  <si>
+    <t>borrelhapjes</t>
+  </si>
+  <si>
+    <t>orange juice</t>
+  </si>
+  <si>
+    <t>white chocolate</t>
+  </si>
+  <si>
+    <t>food coloring</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>yellow peppers</t>
+  </si>
+  <si>
+    <t>mascarpone cheese</t>
+  </si>
+  <si>
+    <t>mozzarella cheese</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>fresh ginger</t>
+  </si>
+  <si>
+    <t>golden onions</t>
+  </si>
+  <si>
+    <t>fresh cream cheese</t>
+  </si>
+  <si>
+    <t>black olives</t>
+  </si>
+  <si>
+    <t>sausage</t>
+  </si>
+  <si>
+    <t>peas</t>
+  </si>
+  <si>
+    <t>almond flour</t>
+  </si>
+  <si>
+    <t>white wine vinegar</t>
+  </si>
+  <si>
+    <t>raspberries</t>
+  </si>
+  <si>
+    <t>red wine</t>
+  </si>
+  <si>
+    <t>marjoram</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>greek yogurt</t>
+  </si>
+  <si>
+    <t>potato flour</t>
+  </si>
+  <si>
+    <t>red peppers</t>
+  </si>
+  <si>
+    <t>red onions</t>
+  </si>
+  <si>
+    <t>baked ham</t>
+  </si>
+  <si>
+    <t>carnaroli rice</t>
+  </si>
+  <si>
+    <t>strawberries</t>
+  </si>
+  <si>
+    <t>fresh onion</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>pecorino cheese</t>
+  </si>
+  <si>
+    <t>coarse salt</t>
+  </si>
+  <si>
+    <t>leeks</t>
+  </si>
+  <si>
+    <t>lemons</t>
+  </si>
+  <si>
+    <t>fresh yeast</t>
+  </si>
+  <si>
+    <t>cinnamon powder</t>
+  </si>
+  <si>
+    <t>laurel</t>
+  </si>
+  <si>
+    <t>orange peel</t>
+  </si>
+  <si>
+    <t>dry yeast</t>
+  </si>
+  <si>
+    <t>manitoba flour</t>
+  </si>
+  <si>
+    <t>sage</t>
+  </si>
+  <si>
+    <t>chives</t>
+  </si>
+  <si>
+    <t>origan</t>
+  </si>
+  <si>
+    <t>egg whites</t>
+  </si>
+  <si>
+    <t>gelatin sheets</t>
+  </si>
+  <si>
+    <t>white onions</t>
+  </si>
+  <si>
+    <t>peanut oil</t>
+  </si>
+  <si>
+    <t>fresh chilli</t>
+  </si>
+  <si>
+    <t>maize starch (cornstarch)</t>
+  </si>
+  <si>
+    <t>ricotta cheese</t>
+  </si>
+  <si>
+    <t>seed oil</t>
+  </si>
+  <si>
+    <t>unsweetened cocoa powder</t>
+  </si>
+  <si>
+    <t>mint</t>
+  </si>
+  <si>
+    <t>sugar cane</t>
+  </si>
+  <si>
+    <t>vegetable broth</t>
+  </si>
+  <si>
+    <t>bread crumbs</t>
+  </si>
+  <si>
+    <t>white wine</t>
+  </si>
+  <si>
+    <t>dark chocolate</t>
+  </si>
+  <si>
+    <t>grana padano pdo</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>baking powder for cakes</t>
+  </si>
+  <si>
+    <t>vanilla pod</t>
+  </si>
+  <si>
+    <t>parmigiano reggiano dop</t>
+  </si>
+  <si>
+    <t>lemon peel</t>
+  </si>
+  <si>
+    <t>yolks</t>
+  </si>
+  <si>
+    <t>icing sugar</t>
+  </si>
+  <si>
+    <t>liquid fresh cream</t>
+  </si>
+  <si>
+    <t>whole milk</t>
+  </si>
+  <si>
+    <t>00 flour</t>
+  </si>
+  <si>
+    <t>extra virgin olive oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -631,40 +1485,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -854,24 +1718,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="106.25"/>
-    <col customWidth="1" min="2" max="26" width="7.63"/>
+    <col min="1" max="1" width="106.25" customWidth="1"/>
+    <col min="2" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,2585 +1743,5103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A2, ""it"", ""en"")"),"soft from the crust or ledge, as they call him in Naples, swelling, low and crisp, high and soft. pizza there's something for everyone! for this reason we decided to teach you the recipe of dough for homemade pizza! a simple basic recipe that is made with"&amp;" few ingredients and then garnish as you see fit. are you ready to get your hands dirty? Today we find out all the secrets to prepare the dough for the pizza!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A2, ""it"", ""en"")"),"soft from the crust or ledge, as they call him in Naples, swelling, low and crisp, high and soft. pizza there's something for everyone! for this reason we decided to teach you the recipe of dough for homemade pizza! a simple basic recipe that is made with"&amp;" few ingredients and then garnish as you see fit. are you ready to get your hands dirty? Today we find out all the secrets to prepare the dough for the pizza!")</f>
         <v>soft from the crust or ledge, as they call him in Naples, swelling, low and crisp, high and soft. pizza there's something for everyone! for this reason we decided to teach you the recipe of dough for homemade pizza! a simple basic recipe that is made with few ingredients and then garnish as you see fit. are you ready to get your hands dirty? Today we find out all the secrets to prepare the dough for the pizza!</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A3, ""it"", ""en"")"),"If you are planning a trip in the US, get ready to enjoy the traditional American breakfast with delicious pancakes, small spongy and tasty disks that are waiting to be stuffed with treats more appealing: the tradition seasoned them with the typical syrup"&amp;" ' maple, a natural sweetener with a taste reminiscent of honey, also used for fluffy pancakes. but next to this typical combination are allowed all possible variants, provided they are super delicious: the fresh fruit or syrup, creams to the chocolate sa"&amp;"uces. Americans do not miss anything and often accompany the pancakes dish with tufts of whipped cream, how can you resist? not to mention that in one of the classic problems really do bars to choose between various cakes and countless kinds of muffins, i"&amp;"ncluding gluten. for sure you will have your mouth watering, unless you want to wait for breakfast you can prepare pancakes for afternoon snack, that's our recipe!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A3, ""it"", ""en"")"),"If you are planning a trip in the US, get ready to enjoy the traditional American breakfast with delicious pancakes, small spongy and tasty disks that are waiting to be stuffed with treats more appealing: the tradition seasoned them with the typical syrup"&amp;" ' maple, a natural sweetener with a taste reminiscent of honey, also used for fluffy pancakes. but next to this typical combination are allowed all possible variants, provided they are super delicious: the fresh fruit or syrup, creams to the chocolate sa"&amp;"uces. Americans do not miss anything and often accompany the pancakes dish with tufts of whipped cream, how can you resist? not to mention that in one of the classic problems really do bars to choose between various cakes and countless kinds of muffins, i"&amp;"ncluding gluten. for sure you will have your mouth watering, unless you want to wait for breakfast you can prepare pancakes for afternoon snack, that's our recipe!")</f>
         <v>If you are planning a trip in the US, get ready to enjoy the traditional American breakfast with delicious pancakes, small spongy and tasty disks that are waiting to be stuffed with treats more appealing: the tradition seasoned them with the typical syrup ' maple, a natural sweetener with a taste reminiscent of honey, also used for fluffy pancakes. but next to this typical combination are allowed all possible variants, provided they are super delicious: the fresh fruit or syrup, creams to the chocolate sauces. Americans do not miss anything and often accompany the pancakes dish with tufts of whipped cream, how can you resist? not to mention that in one of the classic problems really do bars to choose between various cakes and countless kinds of muffins, including gluten. for sure you will have your mouth watering, unless you want to wait for breakfast you can prepare pancakes for afternoon snack, that's our recipe!</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A4, ""it"", ""en"")"),"ancient grandmothers used to prepare a breakfast that today could be called poor, but who at the time was very rich! still the recipe is unchanged, just break into a glass and throw a fresh egg with sugar to taste and add hot coffee or milk, for toddlers,"&amp;" and marsala or anise for the older ones. and it is from this prodigious cream that was born the cream to the base of the mascarpone tiramisu. the Italian dessert par excellence, the most famous and loved, but above all it has given rise to many other ver"&amp;"sions! the most appreciated? definitely the strawberry tiramisu or the one with Nutella, just to name a few! without counting the reinterpretations more refined as the soft tart or cake tiramisù.sebbene the origins of this famous dessert are not clear, be"&amp;"cause of the contention between the Venetian regions, friuli, piedmont and Tuscan, it remains a cornerstone of the Italian cuisine prepared without distinction from north to south. Unfortunately we have not found out who invented but certainly know how to"&amp;" make you prepare one of the most delicious tiramisu you'll prepared. So here's the recipe: also prepare it yourself and let us know!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A4, ""it"", ""en"")"),"ancient grandmothers used to prepare a breakfast that today could be called poor, but who at the time was very rich! still the recipe is unchanged, just break into a glass and throw a fresh egg with sugar to taste and add hot coffee or milk, for toddlers,"&amp;" and marsala or anise for the older ones. and it is from this prodigious cream that was born the cream to the base of the mascarpone tiramisu. the Italian dessert par excellence, the most famous and loved, but above all it has given rise to many other ver"&amp;"sions! the most appreciated? definitely the strawberry tiramisu or the one with Nutella, just to name a few! without counting the reinterpretations more refined as the soft tart or cake tiramisù.sebbene the origins of this famous dessert are not clear, be"&amp;"cause of the contention between the Venetian regions, friuli, piedmont and Tuscan, it remains a cornerstone of the Italian cuisine prepared without distinction from north to south. Unfortunately we have not found out who invented but certainly know how to"&amp;" make you prepare one of the most delicious tiramisu you'll prepared. So here's the recipe: also prepare it yourself and let us know!")</f>
         <v>ancient grandmothers used to prepare a breakfast that today could be called poor, but who at the time was very rich! still the recipe is unchanged, just break into a glass and throw a fresh egg with sugar to taste and add hot coffee or milk, for toddlers, and marsala or anise for the older ones. and it is from this prodigious cream that was born the cream to the base of the mascarpone tiramisu. the Italian dessert par excellence, the most famous and loved, but above all it has given rise to many other versions! the most appreciated? definitely the strawberry tiramisu or the one with Nutella, just to name a few! without counting the reinterpretations more refined as the soft tart or cake tiramisù.sebbene the origins of this famous dessert are not clear, because of the contention between the Venetian regions, friuli, piedmont and Tuscan, it remains a cornerstone of the Italian cuisine prepared without distinction from north to south. Unfortunately we have not found out who invented but certainly know how to make you prepare one of the most delicious tiramisu you'll prepared. So here's the recipe: also prepare it yourself and let us know!</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A5, ""it"", ""en"")"),"""How to recognize good bread without tasting? Not by scent, not looking, but from the sound of the crust: a latch symphony"". so he said mademoiselle tatou in the film disney ratatouille and we have imitated in the kitchen of GialloZafferano: we have pre"&amp;"pared a fragrant bread with a crisp crust and soft interior, dall'alveolatura thick. prepare the dough for bread is a recipe timeless magic that will take shape in your hands: water, flour and yeast to prepare a delicious baked loaf in the oven at home, w"&amp;"ith their own devices debts to get a crispy surface! one of the first testimonies of bread dates back to prehistoric times, when man realized that he could get a workable paste, dust of acorns pounded, mixed with acqua.la his amazement grew even more when"&amp;" he learned to bake this dough on hot stones getting a harder product, but definitely tastier: the first attempt of bread. of course, over time, the techniques to prepare the dough for bread have been refined, especially in the most careful selection of i"&amp;"ngredients. curious to find historical information on the evolution of bread? discover them in the box of curiosities in the bottom of the recipe. Meanwhile you can prepare to get your hands dirty: the basic bread dough, in fact, you can make a lot of pre"&amp;"parations including pizzas, cakes and pies as well as many varieties of bread, rolls and loaves with addition of or seeds of various condiments. especially can enjoy the best slices of homemade bread for lovely shoes like the recipe for chicken cacciatore"&amp;"!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A5, ""it"", ""en"")"),"""How to recognize good bread without tasting? Not by scent, not looking, but from the sound of the crust: a latch symphony"". so he said mademoiselle tatou in the film disney ratatouille and we have imitated in the kitchen of GialloZafferano: we have pre"&amp;"pared a fragrant bread with a crisp crust and soft interior, dall'alveolatura thick. prepare the dough for bread is a recipe timeless magic that will take shape in your hands: water, flour and yeast to prepare a delicious baked loaf in the oven at home, w"&amp;"ith their own devices debts to get a crispy surface! one of the first testimonies of bread dates back to prehistoric times, when man realized that he could get a workable paste, dust of acorns pounded, mixed with acqua.la his amazement grew even more when"&amp;" he learned to bake this dough on hot stones getting a harder product, but definitely tastier: the first attempt of bread. of course, over time, the techniques to prepare the dough for bread have been refined, especially in the most careful selection of i"&amp;"ngredients. curious to find historical information on the evolution of bread? discover them in the box of curiosities in the bottom of the recipe. Meanwhile you can prepare to get your hands dirty: the basic bread dough, in fact, you can make a lot of pre"&amp;"parations including pizzas, cakes and pies as well as many varieties of bread, rolls and loaves with addition of or seeds of various condiments. especially can enjoy the best slices of homemade bread for lovely shoes like the recipe for chicken cacciatore"&amp;"!")</f>
         <v>"How to recognize good bread without tasting? Not by scent, not looking, but from the sound of the crust: a latch symphony". so he said mademoiselle tatou in the film disney ratatouille and we have imitated in the kitchen of GialloZafferano: we have prepared a fragrant bread with a crisp crust and soft interior, dall'alveolatura thick. prepare the dough for bread is a recipe timeless magic that will take shape in your hands: water, flour and yeast to prepare a delicious baked loaf in the oven at home, with their own devices debts to get a crispy surface! one of the first testimonies of bread dates back to prehistoric times, when man realized that he could get a workable paste, dust of acorns pounded, mixed with acqua.la his amazement grew even more when he learned to bake this dough on hot stones getting a harder product, but definitely tastier: the first attempt of bread. of course, over time, the techniques to prepare the dough for bread have been refined, especially in the most careful selection of ingredients. curious to find historical information on the evolution of bread? discover them in the box of curiosities in the bottom of the recipe. Meanwhile you can prepare to get your hands dirty: the basic bread dough, in fact, you can make a lot of preparations including pizzas, cakes and pies as well as many varieties of bread, rolls and loaves with addition of or seeds of various condiments. especially can enjoy the best slices of homemade bread for lovely shoes like the recipe for chicken cacciatore!</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A6, ""it"", ""en"")"),"The chocolate cake with dark heart is a sweet temptation portions, easy and quick to prepare. the perfect dessert for Valentine's Day or to conquer your guests all the other days of the year: a soft shell to sink the spoon to discover the soft and creamy "&amp;"heart. a real lust, a pleasure for the palate that puts in a good mood even in the gray days! The chocolate cake with dark heart is great as a dessert, to be prepared in advance and then be baked in the oven before serving, so as to ensure a perfect dark "&amp;"heart. a real explosion of flavor that will center in the heart of the lucky ones who savor: after all you know, the best way to capture a person is undoubtedly take it by the throat!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A6, ""it"", ""en"")"),"The chocolate cake with dark heart is a sweet temptation portions, easy and quick to prepare. the perfect dessert for Valentine's Day or to conquer your guests all the other days of the year: a soft shell to sink the spoon to discover the soft and creamy "&amp;"heart. a real lust, a pleasure for the palate that puts in a good mood even in the gray days! The chocolate cake with dark heart is great as a dessert, to be prepared in advance and then be baked in the oven before serving, so as to ensure a perfect dark "&amp;"heart. a real explosion of flavor that will center in the heart of the lucky ones who savor: after all you know, the best way to capture a person is undoubtedly take it by the throat!")</f>
         <v>The chocolate cake with dark heart is a sweet temptation portions, easy and quick to prepare. the perfect dessert for Valentine's Day or to conquer your guests all the other days of the year: a soft shell to sink the spoon to discover the soft and creamy heart. a real lust, a pleasure for the palate that puts in a good mood even in the gray days! The chocolate cake with dark heart is great as a dessert, to be prepared in advance and then be baked in the oven before serving, so as to ensure a perfect dark heart. a real explosion of flavor that will center in the heart of the lucky ones who savor: after all you know, the best way to capture a person is undoubtedly take it by the throat!</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A7, ""it"", ""en"")"),"English cuisine and American have quite a few recipes that over time have also conquered us with their irresistible goodness. It is the case of the muffins with chocolate chips: simple, crisp cakes that will capture your nose while're probably already chu"&amp;"rning with their delightful fragrance. the muffins can be customized as we like but the chocolate, which has seduced the greatest writers, from Goldoni to leopards, is definitely the most popular choice. so if after preparing them, your guests will snap u"&amp;"p these delicious muffins with chocolate chips do not be surprised ... in fact, we should keep at least one part for you!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A7, ""it"", ""en"")"),"English cuisine and American have quite a few recipes that over time have also conquered us with their irresistible goodness. It is the case of the muffins with chocolate chips: simple, crisp cakes that will capture your nose while're probably already chu"&amp;"rning with their delightful fragrance. the muffins can be customized as we like but the chocolate, which has seduced the greatest writers, from Goldoni to leopards, is definitely the most popular choice. so if after preparing them, your guests will snap u"&amp;"p these delicious muffins with chocolate chips do not be surprised ... in fact, we should keep at least one part for you!")</f>
         <v>English cuisine and American have quite a few recipes that over time have also conquered us with their irresistible goodness. It is the case of the muffins with chocolate chips: simple, crisp cakes that will capture your nose while're probably already churning with their delightful fragrance. the muffins can be customized as we like but the chocolate, which has seduced the greatest writers, from Goldoni to leopards, is definitely the most popular choice. so if after preparing them, your guests will snap up these delicious muffins with chocolate chips do not be surprised ... in fact, we should keep at least one part for you!</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A8, ""it"", ""en"")"),"whether it be a loving mother who prepares a snack for her children, a group of students standing by history and algebra, or the kitchen fanatics expressed but always original, the cracks are always the right choice! it is a basic dough that lends itself "&amp;"well to both sweet and savory fillings. some examples? surely the most beloved of all, the crepe with Nutella! for those salty we have no doubt to recommend the delicious crepes radicchio and gorgonzola! There are only a few things to know in order to pre"&amp;"pare sweet and savory crepe, there to tell right away. we are certain that you will make a good supply, discovering how easy store! but then let us know what is your favorite!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A8, ""it"", ""en"")"),"whether it be a loving mother who prepares a snack for her children, a group of students standing by history and algebra, or the kitchen fanatics expressed but always original, the cracks are always the right choice! it is a basic dough that lends itself "&amp;"well to both sweet and savory fillings. some examples? surely the most beloved of all, the crepe with Nutella! for those salty we have no doubt to recommend the delicious crepes radicchio and gorgonzola! There are only a few things to know in order to pre"&amp;"pare sweet and savory crepe, there to tell right away. we are certain that you will make a good supply, discovering how easy store! but then let us know what is your favorite!")</f>
         <v>whether it be a loving mother who prepares a snack for her children, a group of students standing by history and algebra, or the kitchen fanatics expressed but always original, the cracks are always the right choice! it is a basic dough that lends itself well to both sweet and savory fillings. some examples? surely the most beloved of all, the crepe with Nutella! for those salty we have no doubt to recommend the delicious crepes radicchio and gorgonzola! There are only a few things to know in order to prepare sweet and savory crepe, there to tell right away. we are certain that you will make a good supply, discovering how easy store! but then let us know what is your favorite!</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A9, ""it"", ""en"")"),"those who have never sunk his hands in the dough for preparing these soft potato gems? gnocchi, undisputed sovereign of the Thursday lunches, at least in the capital and in some regions of central Italy. so simple yet tricky to get the right consistency. "&amp;"In fact there are several things to keep in mind for a good result, those who know only the grandmothers. we made ear to whisper secrets to the perfect gnocchi ... and since we are not jealous guardians of the recipes, we thought we'd share them with you!"&amp;" discover how to make potato gnocchi with and without eggs, soft pads with a delicate flavor perfect for any sauce: classic sauce Sorrento to those delicate and creamy like with cheese and spinach to the most rustic like gnocchi with 4 cheese or bacon and"&amp;" nuts. this time, if someone tells you ""laugh, laugh that Mom has made the dumplings"" you will smile happily and say ""no, I have prepared myself, potato gnocchi ... and they were the most delicious ever eaten!""")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A9, ""it"", ""en"")"),"those who have never sunk his hands in the dough for preparing these soft potato gems? gnocchi, undisputed sovereign of the Thursday lunches, at least in the capital and in some regions of central Italy. so simple yet tricky to get the right consistency. "&amp;"In fact there are several things to keep in mind for a good result, those who know only the grandmothers. we made ear to whisper secrets to the perfect gnocchi ... and since we are not jealous guardians of the recipes, we thought we'd share them with you!"&amp;" discover how to make potato gnocchi with and without eggs, soft pads with a delicate flavor perfect for any sauce: classic sauce Sorrento to those delicate and creamy like with cheese and spinach to the most rustic like gnocchi with 4 cheese or bacon and"&amp;" nuts. this time, if someone tells you ""laugh, laugh that Mom has made the dumplings"" you will smile happily and say ""no, I have prepared myself, potato gnocchi ... and they were the most delicious ever eaten!""")</f>
         <v>those who have never sunk his hands in the dough for preparing these soft potato gems? gnocchi, undisputed sovereign of the Thursday lunches, at least in the capital and in some regions of central Italy. so simple yet tricky to get the right consistency. In fact there are several things to keep in mind for a good result, those who know only the grandmothers. we made ear to whisper secrets to the perfect gnocchi ... and since we are not jealous guardians of the recipes, we thought we'd share them with you! discover how to make potato gnocchi with and without eggs, soft pads with a delicate flavor perfect for any sauce: classic sauce Sorrento to those delicate and creamy like with cheese and spinach to the most rustic like gnocchi with 4 cheese or bacon and nuts. this time, if someone tells you "laugh, laugh that Mom has made the dumplings" you will smile happily and say "no, I have prepared myself, potato gnocchi ... and they were the most delicious ever eaten!"</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A10, ""it"", ""en"")"),"tenerina the cake is a dessert typical of the city of Ferrara, who, thanks to her sweet tooth has conquered all the land ... for no one can resist a slice of this amazing dessert! will be about the fragrant crust of its external or fondant texture that me"&amp;"lts in the mouth at every taste? we are in love with both of us, but one thing is certain: its intense chocolate flavor accords with all! tenerina the cake is a cake with few ingredients, without yeast that has the particularity to remain low and moist in"&amp;"side, just like the name suggests, in the dialect of Ferrara was also called ""taclenta cake"", which in Italian means sticky. a simple dessert to make, from the perfect guaranteed success to celebrate dads and to exalt all its flavor try to serve him alo"&amp;"ng with a delicate mascarpone cream, feel that goodness .. perfect for any occasion and for Father's Day!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A10, ""it"", ""en"")"),"tenerina the cake is a dessert typical of the city of Ferrara, who, thanks to her sweet tooth has conquered all the land ... for no one can resist a slice of this amazing dessert! will be about the fragrant crust of its external or fondant texture that me"&amp;"lts in the mouth at every taste? we are in love with both of us, but one thing is certain: its intense chocolate flavor accords with all! tenerina the cake is a cake with few ingredients, without yeast that has the particularity to remain low and moist in"&amp;"side, just like the name suggests, in the dialect of Ferrara was also called ""taclenta cake"", which in Italian means sticky. a simple dessert to make, from the perfect guaranteed success to celebrate dads and to exalt all its flavor try to serve him alo"&amp;"ng with a delicate mascarpone cream, feel that goodness .. perfect for any occasion and for Father's Day!")</f>
         <v>tenerina the cake is a dessert typical of the city of Ferrara, who, thanks to her sweet tooth has conquered all the land ... for no one can resist a slice of this amazing dessert! will be about the fragrant crust of its external or fondant texture that melts in the mouth at every taste? we are in love with both of us, but one thing is certain: its intense chocolate flavor accords with all! tenerina the cake is a cake with few ingredients, without yeast that has the particularity to remain low and moist inside, just like the name suggests, in the dialect of Ferrara was also called "taclenta cake", which in Italian means sticky. a simple dessert to make, from the perfect guaranteed success to celebrate dads and to exalt all its flavor try to serve him along with a delicate mascarpone cream, feel that goodness .. perfect for any occasion and for Father's Day!</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A11, ""it"", ""en"")"),"who was the U.S. unlikely to have resisted those squares dark color, light crust and dense from mixing chocolate and dried fruits that fill the glass cases of bakery and cafés: the brownies! beloved by young and old, these cakes in the American tradition "&amp;"are often accompanied by whipped cream or vanilla ice cream, but born in a ""take away"", comfortable and practical to enjoy a walk. It is said to have been prepared the first time in 1892 in Chicago when, at a great fair to celebrate the 400th anniversar"&amp;"y of the discovery of america, un'altolocata lady named Bertha Palmer asked his chef to design a dessert it practical to carry around the city, without the risk of getting your hands dirty or dress. some modern version tends to bring the texture of the br"&amp;"ownie to that of a cake with a soft heart, leaving the dough within almost dark: a delight yes, but little true to the original Brownie, you must leave the dry fingers! in search of the perfect version, we at GialloZafferano we experienced dozens of recip"&amp;"es to get to the one that we present today to do at home to the delight of friends and children, perhaps on the occasion of one of the most popular American holidays in Italy: Halloween!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A11, ""it"", ""en"")"),"who was the U.S. unlikely to have resisted those squares dark color, light crust and dense from mixing chocolate and dried fruits that fill the glass cases of bakery and cafés: the brownies! beloved by young and old, these cakes in the American tradition "&amp;"are often accompanied by whipped cream or vanilla ice cream, but born in a ""take away"", comfortable and practical to enjoy a walk. It is said to have been prepared the first time in 1892 in Chicago when, at a great fair to celebrate the 400th anniversar"&amp;"y of the discovery of america, un'altolocata lady named Bertha Palmer asked his chef to design a dessert it practical to carry around the city, without the risk of getting your hands dirty or dress. some modern version tends to bring the texture of the br"&amp;"ownie to that of a cake with a soft heart, leaving the dough within almost dark: a delight yes, but little true to the original Brownie, you must leave the dry fingers! in search of the perfect version, we at GialloZafferano we experienced dozens of recip"&amp;"es to get to the one that we present today to do at home to the delight of friends and children, perhaps on the occasion of one of the most popular American holidays in Italy: Halloween!")</f>
         <v>who was the U.S. unlikely to have resisted those squares dark color, light crust and dense from mixing chocolate and dried fruits that fill the glass cases of bakery and cafés: the brownies! beloved by young and old, these cakes in the American tradition are often accompanied by whipped cream or vanilla ice cream, but born in a "take away", comfortable and practical to enjoy a walk. It is said to have been prepared the first time in 1892 in Chicago when, at a great fair to celebrate the 400th anniversary of the discovery of america, un'altolocata lady named Bertha Palmer asked his chef to design a dessert it practical to carry around the city, without the risk of getting your hands dirty or dress. some modern version tends to bring the texture of the brownie to that of a cake with a soft heart, leaving the dough within almost dark: a delight yes, but little true to the original Brownie, you must leave the dry fingers! in search of the perfect version, we at GialloZafferano we experienced dozens of recipes to get to the one that we present today to do at home to the delight of friends and children, perhaps on the occasion of one of the most popular American holidays in Italy: Halloween!</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A12, ""it"", ""en"")"),"eggs, milk, sugar and vanilla. few ingredients to create one of the most popular creams: the custard. this cream is the most used in confectionery, such as chantilly or eggnog for many sweet stuff. in puffs, cakes of dough (like guns, vol-au-vent, puff pa"&amp;"stry), but also among the soft layers of the classic sponge cake pastry cream is always welcome! this basic preparation of bakery also serves to make frozen desserts, puddings and many desserts, like our delicious cake tile. and 'a very versatile preparat"&amp;"ion: just enough to change the doses of some ingredients to achieve different textures and appropriate use which you will make! for example, to thicken it more simply use more corn starch, on the contrary you will have to lower the dose if you would be en"&amp;"joyed by the spoonful. follow the step by step procedure with the master confectioner iginio massari and discover all the precautions to prepare the perfect custard!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A12, ""it"", ""en"")"),"eggs, milk, sugar and vanilla. few ingredients to create one of the most popular creams: the custard. this cream is the most used in confectionery, such as chantilly or eggnog for many sweet stuff. in puffs, cakes of dough (like guns, vol-au-vent, puff pa"&amp;"stry), but also among the soft layers of the classic sponge cake pastry cream is always welcome! this basic preparation of bakery also serves to make frozen desserts, puddings and many desserts, like our delicious cake tile. and 'a very versatile preparat"&amp;"ion: just enough to change the doses of some ingredients to achieve different textures and appropriate use which you will make! for example, to thicken it more simply use more corn starch, on the contrary you will have to lower the dose if you would be en"&amp;"joyed by the spoonful. follow the step by step procedure with the master confectioner iginio massari and discover all the precautions to prepare the perfect custard!")</f>
         <v>eggs, milk, sugar and vanilla. few ingredients to create one of the most popular creams: the custard. this cream is the most used in confectionery, such as chantilly or eggnog for many sweet stuff. in puffs, cakes of dough (like guns, vol-au-vent, puff pastry), but also among the soft layers of the classic sponge cake pastry cream is always welcome! this basic preparation of bakery also serves to make frozen desserts, puddings and many desserts, like our delicious cake tile. and 'a very versatile preparation: just enough to change the doses of some ingredients to achieve different textures and appropriate use which you will make! for example, to thicken it more simply use more corn starch, on the contrary you will have to lower the dose if you would be enjoyed by the spoonful. follow the step by step procedure with the master confectioner iginio massari and discover all the precautions to prepare the perfect custard!</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A13, ""it"", ""en"")"),"Who does not remember when he went to the restaurant with their parents between the mid-eighties and the early nineties? The most awaited moment: the dessert trolley! and between high mountains of profiteroles, tempted by the pan of tiramisu or panna cott"&amp;"a ... enticed by the end the better often she had her: the grandmother's cake. will for its reassuring name, that tastes good and genuine, the grandmother's cake is still a must! a timeless classic, a perfect cake for Sunday lunch and we want you to exper"&amp;"ience the best, preparing a delicious and fragrant crust divine custard. there are at least two versions of the grandmother's cake: an open, which provides the base and the cream directly garnished with pine nuts and icing sugar and closed, with a double "&amp;"layer of pastry and center the custard. we opted for the latter ... and we hope that your choice on the parade of sweets GialloZafferano, at least occasionally, fall upon this goodness!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A13, ""it"", ""en"")"),"Who does not remember when he went to the restaurant with their parents between the mid-eighties and the early nineties? The most awaited moment: the dessert trolley! and between high mountains of profiteroles, tempted by the pan of tiramisu or panna cott"&amp;"a ... enticed by the end the better often she had her: the grandmother's cake. will for its reassuring name, that tastes good and genuine, the grandmother's cake is still a must! a timeless classic, a perfect cake for Sunday lunch and we want you to exper"&amp;"ience the best, preparing a delicious and fragrant crust divine custard. there are at least two versions of the grandmother's cake: an open, which provides the base and the cream directly garnished with pine nuts and icing sugar and closed, with a double "&amp;"layer of pastry and center the custard. we opted for the latter ... and we hope that your choice on the parade of sweets GialloZafferano, at least occasionally, fall upon this goodness!")</f>
         <v>Who does not remember when he went to the restaurant with their parents between the mid-eighties and the early nineties? The most awaited moment: the dessert trolley! and between high mountains of profiteroles, tempted by the pan of tiramisu or panna cotta ... enticed by the end the better often she had her: the grandmother's cake. will for its reassuring name, that tastes good and genuine, the grandmother's cake is still a must! a timeless classic, a perfect cake for Sunday lunch and we want you to experience the best, preparing a delicious and fragrant crust divine custard. there are at least two versions of the grandmother's cake: an open, which provides the base and the cream directly garnished with pine nuts and icing sugar and closed, with a double layer of pastry and center the custard. we opted for the latter ... and we hope that your choice on the parade of sweets GialloZafferano, at least occasionally, fall upon this goodness!</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A14, ""it"", ""en"")"),"the alley of the sow, for those who know Rome, is one of the characteristics and rich in symbols streets. just in a restaurant of this road, hence the name of the alley, seems to have been made the first carbonara, in 1944 the most reliable history it tel"&amp;"ls the story of the ingredients available to American soldiers and imagination of a Roman chef . the result was the prototype of spaghetti carbonara: eggs, bacon (later bacon) and cheese. Man hand the recipe has evolved to what we all know today and we ca"&amp;"n appreciate at the home of friends in Rome true (and greedy!), in the restaurants as in the starred restaurants in the capital, throughout Italy and abroad, in countless versions: with or without pepper, with one egg per person or the addition of at leas"&amp;"t one whole egg with bacon or bacon tesa.il sauce for carbonara it is prepared in a matter of minutes. You think it takes only a spicy bacon cut into strips, a golden cream with egg yolks (in our version) and much grated cheese at the time. in its simplic"&amp;"ity and richness of raw materials, the recipe for spaghetti carbonara is a close relative of two other cornerstones of genuine Italian cuisine: amatriciana and Grice! winks also to pasta to zozzona, a robust plate which combines the best of basic preparat"&amp;"ions of Lazio cuisine. take a dip in the popular Rome with us and find out how to make the cremosissimi spaghetti carbonara, let us know if you like our version and look forward to your ...!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A14, ""it"", ""en"")"),"the alley of the sow, for those who know Rome, is one of the characteristics and rich in symbols streets. just in a restaurant of this road, hence the name of the alley, seems to have been made the first carbonara, in 1944 the most reliable history it tel"&amp;"ls the story of the ingredients available to American soldiers and imagination of a Roman chef . the result was the prototype of spaghetti carbonara: eggs, bacon (later bacon) and cheese. Man hand the recipe has evolved to what we all know today and we ca"&amp;"n appreciate at the home of friends in Rome true (and greedy!), in the restaurants as in the starred restaurants in the capital, throughout Italy and abroad, in countless versions: with or without pepper, with one egg per person or the addition of at leas"&amp;"t one whole egg with bacon or bacon tesa.il sauce for carbonara it is prepared in a matter of minutes. You think it takes only a spicy bacon cut into strips, a golden cream with egg yolks (in our version) and much grated cheese at the time. in its simplic"&amp;"ity and richness of raw materials, the recipe for spaghetti carbonara is a close relative of two other cornerstones of genuine Italian cuisine: amatriciana and Grice! winks also to pasta to zozzona, a robust plate which combines the best of basic preparat"&amp;"ions of Lazio cuisine. take a dip in the popular Rome with us and find out how to make the cremosissimi spaghetti carbonara, let us know if you like our version and look forward to your ...!")</f>
         <v>the alley of the sow, for those who know Rome, is one of the characteristics and rich in symbols streets. just in a restaurant of this road, hence the name of the alley, seems to have been made the first carbonara, in 1944 the most reliable history it tells the story of the ingredients available to American soldiers and imagination of a Roman chef . the result was the prototype of spaghetti carbonara: eggs, bacon (later bacon) and cheese. Man hand the recipe has evolved to what we all know today and we can appreciate at the home of friends in Rome true (and greedy!), in the restaurants as in the starred restaurants in the capital, throughout Italy and abroad, in countless versions: with or without pepper, with one egg per person or the addition of at least one whole egg with bacon or bacon tesa.il sauce for carbonara it is prepared in a matter of minutes. You think it takes only a spicy bacon cut into strips, a golden cream with egg yolks (in our version) and much grated cheese at the time. in its simplicity and richness of raw materials, the recipe for spaghetti carbonara is a close relative of two other cornerstones of genuine Italian cuisine: amatriciana and Grice! winks also to pasta to zozzona, a robust plate which combines the best of basic preparations of Lazio cuisine. take a dip in the popular Rome with us and find out how to make the cremosissimi spaghetti carbonara, let us know if you like our version and look forward to your ...!</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A15, ""it"", ""en"")"),"the Chinese steamed dumplings (jiaozi) are delicate pasta casings with a filling of meat and vegetables, widespread throughout the china and also very popular in Japan and Korea. the steamed Chinese dumplings are consumed in the Orient as an appetizer or "&amp;"as a snack mid-morning or mid-afternoon and their shape and their filling varies from region to region. usually Chinese steamed dumplings are stuffed with a mixture of pork, fish and vegetables and flavored with ginger, shallots and herbs; ravioli stuffed"&amp;" so they are then steamed in bamboo baskets propped typical of large Chinese cabbage leaves, cooking food that allows not to lose their nutritional value and flavor. the steamed Chinese dumplings are eaten accompanied by soy sauce, where they are immersed"&amp;" before being tasted. for a themed dinner east, you can also prepare the tasty baozi steam!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A15, ""it"", ""en"")"),"the Chinese steamed dumplings (jiaozi) are delicate pasta casings with a filling of meat and vegetables, widespread throughout the china and also very popular in Japan and Korea. the steamed Chinese dumplings are consumed in the Orient as an appetizer or "&amp;"as a snack mid-morning or mid-afternoon and their shape and their filling varies from region to region. usually Chinese steamed dumplings are stuffed with a mixture of pork, fish and vegetables and flavored with ginger, shallots and herbs; ravioli stuffed"&amp;" so they are then steamed in bamboo baskets propped typical of large Chinese cabbage leaves, cooking food that allows not to lose their nutritional value and flavor. the steamed Chinese dumplings are eaten accompanied by soy sauce, where they are immersed"&amp;" before being tasted. for a themed dinner east, you can also prepare the tasty baozi steam!")</f>
         <v>the Chinese steamed dumplings (jiaozi) are delicate pasta casings with a filling of meat and vegetables, widespread throughout the china and also very popular in Japan and Korea. the steamed Chinese dumplings are consumed in the Orient as an appetizer or as a snack mid-morning or mid-afternoon and their shape and their filling varies from region to region. usually Chinese steamed dumplings are stuffed with a mixture of pork, fish and vegetables and flavored with ginger, shallots and herbs; ravioli stuffed so they are then steamed in bamboo baskets propped typical of large Chinese cabbage leaves, cooking food that allows not to lose their nutritional value and flavor. the steamed Chinese dumplings are eaten accompanied by soy sauce, where they are immersed before being tasted. for a themed dinner east, you can also prepare the tasty baozi steam!</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A16, ""it"", ""en"")"),"grandchildren for lunch? friends for tea or sweet gift for your half? whatever the reason why open the fridge and pantry to prepare tarts or biscuits we reveal in this recipe how to make the pastry, one of the pastry bases with which to make these recipes"&amp;" in a greedy impeccably! There are several variants of the pastry on the basis of the ingredients, chocolate pastry and pastry gluten, the proportion between liquid and dry ingredients or even to their temperature, as in the soft pastry, and even the meth"&amp;"od of processing. You know the whipped pastry? it begins by mounting with whips soft butter and sugar, then add the rest. but there is also the ""sandblasted"" method working on the mixer the ingredients to get a sable consistency, the one that we present"&amp;" oggi.l'occorrente to prepare the pastry is easily found: eggs, butter, sugar and flour ... and of course our recipe to follow step by step, to achieve excellent homemade shortbread! For Christmas cookies to give away, for the dishes to be served on the o"&amp;"ccasion of birthday parties or original Halloween biscuits, discover all the steps to churn butter delights all to decorate!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A16, ""it"", ""en"")"),"grandchildren for lunch? friends for tea or sweet gift for your half? whatever the reason why open the fridge and pantry to prepare tarts or biscuits we reveal in this recipe how to make the pastry, one of the pastry bases with which to make these recipes"&amp;" in a greedy impeccably! There are several variants of the pastry on the basis of the ingredients, chocolate pastry and pastry gluten, the proportion between liquid and dry ingredients or even to their temperature, as in the soft pastry, and even the meth"&amp;"od of processing. You know the whipped pastry? it begins by mounting with whips soft butter and sugar, then add the rest. but there is also the ""sandblasted"" method working on the mixer the ingredients to get a sable consistency, the one that we present"&amp;" oggi.l'occorrente to prepare the pastry is easily found: eggs, butter, sugar and flour ... and of course our recipe to follow step by step, to achieve excellent homemade shortbread! For Christmas cookies to give away, for the dishes to be served on the o"&amp;"ccasion of birthday parties or original Halloween biscuits, discover all the steps to churn butter delights all to decorate!")</f>
         <v>grandchildren for lunch? friends for tea or sweet gift for your half? whatever the reason why open the fridge and pantry to prepare tarts or biscuits we reveal in this recipe how to make the pastry, one of the pastry bases with which to make these recipes in a greedy impeccably! There are several variants of the pastry on the basis of the ingredients, chocolate pastry and pastry gluten, the proportion between liquid and dry ingredients or even to their temperature, as in the soft pastry, and even the method of processing. You know the whipped pastry? it begins by mounting with whips soft butter and sugar, then add the rest. but there is also the "sandblasted" method working on the mixer the ingredients to get a sable consistency, the one that we present oggi.l'occorrente to prepare the pastry is easily found: eggs, butter, sugar and flour ... and of course our recipe to follow step by step, to achieve excellent homemade shortbread! For Christmas cookies to give away, for the dishes to be served on the occasion of birthday parties or original Halloween biscuits, discover all the steps to churn butter delights all to decorate!</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A17, ""it"", ""en"")"),"elegant and scenic, the tart of fresh strawberries is one of the classic sweet and inviting that you can achieve with these red and fragrant fruits. fresh sweet, perfect to prepare in this period that always please everyone! you can prepare it for a birth"&amp;"day party, or just a delicious snack, tart fresh strawberries fact is suitable for all occasions. made with a base of pastry scented with lemon, a velvety custard and a cascade of strawberries arranged in a radial pattern with fresh strawberry tart surpri"&amp;"se your friends for a meal or a sweet snack and fresh!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A17, ""it"", ""en"")"),"elegant and scenic, the tart of fresh strawberries is one of the classic sweet and inviting that you can achieve with these red and fragrant fruits. fresh sweet, perfect to prepare in this period that always please everyone! you can prepare it for a birth"&amp;"day party, or just a delicious snack, tart fresh strawberries fact is suitable for all occasions. made with a base of pastry scented with lemon, a velvety custard and a cascade of strawberries arranged in a radial pattern with fresh strawberry tart surpri"&amp;"se your friends for a meal or a sweet snack and fresh!")</f>
         <v>elegant and scenic, the tart of fresh strawberries is one of the classic sweet and inviting that you can achieve with these red and fragrant fruits. fresh sweet, perfect to prepare in this period that always please everyone! you can prepare it for a birthday party, or just a delicious snack, tart fresh strawberries fact is suitable for all occasions. made with a base of pastry scented with lemon, a velvety custard and a cascade of strawberries arranged in a radial pattern with fresh strawberry tart surprise your friends for a meal or a sweet snack and fresh!</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A18, ""it"", ""en"")"),"the sauce is an old base sauce whose paternity is claimed by the French as much as we Italians. the most likely hypothesis is that the name was Caterina de doctors to have it imported in France who was then or ""glue sauce."" but it is thanks to Louis de "&amp;"courtier Bechameil which then took the name of bechamel sauce in spite pilgrim artusi prefer italianizzarla in his recipe with the name of bechamel, now abandoned. the sauce is the most versatile of cooking sauces, easy and fast to build, will give an edg"&amp;"e to all your dishes from lasagna to baked pasta like au gratin with fennel and sauce are countless possible applications. and 'also the perfect topping of crispy and wholesome eggs nun. Here you'll discover all secrets to get a creamy sauce without lumps"&amp;"!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A18, ""it"", ""en"")"),"the sauce is an old base sauce whose paternity is claimed by the French as much as we Italians. the most likely hypothesis is that the name was Caterina de doctors to have it imported in France who was then or ""glue sauce."" but it is thanks to Louis de "&amp;"courtier Bechameil which then took the name of bechamel sauce in spite pilgrim artusi prefer italianizzarla in his recipe with the name of bechamel, now abandoned. the sauce is the most versatile of cooking sauces, easy and fast to build, will give an edg"&amp;"e to all your dishes from lasagna to baked pasta like au gratin with fennel and sauce are countless possible applications. and 'also the perfect topping of crispy and wholesome eggs nun. Here you'll discover all secrets to get a creamy sauce without lumps"&amp;"!")</f>
         <v>the sauce is an old base sauce whose paternity is claimed by the French as much as we Italians. the most likely hypothesis is that the name was Caterina de doctors to have it imported in France who was then or "glue sauce." but it is thanks to Louis de courtier Bechameil which then took the name of bechamel sauce in spite pilgrim artusi prefer italianizzarla in his recipe with the name of bechamel, now abandoned. the sauce is the most versatile of cooking sauces, easy and fast to build, will give an edge to all your dishes from lasagna to baked pasta like au gratin with fennel and sauce are countless possible applications. and 'also the perfect topping of crispy and wholesome eggs nun. Here you'll discover all secrets to get a creamy sauce without lumps!</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A19, ""it"", ""en"")"),"call it crushed, ciaccia, street food Italian or ancient recipe like the world, but she will always be, the one and unique cake! This fragrant freshly baked leavened not fill your home with its pleasant and inviting smell. even children love to bring a pi"&amp;"ece wrapped in wax paper, so then they can make a snack in the early morning. the older ones instead prefer as reintegrating energy, when in the summer are intent on making countless diving into the water with friends. ultimately become the greatest frien"&amp;"d who sips a cool drink after work with colleagues when, with loved ones or their own half doing a nice aperitif. the cake has always accompanied the phases of our lives making it even better due to its simplicity!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A19, ""it"", ""en"")"),"call it crushed, ciaccia, street food Italian or ancient recipe like the world, but she will always be, the one and unique cake! This fragrant freshly baked leavened not fill your home with its pleasant and inviting smell. even children love to bring a pi"&amp;"ece wrapped in wax paper, so then they can make a snack in the early morning. the older ones instead prefer as reintegrating energy, when in the summer are intent on making countless diving into the water with friends. ultimately become the greatest frien"&amp;"d who sips a cool drink after work with colleagues when, with loved ones or their own half doing a nice aperitif. the cake has always accompanied the phases of our lives making it even better due to its simplicity!")</f>
         <v>call it crushed, ciaccia, street food Italian or ancient recipe like the world, but she will always be, the one and unique cake! This fragrant freshly baked leavened not fill your home with its pleasant and inviting smell. even children love to bring a piece wrapped in wax paper, so then they can make a snack in the early morning. the older ones instead prefer as reintegrating energy, when in the summer are intent on making countless diving into the water with friends. ultimately become the greatest friend who sips a cool drink after work with colleagues when, with loved ones or their own half doing a nice aperitif. the cake has always accompanied the phases of our lives making it even better due to its simplicity!</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A20, ""it"", ""en"")"),"the cake: a perfect snack! fragrant, freshly baked hot with the unmistakable scent of home and genuineness! We now propose to bite a soft focaccia, excellent by itself and even better accompanied with meats or grilled vegetables with which it can be stuff"&amp;"ed! if you are among those who love salty snack, here is the recipe you were looking for young and old gather at the table, ideal for a picnic! we choose to spice it in the traditional way: with rosemary and savory salt flakes that dissolve slowly and rel"&amp;"ease on the surface a pleasant savory taste. we are certain that the soft focaccia will be saved among your favorite preparations and, while you're at, also try the mini version with the recipe for scones, tartlets practices to be enjoyed alone or stuffed"&amp;"!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A20, ""it"", ""en"")"),"the cake: a perfect snack! fragrant, freshly baked hot with the unmistakable scent of home and genuineness! We now propose to bite a soft focaccia, excellent by itself and even better accompanied with meats or grilled vegetables with which it can be stuff"&amp;"ed! if you are among those who love salty snack, here is the recipe you were looking for young and old gather at the table, ideal for a picnic! we choose to spice it in the traditional way: with rosemary and savory salt flakes that dissolve slowly and rel"&amp;"ease on the surface a pleasant savory taste. we are certain that the soft focaccia will be saved among your favorite preparations and, while you're at, also try the mini version with the recipe for scones, tartlets practices to be enjoyed alone or stuffed"&amp;"!")</f>
         <v>the cake: a perfect snack! fragrant, freshly baked hot with the unmistakable scent of home and genuineness! We now propose to bite a soft focaccia, excellent by itself and even better accompanied with meats or grilled vegetables with which it can be stuffed! if you are among those who love salty snack, here is the recipe you were looking for young and old gather at the table, ideal for a picnic! we choose to spice it in the traditional way: with rosemary and savory salt flakes that dissolve slowly and release on the surface a pleasant savory taste. we are certain that the soft focaccia will be saved among your favorite preparations and, while you're at, also try the mini version with the recipe for scones, tartlets practices to be enjoyed alone or stuffed!</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A21, ""it"", ""en"")"),"regional dishes are often a cause of dispute between Italians, whether it be professional chefs and amateur cooks, and spaghetti amatriciana are no exception! bucatini or spaghetti, pancetta or bacon, garlic or onion ... These are the main questions that "&amp;"whoever is preparing to cook for the first time this recipe is having to deal with. it is said that this famous dish born in amateur was the main meal of the shepherds, but originally was without tomatoes, and took the name of ""Grice""; this ingredient w"&amp;"as added later when the tomatoes were imported from the Americas and the dressing was called amatriciana. and 'therefore normal that a recipe so ancient and popular has been transformed over time assuming the many variants of which are still discussed tod"&amp;"ay. what we propose here is our version, made with local ingredients and quality. because we think that in fact the recipe of spaghetti amatriciana Italy does not divide but unite in the name of goodness of a dish from the soul simple and strong character"&amp;" ... just like those who created it!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A21, ""it"", ""en"")"),"regional dishes are often a cause of dispute between Italians, whether it be professional chefs and amateur cooks, and spaghetti amatriciana are no exception! bucatini or spaghetti, pancetta or bacon, garlic or onion ... These are the main questions that "&amp;"whoever is preparing to cook for the first time this recipe is having to deal with. it is said that this famous dish born in amateur was the main meal of the shepherds, but originally was without tomatoes, and took the name of ""Grice""; this ingredient w"&amp;"as added later when the tomatoes were imported from the Americas and the dressing was called amatriciana. and 'therefore normal that a recipe so ancient and popular has been transformed over time assuming the many variants of which are still discussed tod"&amp;"ay. what we propose here is our version, made with local ingredients and quality. because we think that in fact the recipe of spaghetti amatriciana Italy does not divide but unite in the name of goodness of a dish from the soul simple and strong character"&amp;" ... just like those who created it!")</f>
         <v>regional dishes are often a cause of dispute between Italians, whether it be professional chefs and amateur cooks, and spaghetti amatriciana are no exception! bucatini or spaghetti, pancetta or bacon, garlic or onion ... These are the main questions that whoever is preparing to cook for the first time this recipe is having to deal with. it is said that this famous dish born in amateur was the main meal of the shepherds, but originally was without tomatoes, and took the name of "Grice"; this ingredient was added later when the tomatoes were imported from the Americas and the dressing was called amatriciana. and 'therefore normal that a recipe so ancient and popular has been transformed over time assuming the many variants of which are still discussed today. what we propose here is our version, made with local ingredients and quality. because we think that in fact the recipe of spaghetti amatriciana Italy does not divide but unite in the name of goodness of a dish from the soul simple and strong character ... just like those who created it!</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A22, ""it"", ""en"")"),"apples have always been undisputed protagonists of homemade desserts, like our apple pie, tasty, soft and aromatic, is the best comfort food you could wish for! After all, who has tried it knows how reassuring an apple pie homemade, with its simple sweetn"&amp;"ess, its smooth texture and its unmistakable scent. timeless flavors that evoke memories of family, each with its own recipe to treasure as the most precious of treasures. Here we reveal our own version of apple pie, perfect to enjoy a delicious cuddle wi"&amp;"th your loved ones!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A22, ""it"", ""en"")"),"apples have always been undisputed protagonists of homemade desserts, like our apple pie, tasty, soft and aromatic, is the best comfort food you could wish for! After all, who has tried it knows how reassuring an apple pie homemade, with its simple sweetn"&amp;"ess, its smooth texture and its unmistakable scent. timeless flavors that evoke memories of family, each with its own recipe to treasure as the most precious of treasures. Here we reveal our own version of apple pie, perfect to enjoy a delicious cuddle wi"&amp;"th your loved ones!")</f>
         <v>apples have always been undisputed protagonists of homemade desserts, like our apple pie, tasty, soft and aromatic, is the best comfort food you could wish for! After all, who has tried it knows how reassuring an apple pie homemade, with its simple sweetness, its smooth texture and its unmistakable scent. timeless flavors that evoke memories of family, each with its own recipe to treasure as the most precious of treasures. Here we reveal our own version of apple pie, perfect to enjoy a delicious cuddle with your loved ones!</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A23, ""it"", ""en"")"),"one leads to another, but are not cherries ... are potatoes! today we pamper you with a timeless classic of home cooking: baked potatoes. impossible not to love this typical outline that is good on everything: meat or fish up to you, the only rule is that"&amp;" the baked potatoes are golden and crisp, irresistible in a word! like all the recipes that appear simple at first glance, this can hide the pitfalls in the preparation. each holds the secret to the perfect oven for potatoes: there are those who passes un"&amp;"der cold running water or soaking to remove the starch, those who cooks in a static oven before covered with aluminum foil and then discovering the pan, who will still fit millimetrically the slices or cubes to make them all the same and ensure even cooki"&amp;"ng. you're curious to know what are our tips for a result to be at the table cheers? we are happy to share them with you to make you enjoy a tasty side dish that always please everyone! to add flavor to baked potatoes we chose rosemary and thyme, the ever"&amp;"green essential. try also the version to beer, aroma and decided particular, or that the Mediterranean, enriched with tomato and olives! If you love baking, in the fall season you can not miss another equally easy and tasty side dish to prepare: the pumpk"&amp;"in in the oven!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A23, ""it"", ""en"")"),"one leads to another, but are not cherries ... are potatoes! today we pamper you with a timeless classic of home cooking: baked potatoes. impossible not to love this typical outline that is good on everything: meat or fish up to you, the only rule is that"&amp;" the baked potatoes are golden and crisp, irresistible in a word! like all the recipes that appear simple at first glance, this can hide the pitfalls in the preparation. each holds the secret to the perfect oven for potatoes: there are those who passes un"&amp;"der cold running water or soaking to remove the starch, those who cooks in a static oven before covered with aluminum foil and then discovering the pan, who will still fit millimetrically the slices or cubes to make them all the same and ensure even cooki"&amp;"ng. you're curious to know what are our tips for a result to be at the table cheers? we are happy to share them with you to make you enjoy a tasty side dish that always please everyone! to add flavor to baked potatoes we chose rosemary and thyme, the ever"&amp;"green essential. try also the version to beer, aroma and decided particular, or that the Mediterranean, enriched with tomato and olives! If you love baking, in the fall season you can not miss another equally easy and tasty side dish to prepare: the pumpk"&amp;"in in the oven!")</f>
         <v>one leads to another, but are not cherries ... are potatoes! today we pamper you with a timeless classic of home cooking: baked potatoes. impossible not to love this typical outline that is good on everything: meat or fish up to you, the only rule is that the baked potatoes are golden and crisp, irresistible in a word! like all the recipes that appear simple at first glance, this can hide the pitfalls in the preparation. each holds the secret to the perfect oven for potatoes: there are those who passes under cold running water or soaking to remove the starch, those who cooks in a static oven before covered with aluminum foil and then discovering the pan, who will still fit millimetrically the slices or cubes to make them all the same and ensure even cooking. you're curious to know what are our tips for a result to be at the table cheers? we are happy to share them with you to make you enjoy a tasty side dish that always please everyone! to add flavor to baked potatoes we chose rosemary and thyme, the evergreen essential. try also the version to beer, aroma and decided particular, or that the Mediterranean, enriched with tomato and olives! If you love baking, in the fall season you can not miss another equally easy and tasty side dish to prepare: the pumpkin in the oven!</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A24, ""it"", ""en"")"),"make fresh pasta at home is an ancient art: the pastry rolled with a rolling pin are obtained with gold threads like noodles or noodles, chests stuffed like ravioli or tortellini and timeless lasagne.anche now we've come to grips with the dough fresh home"&amp;"made, a genuine product made with his own hands that is priceless! if they make a decision, then, it does not take much time to prepare a good fresh pasta: 15-20 minutes for a smooth and elastic bell'impasto, rest 30 minutes, 15 minutes to stretch out and"&amp;" draw in the dough ... about an hour's it! we started from classical proportion of 100 g of flour for an egg, but much also depends on the format you want to prepare. therefore, one of the most valuable general advice is to stay a little 'back with the do"&amp;"se and add as needed. If you want to feel you too ""sfoglina"" for a day, started to prepare us fresh pasta, perfect with every tasty combination with a classic sauce for seasoning fish! when you feel a bit 'more experienced can try to color it with squid"&amp;" ink, for example, to make a first plate for halloween effect as bewitched noodles in pepper!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A24, ""it"", ""en"")"),"make fresh pasta at home is an ancient art: the pastry rolled with a rolling pin are obtained with gold threads like noodles or noodles, chests stuffed like ravioli or tortellini and timeless lasagne.anche now we've come to grips with the dough fresh home"&amp;"made, a genuine product made with his own hands that is priceless! if they make a decision, then, it does not take much time to prepare a good fresh pasta: 15-20 minutes for a smooth and elastic bell'impasto, rest 30 minutes, 15 minutes to stretch out and"&amp;" draw in the dough ... about an hour's it! we started from classical proportion of 100 g of flour for an egg, but much also depends on the format you want to prepare. therefore, one of the most valuable general advice is to stay a little 'back with the do"&amp;"se and add as needed. If you want to feel you too ""sfoglina"" for a day, started to prepare us fresh pasta, perfect with every tasty combination with a classic sauce for seasoning fish! when you feel a bit 'more experienced can try to color it with squid"&amp;" ink, for example, to make a first plate for halloween effect as bewitched noodles in pepper!")</f>
         <v>make fresh pasta at home is an ancient art: the pastry rolled with a rolling pin are obtained with gold threads like noodles or noodles, chests stuffed like ravioli or tortellini and timeless lasagne.anche now we've come to grips with the dough fresh homemade, a genuine product made with his own hands that is priceless! if they make a decision, then, it does not take much time to prepare a good fresh pasta: 15-20 minutes for a smooth and elastic bell'impasto, rest 30 minutes, 15 minutes to stretch out and draw in the dough ... about an hour's it! we started from classical proportion of 100 g of flour for an egg, but much also depends on the format you want to prepare. therefore, one of the most valuable general advice is to stay a little 'back with the dose and add as needed. If you want to feel you too "sfoglina" for a day, started to prepare us fresh pasta, perfect with every tasty combination with a classic sauce for seasoning fish! when you feel a bit 'more experienced can try to color it with squid ink, for example, to make a first plate for halloween effect as bewitched noodles in pepper!</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A25, ""it"", ""en"")"),"raise your hand if no one has ever tried it at least once in your life! her majesty the crepe with Nutella, a gluttony that is really hard to resist as a snack or even as a midnight snack! we reveal how you can prepare soft crepe for all of your friends ("&amp;"and keep from even some for you of course!) with a few simple precautions. the unmistakable scent of subtle and tasty pancake will spread to the kitchen and will be enriched with the generous Nutella filling: in short, is an irresistible temptation for an"&amp;"y time of day!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A25, ""it"", ""en"")"),"raise your hand if no one has ever tried it at least once in your life! her majesty the crepe with Nutella, a gluttony that is really hard to resist as a snack or even as a midnight snack! we reveal how you can prepare soft crepe for all of your friends ("&amp;"and keep from even some for you of course!) with a few simple precautions. the unmistakable scent of subtle and tasty pancake will spread to the kitchen and will be enriched with the generous Nutella filling: in short, is an irresistible temptation for an"&amp;"y time of day!")</f>
         <v>raise your hand if no one has ever tried it at least once in your life! her majesty the crepe with Nutella, a gluttony that is really hard to resist as a snack or even as a midnight snack! we reveal how you can prepare soft crepe for all of your friends (and keep from even some for you of course!) with a few simple precautions. the unmistakable scent of subtle and tasty pancake will spread to the kitchen and will be enriched with the generous Nutella filling: in short, is an irresistible temptation for any time of day!</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A26, ""it"", ""en"")"),"""It life is a mozzicate here mozzicate well."" this is one of the typical phrases that can be read as an introduction to a menu in the restaurants or Roman fraschette. but the carbonara, amatriciana, like spaghetti with cheese and pepper, now have become"&amp;" symbol of Italy dishes, eating well with ingredients dop and linked to the traditions of the territories where they were born. excellence that the ""checkered tablecloths"" arrives in the kitchens of great chefs, as in the case of spaghetti with cheese, "&amp;"pepper and sea urchins. we also want to pay tribute to one of the symbols of eating good and genuine, showing you how to make the perfect cheese and pepper! the secret, in addition to the chemical combination of water and proteins for cheese creamy with n"&amp;"o lumps, lies in the flavors: whole peppercorns crushed at the time and dive into the pan to toast to release all the pungent scent; The creamy pasta slowly and in a controlled manner to absorb all the flavor of pecorino romano, when you add the cream. pr"&amp;"epare and taste: This is another rule to really get the spaghetti cacio e pepe! prepared forks!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A26, ""it"", ""en"")"),"""It life is a mozzicate here mozzicate well."" this is one of the typical phrases that can be read as an introduction to a menu in the restaurants or Roman fraschette. but the carbonara, amatriciana, like spaghetti with cheese and pepper, now have become"&amp;" symbol of Italy dishes, eating well with ingredients dop and linked to the traditions of the territories where they were born. excellence that the ""checkered tablecloths"" arrives in the kitchens of great chefs, as in the case of spaghetti with cheese, "&amp;"pepper and sea urchins. we also want to pay tribute to one of the symbols of eating good and genuine, showing you how to make the perfect cheese and pepper! the secret, in addition to the chemical combination of water and proteins for cheese creamy with n"&amp;"o lumps, lies in the flavors: whole peppercorns crushed at the time and dive into the pan to toast to release all the pungent scent; The creamy pasta slowly and in a controlled manner to absorb all the flavor of pecorino romano, when you add the cream. pr"&amp;"epare and taste: This is another rule to really get the spaghetti cacio e pepe! prepared forks!")</f>
         <v>"It life is a mozzicate here mozzicate well." this is one of the typical phrases that can be read as an introduction to a menu in the restaurants or Roman fraschette. but the carbonara, amatriciana, like spaghetti with cheese and pepper, now have become symbol of Italy dishes, eating well with ingredients dop and linked to the traditions of the territories where they were born. excellence that the "checkered tablecloths" arrives in the kitchens of great chefs, as in the case of spaghetti with cheese, pepper and sea urchins. we also want to pay tribute to one of the symbols of eating good and genuine, showing you how to make the perfect cheese and pepper! the secret, in addition to the chemical combination of water and proteins for cheese creamy with no lumps, lies in the flavors: whole peppercorns crushed at the time and dive into the pan to toast to release all the pungent scent; The creamy pasta slowly and in a controlled manner to absorb all the flavor of pecorino romano, when you add the cream. prepare and taste: This is another rule to really get the spaghetti cacio e pepe! prepared forks!</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A27, ""it"", ""en"")"),"just mention it because at the table there is an ovation. and 'Queen of unique dishes, the comforter despondent moods: the eggplant parmigiana. a dish shared and contested as sources from north to south: Emilia Romagna, Campania (Parmesan 'and mulignane) "&amp;"and Sicily (parmiciana or patrociane) with some variations of ingredients and methods of composition, but all absolutely fabulous! have you ever wondered why you call it this dish? the name ""Parmesan"" derives precisely from the Sicilian ""parmiciana"", "&amp;"which in dialect indicates stack of the shutters of wooden battens: in fact, think about how are arranged the aubergine slices in pan and you will notice the similarities. few ingredients, so much flavor to a dish symbol of Mediterranean cuisine: tomato, "&amp;"eggplant, basil and cheese. prepared together with us a succulent eggplant parmigiana.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A27, ""it"", ""en"")"),"just mention it because at the table there is an ovation. and 'Queen of unique dishes, the comforter despondent moods: the eggplant parmigiana. a dish shared and contested as sources from north to south: Emilia Romagna, Campania (Parmesan 'and mulignane) "&amp;"and Sicily (parmiciana or patrociane) with some variations of ingredients and methods of composition, but all absolutely fabulous! have you ever wondered why you call it this dish? the name ""Parmesan"" derives precisely from the Sicilian ""parmiciana"", "&amp;"which in dialect indicates stack of the shutters of wooden battens: in fact, think about how are arranged the aubergine slices in pan and you will notice the similarities. few ingredients, so much flavor to a dish symbol of Mediterranean cuisine: tomato, "&amp;"eggplant, basil and cheese. prepared together with us a succulent eggplant parmigiana.")</f>
         <v>just mention it because at the table there is an ovation. and 'Queen of unique dishes, the comforter despondent moods: the eggplant parmigiana. a dish shared and contested as sources from north to south: Emilia Romagna, Campania (Parmesan 'and mulignane) and Sicily (parmiciana or patrociane) with some variations of ingredients and methods of composition, but all absolutely fabulous! have you ever wondered why you call it this dish? the name "Parmesan" derives precisely from the Sicilian "parmiciana", which in dialect indicates stack of the shutters of wooden battens: in fact, think about how are arranged the aubergine slices in pan and you will notice the similarities. few ingredients, so much flavor to a dish symbol of Mediterranean cuisine: tomato, eggplant, basil and cheese. prepared together with us a succulent eggplant parmigiana.</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A28, ""it"", ""en"")"),"The lasagne are a typical dish of the cuisine of Emilia Romagna and, specifically, the city of Bologna. despite the paternity of this recipe is Emilian, lasagne are known to the point of becoming one of the symbols of Italian cuisine in the world and know"&amp;"s many variations and delicious. from preparing the ingredients, this recipe is the quintessence of the ""wealth"" of the tradition of Bologna, also renowned for many other fresh pasta recipes and more, just think of the fried dumplings. to prepare a good"&amp;" lasagna bolognese the key thing is the right choice of ingredients: first the meat, which must be strictly Mixed: beef and pork to flavor the recipe, then the tomato pulp to be good quality, and finally, but not last, the real lasagna, which must be amon"&amp;"g the best, with flaky porous suited to hold the sauce to get a perfect consistency!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A28, ""it"", ""en"")"),"The lasagne are a typical dish of the cuisine of Emilia Romagna and, specifically, the city of Bologna. despite the paternity of this recipe is Emilian, lasagne are known to the point of becoming one of the symbols of Italian cuisine in the world and know"&amp;"s many variations and delicious. from preparing the ingredients, this recipe is the quintessence of the ""wealth"" of the tradition of Bologna, also renowned for many other fresh pasta recipes and more, just think of the fried dumplings. to prepare a good"&amp;" lasagna bolognese the key thing is the right choice of ingredients: first the meat, which must be strictly Mixed: beef and pork to flavor the recipe, then the tomato pulp to be good quality, and finally, but not last, the real lasagna, which must be amon"&amp;"g the best, with flaky porous suited to hold the sauce to get a perfect consistency!")</f>
         <v>The lasagne are a typical dish of the cuisine of Emilia Romagna and, specifically, the city of Bologna. despite the paternity of this recipe is Emilian, lasagne are known to the point of becoming one of the symbols of Italian cuisine in the world and knows many variations and delicious. from preparing the ingredients, this recipe is the quintessence of the "wealth" of the tradition of Bologna, also renowned for many other fresh pasta recipes and more, just think of the fried dumplings. to prepare a good lasagna bolognese the key thing is the right choice of ingredients: first the meat, which must be strictly Mixed: beef and pork to flavor the recipe, then the tomato pulp to be good quality, and finally, but not last, the real lasagna, which must be among the best, with flaky porous suited to hold the sauce to get a perfect consistency!</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A29, ""it"", ""en"")"),"directly from the tradition bell spaghetti with clams, definitely one of the most important Italian dishes and most loved among the first fish. a simple recipe from the wonderful taste of the sea, which hides some little secret for a perfect result. meaty"&amp;" clams, parsley dusting and delicious creamy sauce that is created naturally with the starch of pasta, spaghetti with clams are a delicacy. and 'a perfect dish for every occasion, from dinner with friends at the Sunday dish up to the perfect scale for the"&amp;" Christmas Eve dinner or New Year.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A29, ""it"", ""en"")"),"directly from the tradition bell spaghetti with clams, definitely one of the most important Italian dishes and most loved among the first fish. a simple recipe from the wonderful taste of the sea, which hides some little secret for a perfect result. meaty"&amp;" clams, parsley dusting and delicious creamy sauce that is created naturally with the starch of pasta, spaghetti with clams are a delicacy. and 'a perfect dish for every occasion, from dinner with friends at the Sunday dish up to the perfect scale for the"&amp;" Christmas Eve dinner or New Year.")</f>
         <v>directly from the tradition bell spaghetti with clams, definitely one of the most important Italian dishes and most loved among the first fish. a simple recipe from the wonderful taste of the sea, which hides some little secret for a perfect result. meaty clams, parsley dusting and delicious creamy sauce that is created naturally with the starch of pasta, spaghetti with clams are a delicacy. and 'a perfect dish for every occasion, from dinner with friends at the Sunday dish up to the perfect scale for the Christmas Eve dinner or New Year.</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A30, ""it"", ""en"")"),"the chickpea flour is a very low salt cake made with water and flour of chickpeas, cooked in a wood oven to form a delicious golden crust. But today we offer the recipe to achieve it in your oven at home! the chickpea flour is a Ligurian specialties, typi"&amp;"cal in particular the city of Genoa, but with ancient origins that date back probably Greek and Latin antiquity. But the legend that concerns dating back to the period of the Maritime Republics, and said that the porridge as we know it today was born in 1"&amp;"284, when Genoa defeated Pisa in the battle of Meloria. on return from battle, the Genoese ships were involved in a storm and a few barrels of oil and chickpea flour toppled by bathing in salt water. because of the shortage of supplies, it was recovered e"&amp;"verything possible to sailors and was served the mixture of chickpeas and oil that these, in an attempt to make it less unpleasant, began to dry in the sun until you get a kind of pancake. Ground Genoese perfected the recipe for fortune making the special"&amp;"ty that we enjoy today, and that, in mockery of the defeated, called the gold of Pisa. The chickpea flour, however, is a poor recipe made with simple and very common ingredients in all over the boot, and in fact its spread is not just about Liguria, but a"&amp;"re known numerous versions that take a different name depending on the area of which they are typical. famous such as Cecina Pisa, Livorno's cake 5:05, the Piedmontese socca, the fainè sassarese ... just move a little that changes its name, but the authen"&amp;"tic taste and exquisite of this street food Italian is always very good: there just have to try!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A30, ""it"", ""en"")"),"the chickpea flour is a very low salt cake made with water and flour of chickpeas, cooked in a wood oven to form a delicious golden crust. But today we offer the recipe to achieve it in your oven at home! the chickpea flour is a Ligurian specialties, typi"&amp;"cal in particular the city of Genoa, but with ancient origins that date back probably Greek and Latin antiquity. But the legend that concerns dating back to the period of the Maritime Republics, and said that the porridge as we know it today was born in 1"&amp;"284, when Genoa defeated Pisa in the battle of Meloria. on return from battle, the Genoese ships were involved in a storm and a few barrels of oil and chickpea flour toppled by bathing in salt water. because of the shortage of supplies, it was recovered e"&amp;"verything possible to sailors and was served the mixture of chickpeas and oil that these, in an attempt to make it less unpleasant, began to dry in the sun until you get a kind of pancake. Ground Genoese perfected the recipe for fortune making the special"&amp;"ty that we enjoy today, and that, in mockery of the defeated, called the gold of Pisa. The chickpea flour, however, is a poor recipe made with simple and very common ingredients in all over the boot, and in fact its spread is not just about Liguria, but a"&amp;"re known numerous versions that take a different name depending on the area of which they are typical. famous such as Cecina Pisa, Livorno's cake 5:05, the Piedmontese socca, the fainè sassarese ... just move a little that changes its name, but the authen"&amp;"tic taste and exquisite of this street food Italian is always very good: there just have to try!")</f>
         <v>the chickpea flour is a very low salt cake made with water and flour of chickpeas, cooked in a wood oven to form a delicious golden crust. But today we offer the recipe to achieve it in your oven at home! the chickpea flour is a Ligurian specialties, typical in particular the city of Genoa, but with ancient origins that date back probably Greek and Latin antiquity. But the legend that concerns dating back to the period of the Maritime Republics, and said that the porridge as we know it today was born in 1284, when Genoa defeated Pisa in the battle of Meloria. on return from battle, the Genoese ships were involved in a storm and a few barrels of oil and chickpea flour toppled by bathing in salt water. because of the shortage of supplies, it was recovered everything possible to sailors and was served the mixture of chickpeas and oil that these, in an attempt to make it less unpleasant, began to dry in the sun until you get a kind of pancake. Ground Genoese perfected the recipe for fortune making the specialty that we enjoy today, and that, in mockery of the defeated, called the gold of Pisa. The chickpea flour, however, is a poor recipe made with simple and very common ingredients in all over the boot, and in fact its spread is not just about Liguria, but are known numerous versions that take a different name depending on the area of which they are typical. famous such as Cecina Pisa, Livorno's cake 5:05, the Piedmontese socca, the fainè sassarese ... just move a little that changes its name, but the authentic taste and exquisite of this street food Italian is always very good: there just have to try!</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A31, ""it"", ""en"")"),"fried panzerotti, also called pants, are exquisite leavened dough pancakes, crescent-shaped, stuffed with mozzarella, tomato and oregano. the turnovers are widespread throughout southern Italy, from Lazio to Sicily, but the turnovers more good are prepari"&amp;"ng in Campania and Puglia: in the countries of these regions have a street food, fried on the spot by the numerous takeaways, a tasty street food to be enjoyed at any time! the basic stuffing can be enhanced with numerous additions, olives, anchovies or s"&amp;"ausage, and panzerotto can also be baked in the oven, to make it lighter! fried turnovers are a simple and at the same time unsurpassed goodness, what are you waiting to organize a nice panzerottata at home with friends and family? with recipe GialloZaffe"&amp;"rano, prepare fried turnovers will be a breeze!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A31, ""it"", ""en"")"),"fried panzerotti, also called pants, are exquisite leavened dough pancakes, crescent-shaped, stuffed with mozzarella, tomato and oregano. the turnovers are widespread throughout southern Italy, from Lazio to Sicily, but the turnovers more good are prepari"&amp;"ng in Campania and Puglia: in the countries of these regions have a street food, fried on the spot by the numerous takeaways, a tasty street food to be enjoyed at any time! the basic stuffing can be enhanced with numerous additions, olives, anchovies or s"&amp;"ausage, and panzerotto can also be baked in the oven, to make it lighter! fried turnovers are a simple and at the same time unsurpassed goodness, what are you waiting to organize a nice panzerottata at home with friends and family? with recipe GialloZaffe"&amp;"rano, prepare fried turnovers will be a breeze!")</f>
         <v>fried panzerotti, also called pants, are exquisite leavened dough pancakes, crescent-shaped, stuffed with mozzarella, tomato and oregano. the turnovers are widespread throughout southern Italy, from Lazio to Sicily, but the turnovers more good are preparing in Campania and Puglia: in the countries of these regions have a street food, fried on the spot by the numerous takeaways, a tasty street food to be enjoyed at any time! the basic stuffing can be enhanced with numerous additions, olives, anchovies or sausage, and panzerotto can also be baked in the oven, to make it lighter! fried turnovers are a simple and at the same time unsurpassed goodness, what are you waiting to organize a nice panzerottata at home with friends and family? with recipe GialloZafferano, prepare fried turnovers will be a breeze!</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A32, ""it"", ""en"")"),"in 1832 in one of the most central hotels in Vienna, now a ""sacred"" temple of pastry, something special happened, which marked the history of Austrian cuisine. franz Sacher, pastry chef apprentice of only 16 years, and chocolate lover, devised the sache"&amp;"rtorte that today is definitely one of the most famous chocolate cakes and appreciated in the world. The story goes that the young franz, who that day was substituting one ill chef was preparing a dessert for dinner the greedy Prince von mitternich winnes"&amp;"burg and, after long thought, he decided to combine their simple and traditional elements like chocolate and the jam to create a delicate and tasty sweet. apparently the dessert was a great success and from that day the young franz Sacher had to give hims"&amp;"elf a grand to do to prepare this cake that was named after him: the Sachertorte. since then the reputation of sachertorte has spread around the world and even though thousands of people continue to prepare the original recipe is closely guarded in vienna"&amp;" and is not revealed to anyone. we propose the version produced by Ernst Knam, a real guarantee when it comes to chocolate!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A32, ""it"", ""en"")"),"in 1832 in one of the most central hotels in Vienna, now a ""sacred"" temple of pastry, something special happened, which marked the history of Austrian cuisine. franz Sacher, pastry chef apprentice of only 16 years, and chocolate lover, devised the sache"&amp;"rtorte that today is definitely one of the most famous chocolate cakes and appreciated in the world. The story goes that the young franz, who that day was substituting one ill chef was preparing a dessert for dinner the greedy Prince von mitternich winnes"&amp;"burg and, after long thought, he decided to combine their simple and traditional elements like chocolate and the jam to create a delicate and tasty sweet. apparently the dessert was a great success and from that day the young franz Sacher had to give hims"&amp;"elf a grand to do to prepare this cake that was named after him: the Sachertorte. since then the reputation of sachertorte has spread around the world and even though thousands of people continue to prepare the original recipe is closely guarded in vienna"&amp;" and is not revealed to anyone. we propose the version produced by Ernst Knam, a real guarantee when it comes to chocolate!")</f>
         <v>in 1832 in one of the most central hotels in Vienna, now a "sacred" temple of pastry, something special happened, which marked the history of Austrian cuisine. franz Sacher, pastry chef apprentice of only 16 years, and chocolate lover, devised the sachertorte that today is definitely one of the most famous chocolate cakes and appreciated in the world. The story goes that the young franz, who that day was substituting one ill chef was preparing a dessert for dinner the greedy Prince von mitternich winnesburg and, after long thought, he decided to combine their simple and traditional elements like chocolate and the jam to create a delicate and tasty sweet. apparently the dessert was a great success and from that day the young franz Sacher had to give himself a grand to do to prepare this cake that was named after him: the Sachertorte. since then the reputation of sachertorte has spread around the world and even though thousands of people continue to prepare the original recipe is closely guarded in vienna and is not revealed to anyone. we propose the version produced by Ernst Knam, a real guarantee when it comes to chocolate!</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A33, ""it"", ""en"")"),"the Cantonese rice is a very popular dish in Chinese restaurants in Italy but, as you can imagine, this is not an original recipe. it seems that the Cantonese rice as we know it is a westernized version of the traditional chào fàn, literally ""fried rice"&amp;""", a far richer and complex dish made with basmati rice and scrambled eggs with the addition of vegetables, meat or fish, of which there are countless variations. we started from the same base and we enriched with peas and ham, along with the inevitable "&amp;"soy sauce, resulting in a flat close to European tastes but also delicious and full of flavor! discover how easy it is to prepare the Cantonese rice and serve with the classic spring rolls and a delicious chicken with almonds, for a dinner with friends in"&amp;" shots of chopsticks!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A33, ""it"", ""en"")"),"the Cantonese rice is a very popular dish in Chinese restaurants in Italy but, as you can imagine, this is not an original recipe. it seems that the Cantonese rice as we know it is a westernized version of the traditional chào fàn, literally ""fried rice"&amp;""", a far richer and complex dish made with basmati rice and scrambled eggs with the addition of vegetables, meat or fish, of which there are countless variations. we started from the same base and we enriched with peas and ham, along with the inevitable "&amp;"soy sauce, resulting in a flat close to European tastes but also delicious and full of flavor! discover how easy it is to prepare the Cantonese rice and serve with the classic spring rolls and a delicious chicken with almonds, for a dinner with friends in"&amp;" shots of chopsticks!")</f>
         <v>the Cantonese rice is a very popular dish in Chinese restaurants in Italy but, as you can imagine, this is not an original recipe. it seems that the Cantonese rice as we know it is a westernized version of the traditional chào fàn, literally "fried rice", a far richer and complex dish made with basmati rice and scrambled eggs with the addition of vegetables, meat or fish, of which there are countless variations. we started from the same base and we enriched with peas and ham, along with the inevitable soy sauce, resulting in a flat close to European tastes but also delicious and full of flavor! discover how easy it is to prepare the Cantonese rice and serve with the classic spring rolls and a delicious chicken with almonds, for a dinner with friends in shots of chopsticks!</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A34, ""it"", ""en"")"),"sitting in that café I was thinking about you ... so began one of the most popular evergreen Italian music. but today we will accommodate in a bakery to serve you the recipe for the chocolate muffins! For several years now the muffins depopulated in the f"&amp;"amous American-style coffee shops and after having enticed with those with heart, we also realized those gluten-free! it's rich soft patties pieces of delicious dark chocolate, bite during a break from study or work. but a recent study conducted here in t"&amp;"he newsroom we found that lend themselves very well to one of the most common gestures morning: the soak! gourmands flock web, today we prepare the chocolate muffins!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A34, ""it"", ""en"")"),"sitting in that café I was thinking about you ... so began one of the most popular evergreen Italian music. but today we will accommodate in a bakery to serve you the recipe for the chocolate muffins! For several years now the muffins depopulated in the f"&amp;"amous American-style coffee shops and after having enticed with those with heart, we also realized those gluten-free! it's rich soft patties pieces of delicious dark chocolate, bite during a break from study or work. but a recent study conducted here in t"&amp;"he newsroom we found that lend themselves very well to one of the most common gestures morning: the soak! gourmands flock web, today we prepare the chocolate muffins!")</f>
         <v>sitting in that café I was thinking about you ... so began one of the most popular evergreen Italian music. but today we will accommodate in a bakery to serve you the recipe for the chocolate muffins! For several years now the muffins depopulated in the famous American-style coffee shops and after having enticed with those with heart, we also realized those gluten-free! it's rich soft patties pieces of delicious dark chocolate, bite during a break from study or work. but a recent study conducted here in the newsroom we found that lend themselves very well to one of the most common gestures morning: the soak! gourmands flock web, today we prepare the chocolate muffins!</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A35, ""it"", ""en"")"),"fresh pasta that goodness! the sheets of fresh egg pasta drawn by the expert hands of grandmothers and aunts are a real delicacy. but now we all cimentiamo putting your hands dirty because, let's face it, is a delightful pastime .. especially with the hel"&amp;"p of ""Grandma Duck"", the car to pull the dough! and even if you are among purists rolling pin, we are confident you will enjoy the spinach and ricotta ravioli. one of the most classic preparations of pasta stuffed with a filling that gives off a fresh a"&amp;"nd delicate taste. pure poetry for the palate, the encounter of love of these two ingredients is a romance that has lasted for years, perhaps one of the most successful marriage in the ten-year history of the kitchen. and you? If you are wondering how to "&amp;"delight your guests this Sunday you are just in the right place! prepared with us these fabulous ravioli with ricotta and spinach!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A35, ""it"", ""en"")"),"fresh pasta that goodness! the sheets of fresh egg pasta drawn by the expert hands of grandmothers and aunts are a real delicacy. but now we all cimentiamo putting your hands dirty because, let's face it, is a delightful pastime .. especially with the hel"&amp;"p of ""Grandma Duck"", the car to pull the dough! and even if you are among purists rolling pin, we are confident you will enjoy the spinach and ricotta ravioli. one of the most classic preparations of pasta stuffed with a filling that gives off a fresh a"&amp;"nd delicate taste. pure poetry for the palate, the encounter of love of these two ingredients is a romance that has lasted for years, perhaps one of the most successful marriage in the ten-year history of the kitchen. and you? If you are wondering how to "&amp;"delight your guests this Sunday you are just in the right place! prepared with us these fabulous ravioli with ricotta and spinach!")</f>
         <v>fresh pasta that goodness! the sheets of fresh egg pasta drawn by the expert hands of grandmothers and aunts are a real delicacy. but now we all cimentiamo putting your hands dirty because, let's face it, is a delightful pastime .. especially with the help of "Grandma Duck", the car to pull the dough! and even if you are among purists rolling pin, we are confident you will enjoy the spinach and ricotta ravioli. one of the most classic preparations of pasta stuffed with a filling that gives off a fresh and delicate taste. pure poetry for the palate, the encounter of love of these two ingredients is a romance that has lasted for years, perhaps one of the most successful marriage in the ten-year history of the kitchen. and you? If you are wondering how to delight your guests this Sunday you are just in the right place! prepared with us these fabulous ravioli with ricotta and spinach!</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A36, ""it"", ""en"")"),"those snacks simple and genuine, to break the afternoons at home but also perfect for a break in the open air with checkered tablecloth and juices. The milk rolls are one of the easiest ways to make the joy of all: these little morsels of bread are made b"&amp;"y hand mixing flour, butter and milk. They are very simple to prepare and perfect to accommodate jams, jams and creams but also to accompany meats and cheeses, enriching the bread basket. after putting his hands in the dough for baguettes, specialty bread"&amp;"s such as pumpkin or beets, traditional breads like the peasant, could not miss these classic soft and tasty buttons. if carefully preserved, sandwiches, milk keeps for a few days their fragrance. but we are certain that one will pull the other and in les"&amp;"s than no time you'll be back with his hands in the dough.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A36, ""it"", ""en"")"),"those snacks simple and genuine, to break the afternoons at home but also perfect for a break in the open air with checkered tablecloth and juices. The milk rolls are one of the easiest ways to make the joy of all: these little morsels of bread are made b"&amp;"y hand mixing flour, butter and milk. They are very simple to prepare and perfect to accommodate jams, jams and creams but also to accompany meats and cheeses, enriching the bread basket. after putting his hands in the dough for baguettes, specialty bread"&amp;"s such as pumpkin or beets, traditional breads like the peasant, could not miss these classic soft and tasty buttons. if carefully preserved, sandwiches, milk keeps for a few days their fragrance. but we are certain that one will pull the other and in les"&amp;"s than no time you'll be back with his hands in the dough.")</f>
         <v>those snacks simple and genuine, to break the afternoons at home but also perfect for a break in the open air with checkered tablecloth and juices. The milk rolls are one of the easiest ways to make the joy of all: these little morsels of bread are made by hand mixing flour, butter and milk. They are very simple to prepare and perfect to accommodate jams, jams and creams but also to accompany meats and cheeses, enriching the bread basket. after putting his hands in the dough for baguettes, specialty breads such as pumpkin or beets, traditional breads like the peasant, could not miss these classic soft and tasty buttons. if carefully preserved, sandwiches, milk keeps for a few days their fragrance. but we are certain that one will pull the other and in less than no time you'll be back with his hands in the dough.</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A37, ""it"", ""en"")"),"and 'the queen of street food Italian and is loved by millions of people around the world are talking about the piadina, a poor recipe of ancient origin, which is likely to be filled with any ingredients you suggest your imagination. from the most traditi"&amp;"onal as raw, rocket and squacquerone, the most innovative as hummus, tofu or chicken salad, the result will always super tasty! perfect as a main dish for a casual lunch, piadina can also be used to create delicious appetizers to be served as an appetizer"&amp;", as the rolls with salmon, avocado and cream yogurt, or to achieve another must of local cuisine, watercress, but not confuse this with the crescia sfogliata, instead of the typical urbino area! given free rein to the imagination and create your favorite"&amp;" flatbread ... it's sweet or salty, with our recipe, you can not go wrong!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A37, ""it"", ""en"")"),"and 'the queen of street food Italian and is loved by millions of people around the world are talking about the piadina, a poor recipe of ancient origin, which is likely to be filled with any ingredients you suggest your imagination. from the most traditi"&amp;"onal as raw, rocket and squacquerone, the most innovative as hummus, tofu or chicken salad, the result will always super tasty! perfect as a main dish for a casual lunch, piadina can also be used to create delicious appetizers to be served as an appetizer"&amp;", as the rolls with salmon, avocado and cream yogurt, or to achieve another must of local cuisine, watercress, but not confuse this with the crescia sfogliata, instead of the typical urbino area! given free rein to the imagination and create your favorite"&amp;" flatbread ... it's sweet or salty, with our recipe, you can not go wrong!")</f>
         <v>and 'the queen of street food Italian and is loved by millions of people around the world are talking about the piadina, a poor recipe of ancient origin, which is likely to be filled with any ingredients you suggest your imagination. from the most traditional as raw, rocket and squacquerone, the most innovative as hummus, tofu or chicken salad, the result will always super tasty! perfect as a main dish for a casual lunch, piadina can also be used to create delicious appetizers to be served as an appetizer, as the rolls with salmon, avocado and cream yogurt, or to achieve another must of local cuisine, watercress, but not confuse this with the crescia sfogliata, instead of the typical urbino area! given free rein to the imagination and create your favorite flatbread ... it's sweet or salty, with our recipe, you can not go wrong!</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A38, ""it"", ""en"")"),"you know the lightness of a cloud? the chiffon cake will give you just that feeling: a soft dough is smooth, soft and delicate that it melts in your mouth. the characteristic of this particular American sweet is its irresistible lightness and softness. yo"&amp;"u can enjoy simple, as in this version flavored with vanilla and lemon and sprinkled with icing sugar only. but the chiffon cake is the ideal base also to achieve for all types of cakes, stuffed as more is preferred or covered with glassa.la maximum softn"&amp;"ess is due to the addition of cremore tartar to the egg whites and the same mold for chiffon cake which allows the passage of air and the homogeneous cooling of the sweet without being accasci. alone or enriched with velvety creams, the chiffon cake is a "&amp;"truly heavenly experience for the palate!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A38, ""it"", ""en"")"),"you know the lightness of a cloud? the chiffon cake will give you just that feeling: a soft dough is smooth, soft and delicate that it melts in your mouth. the characteristic of this particular American sweet is its irresistible lightness and softness. yo"&amp;"u can enjoy simple, as in this version flavored with vanilla and lemon and sprinkled with icing sugar only. but the chiffon cake is the ideal base also to achieve for all types of cakes, stuffed as more is preferred or covered with glassa.la maximum softn"&amp;"ess is due to the addition of cremore tartar to the egg whites and the same mold for chiffon cake which allows the passage of air and the homogeneous cooling of the sweet without being accasci. alone or enriched with velvety creams, the chiffon cake is a "&amp;"truly heavenly experience for the palate!")</f>
         <v>you know the lightness of a cloud? the chiffon cake will give you just that feeling: a soft dough is smooth, soft and delicate that it melts in your mouth. the characteristic of this particular American sweet is its irresistible lightness and softness. you can enjoy simple, as in this version flavored with vanilla and lemon and sprinkled with icing sugar only. but the chiffon cake is the ideal base also to achieve for all types of cakes, stuffed as more is preferred or covered with glassa.la maximum softness is due to the addition of cremore tartar to the egg whites and the same mold for chiffon cake which allows the passage of air and the homogeneous cooling of the sweet without being accasci. alone or enriched with velvety creams, the chiffon cake is a truly heavenly experience for the palate!</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A39, ""it"", ""en"")"),"and 'the hour of breakfast: coffee, orange juice and banana bread ...! a soft, sweet flavor with chopped banana and cinnamon aroma. This rich plum of Anglo-Saxon origins is also perfect for a brunch, slightly warmed in the oven and served with butter and "&amp;"jam, or a hearty snack. the scent will spread during cooking in the kitchen and, when ready, slice after slice disappear in a heartbeat! fast and easy to prepare, is also a way, as the donut bananas and peanuts, to employ those bananas which are often for"&amp;"gotten in the fruit basket, too mature to be enjoyed in purity. Try our version of banana bread and arricchitelo to taste with chocolate chips, nuts or coarsely chopped hazelnuts. It will be even better!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A39, ""it"", ""en"")"),"and 'the hour of breakfast: coffee, orange juice and banana bread ...! a soft, sweet flavor with chopped banana and cinnamon aroma. This rich plum of Anglo-Saxon origins is also perfect for a brunch, slightly warmed in the oven and served with butter and "&amp;"jam, or a hearty snack. the scent will spread during cooking in the kitchen and, when ready, slice after slice disappear in a heartbeat! fast and easy to prepare, is also a way, as the donut bananas and peanuts, to employ those bananas which are often for"&amp;"gotten in the fruit basket, too mature to be enjoyed in purity. Try our version of banana bread and arricchitelo to taste with chocolate chips, nuts or coarsely chopped hazelnuts. It will be even better!")</f>
         <v>and 'the hour of breakfast: coffee, orange juice and banana bread ...! a soft, sweet flavor with chopped banana and cinnamon aroma. This rich plum of Anglo-Saxon origins is also perfect for a brunch, slightly warmed in the oven and served with butter and jam, or a hearty snack. the scent will spread during cooking in the kitchen and, when ready, slice after slice disappear in a heartbeat! fast and easy to prepare, is also a way, as the donut bananas and peanuts, to employ those bananas which are often forgotten in the fruit basket, too mature to be enjoyed in purity. Try our version of banana bread and arricchitelo to taste with chocolate chips, nuts or coarsely chopped hazelnuts. It will be even better!</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A40, ""it"", ""en"")"),"rice balls (or arancine), the pride of Sicilian cuisine, are small timballi suitable to be consumed either as a snack or as an appetizer, first course or even single dish. in Sicily they are found everywhere and at all times, always warm and fragrant in t"&amp;"he many fast: from town to town often change shape and size, assuming features oval, pear-shaped or round, depending on the filling. you can count about 100 variants: from the classic meat sauce and ham to the more original as pistachio and squid ink! we "&amp;"now present to you the two classic timeless, with ragu of pork and peas and ham and mozzarella; you which one you prefer?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A40, ""it"", ""en"")"),"rice balls (or arancine), the pride of Sicilian cuisine, are small timballi suitable to be consumed either as a snack or as an appetizer, first course or even single dish. in Sicily they are found everywhere and at all times, always warm and fragrant in t"&amp;"he many fast: from town to town often change shape and size, assuming features oval, pear-shaped or round, depending on the filling. you can count about 100 variants: from the classic meat sauce and ham to the more original as pistachio and squid ink! we "&amp;"now present to you the two classic timeless, with ragu of pork and peas and ham and mozzarella; you which one you prefer?")</f>
         <v>rice balls (or arancine), the pride of Sicilian cuisine, are small timballi suitable to be consumed either as a snack or as an appetizer, first course or even single dish. in Sicily they are found everywhere and at all times, always warm and fragrant in the many fast: from town to town often change shape and size, assuming features oval, pear-shaped or round, depending on the filling. you can count about 100 variants: from the classic meat sauce and ham to the more original as pistachio and squid ink! we now present to you the two classic timeless, with ragu of pork and peas and ham and mozzarella; you which one you prefer?</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A41, ""it"", ""en"")"),"what is the classic sweet homemade par excellence? undoubtedly the tart! with iginio master massari discover all the secrets to make the tart apricot jam, with its soft and delicate pastry, the filling tasty and irrestistibile good fragrance and genuine. "&amp;"the secret to a successful aesthetically perfect is the rest of the pastry: take all the time needed, as the teacher, preparing the night before to stuff it and cook the next day. yes because things are even more good when they are also beautiful.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A41, ""it"", ""en"")"),"what is the classic sweet homemade par excellence? undoubtedly the tart! with iginio master massari discover all the secrets to make the tart apricot jam, with its soft and delicate pastry, the filling tasty and irrestistibile good fragrance and genuine. "&amp;"the secret to a successful aesthetically perfect is the rest of the pastry: take all the time needed, as the teacher, preparing the night before to stuff it and cook the next day. yes because things are even more good when they are also beautiful.")</f>
         <v>what is the classic sweet homemade par excellence? undoubtedly the tart! with iginio master massari discover all the secrets to make the tart apricot jam, with its soft and delicate pastry, the filling tasty and irrestistibile good fragrance and genuine. the secret to a successful aesthetically perfect is the rest of the pastry: take all the time needed, as the teacher, preparing the night before to stuff it and cook the next day. yes because things are even more good when they are also beautiful.</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A42, ""it"", ""en"")"),"the tart fruit is a dessert classic but timeless composed of a pastry box which contains one layer of custard and lots of fruit. a colorful cake, fresh and fragrant, ideal to be enjoyed for an afternoon snack or after dinner, perfect to offer for a summer"&amp;" birthday. pick the seasonal fruit to decorate and enrich your sweet, tart, each time with a customized depending on the season and your needs! played with the fruit and have fun creating new compositions, always alternating different tastes and colors .."&amp;". express your imagination to create your tart fruit.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A42, ""it"", ""en"")"),"the tart fruit is a dessert classic but timeless composed of a pastry box which contains one layer of custard and lots of fruit. a colorful cake, fresh and fragrant, ideal to be enjoyed for an afternoon snack or after dinner, perfect to offer for a summer"&amp;" birthday. pick the seasonal fruit to decorate and enrich your sweet, tart, each time with a customized depending on the season and your needs! played with the fruit and have fun creating new compositions, always alternating different tastes and colors .."&amp;". express your imagination to create your tart fruit.")</f>
         <v>the tart fruit is a dessert classic but timeless composed of a pastry box which contains one layer of custard and lots of fruit. a colorful cake, fresh and fragrant, ideal to be enjoyed for an afternoon snack or after dinner, perfect to offer for a summer birthday. pick the seasonal fruit to decorate and enrich your sweet, tart, each time with a customized depending on the season and your needs! played with the fruit and have fun creating new compositions, always alternating different tastes and colors ... express your imagination to create your tart fruit.</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A43, ""it"", ""en"")"),"have you ever heard of Doraemon? They will remember him not only the ""children of the eighties"" but children today; this cute blue cat, which combines all colors, munching snacks Dorayaki one of the most famous of Japan! These delicious pancakes, achiev"&amp;"able even in mini version, very reminiscent of American pancakes, but are prepared without added fat and stuffed a kind of sandwich. in Japan it is used to serve them stuffed with a sweet sauce made from azuki beans. we opted for a filling more ""Western"&amp;""" ... so in the newsroom we chose hazelnut cream, while operators and photographers have preferred the jam berries! also made you with your favorite creams and jams these fluffy desserts, for a nutritious breakfast or a tasty snack and you will make the "&amp;"joy of your children, you will feel the protagonists of their favorite cartoon!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A43, ""it"", ""en"")"),"have you ever heard of Doraemon? They will remember him not only the ""children of the eighties"" but children today; this cute blue cat, which combines all colors, munching snacks Dorayaki one of the most famous of Japan! These delicious pancakes, achiev"&amp;"able even in mini version, very reminiscent of American pancakes, but are prepared without added fat and stuffed a kind of sandwich. in Japan it is used to serve them stuffed with a sweet sauce made from azuki beans. we opted for a filling more ""Western"&amp;""" ... so in the newsroom we chose hazelnut cream, while operators and photographers have preferred the jam berries! also made you with your favorite creams and jams these fluffy desserts, for a nutritious breakfast or a tasty snack and you will make the "&amp;"joy of your children, you will feel the protagonists of their favorite cartoon!")</f>
         <v>have you ever heard of Doraemon? They will remember him not only the "children of the eighties" but children today; this cute blue cat, which combines all colors, munching snacks Dorayaki one of the most famous of Japan! These delicious pancakes, achievable even in mini version, very reminiscent of American pancakes, but are prepared without added fat and stuffed a kind of sandwich. in Japan it is used to serve them stuffed with a sweet sauce made from azuki beans. we opted for a filling more "Western" ... so in the newsroom we chose hazelnut cream, while operators and photographers have preferred the jam berries! also made you with your favorite creams and jams these fluffy desserts, for a nutritious breakfast or a tasty snack and you will make the joy of your children, you will feel the protagonists of their favorite cartoon!</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A44, ""it"", ""en"")"),"Saffron is an ancient spice, already known at the time of the Egyptians. in principle is used only to dye the fabrics and produce perfumes and ointments but once discovered its amazing culinary properties, he became a valuable ingredient with which realiz"&amp;"e tasty dishes from the golden shades such as saffron risotto. This first course, in its essence, brings out the best aromatic qualities of saffron, but not only, thanks to the strong coloring power, the rice grains are embellished with a pleasant and att"&amp;"ractive gold color is so special about this dish. a little magic that combined with the creamy touch of creaming, a must in the preparation of risotto, risotto will return a unique flavor and unmistakable. and make it even more appealing this tasting, you"&amp;" will find solace in the Greek mythology that tells the legendary love between the young crocus and seductive nymph smilax, contested by ermes god, who, blinded by jealousy, became crocos softly saffron flower.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A44, ""it"", ""en"")"),"Saffron is an ancient spice, already known at the time of the Egyptians. in principle is used only to dye the fabrics and produce perfumes and ointments but once discovered its amazing culinary properties, he became a valuable ingredient with which realiz"&amp;"e tasty dishes from the golden shades such as saffron risotto. This first course, in its essence, brings out the best aromatic qualities of saffron, but not only, thanks to the strong coloring power, the rice grains are embellished with a pleasant and att"&amp;"ractive gold color is so special about this dish. a little magic that combined with the creamy touch of creaming, a must in the preparation of risotto, risotto will return a unique flavor and unmistakable. and make it even more appealing this tasting, you"&amp;" will find solace in the Greek mythology that tells the legendary love between the young crocus and seductive nymph smilax, contested by ermes god, who, blinded by jealousy, became crocos softly saffron flower.")</f>
         <v>Saffron is an ancient spice, already known at the time of the Egyptians. in principle is used only to dye the fabrics and produce perfumes and ointments but once discovered its amazing culinary properties, he became a valuable ingredient with which realize tasty dishes from the golden shades such as saffron risotto. This first course, in its essence, brings out the best aromatic qualities of saffron, but not only, thanks to the strong coloring power, the rice grains are embellished with a pleasant and attractive gold color is so special about this dish. a little magic that combined with the creamy touch of creaming, a must in the preparation of risotto, risotto will return a unique flavor and unmistakable. and make it even more appealing this tasting, you will find solace in the Greek mythology that tells the legendary love between the young crocus and seductive nymph smilax, contested by ermes god, who, blinded by jealousy, became crocos softly saffron flower.</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A45, ""it"", ""en"")"),"the sponge is one of the basic preparations of Italian pastries that all those who love to cook have prepared at least once to give birth to a wonderful birthday cake or a cake made of this soft preparation, such as skullcap! a simple recipe, but often th"&amp;"e simplest things in the kitchen require many attentions for a perfect result! the softness of the sponge cake, the high and the blister result is due to the use of a weak flour such as 00, so that the dough is elastic, and of a part of starch that absorb"&amp;"ing moisture will allow to obtain a sweet even softer. In addition the sponge is a recipe that does not require the use of yeast, in fact, the eggs must be mounted correctly to incorporate and develop air bubbles that will allow him not to deflate during "&amp;"cooking. Furthermore, you may not know, but there are many varieties of this recipe: just think of the cocoa, the gluten-free and even the salty for parties and cocktails! but in addition to the variety there are at least 5 ways to prepare the sponge: 2 h"&amp;"ot, cold and one with 2 emulsionanti.sono different processes but the result does not change! and as you know we always try to resort to the easiest way for you to get a good result at home ... with this recipe only sporcherete the bowl of the planetary! "&amp;"prepared the sponge to fill your cakes for special occasions with custard or chocolate ganache or to assemble a delicious trifle! but if you are looking for an original idea for your Halloween party, you discover how to use the sponge to make sweet coffin"&amp;"s stuffed with jam!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A45, ""it"", ""en"")"),"the sponge is one of the basic preparations of Italian pastries that all those who love to cook have prepared at least once to give birth to a wonderful birthday cake or a cake made of this soft preparation, such as skullcap! a simple recipe, but often th"&amp;"e simplest things in the kitchen require many attentions for a perfect result! the softness of the sponge cake, the high and the blister result is due to the use of a weak flour such as 00, so that the dough is elastic, and of a part of starch that absorb"&amp;"ing moisture will allow to obtain a sweet even softer. In addition the sponge is a recipe that does not require the use of yeast, in fact, the eggs must be mounted correctly to incorporate and develop air bubbles that will allow him not to deflate during "&amp;"cooking. Furthermore, you may not know, but there are many varieties of this recipe: just think of the cocoa, the gluten-free and even the salty for parties and cocktails! but in addition to the variety there are at least 5 ways to prepare the sponge: 2 h"&amp;"ot, cold and one with 2 emulsionanti.sono different processes but the result does not change! and as you know we always try to resort to the easiest way for you to get a good result at home ... with this recipe only sporcherete the bowl of the planetary! "&amp;"prepared the sponge to fill your cakes for special occasions with custard or chocolate ganache or to assemble a delicious trifle! but if you are looking for an original idea for your Halloween party, you discover how to use the sponge to make sweet coffin"&amp;"s stuffed with jam!")</f>
         <v>the sponge is one of the basic preparations of Italian pastries that all those who love to cook have prepared at least once to give birth to a wonderful birthday cake or a cake made of this soft preparation, such as skullcap! a simple recipe, but often the simplest things in the kitchen require many attentions for a perfect result! the softness of the sponge cake, the high and the blister result is due to the use of a weak flour such as 00, so that the dough is elastic, and of a part of starch that absorbing moisture will allow to obtain a sweet even softer. In addition the sponge is a recipe that does not require the use of yeast, in fact, the eggs must be mounted correctly to incorporate and develop air bubbles that will allow him not to deflate during cooking. Furthermore, you may not know, but there are many varieties of this recipe: just think of the cocoa, the gluten-free and even the salty for parties and cocktails! but in addition to the variety there are at least 5 ways to prepare the sponge: 2 hot, cold and one with 2 emulsionanti.sono different processes but the result does not change! and as you know we always try to resort to the easiest way for you to get a good result at home ... with this recipe only sporcherete the bowl of the planetary! prepared the sponge to fill your cakes for special occasions with custard or chocolate ganache or to assemble a delicious trifle! but if you are looking for an original idea for your Halloween party, you discover how to use the sponge to make sweet coffins stuffed with jam!</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A46, ""it"", ""en"")"),"if we say Chinese cuisine what is the first dish that comes to mind? we bet everything on the chicken with almonds! undisputed symbol of the Chinese culinary tradition, at least here in Italy, this dish brings the flavors and scents of the dragon country:"&amp;" the soy sauce with its flavor provides flavor to the dish, the ginger that releases all its freshness and the inevitable almonds, which give the toasted notes that distinguishes these succulent morsels, served with white rice inseparable. and if you are "&amp;"planning a themed dinner come and discover our recipes of other delicacies ""made in china"", the noodles, the spring rolls without forgetting the sweet and sour pork. the secrets of these recipes we reveal them to you, but to become experts in the art of"&amp;" the wand ... are your own!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A46, ""it"", ""en"")"),"if we say Chinese cuisine what is the first dish that comes to mind? we bet everything on the chicken with almonds! undisputed symbol of the Chinese culinary tradition, at least here in Italy, this dish brings the flavors and scents of the dragon country:"&amp;" the soy sauce with its flavor provides flavor to the dish, the ginger that releases all its freshness and the inevitable almonds, which give the toasted notes that distinguishes these succulent morsels, served with white rice inseparable. and if you are "&amp;"planning a themed dinner come and discover our recipes of other delicacies ""made in china"", the noodles, the spring rolls without forgetting the sweet and sour pork. the secrets of these recipes we reveal them to you, but to become experts in the art of"&amp;" the wand ... are your own!")</f>
         <v>if we say Chinese cuisine what is the first dish that comes to mind? we bet everything on the chicken with almonds! undisputed symbol of the Chinese culinary tradition, at least here in Italy, this dish brings the flavors and scents of the dragon country: the soy sauce with its flavor provides flavor to the dish, the ginger that releases all its freshness and the inevitable almonds, which give the toasted notes that distinguishes these succulent morsels, served with white rice inseparable. and if you are planning a themed dinner come and discover our recipes of other delicacies "made in china", the noodles, the spring rolls without forgetting the sweet and sour pork. the secrets of these recipes we reveal them to you, but to become experts in the art of the wand ... are your own!</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A47, ""it"", ""en"")"),"we all have a heart recipe, one that takes us back to a particular time ... it's sweet or salty. but there is a recipe that is loved by most, especially by children: they are the meatballs to the sauce, the amarcord par excellence! there are many versions"&amp;" and each has a preferred version, because these tidbits sfiziosissimi are truly irresistible! for this recipe with the sauce, do not forget to serve up good homemade bread for ""the final shoe"", an essential habit for this dish!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A47, ""it"", ""en"")"),"we all have a heart recipe, one that takes us back to a particular time ... it's sweet or salty. but there is a recipe that is loved by most, especially by children: they are the meatballs to the sauce, the amarcord par excellence! there are many versions"&amp;" and each has a preferred version, because these tidbits sfiziosissimi are truly irresistible! for this recipe with the sauce, do not forget to serve up good homemade bread for ""the final shoe"", an essential habit for this dish!")</f>
         <v>we all have a heart recipe, one that takes us back to a particular time ... it's sweet or salty. but there is a recipe that is loved by most, especially by children: they are the meatballs to the sauce, the amarcord par excellence! there are many versions and each has a preferred version, because these tidbits sfiziosissimi are truly irresistible! for this recipe with the sauce, do not forget to serve up good homemade bread for "the final shoe", an essential habit for this dish!</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A48, ""it"", ""en"")"),"the potato gateau is a delicious preparation based on potatoes and various meats. a mess of churn with an irresistible golden crust that will ensure a delicious meal. this famous old preparation is a stronghold of the Neapolitan cuisine and then revisited"&amp;" in other regions of southern Italy. However the potato gateau, Italianate in gattò O Gato, appeared on the luxurious tables of the Kingdom of the Two Sicilies until the end of 1700. In fact the palate superfine Queen Maria Carolina of Habsburg, wife of f"&amp;"erdinand i of bourbon, not He took part with delicacies of monsieurs - French chefs - called the court of the kingdom of Naples. so it was that the Neapolitan people learned the technique and made it his own. He replaced the Swiss cheese with the cream of"&amp;" milk, and then embellished the mess with cooked ham and salami. and not only. even the name soon changed from potato gateau in gattò ... and even monsieurs not escaped the Neapolitan imagination, thus becoming the ""Monzù""! every family handed down thei"&amp;"r own version of this irresistible pie, and so we decided to share with you the recipe for potato gateau made by chef roberto pinto!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A48, ""it"", ""en"")"),"the potato gateau is a delicious preparation based on potatoes and various meats. a mess of churn with an irresistible golden crust that will ensure a delicious meal. this famous old preparation is a stronghold of the Neapolitan cuisine and then revisited"&amp;" in other regions of southern Italy. However the potato gateau, Italianate in gattò O Gato, appeared on the luxurious tables of the Kingdom of the Two Sicilies until the end of 1700. In fact the palate superfine Queen Maria Carolina of Habsburg, wife of f"&amp;"erdinand i of bourbon, not He took part with delicacies of monsieurs - French chefs - called the court of the kingdom of Naples. so it was that the Neapolitan people learned the technique and made it his own. He replaced the Swiss cheese with the cream of"&amp;" milk, and then embellished the mess with cooked ham and salami. and not only. even the name soon changed from potato gateau in gattò ... and even monsieurs not escaped the Neapolitan imagination, thus becoming the ""Monzù""! every family handed down thei"&amp;"r own version of this irresistible pie, and so we decided to share with you the recipe for potato gateau made by chef roberto pinto!")</f>
         <v>the potato gateau is a delicious preparation based on potatoes and various meats. a mess of churn with an irresistible golden crust that will ensure a delicious meal. this famous old preparation is a stronghold of the Neapolitan cuisine and then revisited in other regions of southern Italy. However the potato gateau, Italianate in gattò O Gato, appeared on the luxurious tables of the Kingdom of the Two Sicilies until the end of 1700. In fact the palate superfine Queen Maria Carolina of Habsburg, wife of ferdinand i of bourbon, not He took part with delicacies of monsieurs - French chefs - called the court of the kingdom of Naples. so it was that the Neapolitan people learned the technique and made it his own. He replaced the Swiss cheese with the cream of milk, and then embellished the mess with cooked ham and salami. and not only. even the name soon changed from potato gateau in gattò ... and even monsieurs not escaped the Neapolitan imagination, thus becoming the "Monzù"! every family handed down their own version of this irresistible pie, and so we decided to share with you the recipe for potato gateau made by chef roberto pinto!</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A49, ""it"", ""en"")"),"It is said to arise from the mistakes the best ideas and that is what often happened to the largest in history. Also in the kitchen certain errors have made the fortune of someone. an example is the caprese cake, the cake invented by Flower carmine, aroun"&amp;"d 1920, that he forgot to add the flour mixture. but once baked sweet, accomplices the wonderful moist texture and soft as well as its natural absence of gluten, conquered virtually all. the rest, as they say, is history. and in fact the Capri cake has co"&amp;"nquered people since that fateful error, to the point of becoming one of the traditional grid pastry icons. from the island of Capri, where she was born, to the Amalfi coast where you can also taste the famous lemon delights, the caprese cake is the desse"&amp;"rt most purchased in bakeries. and so we decided to reveal all the secrets to be able to realize in your home. to help us came one of the greatest masters of pastry savior of rice, you will not commit mistakes but you will get a real sweet to master!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A49, ""it"", ""en"")"),"It is said to arise from the mistakes the best ideas and that is what often happened to the largest in history. Also in the kitchen certain errors have made the fortune of someone. an example is the caprese cake, the cake invented by Flower carmine, aroun"&amp;"d 1920, that he forgot to add the flour mixture. but once baked sweet, accomplices the wonderful moist texture and soft as well as its natural absence of gluten, conquered virtually all. the rest, as they say, is history. and in fact the Capri cake has co"&amp;"nquered people since that fateful error, to the point of becoming one of the traditional grid pastry icons. from the island of Capri, where she was born, to the Amalfi coast where you can also taste the famous lemon delights, the caprese cake is the desse"&amp;"rt most purchased in bakeries. and so we decided to reveal all the secrets to be able to realize in your home. to help us came one of the greatest masters of pastry savior of rice, you will not commit mistakes but you will get a real sweet to master!")</f>
         <v>It is said to arise from the mistakes the best ideas and that is what often happened to the largest in history. Also in the kitchen certain errors have made the fortune of someone. an example is the caprese cake, the cake invented by Flower carmine, around 1920, that he forgot to add the flour mixture. but once baked sweet, accomplices the wonderful moist texture and soft as well as its natural absence of gluten, conquered virtually all. the rest, as they say, is history. and in fact the Capri cake has conquered people since that fateful error, to the point of becoming one of the traditional grid pastry icons. from the island of Capri, where she was born, to the Amalfi coast where you can also taste the famous lemon delights, the caprese cake is the dessert most purchased in bakeries. and so we decided to reveal all the secrets to be able to realize in your home. to help us came one of the greatest masters of pastry savior of rice, you will not commit mistakes but you will get a real sweet to master!</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A50, ""it"", ""en"")"),"the chocolate cake is a sweet classic and timeless Italian pastry, which always like at all. any time is the right one to taste a slice: high and soft, is perfect for a snack, afternoon tea 5, or in the morning, to be dipped in milk for a special breakfas"&amp;"t that with its unmistakable aroma of cocoa will awaken even the most little ones! but this chocolate cake is a very versatile recipe, and to transform it into a more structured dessert will be enough to stuff it with the cream you love most and decorate "&amp;"it with cream, frosting and berries. you also prepare this cake for a party or even as a base to create other original sweet preparations (think for example how to transform it for halloween): the chocolate cake you will play it safe, and you have to do i"&amp;"s collect your success!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A50, ""it"", ""en"")"),"the chocolate cake is a sweet classic and timeless Italian pastry, which always like at all. any time is the right one to taste a slice: high and soft, is perfect for a snack, afternoon tea 5, or in the morning, to be dipped in milk for a special breakfas"&amp;"t that with its unmistakable aroma of cocoa will awaken even the most little ones! but this chocolate cake is a very versatile recipe, and to transform it into a more structured dessert will be enough to stuff it with the cream you love most and decorate "&amp;"it with cream, frosting and berries. you also prepare this cake for a party or even as a base to create other original sweet preparations (think for example how to transform it for halloween): the chocolate cake you will play it safe, and you have to do i"&amp;"s collect your success!")</f>
         <v>the chocolate cake is a sweet classic and timeless Italian pastry, which always like at all. any time is the right one to taste a slice: high and soft, is perfect for a snack, afternoon tea 5, or in the morning, to be dipped in milk for a special breakfast that with its unmistakable aroma of cocoa will awaken even the most little ones! but this chocolate cake is a very versatile recipe, and to transform it into a more structured dessert will be enough to stuff it with the cream you love most and decorate it with cream, frosting and berries. you also prepare this cake for a party or even as a base to create other original sweet preparations (think for example how to transform it for halloween): the chocolate cake you will play it safe, and you have to do is collect your success!</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A51, ""it"", ""en"")"),"and 'a forever home cooking among the most with delight and easy to prepare: we are talking about chocolate salami. a dessert that always puts all agree, perfect for a simple meal, a tasty snack or to garnish a dessert buffet. its characteristic shape mak"&amp;"es it perfect to be cut into small slices that will make the temptation young and old. every opportunity to enjoy a moment of pleasure in the company with this delicious chocolate salami.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A51, ""it"", ""en"")"),"and 'a forever home cooking among the most with delight and easy to prepare: we are talking about chocolate salami. a dessert that always puts all agree, perfect for a simple meal, a tasty snack or to garnish a dessert buffet. its characteristic shape mak"&amp;"es it perfect to be cut into small slices that will make the temptation young and old. every opportunity to enjoy a moment of pleasure in the company with this delicious chocolate salami.")</f>
         <v>and 'a forever home cooking among the most with delight and easy to prepare: we are talking about chocolate salami. a dessert that always puts all agree, perfect for a simple meal, a tasty snack or to garnish a dessert buffet. its characteristic shape makes it perfect to be cut into small slices that will make the temptation young and old. every opportunity to enjoy a moment of pleasure in the company with this delicious chocolate salami.</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A52, ""it"", ""en"")"),"a cake in a few days has made inroads into the hearts of sailors from around the web: the cream tart! thanks to its color and its simplicity is a cake suitable for all ages and perfect for all occasions. just draw from shortcrust a number that will symbol"&amp;"ize the years of a birthday or an anniversary in the case of those spent with the loved one. but with this soft and fragrant pastry you can pick in realizing the most various forms: from the heart for Valentine's Day, a flower for Mother's Day or a simple"&amp;" round shape for Sunday lunch. The cream tart is a sweet modern that you can customize according to their own taste. we will suggest a fresh version and colorful with strawberries, blackberries and colorful macarons .. for a sharper contrast is possible t"&amp;"o make the pastry with a little 'cocoa, or choose a chocolate cream, and for decoration you can pick adding meringues , fresh fruit or edible flowers! do you get the best out of this cake and make it perfect for your occasion ... maybe even in the savory "&amp;"version!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A52, ""it"", ""en"")"),"a cake in a few days has made inroads into the hearts of sailors from around the web: the cream tart! thanks to its color and its simplicity is a cake suitable for all ages and perfect for all occasions. just draw from shortcrust a number that will symbol"&amp;"ize the years of a birthday or an anniversary in the case of those spent with the loved one. but with this soft and fragrant pastry you can pick in realizing the most various forms: from the heart for Valentine's Day, a flower for Mother's Day or a simple"&amp;" round shape for Sunday lunch. The cream tart is a sweet modern that you can customize according to their own taste. we will suggest a fresh version and colorful with strawberries, blackberries and colorful macarons .. for a sharper contrast is possible t"&amp;"o make the pastry with a little 'cocoa, or choose a chocolate cream, and for decoration you can pick adding meringues , fresh fruit or edible flowers! do you get the best out of this cake and make it perfect for your occasion ... maybe even in the savory "&amp;"version!")</f>
         <v>a cake in a few days has made inroads into the hearts of sailors from around the web: the cream tart! thanks to its color and its simplicity is a cake suitable for all ages and perfect for all occasions. just draw from shortcrust a number that will symbolize the years of a birthday or an anniversary in the case of those spent with the loved one. but with this soft and fragrant pastry you can pick in realizing the most various forms: from the heart for Valentine's Day, a flower for Mother's Day or a simple round shape for Sunday lunch. The cream tart is a sweet modern that you can customize according to their own taste. we will suggest a fresh version and colorful with strawberries, blackberries and colorful macarons .. for a sharper contrast is possible to make the pastry with a little 'cocoa, or choose a chocolate cream, and for decoration you can pick adding meringues , fresh fruit or edible flowers! do you get the best out of this cake and make it perfect for your occasion ... maybe even in the savory version!</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A53, ""it"", ""en"")"),"there's a recipe that combines the sweetness of hazelnut cream and the freshness of a summer dessert: cheesecake with Nutella! a super delicious dessert that does not require any type of cooking and preparing without jelly! cream cheese is mixed with Nute"&amp;"lla to create a fluffy mousse, situated on a crunchy biscuit base. This cake is also ideal for the summer months, because unlike for example the classic New York cheesecake does not require the use of the oven and lends itself perfectly to be prepared eve"&amp;"n on the hottest days! a real temptation that is impossible to resist! you also prepared the cheesecake nutella and you'll love at first taste!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A53, ""it"", ""en"")"),"there's a recipe that combines the sweetness of hazelnut cream and the freshness of a summer dessert: cheesecake with Nutella! a super delicious dessert that does not require any type of cooking and preparing without jelly! cream cheese is mixed with Nute"&amp;"lla to create a fluffy mousse, situated on a crunchy biscuit base. This cake is also ideal for the summer months, because unlike for example the classic New York cheesecake does not require the use of the oven and lends itself perfectly to be prepared eve"&amp;"n on the hottest days! a real temptation that is impossible to resist! you also prepared the cheesecake nutella and you'll love at first taste!")</f>
         <v>there's a recipe that combines the sweetness of hazelnut cream and the freshness of a summer dessert: cheesecake with Nutella! a super delicious dessert that does not require any type of cooking and preparing without jelly! cream cheese is mixed with Nutella to create a fluffy mousse, situated on a crunchy biscuit base. This cake is also ideal for the summer months, because unlike for example the classic New York cheesecake does not require the use of the oven and lends itself perfectly to be prepared even on the hottest days! a real temptation that is impossible to resist! you also prepared the cheesecake nutella and you'll love at first taste!</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A54, ""it"", ""en"")"),"do you remember when you hear a song you love and especially, at that very moment, your ears are able to isolate any noise around, to the unique sound space that you want to hear? there are recipes that can elicit the same emotion, maybe bringing you back"&amp;" to pleasant moments spent in the company of your loved ones. for us, the tart nutella is definitely the cake that tastes good, than housewives and many snacks to be done by dividing a slice with friends. like mars cake, is an exception to the rule to ind"&amp;"ulge once in a while ... for the sheer pleasure of it! and an irresistible pastry filling, here is the tart nutella: much more than music to our ears!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A54, ""it"", ""en"")"),"do you remember when you hear a song you love and especially, at that very moment, your ears are able to isolate any noise around, to the unique sound space that you want to hear? there are recipes that can elicit the same emotion, maybe bringing you back"&amp;" to pleasant moments spent in the company of your loved ones. for us, the tart nutella is definitely the cake that tastes good, than housewives and many snacks to be done by dividing a slice with friends. like mars cake, is an exception to the rule to ind"&amp;"ulge once in a while ... for the sheer pleasure of it! and an irresistible pastry filling, here is the tart nutella: much more than music to our ears!")</f>
         <v>do you remember when you hear a song you love and especially, at that very moment, your ears are able to isolate any noise around, to the unique sound space that you want to hear? there are recipes that can elicit the same emotion, maybe bringing you back to pleasant moments spent in the company of your loved ones. for us, the tart nutella is definitely the cake that tastes good, than housewives and many snacks to be done by dividing a slice with friends. like mars cake, is an exception to the rule to indulge once in a while ... for the sheer pleasure of it! and an irresistible pastry filling, here is the tart nutella: much more than music to our ears!</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A55, ""it"", ""en"")"),"you are in search of yummy treats to enjoy during your breaks or by preparere as a snack for your children? after mars cake, today we present the nutellotti, little cookies made with a fragrant paste of Nutella. the nutellotti are characterized by a cream"&amp;"y heart, wrapped in a soft dough that is really hard to resist tasting them, you will be pleasantly surprised by the sweet surprise that you will find in them! Each biscuit is then completed with a crunchy hazelnut placed on neat little tufts of Nutella: "&amp;"serve the nutellotti accompanying them with a good hot tea or coffee and you will see that their goodness will win you over at first taste!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A55, ""it"", ""en"")"),"you are in search of yummy treats to enjoy during your breaks or by preparere as a snack for your children? after mars cake, today we present the nutellotti, little cookies made with a fragrant paste of Nutella. the nutellotti are characterized by a cream"&amp;"y heart, wrapped in a soft dough that is really hard to resist tasting them, you will be pleasantly surprised by the sweet surprise that you will find in them! Each biscuit is then completed with a crunchy hazelnut placed on neat little tufts of Nutella: "&amp;"serve the nutellotti accompanying them with a good hot tea or coffee and you will see that their goodness will win you over at first taste!")</f>
         <v>you are in search of yummy treats to enjoy during your breaks or by preparere as a snack for your children? after mars cake, today we present the nutellotti, little cookies made with a fragrant paste of Nutella. the nutellotti are characterized by a creamy heart, wrapped in a soft dough that is really hard to resist tasting them, you will be pleasantly surprised by the sweet surprise that you will find in them! Each biscuit is then completed with a crunchy hazelnut placed on neat little tufts of Nutella: serve the nutellotti accompanying them with a good hot tea or coffee and you will see that their goodness will win you over at first taste!</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A56, ""it"", ""en"")"),"the mascarpone cream is one of the basic preparation of pastry, among the most tasty and popular, mainly known as the tiramisu cream or as an accompaniment to pandoro and panettone. With its delicate taste and velvety texture, the mascarpone cream is a de"&amp;"ssert delicious spoon, good alone but also excellent accompanied by slices of pandoro or panettone, as the most traditional of pairings but also dry desserts like sponge spain gluten. in our recipe you will find all the details to make the mascarpone crea"&amp;"m with pate-a-bombs, the method to pasteurize the eggs so that it can be also served by frequent waiver for the presence of raw eggs! with this method, the mascarpone cream becomes a sweet or a base to stuff that ingolosirà everyone, young and old!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A56, ""it"", ""en"")"),"the mascarpone cream is one of the basic preparation of pastry, among the most tasty and popular, mainly known as the tiramisu cream or as an accompaniment to pandoro and panettone. With its delicate taste and velvety texture, the mascarpone cream is a de"&amp;"ssert delicious spoon, good alone but also excellent accompanied by slices of pandoro or panettone, as the most traditional of pairings but also dry desserts like sponge spain gluten. in our recipe you will find all the details to make the mascarpone crea"&amp;"m with pate-a-bombs, the method to pasteurize the eggs so that it can be also served by frequent waiver for the presence of raw eggs! with this method, the mascarpone cream becomes a sweet or a base to stuff that ingolosirà everyone, young and old!")</f>
         <v>the mascarpone cream is one of the basic preparation of pastry, among the most tasty and popular, mainly known as the tiramisu cream or as an accompaniment to pandoro and panettone. With its delicate taste and velvety texture, the mascarpone cream is a dessert delicious spoon, good alone but also excellent accompanied by slices of pandoro or panettone, as the most traditional of pairings but also dry desserts like sponge spain gluten. in our recipe you will find all the details to make the mascarpone cream with pate-a-bombs, the method to pasteurize the eggs so that it can be also served by frequent waiver for the presence of raw eggs! with this method, the mascarpone cream becomes a sweet or a base to stuff that ingolosirà everyone, young and old!</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A57, ""it"", ""en"")"),"the famous Mexican guacamole is an ancient based avocado dressing, now spread around the world, whose recipe dates back to the time of the Aztecs. The original recipe guacamole was made by one mashed avocado mixed with lime juice and salt, but with the pa"&amp;"ssing of time has been enriched until you get to a more elaborate version and even more tasty, what we present today! have fun experimenting with different versions of this delicious sauce accompanied by tasty traditional dishes, such as tortillas with sp"&amp;"icy pork and guacamole to yogurt or chicken burrito with guacamole lime!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A57, ""it"", ""en"")"),"the famous Mexican guacamole is an ancient based avocado dressing, now spread around the world, whose recipe dates back to the time of the Aztecs. The original recipe guacamole was made by one mashed avocado mixed with lime juice and salt, but with the pa"&amp;"ssing of time has been enriched until you get to a more elaborate version and even more tasty, what we present today! have fun experimenting with different versions of this delicious sauce accompanied by tasty traditional dishes, such as tortillas with sp"&amp;"icy pork and guacamole to yogurt or chicken burrito with guacamole lime!")</f>
         <v>the famous Mexican guacamole is an ancient based avocado dressing, now spread around the world, whose recipe dates back to the time of the Aztecs. The original recipe guacamole was made by one mashed avocado mixed with lime juice and salt, but with the passing of time has been enriched until you get to a more elaborate version and even more tasty, what we present today! have fun experimenting with different versions of this delicious sauce accompanied by tasty traditional dishes, such as tortillas with spicy pork and guacamole to yogurt or chicken burrito with guacamole lime!</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A58, ""it"", ""en"")"),"talking about pesto comes to mind immediately Liguria is in fact that this beautiful region, with great care, does this sauce that is even said to have afrodisiaca.il Pesto is a cold sauce, synonym and symbol of Genoa and the whole of Liguria, which in re"&amp;"cent decades it is among the most famous sauces and spread worldwide. the first traces of pesto we find them even in 800 and since then the recipe has always kept identical, at least in the home preparation. to do the real Pesto Genovese takes a marble mo"&amp;"rtar and a wooden pestle and a lot of ... pazienza.come any traditional recipe, every family has its own recipe for pesto alla Genovese, one that we propose in this recipe is that of the consortium of Genoese pesto.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A58, ""it"", ""en"")"),"talking about pesto comes to mind immediately Liguria is in fact that this beautiful region, with great care, does this sauce that is even said to have afrodisiaca.il Pesto is a cold sauce, synonym and symbol of Genoa and the whole of Liguria, which in re"&amp;"cent decades it is among the most famous sauces and spread worldwide. the first traces of pesto we find them even in 800 and since then the recipe has always kept identical, at least in the home preparation. to do the real Pesto Genovese takes a marble mo"&amp;"rtar and a wooden pestle and a lot of ... pazienza.come any traditional recipe, every family has its own recipe for pesto alla Genovese, one that we propose in this recipe is that of the consortium of Genoese pesto.")</f>
         <v>talking about pesto comes to mind immediately Liguria is in fact that this beautiful region, with great care, does this sauce that is even said to have afrodisiaca.il Pesto is a cold sauce, synonym and symbol of Genoa and the whole of Liguria, which in recent decades it is among the most famous sauces and spread worldwide. the first traces of pesto we find them even in 800 and since then the recipe has always kept identical, at least in the home preparation. to do the real Pesto Genovese takes a marble mortar and a wooden pestle and a lot of ... pazienza.come any traditional recipe, every family has its own recipe for pesto alla Genovese, one that we propose in this recipe is that of the consortium of Genoese pesto.</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A59, ""it"", ""en"")"),"one of the most popular dishes from Campania in Italy and abroad ... are gnocchi Sorrento, really prepared at all restaurants in the world! what makes this dish dumplings so beloved is its simplicity: Mediterranean flavors and the genuineness mixed to eas"&amp;"y preparation. making handmade gnocchi bring you back to mind the Sundays spent at Grandma's house to steal all the hidden secrets behind the perfect consistency of those little gems of potatoes and flour. gnocchi Sorrento then are wrapped in a creamy tom"&amp;"ato sauce and basil, seasoned with mozzarella and grated cheese ... just the ingredients that make for a gnocchi with delight by creating a streamlined effect after brief passage in the oven. We brought you your mouth water? prepared with us the dumplings"&amp;" to the Sorrento!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A59, ""it"", ""en"")"),"one of the most popular dishes from Campania in Italy and abroad ... are gnocchi Sorrento, really prepared at all restaurants in the world! what makes this dish dumplings so beloved is its simplicity: Mediterranean flavors and the genuineness mixed to eas"&amp;"y preparation. making handmade gnocchi bring you back to mind the Sundays spent at Grandma's house to steal all the hidden secrets behind the perfect consistency of those little gems of potatoes and flour. gnocchi Sorrento then are wrapped in a creamy tom"&amp;"ato sauce and basil, seasoned with mozzarella and grated cheese ... just the ingredients that make for a gnocchi with delight by creating a streamlined effect after brief passage in the oven. We brought you your mouth water? prepared with us the dumplings"&amp;" to the Sorrento!")</f>
         <v>one of the most popular dishes from Campania in Italy and abroad ... are gnocchi Sorrento, really prepared at all restaurants in the world! what makes this dish dumplings so beloved is its simplicity: Mediterranean flavors and the genuineness mixed to easy preparation. making handmade gnocchi bring you back to mind the Sundays spent at Grandma's house to steal all the hidden secrets behind the perfect consistency of those little gems of potatoes and flour. gnocchi Sorrento then are wrapped in a creamy tomato sauce and basil, seasoned with mozzarella and grated cheese ... just the ingredients that make for a gnocchi with delight by creating a streamlined effect after brief passage in the oven. We brought you your mouth water? prepared with us the dumplings to the Sorrento!</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A60, ""it"", ""en"")"),"commonly we know as the cat languages ​​for their flat shape, narrow and elongated. the technical term for these delicious pastries very easy to make biscuits are scores cigarette as explains iginio master Massari, who has made for us. all we have tasted "&amp;"at least once, hidden among others cookies and pastries in ""Cabaret"" by the Sunday pasta. get ready in minutes, creating a delicate dough made with butter, sugar, flour and egg whites. ideal to serve for a snack along with the pastries, as they combine "&amp;"well with the tea, served with ice cream or with desserts, delicious creams and fruit salads. the languages ​​of cat you can also also be used to garnish cakes, adding a touch of elegance and delicacy more!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A60, ""it"", ""en"")"),"commonly we know as the cat languages ​​for their flat shape, narrow and elongated. the technical term for these delicious pastries very easy to make biscuits are scores cigarette as explains iginio master Massari, who has made for us. all we have tasted "&amp;"at least once, hidden among others cookies and pastries in ""Cabaret"" by the Sunday pasta. get ready in minutes, creating a delicate dough made with butter, sugar, flour and egg whites. ideal to serve for a snack along with the pastries, as they combine "&amp;"well with the tea, served with ice cream or with desserts, delicious creams and fruit salads. the languages ​​of cat you can also also be used to garnish cakes, adding a touch of elegance and delicacy more!")</f>
         <v>commonly we know as the cat languages ​​for their flat shape, narrow and elongated. the technical term for these delicious pastries very easy to make biscuits are scores cigarette as explains iginio master Massari, who has made for us. all we have tasted at least once, hidden among others cookies and pastries in "Cabaret" by the Sunday pasta. get ready in minutes, creating a delicate dough made with butter, sugar, flour and egg whites. ideal to serve for a snack along with the pastries, as they combine well with the tea, served with ice cream or with desserts, delicious creams and fruit salads. the languages ​​of cat you can also also be used to garnish cakes, adding a touch of elegance and delicacy more!</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A61, ""it"", ""en"")"),"shortbread are not all the same: classical, mounted, without butter, cottage cheese ... there are endless variations and so many ways to work it to get the desired consistency and make sweet tarts, shortbread, cream cakes! today we present the soft pastry"&amp;" that was born from the softened butter at room temperature with the powdered sugar, perfect to melt more easily in doughs with a few liquids, and many fats. lemon zest to give a delicate hint of yeast and some gram because the pastry is more crumbly. sof"&amp;"t pastry is prepared in a few minutes, but just a taste that remains unforgettable. prepare it with us, could become your favorite pastry!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A61, ""it"", ""en"")"),"shortbread are not all the same: classical, mounted, without butter, cottage cheese ... there are endless variations and so many ways to work it to get the desired consistency and make sweet tarts, shortbread, cream cakes! today we present the soft pastry"&amp;" that was born from the softened butter at room temperature with the powdered sugar, perfect to melt more easily in doughs with a few liquids, and many fats. lemon zest to give a delicate hint of yeast and some gram because the pastry is more crumbly. sof"&amp;"t pastry is prepared in a few minutes, but just a taste that remains unforgettable. prepare it with us, could become your favorite pastry!")</f>
         <v>shortbread are not all the same: classical, mounted, without butter, cottage cheese ... there are endless variations and so many ways to work it to get the desired consistency and make sweet tarts, shortbread, cream cakes! today we present the soft pastry that was born from the softened butter at room temperature with the powdered sugar, perfect to melt more easily in doughs with a few liquids, and many fats. lemon zest to give a delicate hint of yeast and some gram because the pastry is more crumbly. soft pastry is prepared in a few minutes, but just a taste that remains unforgettable. prepare it with us, could become your favorite pastry!</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A62, ""it"", ""en"")"),"simple things are always the best. have breakfast with this plum yoghurt together with the whole family will be one of the moments that prefer absolute. thanks to iginio master stewards make this cake is really easy, just follow some small tricks, mix all"&amp;" ingredients in a blender and cook the dough smooth that you will get to create a soft and smelling sweet. just as tradition dictates, each cake must be baked in a mold that is twice as long as the width. This will help in getting the right balance also i"&amp;"n the form! also made you the plum cake with yogurt, it will be perfect for any occasion!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A62, ""it"", ""en"")"),"simple things are always the best. have breakfast with this plum yoghurt together with the whole family will be one of the moments that prefer absolute. thanks to iginio master stewards make this cake is really easy, just follow some small tricks, mix all"&amp;" ingredients in a blender and cook the dough smooth that you will get to create a soft and smelling sweet. just as tradition dictates, each cake must be baked in a mold that is twice as long as the width. This will help in getting the right balance also i"&amp;"n the form! also made you the plum cake with yogurt, it will be perfect for any occasion!")</f>
         <v>simple things are always the best. have breakfast with this plum yoghurt together with the whole family will be one of the moments that prefer absolute. thanks to iginio master stewards make this cake is really easy, just follow some small tricks, mix all ingredients in a blender and cook the dough smooth that you will get to create a soft and smelling sweet. just as tradition dictates, each cake must be baked in a mold that is twice as long as the width. This will help in getting the right balance also in the form! also made you the plum cake with yogurt, it will be perfect for any occasion!</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A63, ""it"", ""en"")"),"in the kitchen, as in life, there are the cornerstones. especially when you're a kid and time for snack or breakfast is the funniest moments and delicious. bread, chocolate cream or milk and cookies! and here we incurable nostalgic front glass of cold mil"&amp;"k we lit and we could not resist from preparing the biscuits to accompany him: cookies (or chocolate chip cookies), the famous round biscuits and buttery chocolate chip, made famous by so many American films. as often happens, the recipe for cookies born "&amp;"by chance, around the '30s in the kitchen of the landlady ruth wakefield ""toll house inn"". Ruth had finished cocoa powder which is usually used to prepare butter biscuits for her clients. so he decided to finely chop a chocolate bar and add to the mixtu"&amp;"re, imagining that would have melted. actually the pieces remained intact, but its customers were excited about this delicious version. seems to have been born so what became the most famous cookie of america.ancora today, ruth cookies are one of the worl"&amp;"d's known American preparations, but it does not detract the many existing versions like the one enriched with blueberries and pistachios or double chocolate chip cookies, for true chocolate-addicted ... all share the unmistakable crispness and the rounde"&amp;"d shape typical of these cookies. prepare cookies with our version is very simple: in a few minutes you can get sweet tooth biscuits taste of butter and sugar, rich in chocolate chips! the sweetness is served!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A63, ""it"", ""en"")"),"in the kitchen, as in life, there are the cornerstones. especially when you're a kid and time for snack or breakfast is the funniest moments and delicious. bread, chocolate cream or milk and cookies! and here we incurable nostalgic front glass of cold mil"&amp;"k we lit and we could not resist from preparing the biscuits to accompany him: cookies (or chocolate chip cookies), the famous round biscuits and buttery chocolate chip, made famous by so many American films. as often happens, the recipe for cookies born "&amp;"by chance, around the '30s in the kitchen of the landlady ruth wakefield ""toll house inn"". Ruth had finished cocoa powder which is usually used to prepare butter biscuits for her clients. so he decided to finely chop a chocolate bar and add to the mixtu"&amp;"re, imagining that would have melted. actually the pieces remained intact, but its customers were excited about this delicious version. seems to have been born so what became the most famous cookie of america.ancora today, ruth cookies are one of the worl"&amp;"d's known American preparations, but it does not detract the many existing versions like the one enriched with blueberries and pistachios or double chocolate chip cookies, for true chocolate-addicted ... all share the unmistakable crispness and the rounde"&amp;"d shape typical of these cookies. prepare cookies with our version is very simple: in a few minutes you can get sweet tooth biscuits taste of butter and sugar, rich in chocolate chips! the sweetness is served!")</f>
         <v>in the kitchen, as in life, there are the cornerstones. especially when you're a kid and time for snack or breakfast is the funniest moments and delicious. bread, chocolate cream or milk and cookies! and here we incurable nostalgic front glass of cold milk we lit and we could not resist from preparing the biscuits to accompany him: cookies (or chocolate chip cookies), the famous round biscuits and buttery chocolate chip, made famous by so many American films. as often happens, the recipe for cookies born by chance, around the '30s in the kitchen of the landlady ruth wakefield "toll house inn". Ruth had finished cocoa powder which is usually used to prepare butter biscuits for her clients. so he decided to finely chop a chocolate bar and add to the mixture, imagining that would have melted. actually the pieces remained intact, but its customers were excited about this delicious version. seems to have been born so what became the most famous cookie of america.ancora today, ruth cookies are one of the world's known American preparations, but it does not detract the many existing versions like the one enriched with blueberries and pistachios or double chocolate chip cookies, for true chocolate-addicted ... all share the unmistakable crispness and the rounded shape typical of these cookies. prepare cookies with our version is very simple: in a few minutes you can get sweet tooth biscuits taste of butter and sugar, rich in chocolate chips! the sweetness is served!</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A64, ""it"", ""en"")"),"gricia the dough is one of the most famous dishes of Lazio cuisine, considered the ancestor of the common all'amatriciana.in pasta with the recipe dell'amatriciana fact there is the use of the pillow and pecorino romano. The main difference however is in "&amp;"the tomato sauce, pasta absent in gricia since its origin would even prior to the import of tomato in Europe. they say the pasta gricia was invented by the shepherds of Latium, which with few ingredients they had available to return from the pastures prep"&amp;"ared a dish so simple but so tasty and substantial. you can choose whether to join a tasty dressing of pasta bucatini and tonnarelli as long or short as the rigatoni!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A64, ""it"", ""en"")"),"gricia the dough is one of the most famous dishes of Lazio cuisine, considered the ancestor of the common all'amatriciana.in pasta with the recipe dell'amatriciana fact there is the use of the pillow and pecorino romano. The main difference however is in "&amp;"the tomato sauce, pasta absent in gricia since its origin would even prior to the import of tomato in Europe. they say the pasta gricia was invented by the shepherds of Latium, which with few ingredients they had available to return from the pastures prep"&amp;"ared a dish so simple but so tasty and substantial. you can choose whether to join a tasty dressing of pasta bucatini and tonnarelli as long or short as the rigatoni!")</f>
         <v>gricia the dough is one of the most famous dishes of Lazio cuisine, considered the ancestor of the common all'amatriciana.in pasta with the recipe dell'amatriciana fact there is the use of the pillow and pecorino romano. The main difference however is in the tomato sauce, pasta absent in gricia since its origin would even prior to the import of tomato in Europe. they say the pasta gricia was invented by the shepherds of Latium, which with few ingredients they had available to return from the pastures prepared a dish so simple but so tasty and substantial. you can choose whether to join a tasty dressing of pasta bucatini and tonnarelli as long or short as the rigatoni!</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A65, ""it"", ""en"")"),"wholemeal bread is a rustic bread, rich and substantial. ideal to prepare the Sunday morning when the time is greater; In fact when stored properly this bread will last longer and retain its fragrance. It will be perfect to enrich the bread basket, perhap"&amp;"s along with a delicious spelled focaccia, and to make an appetizing shoe during meals ... but if lightly toasted and sprinkled with jam will be transformed into a magnificent breakfast! wholemeal bread, prepared with a rich bran meal, is an excellent sub"&amp;"stitute for white bread as rich in fiber, vitamins and salts minerali.preparare a fragrant loaf of whole wheat bread at home is really a no-brainer, discover with us how to do!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A65, ""it"", ""en"")"),"wholemeal bread is a rustic bread, rich and substantial. ideal to prepare the Sunday morning when the time is greater; In fact when stored properly this bread will last longer and retain its fragrance. It will be perfect to enrich the bread basket, perhap"&amp;"s along with a delicious spelled focaccia, and to make an appetizing shoe during meals ... but if lightly toasted and sprinkled with jam will be transformed into a magnificent breakfast! wholemeal bread, prepared with a rich bran meal, is an excellent sub"&amp;"stitute for white bread as rich in fiber, vitamins and salts minerali.preparare a fragrant loaf of whole wheat bread at home is really a no-brainer, discover with us how to do!")</f>
         <v>wholemeal bread is a rustic bread, rich and substantial. ideal to prepare the Sunday morning when the time is greater; In fact when stored properly this bread will last longer and retain its fragrance. It will be perfect to enrich the bread basket, perhaps along with a delicious spelled focaccia, and to make an appetizing shoe during meals ... but if lightly toasted and sprinkled with jam will be transformed into a magnificent breakfast! wholemeal bread, prepared with a rich bran meal, is an excellent substitute for white bread as rich in fiber, vitamins and salts minerali.preparare a fragrant loaf of whole wheat bread at home is really a no-brainer, discover with us how to do!</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A66, ""it"", ""en"")"),"how many times you happened to be on vacation and not have a scale to make a good cake? with the cake recipe 7 jars, in any kitchen be able to prepare a healthy and nutritious breakfast for the whole family! this sweet soft high and takes its name from th"&amp;"e yogurt (125 ml) which is used as a unit of measurement for all the other ingredients. a homemade cake for everyone that is realized without butter, but only with the use of oil that enhances the look of soft sweet! 7 cups cake is good naturally but is a"&amp;"lso perfect to cut and fill with cream or jam for a mouth-watering snack! prepare it even you, the only scent will intoxicate your senses! and if you love the simple sweets, also try the biscuits always very easy to achieve with yogurt!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A66, ""it"", ""en"")"),"how many times you happened to be on vacation and not have a scale to make a good cake? with the cake recipe 7 jars, in any kitchen be able to prepare a healthy and nutritious breakfast for the whole family! this sweet soft high and takes its name from th"&amp;"e yogurt (125 ml) which is used as a unit of measurement for all the other ingredients. a homemade cake for everyone that is realized without butter, but only with the use of oil that enhances the look of soft sweet! 7 cups cake is good naturally but is a"&amp;"lso perfect to cut and fill with cream or jam for a mouth-watering snack! prepare it even you, the only scent will intoxicate your senses! and if you love the simple sweets, also try the biscuits always very easy to achieve with yogurt!")</f>
         <v>how many times you happened to be on vacation and not have a scale to make a good cake? with the cake recipe 7 jars, in any kitchen be able to prepare a healthy and nutritious breakfast for the whole family! this sweet soft high and takes its name from the yogurt (125 ml) which is used as a unit of measurement for all the other ingredients. a homemade cake for everyone that is realized without butter, but only with the use of oil that enhances the look of soft sweet! 7 cups cake is good naturally but is also perfect to cut and fill with cream or jam for a mouth-watering snack! prepare it even you, the only scent will intoxicate your senses! and if you love the simple sweets, also try the biscuits always very easy to achieve with yogurt!</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A67, ""it"", ""en"")"),"when it comes to dessert, the cheesecake is unparalleled and beats all for his explosive style! Today we propose the cheesecake with berries, without firing a variant that will captivate you with its freshness ... priceless three layers of sweetness that "&amp;"the first taste will emit a riot of flavors, aromas and textures! Here a crumbly base of buckets and butter biscuits embraces a soft flavored lemon cream, all topped by a delicious puree the berries. the cheesecake with berries is the perfect summer cake "&amp;"to finish in the most attractive and greedy manner a special dinner ... is so elegant and refined, once brought to the table, all eyes will be on her: her soft covering amaranth is so spectacular that will not go unnoticed!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A67, ""it"", ""en"")"),"when it comes to dessert, the cheesecake is unparalleled and beats all for his explosive style! Today we propose the cheesecake with berries, without firing a variant that will captivate you with its freshness ... priceless three layers of sweetness that "&amp;"the first taste will emit a riot of flavors, aromas and textures! Here a crumbly base of buckets and butter biscuits embraces a soft flavored lemon cream, all topped by a delicious puree the berries. the cheesecake with berries is the perfect summer cake "&amp;"to finish in the most attractive and greedy manner a special dinner ... is so elegant and refined, once brought to the table, all eyes will be on her: her soft covering amaranth is so spectacular that will not go unnoticed!")</f>
         <v>when it comes to dessert, the cheesecake is unparalleled and beats all for his explosive style! Today we propose the cheesecake with berries, without firing a variant that will captivate you with its freshness ... priceless three layers of sweetness that the first taste will emit a riot of flavors, aromas and textures! Here a crumbly base of buckets and butter biscuits embraces a soft flavored lemon cream, all topped by a delicious puree the berries. the cheesecake with berries is the perfect summer cake to finish in the most attractive and greedy manner a special dinner ... is so elegant and refined, once brought to the table, all eyes will be on her: her soft covering amaranth is so spectacular that will not go unnoticed!</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A68, ""it"", ""en"")"),"the panna cotta is one of the most popular dessert spoon and appreciated not only in Italy but also abroad, for the simplicity of its preparation, its particularly delicate taste and the elegant way in which it is impiattata that make a sweet end perfect "&amp;"meal. The exact origins of this cake are unknown, we only know that he was born in the Langhe area of ​​Piedmont at the beginning of the twentieth century. the panna cotta is the perfect dessert spoon for every season thanks to the infinite variety of acc"&amp;"ompanying sauces: caramel, melted chocolate, or the coulis of fresh fruit!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A68, ""it"", ""en"")"),"the panna cotta is one of the most popular dessert spoon and appreciated not only in Italy but also abroad, for the simplicity of its preparation, its particularly delicate taste and the elegant way in which it is impiattata that make a sweet end perfect "&amp;"meal. The exact origins of this cake are unknown, we only know that he was born in the Langhe area of ​​Piedmont at the beginning of the twentieth century. the panna cotta is the perfect dessert spoon for every season thanks to the infinite variety of acc"&amp;"ompanying sauces: caramel, melted chocolate, or the coulis of fresh fruit!")</f>
         <v>the panna cotta is one of the most popular dessert spoon and appreciated not only in Italy but also abroad, for the simplicity of its preparation, its particularly delicate taste and the elegant way in which it is impiattata that make a sweet end perfect meal. The exact origins of this cake are unknown, we only know that he was born in the Langhe area of ​​Piedmont at the beginning of the twentieth century. the panna cotta is the perfect dessert spoon for every season thanks to the infinite variety of accompanying sauces: caramel, melted chocolate, or the coulis of fresh fruit!</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A69, ""it"", ""en"")"),"how many times in the warm summer nights we looked up to the sky hoping to catch lightning that moment: ""a shooting star."" the star appeal is timeless, and even the kitchen has succumbed to this astral seduction expressing love for the stars with an ico"&amp;"nic and tasty dessert: the star cake pan. easy cake and quick to make and to discover layer upon layer: foamy, crispy, light and dark, a contrast of colors and textures with a unique and inimitable taste. you are ready to make a wish with our delicious ca"&amp;"ke pan of stars?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A69, ""it"", ""en"")"),"how many times in the warm summer nights we looked up to the sky hoping to catch lightning that moment: ""a shooting star."" the star appeal is timeless, and even the kitchen has succumbed to this astral seduction expressing love for the stars with an ico"&amp;"nic and tasty dessert: the star cake pan. easy cake and quick to make and to discover layer upon layer: foamy, crispy, light and dark, a contrast of colors and textures with a unique and inimitable taste. you are ready to make a wish with our delicious ca"&amp;"ke pan of stars?")</f>
         <v>how many times in the warm summer nights we looked up to the sky hoping to catch lightning that moment: "a shooting star." the star appeal is timeless, and even the kitchen has succumbed to this astral seduction expressing love for the stars with an iconic and tasty dessert: the star cake pan. easy cake and quick to make and to discover layer upon layer: foamy, crispy, light and dark, a contrast of colors and textures with a unique and inimitable taste. you are ready to make a wish with our delicious cake pan of stars?</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A70, ""it"", ""en"")"),"the roll with Nutella is one of the classic sweet: a luscious swirl of soft cookie dough wraps one of the most popular spreads made from hazelnuts! This reminds soft dough consistency and taste of sponge cake but in this format will become an inviting ove"&amp;"rwhelming roll goodies, it will be enjoyed by young and old! Serve in slices for a tasty snack to celebrate the birthday of your children, perhaps in combination with cool cubes mars cake, or during house parties, such as during the Halloween period. sbiz"&amp;"zarritevi decoration using different stencils for different occasions ... will become a real canvas on which to vent your creativity! but do not hope to be able to enjoy a long time, the roll nutella disappear in a flash!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A70, ""it"", ""en"")"),"the roll with Nutella is one of the classic sweet: a luscious swirl of soft cookie dough wraps one of the most popular spreads made from hazelnuts! This reminds soft dough consistency and taste of sponge cake but in this format will become an inviting ove"&amp;"rwhelming roll goodies, it will be enjoyed by young and old! Serve in slices for a tasty snack to celebrate the birthday of your children, perhaps in combination with cool cubes mars cake, or during house parties, such as during the Halloween period. sbiz"&amp;"zarritevi decoration using different stencils for different occasions ... will become a real canvas on which to vent your creativity! but do not hope to be able to enjoy a long time, the roll nutella disappear in a flash!")</f>
         <v>the roll with Nutella is one of the classic sweet: a luscious swirl of soft cookie dough wraps one of the most popular spreads made from hazelnuts! This reminds soft dough consistency and taste of sponge cake but in this format will become an inviting overwhelming roll goodies, it will be enjoyed by young and old! Serve in slices for a tasty snack to celebrate the birthday of your children, perhaps in combination with cool cubes mars cake, or during house parties, such as during the Halloween period. sbizzarritevi decoration using different stencils for different occasions ... will become a real canvas on which to vent your creativity! but do not hope to be able to enjoy a long time, the roll nutella disappear in a flash!</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A71, ""it"", ""en"")"),"Thursday gnocchi, fish on Friday and Saturday tripe! the dumplings are an ancient main dish, prepared with the most varied flour and spread all over the world, even in different forms. as suggested by the Roman tra, these are just the classic dish Thursda"&amp;"y, probably placed in the middle of the week to make up for the light of the next day's meal ... arcane custom which is still carried on by most nostalgic Roman citizens. Today we have chosen to offer you a typical Lazio recipe: gnocchi alla romana! succu"&amp;"lent semolina discs featuring a golden crust, made so fragrant with the addition of butter and cheese! Of course, in Rome, the right day to prepare them is Thursday but, when tested, there innamonere to the point that every day will be the right one to br"&amp;"ing to the table these gnocchi alla romana! the secret? Serve piping hot to find out!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A71, ""it"", ""en"")"),"Thursday gnocchi, fish on Friday and Saturday tripe! the dumplings are an ancient main dish, prepared with the most varied flour and spread all over the world, even in different forms. as suggested by the Roman tra, these are just the classic dish Thursda"&amp;"y, probably placed in the middle of the week to make up for the light of the next day's meal ... arcane custom which is still carried on by most nostalgic Roman citizens. Today we have chosen to offer you a typical Lazio recipe: gnocchi alla romana! succu"&amp;"lent semolina discs featuring a golden crust, made so fragrant with the addition of butter and cheese! Of course, in Rome, the right day to prepare them is Thursday but, when tested, there innamonere to the point that every day will be the right one to br"&amp;"ing to the table these gnocchi alla romana! the secret? Serve piping hot to find out!")</f>
         <v>Thursday gnocchi, fish on Friday and Saturday tripe! the dumplings are an ancient main dish, prepared with the most varied flour and spread all over the world, even in different forms. as suggested by the Roman tra, these are just the classic dish Thursday, probably placed in the middle of the week to make up for the light of the next day's meal ... arcane custom which is still carried on by most nostalgic Roman citizens. Today we have chosen to offer you a typical Lazio recipe: gnocchi alla romana! succulent semolina discs featuring a golden crust, made so fragrant with the addition of butter and cheese! Of course, in Rome, the right day to prepare them is Thursday but, when tested, there innamonere to the point that every day will be the right one to bring to the table these gnocchi alla romana! the secret? Serve piping hot to find out!</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A72, ""it"", ""en"")"),"around the world it is known as hot milk sponge cake and its characteristic is precisely to be that super soft fluffy. in GialloZafferano so we decided to give it a try ... even more than one! hot milk cake had to be absolutely dry or, conversely, too sof"&amp;"t, but just perfect! we have not pulled back from trials and samples, each time more and more greedy! the cake warm milk will prepare a cake which will be separated easily, except to prepare another for breakfast or a snack! at first glance may look like "&amp;"a sponge, the rest of the whipped mass unites the two preparations. but really the big difference is in the formation of the ""batter"", with hot liquid that characterizes it and makes the mixture of unique and special cake! If you've never heard of it, f"&amp;"ind out how to prepare the cake warm milk. we are sure that you will also prepare its variant cocoa and that the milk and coffee!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A72, ""it"", ""en"")"),"around the world it is known as hot milk sponge cake and its characteristic is precisely to be that super soft fluffy. in GialloZafferano so we decided to give it a try ... even more than one! hot milk cake had to be absolutely dry or, conversely, too sof"&amp;"t, but just perfect! we have not pulled back from trials and samples, each time more and more greedy! the cake warm milk will prepare a cake which will be separated easily, except to prepare another for breakfast or a snack! at first glance may look like "&amp;"a sponge, the rest of the whipped mass unites the two preparations. but really the big difference is in the formation of the ""batter"", with hot liquid that characterizes it and makes the mixture of unique and special cake! If you've never heard of it, f"&amp;"ind out how to prepare the cake warm milk. we are sure that you will also prepare its variant cocoa and that the milk and coffee!")</f>
         <v>around the world it is known as hot milk sponge cake and its characteristic is precisely to be that super soft fluffy. in GialloZafferano so we decided to give it a try ... even more than one! hot milk cake had to be absolutely dry or, conversely, too soft, but just perfect! we have not pulled back from trials and samples, each time more and more greedy! the cake warm milk will prepare a cake which will be separated easily, except to prepare another for breakfast or a snack! at first glance may look like a sponge, the rest of the whipped mass unites the two preparations. but really the big difference is in the formation of the "batter", with hot liquid that characterizes it and makes the mixture of unique and special cake! If you've never heard of it, find out how to prepare the cake warm milk. we are sure that you will also prepare its variant cocoa and that the milk and coffee!</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A73, ""it"", ""en"")"),"thinking to Sunday lunch there are so many traditional recipes that is really a daunting task to choose the one that is really our favorite. some are inextricably linked to lasagne or cannelloni and who is torn between the Neapolitan ragù and the Bolognes"&amp;"e. but among the main courses there is no history, a beef stew is the one that hits the spot in! its slow cooking, the few and essential fragrances necessary so that it becomes so good, make a recipe that nobody can not love. like all traditional recipes "&amp;"require lots of patience to a very good result. so all you have to do is put on the fire and forget about the pot, so in the meantime you can enjoy some tasty side dish such as baked vegetables, greedy and genuine. so for the lunch hour will be all set an"&amp;"d you can finally taste the beef stew to make special Sunday lunch. but now we ask you, among the first proposed which will you choose?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A73, ""it"", ""en"")"),"thinking to Sunday lunch there are so many traditional recipes that is really a daunting task to choose the one that is really our favorite. some are inextricably linked to lasagne or cannelloni and who is torn between the Neapolitan ragù and the Bolognes"&amp;"e. but among the main courses there is no history, a beef stew is the one that hits the spot in! its slow cooking, the few and essential fragrances necessary so that it becomes so good, make a recipe that nobody can not love. like all traditional recipes "&amp;"require lots of patience to a very good result. so all you have to do is put on the fire and forget about the pot, so in the meantime you can enjoy some tasty side dish such as baked vegetables, greedy and genuine. so for the lunch hour will be all set an"&amp;"d you can finally taste the beef stew to make special Sunday lunch. but now we ask you, among the first proposed which will you choose?")</f>
         <v>thinking to Sunday lunch there are so many traditional recipes that is really a daunting task to choose the one that is really our favorite. some are inextricably linked to lasagne or cannelloni and who is torn between the Neapolitan ragù and the Bolognese. but among the main courses there is no history, a beef stew is the one that hits the spot in! its slow cooking, the few and essential fragrances necessary so that it becomes so good, make a recipe that nobody can not love. like all traditional recipes require lots of patience to a very good result. so all you have to do is put on the fire and forget about the pot, so in the meantime you can enjoy some tasty side dish such as baked vegetables, greedy and genuine. so for the lunch hour will be all set and you can finally taste the beef stew to make special Sunday lunch. but now we ask you, among the first proposed which will you choose?</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A74, ""it"", ""en"")"),"the tiramisu is one of the most popular desserts, a classic Italian cuisine. how many times have you wondered if you prepare it with raw eggs would be risky or not? then you can opt for this version of tiramisu without eggs: ladyfingers dipped in coffee m"&amp;"eet a velvety mascarpone cream and whipped cream. every taste you will be conquered by the irresistible creaminess and the pleasant sweetness of the tiramisu. you can choose to serve the single-portion cups, elegant and stylish! while further enrich your "&amp;"sweet, you can add chocolate chips between the layers to create a delicious crispy note. Also try the version with strawberries or berries, to enjoy the sweetness of the tiramisu with no worries!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A74, ""it"", ""en"")"),"the tiramisu is one of the most popular desserts, a classic Italian cuisine. how many times have you wondered if you prepare it with raw eggs would be risky or not? then you can opt for this version of tiramisu without eggs: ladyfingers dipped in coffee m"&amp;"eet a velvety mascarpone cream and whipped cream. every taste you will be conquered by the irresistible creaminess and the pleasant sweetness of the tiramisu. you can choose to serve the single-portion cups, elegant and stylish! while further enrich your "&amp;"sweet, you can add chocolate chips between the layers to create a delicious crispy note. Also try the version with strawberries or berries, to enjoy the sweetness of the tiramisu with no worries!")</f>
         <v>the tiramisu is one of the most popular desserts, a classic Italian cuisine. how many times have you wondered if you prepare it with raw eggs would be risky or not? then you can opt for this version of tiramisu without eggs: ladyfingers dipped in coffee meet a velvety mascarpone cream and whipped cream. every taste you will be conquered by the irresistible creaminess and the pleasant sweetness of the tiramisu. you can choose to serve the single-portion cups, elegant and stylish! while further enrich your sweet, you can add chocolate chips between the layers to create a delicious crispy note. Also try the version with strawberries or berries, to enjoy the sweetness of the tiramisu with no worries!</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A75, ""it"", ""en"")"),"orecchiette with turnip greens, also called ""recchitelle"" or ""dragged"", are one of the most representative dishes of Puglia, especially the province of bari. this first plate is prepared in the whole region, even with accompaniments other than turnip "&amp;"greens such as broccoli or tomato sauce. the secret of this dish lies in the optimal cooking of the vegetables with the pasta, the experience and knowledge of raw materials enable you to get a perfect dish. according to tradition the chef Fabio abbattista"&amp;" has cooked for us making orecchiette pasta made with semolina home durum wheat, cooked in boiling water along with turnip tops to better absorb the spices, stir in a flavorful browned based sott anchovies 'oil and scented with a clove of garlic. orecchie"&amp;"tte with turnip greens are a traditional peasant dish, simple but with a unique taste that is born from the union of love decisi.se flavors genuine recipes, discover other Apulian delicacies such as bread soup of Gargano or Friselle.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A75, ""it"", ""en"")"),"orecchiette with turnip greens, also called ""recchitelle"" or ""dragged"", are one of the most representative dishes of Puglia, especially the province of bari. this first plate is prepared in the whole region, even with accompaniments other than turnip "&amp;"greens such as broccoli or tomato sauce. the secret of this dish lies in the optimal cooking of the vegetables with the pasta, the experience and knowledge of raw materials enable you to get a perfect dish. according to tradition the chef Fabio abbattista"&amp;" has cooked for us making orecchiette pasta made with semolina home durum wheat, cooked in boiling water along with turnip tops to better absorb the spices, stir in a flavorful browned based sott anchovies 'oil and scented with a clove of garlic. orecchie"&amp;"tte with turnip greens are a traditional peasant dish, simple but with a unique taste that is born from the union of love decisi.se flavors genuine recipes, discover other Apulian delicacies such as bread soup of Gargano or Friselle.")</f>
         <v>orecchiette with turnip greens, also called "recchitelle" or "dragged", are one of the most representative dishes of Puglia, especially the province of bari. this first plate is prepared in the whole region, even with accompaniments other than turnip greens such as broccoli or tomato sauce. the secret of this dish lies in the optimal cooking of the vegetables with the pasta, the experience and knowledge of raw materials enable you to get a perfect dish. according to tradition the chef Fabio abbattista has cooked for us making orecchiette pasta made with semolina home durum wheat, cooked in boiling water along with turnip tops to better absorb the spices, stir in a flavorful browned based sott anchovies 'oil and scented with a clove of garlic. orecchiette with turnip greens are a traditional peasant dish, simple but with a unique taste that is born from the union of love decisi.se flavors genuine recipes, discover other Apulian delicacies such as bread soup of Gargano or Friselle.</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A76, ""it"", ""en"")"),"a must of Italian cuisine are definitely the chicken thighs baked, really easy to prepare not require attention and even those who are less experienced in the kitchen they are given a delicious result and amazing! the thighs, time, are the most popular pa"&amp;"rt of the chicken and often disputed at the table. adding the right spices and respecting cooking times will get a soft meat inside and a delicious crispy crust that goes perfectly with the outline of potatoes ... always obviously oven! you also made thes"&amp;"e delicious chicken thighs in the oven, a dish suitable for all seasons that no one will resist!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A76, ""it"", ""en"")"),"a must of Italian cuisine are definitely the chicken thighs baked, really easy to prepare not require attention and even those who are less experienced in the kitchen they are given a delicious result and amazing! the thighs, time, are the most popular pa"&amp;"rt of the chicken and often disputed at the table. adding the right spices and respecting cooking times will get a soft meat inside and a delicious crispy crust that goes perfectly with the outline of potatoes ... always obviously oven! you also made thes"&amp;"e delicious chicken thighs in the oven, a dish suitable for all seasons that no one will resist!")</f>
         <v>a must of Italian cuisine are definitely the chicken thighs baked, really easy to prepare not require attention and even those who are less experienced in the kitchen they are given a delicious result and amazing! the thighs, time, are the most popular part of the chicken and often disputed at the table. adding the right spices and respecting cooking times will get a soft meat inside and a delicious crispy crust that goes perfectly with the outline of potatoes ... always obviously oven! you also made these delicious chicken thighs in the oven, a dish suitable for all seasons that no one will resist!</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A77, ""it"", ""en"")"),"cottage cheese, a white cloud of softness, one of the cheeses used in cooking, especially when it comes to make a cake! most of the times, in confectionery, is used as a filling for cannoli or tarts, but today we have chosen to use it directly to the mixt"&amp;"ure to prepare the cake with ricotta cheese and chocolate. the result will be very thick which will turn into a soft gentle, consistent, perfect to be enjoyed at breakfast or as a snack! Also you run to prepare this cake, only need a few ingredients to ac"&amp;"hieve it, but do not forget to add the chocolate into pieces to make it extremely tasty!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A77, ""it"", ""en"")"),"cottage cheese, a white cloud of softness, one of the cheeses used in cooking, especially when it comes to make a cake! most of the times, in confectionery, is used as a filling for cannoli or tarts, but today we have chosen to use it directly to the mixt"&amp;"ure to prepare the cake with ricotta cheese and chocolate. the result will be very thick which will turn into a soft gentle, consistent, perfect to be enjoyed at breakfast or as a snack! Also you run to prepare this cake, only need a few ingredients to ac"&amp;"hieve it, but do not forget to add the chocolate into pieces to make it extremely tasty!")</f>
         <v>cottage cheese, a white cloud of softness, one of the cheeses used in cooking, especially when it comes to make a cake! most of the times, in confectionery, is used as a filling for cannoli or tarts, but today we have chosen to use it directly to the mixture to prepare the cake with ricotta cheese and chocolate. the result will be very thick which will turn into a soft gentle, consistent, perfect to be enjoyed at breakfast or as a snack! Also you run to prepare this cake, only need a few ingredients to achieve it, but do not forget to add the chocolate into pieces to make it extremely tasty!</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A78, ""it"", ""en"")"),"stews, roasts, stews, there are many ways to prepare meat, including a timeless homemade specialties, easy easy and delicious: veal stew with potatoes. the long, gentle cooking with herbs releases those scents that make you mouth water during the preparat"&amp;"ion that, like all good things, it requires a little 'patience. but the secret of this dish is also in the choice of the cut of meat, a tender calf topside cleaned from connective tissue, which is the fibrous part that cooking does not dissolve as fat and"&amp;" tends to harden the meat. like any traditional dish each family guards its recipe and its secrets, but one thing is certain and common to all versions: the shoe with bread to soak up the superb creamy sauce! Here we offer our version of veal stew with po"&amp;"tatoes, and you as you prepare it?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A78, ""it"", ""en"")"),"stews, roasts, stews, there are many ways to prepare meat, including a timeless homemade specialties, easy easy and delicious: veal stew with potatoes. the long, gentle cooking with herbs releases those scents that make you mouth water during the preparat"&amp;"ion that, like all good things, it requires a little 'patience. but the secret of this dish is also in the choice of the cut of meat, a tender calf topside cleaned from connective tissue, which is the fibrous part that cooking does not dissolve as fat and"&amp;" tends to harden the meat. like any traditional dish each family guards its recipe and its secrets, but one thing is certain and common to all versions: the shoe with bread to soak up the superb creamy sauce! Here we offer our version of veal stew with po"&amp;"tatoes, and you as you prepare it?")</f>
         <v>stews, roasts, stews, there are many ways to prepare meat, including a timeless homemade specialties, easy easy and delicious: veal stew with potatoes. the long, gentle cooking with herbs releases those scents that make you mouth water during the preparation that, like all good things, it requires a little 'patience. but the secret of this dish is also in the choice of the cut of meat, a tender calf topside cleaned from connective tissue, which is the fibrous part that cooking does not dissolve as fat and tends to harden the meat. like any traditional dish each family guards its recipe and its secrets, but one thing is certain and common to all versions: the shoe with bread to soak up the superb creamy sauce! Here we offer our version of veal stew with potatoes, and you as you prepare it?</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A79, ""it"", ""en"")"),"true lovers of authentic flavors come forward today GialloZafferano talking about Bolognese sauce. one of the characteristic seasonings of Italian cuisine, the one who dedicates the beautiful country as the highest holder of good cuisine. to be sure we ha"&amp;"ve dusted off one of the oldest cooking manuals, that is, those that grandmothers passed down for generations and it is only thanks to all their invaluable advice that we have prepared the wonderful typical condiment of lasagne.poi we tried to cross the m"&amp;"any versions and all have managed to convince us. and you know why? because the recipe for Bolognese sauce is sincere, just like the traditional flavors that make it up. for this we imagine that our website represents the history that we pass, just as did"&amp;" the grandmothers, and that's why we are happy to share with you the authentic recipe for Bolognese sauce, the one filed October 17, 1982 at the Chamber of Commerce bologna, maybe one day you will pass on to your children, who knows. Meanwhile, however, d"&amp;"o not forget to tell us your, each version is precious!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A79, ""it"", ""en"")"),"true lovers of authentic flavors come forward today GialloZafferano talking about Bolognese sauce. one of the characteristic seasonings of Italian cuisine, the one who dedicates the beautiful country as the highest holder of good cuisine. to be sure we ha"&amp;"ve dusted off one of the oldest cooking manuals, that is, those that grandmothers passed down for generations and it is only thanks to all their invaluable advice that we have prepared the wonderful typical condiment of lasagne.poi we tried to cross the m"&amp;"any versions and all have managed to convince us. and you know why? because the recipe for Bolognese sauce is sincere, just like the traditional flavors that make it up. for this we imagine that our website represents the history that we pass, just as did"&amp;" the grandmothers, and that's why we are happy to share with you the authentic recipe for Bolognese sauce, the one filed October 17, 1982 at the Chamber of Commerce bologna, maybe one day you will pass on to your children, who knows. Meanwhile, however, d"&amp;"o not forget to tell us your, each version is precious!")</f>
         <v>true lovers of authentic flavors come forward today GialloZafferano talking about Bolognese sauce. one of the characteristic seasonings of Italian cuisine, the one who dedicates the beautiful country as the highest holder of good cuisine. to be sure we have dusted off one of the oldest cooking manuals, that is, those that grandmothers passed down for generations and it is only thanks to all their invaluable advice that we have prepared the wonderful typical condiment of lasagne.poi we tried to cross the many versions and all have managed to convince us. and you know why? because the recipe for Bolognese sauce is sincere, just like the traditional flavors that make it up. for this we imagine that our website represents the history that we pass, just as did the grandmothers, and that's why we are happy to share with you the authentic recipe for Bolognese sauce, the one filed October 17, 1982 at the Chamber of Commerce bologna, maybe one day you will pass on to your children, who knows. Meanwhile, however, do not forget to tell us your, each version is precious!</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A80, ""it"", ""en"")"),"a versatile recipe, for those who like to get their hands dirty ... perfect as a snack to take to school, to drink or to enrich the buffet for a birthday party: the pizza dough turned into red pizzas! soft and tasty, seasoned with tomato, oregano and mozz"&amp;"arella. prepare a satisfaction and a pleasure to enjoy them while still hot, warm or slightly heated! Discover how simple it is to prepare them, and while the mixture of red your pizzas will be rising, think about how to enrich and diversify the seasoning"&amp;". It realizes them will be fun and a pleasure to taste them all! and if you loved this recipe, why do not you try the fried waffles or languages ​​of pizza?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A80, ""it"", ""en"")"),"a versatile recipe, for those who like to get their hands dirty ... perfect as a snack to take to school, to drink or to enrich the buffet for a birthday party: the pizza dough turned into red pizzas! soft and tasty, seasoned with tomato, oregano and mozz"&amp;"arella. prepare a satisfaction and a pleasure to enjoy them while still hot, warm or slightly heated! Discover how simple it is to prepare them, and while the mixture of red your pizzas will be rising, think about how to enrich and diversify the seasoning"&amp;". It realizes them will be fun and a pleasure to taste them all! and if you loved this recipe, why do not you try the fried waffles or languages ​​of pizza?")</f>
         <v>a versatile recipe, for those who like to get their hands dirty ... perfect as a snack to take to school, to drink or to enrich the buffet for a birthday party: the pizza dough turned into red pizzas! soft and tasty, seasoned with tomato, oregano and mozzarella. prepare a satisfaction and a pleasure to enjoy them while still hot, warm or slightly heated! Discover how simple it is to prepare them, and while the mixture of red your pizzas will be rising, think about how to enrich and diversify the seasoning. It realizes them will be fun and a pleasure to taste them all! and if you loved this recipe, why do not you try the fried waffles or languages ​​of pizza?</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A81, ""it"", ""en"")"),"between our typical food recipes road certainly it could not miss the fried dumplings that belongs to the traditional Emilian cuisine. it is an old recipe whose origins seem to date back even to the domination of the Lombards, who used much lard in their "&amp;"dishes, especially for frying. the original recipe of fried dumplings precisely requires frying in lard but nowadays we prefer the use of oil as an alternative. the fried dumplings is a very easy recipe to prepare, you just have a little 'patience to mix "&amp;"together the ingredients: flour, water, milk, lard and yeast. enjoying hot, a fried once and made it cool slightly, accompanied with cold cuts and perhaps a glass of lambrusco. although the recipe is only one, the fried dumplings assumed, in Emilia, diffe"&amp;"rent names depending on the various zones in the province of bologna the fried dumplings called ""crescentina"" in the parma province ""fried cake"", in Reggio province emilia and modena ""fried dumpling,"" while in the piacenza province is more in vogue "&amp;"diction chisulèn dialect. although with the passage of time the fried dumplings has assumed different names, his goodness has remained intact!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A81, ""it"", ""en"")"),"between our typical food recipes road certainly it could not miss the fried dumplings that belongs to the traditional Emilian cuisine. it is an old recipe whose origins seem to date back even to the domination of the Lombards, who used much lard in their "&amp;"dishes, especially for frying. the original recipe of fried dumplings precisely requires frying in lard but nowadays we prefer the use of oil as an alternative. the fried dumplings is a very easy recipe to prepare, you just have a little 'patience to mix "&amp;"together the ingredients: flour, water, milk, lard and yeast. enjoying hot, a fried once and made it cool slightly, accompanied with cold cuts and perhaps a glass of lambrusco. although the recipe is only one, the fried dumplings assumed, in Emilia, diffe"&amp;"rent names depending on the various zones in the province of bologna the fried dumplings called ""crescentina"" in the parma province ""fried cake"", in Reggio province emilia and modena ""fried dumpling,"" while in the piacenza province is more in vogue "&amp;"diction chisulèn dialect. although with the passage of time the fried dumplings has assumed different names, his goodness has remained intact!")</f>
         <v>between our typical food recipes road certainly it could not miss the fried dumplings that belongs to the traditional Emilian cuisine. it is an old recipe whose origins seem to date back even to the domination of the Lombards, who used much lard in their dishes, especially for frying. the original recipe of fried dumplings precisely requires frying in lard but nowadays we prefer the use of oil as an alternative. the fried dumplings is a very easy recipe to prepare, you just have a little 'patience to mix together the ingredients: flour, water, milk, lard and yeast. enjoying hot, a fried once and made it cool slightly, accompanied with cold cuts and perhaps a glass of lambrusco. although the recipe is only one, the fried dumplings assumed, in Emilia, different names depending on the various zones in the province of bologna the fried dumplings called "crescentina" in the parma province "fried cake", in Reggio province emilia and modena "fried dumpling," while in the piacenza province is more in vogue diction chisulèn dialect. although with the passage of time the fried dumplings has assumed different names, his goodness has remained intact!</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A82, ""it"", ""en"")"),"candid and white like clouds, delicate and brittle enough to embellish desserts. the sweet tooth to crumble even in coffee or hot chocolate. are the meringues! irresistible mousse made of only two ingredients: egg whites and sugar. it seems that the compo"&amp;"und was born in France, hence the name of meringue to the French, but soon became even our adoption. We could therefore say that the meringue is a kind of alter ego of the French. in reality the substantial difference between the two lies in the mode in w"&amp;"hich the egg whites are mounted. in the French meringue it is omitted the passage of the pasteurization through the syrup of sugar and water, so going to directly mount the egg whites in a planetary mixer. We also add some drops of lemon juice to make the"&amp;" dough shiny and fluffy, but above all with a pleasant lemon verbena essence that will make it even more good your meringues. therefore, you are ready to prepare the meringue to the French? eventually you discover that it was easier to do than to say! and"&amp;" to take his hand in training, you can also pick any vegan version!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A82, ""it"", ""en"")"),"candid and white like clouds, delicate and brittle enough to embellish desserts. the sweet tooth to crumble even in coffee or hot chocolate. are the meringues! irresistible mousse made of only two ingredients: egg whites and sugar. it seems that the compo"&amp;"und was born in France, hence the name of meringue to the French, but soon became even our adoption. We could therefore say that the meringue is a kind of alter ego of the French. in reality the substantial difference between the two lies in the mode in w"&amp;"hich the egg whites are mounted. in the French meringue it is omitted the passage of the pasteurization through the syrup of sugar and water, so going to directly mount the egg whites in a planetary mixer. We also add some drops of lemon juice to make the"&amp;" dough shiny and fluffy, but above all with a pleasant lemon verbena essence that will make it even more good your meringues. therefore, you are ready to prepare the meringue to the French? eventually you discover that it was easier to do than to say! and"&amp;" to take his hand in training, you can also pick any vegan version!")</f>
         <v>candid and white like clouds, delicate and brittle enough to embellish desserts. the sweet tooth to crumble even in coffee or hot chocolate. are the meringues! irresistible mousse made of only two ingredients: egg whites and sugar. it seems that the compound was born in France, hence the name of meringue to the French, but soon became even our adoption. We could therefore say that the meringue is a kind of alter ego of the French. in reality the substantial difference between the two lies in the mode in which the egg whites are mounted. in the French meringue it is omitted the passage of the pasteurization through the syrup of sugar and water, so going to directly mount the egg whites in a planetary mixer. We also add some drops of lemon juice to make the dough shiny and fluffy, but above all with a pleasant lemon verbena essence that will make it even more good your meringues. therefore, you are ready to prepare the meringue to the French? eventually you discover that it was easier to do than to say! and to take his hand in training, you can also pick any vegan version!</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A83, ""it"", ""en"")"),"There are genuine and hearty dishes that can warm stomach and heart, especially at high altitude! if you are in Valtellina, in particular in the small town of teglio, you should try the pizzoccheri. beware of imitations, however: although it is a dish of "&amp;"humble origins, pizzoccheri is a dish whose goodness comes not only from the processing of the ingredients but also the choice of the same: the ground buckwheat flour in stone, the vegetable cabbage, butter alp are some of the must-have to let your guests"&amp;" really stunned. also GialloZafferano we have relied for the preparation of one pizzoccheri Valtellina Doc chef, alessandro negrini, this rustic dish expert from an early age, when preparing them was his grandmother. in the footsteps of tradition can make"&amp;" this rich and gorgeous dish, to prepare in summer and in winter, from the same processing pizzoccheri, a type of pasta similar to tagliatelle but shorter, buckwheat flour, type 0 flour and water . to discover all the authentic taste of this first course,"&amp;" follow the steps and suggestions for cooking and sharing a fabulous plate of pizzoccheri hot and racy!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A83, ""it"", ""en"")"),"There are genuine and hearty dishes that can warm stomach and heart, especially at high altitude! if you are in Valtellina, in particular in the small town of teglio, you should try the pizzoccheri. beware of imitations, however: although it is a dish of "&amp;"humble origins, pizzoccheri is a dish whose goodness comes not only from the processing of the ingredients but also the choice of the same: the ground buckwheat flour in stone, the vegetable cabbage, butter alp are some of the must-have to let your guests"&amp;" really stunned. also GialloZafferano we have relied for the preparation of one pizzoccheri Valtellina Doc chef, alessandro negrini, this rustic dish expert from an early age, when preparing them was his grandmother. in the footsteps of tradition can make"&amp;" this rich and gorgeous dish, to prepare in summer and in winter, from the same processing pizzoccheri, a type of pasta similar to tagliatelle but shorter, buckwheat flour, type 0 flour and water . to discover all the authentic taste of this first course,"&amp;" follow the steps and suggestions for cooking and sharing a fabulous plate of pizzoccheri hot and racy!")</f>
         <v>There are genuine and hearty dishes that can warm stomach and heart, especially at high altitude! if you are in Valtellina, in particular in the small town of teglio, you should try the pizzoccheri. beware of imitations, however: although it is a dish of humble origins, pizzoccheri is a dish whose goodness comes not only from the processing of the ingredients but also the choice of the same: the ground buckwheat flour in stone, the vegetable cabbage, butter alp are some of the must-have to let your guests really stunned. also GialloZafferano we have relied for the preparation of one pizzoccheri Valtellina Doc chef, alessandro negrini, this rustic dish expert from an early age, when preparing them was his grandmother. in the footsteps of tradition can make this rich and gorgeous dish, to prepare in summer and in winter, from the same processing pizzoccheri, a type of pasta similar to tagliatelle but shorter, buckwheat flour, type 0 flour and water . to discover all the authentic taste of this first course, follow the steps and suggestions for cooking and sharing a fabulous plate of pizzoccheri hot and racy!</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A84, ""it"", ""en"")"),"stuffed aubergines are a typical dish of the Spanish peasant tradition which over time has become very popular in our country, giving rise to an interesting range of variants. each region has developed its own version on the basis of its typical products "&amp;"and many of them would boast the origin across the country. stuffed aubergines are a ""traditional"" family, one of the classic recipes of her grandmother, especially made of their summer to the abundance of this vegetable. not surprisingly stuffed auberg"&amp;"ines are excellent to be enjoyed hot or cold! from north to south they are stuffed with various ingredients such as meat, pasta, vegetables or rice and consequently are served either as appetizers, first courses, second courses and even at times as sweet."&amp;" moving from region to region, in addition to changing the filling and the type of flow, it also changes the name, which is modified according to the local dialect. we have chosen to offer a recipe of the most classic: the aubergines are emptied of their "&amp;"pulp, which is cooked with the meat to create a rich and tasty filling. covered with plenty of tomato and sprinkle with pecorino cheese are finally pass again in the oven to melt all the flavors together. stuffed aubergines are ideal to be enjoyed at room"&amp;" temperature on hot days. try it too!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A84, ""it"", ""en"")"),"stuffed aubergines are a typical dish of the Spanish peasant tradition which over time has become very popular in our country, giving rise to an interesting range of variants. each region has developed its own version on the basis of its typical products "&amp;"and many of them would boast the origin across the country. stuffed aubergines are a ""traditional"" family, one of the classic recipes of her grandmother, especially made of their summer to the abundance of this vegetable. not surprisingly stuffed auberg"&amp;"ines are excellent to be enjoyed hot or cold! from north to south they are stuffed with various ingredients such as meat, pasta, vegetables or rice and consequently are served either as appetizers, first courses, second courses and even at times as sweet."&amp;" moving from region to region, in addition to changing the filling and the type of flow, it also changes the name, which is modified according to the local dialect. we have chosen to offer a recipe of the most classic: the aubergines are emptied of their "&amp;"pulp, which is cooked with the meat to create a rich and tasty filling. covered with plenty of tomato and sprinkle with pecorino cheese are finally pass again in the oven to melt all the flavors together. stuffed aubergines are ideal to be enjoyed at room"&amp;" temperature on hot days. try it too!")</f>
         <v>stuffed aubergines are a typical dish of the Spanish peasant tradition which over time has become very popular in our country, giving rise to an interesting range of variants. each region has developed its own version on the basis of its typical products and many of them would boast the origin across the country. stuffed aubergines are a "traditional" family, one of the classic recipes of her grandmother, especially made of their summer to the abundance of this vegetable. not surprisingly stuffed aubergines are excellent to be enjoyed hot or cold! from north to south they are stuffed with various ingredients such as meat, pasta, vegetables or rice and consequently are served either as appetizers, first courses, second courses and even at times as sweet. moving from region to region, in addition to changing the filling and the type of flow, it also changes the name, which is modified according to the local dialect. we have chosen to offer a recipe of the most classic: the aubergines are emptied of their pulp, which is cooked with the meat to create a rich and tasty filling. covered with plenty of tomato and sprinkle with pecorino cheese are finally pass again in the oven to melt all the flavors together. stuffed aubergines are ideal to be enjoyed at room temperature on hot days. try it too!</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A85, ""it"", ""en"")"),"the magic cake is a surprisingly sweet, in both taste and sight, which has conquered the web. the recipe is precisely from the net! you may wonder what has the magic of a cake with simple ingredients like flour, eggs, sugar and vanilla extract. with a pro"&amp;"cedure rather fast, able to prepare a cake that during cooking will form three magical layers that have different consistencies, but the same taste, in this case vanilla! the first layer, the one that will be the base, will have a more solid consistency, "&amp;"very similar to that of the flan and a more intense color. the central layer will be soft and slightly gelatinous like a pudding, while the final cover will look like a soft sponge cake, that you will make even more greedy with a sprinkling of powdered su"&amp;"gar. the secret to the best of this sweet success is .. follow a ""orderly disorder""! It has, in fact, add the ingredients in the sequence and at the temperatures indicated, pedessiquamente respecting the indications of the recipe, otherwise the layers w"&amp;"ill not form correttamente.per make this even more magical experience, experience, and make your magic vanilla cake with your eyes closed and assaporatela in all its parts, making delight by the contrast of its layers and its goodness!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A85, ""it"", ""en"")"),"the magic cake is a surprisingly sweet, in both taste and sight, which has conquered the web. the recipe is precisely from the net! you may wonder what has the magic of a cake with simple ingredients like flour, eggs, sugar and vanilla extract. with a pro"&amp;"cedure rather fast, able to prepare a cake that during cooking will form three magical layers that have different consistencies, but the same taste, in this case vanilla! the first layer, the one that will be the base, will have a more solid consistency, "&amp;"very similar to that of the flan and a more intense color. the central layer will be soft and slightly gelatinous like a pudding, while the final cover will look like a soft sponge cake, that you will make even more greedy with a sprinkling of powdered su"&amp;"gar. the secret to the best of this sweet success is .. follow a ""orderly disorder""! It has, in fact, add the ingredients in the sequence and at the temperatures indicated, pedessiquamente respecting the indications of the recipe, otherwise the layers w"&amp;"ill not form correttamente.per make this even more magical experience, experience, and make your magic vanilla cake with your eyes closed and assaporatela in all its parts, making delight by the contrast of its layers and its goodness!")</f>
         <v>the magic cake is a surprisingly sweet, in both taste and sight, which has conquered the web. the recipe is precisely from the net! you may wonder what has the magic of a cake with simple ingredients like flour, eggs, sugar and vanilla extract. with a procedure rather fast, able to prepare a cake that during cooking will form three magical layers that have different consistencies, but the same taste, in this case vanilla! the first layer, the one that will be the base, will have a more solid consistency, very similar to that of the flan and a more intense color. the central layer will be soft and slightly gelatinous like a pudding, while the final cover will look like a soft sponge cake, that you will make even more greedy with a sprinkling of powdered sugar. the secret to the best of this sweet success is .. follow a "orderly disorder"! It has, in fact, add the ingredients in the sequence and at the temperatures indicated, pedessiquamente respecting the indications of the recipe, otherwise the layers will not form correttamente.per make this even more magical experience, experience, and make your magic vanilla cake with your eyes closed and assaporatela in all its parts, making delight by the contrast of its layers and its goodness!</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A86, ""it"", ""en"")"),"""This cake is a paradise!"" here is the famous expression of a noblewoman who gave his name to the paradise cake made by admin Vigoni, Pavia confectioner 800. this cake became the symbol of the city of pavia and is a classic of Italian pastry. so we aske"&amp;"d one of the most important Italian pastry chefs, sal de rice, to prepare it for us, but ... for you! a mix of wholesome, quality ingredients like fresh eggs, lemons and oranges untreated together with bourbon vanilla bean, create a soft and fragrant base"&amp;", the unmistakable taste and sweetness. the golden rules for a fabulous cake heaven? work all the ingredients at the same temperature and pour toggle between dry and liquid compounds to be mixed, for a perfect dough after cooking, neither too soft nor too"&amp;" compact. ideal gustatare in purity for a ""heavenly"" breakfast with a generous sprinkling of powdered sugar, it becomes a ""divine"" dessert with a layer of cream and whipped cream cover, as our version of paradise lemon cake. laced aprons and get ready"&amp;" to enjoy this recipe ""paradise""!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A86, ""it"", ""en"")"),"""This cake is a paradise!"" here is the famous expression of a noblewoman who gave his name to the paradise cake made by admin Vigoni, Pavia confectioner 800. this cake became the symbol of the city of pavia and is a classic of Italian pastry. so we aske"&amp;"d one of the most important Italian pastry chefs, sal de rice, to prepare it for us, but ... for you! a mix of wholesome, quality ingredients like fresh eggs, lemons and oranges untreated together with bourbon vanilla bean, create a soft and fragrant base"&amp;", the unmistakable taste and sweetness. the golden rules for a fabulous cake heaven? work all the ingredients at the same temperature and pour toggle between dry and liquid compounds to be mixed, for a perfect dough after cooking, neither too soft nor too"&amp;" compact. ideal gustatare in purity for a ""heavenly"" breakfast with a generous sprinkling of powdered sugar, it becomes a ""divine"" dessert with a layer of cream and whipped cream cover, as our version of paradise lemon cake. laced aprons and get ready"&amp;" to enjoy this recipe ""paradise""!")</f>
         <v>"This cake is a paradise!" here is the famous expression of a noblewoman who gave his name to the paradise cake made by admin Vigoni, Pavia confectioner 800. this cake became the symbol of the city of pavia and is a classic of Italian pastry. so we asked one of the most important Italian pastry chefs, sal de rice, to prepare it for us, but ... for you! a mix of wholesome, quality ingredients like fresh eggs, lemons and oranges untreated together with bourbon vanilla bean, create a soft and fragrant base, the unmistakable taste and sweetness. the golden rules for a fabulous cake heaven? work all the ingredients at the same temperature and pour toggle between dry and liquid compounds to be mixed, for a perfect dough after cooking, neither too soft nor too compact. ideal gustatare in purity for a "heavenly" breakfast with a generous sprinkling of powdered sugar, it becomes a "divine" dessert with a layer of cream and whipped cream cover, as our version of paradise lemon cake. laced aprons and get ready to enjoy this recipe "paradise"!</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A87, ""it"", ""en"")"),"the carrot cake is a pure and simple dessert, a classic for the snack and breakfast for adults and children alike with its delicate orange shade, its rich and soft texture and the fragrance of homemade cakes, conquers all the first slice! with a colored f"&amp;"rosting you can even turn it into a delicious cake theme halloween. the practice of using carrots in sweet recipes is very old: thanks to their natural sweetness, in fact, these vegetables could make up for the shortage of sugar and impart flavor to cakes"&amp;" ... in the Middle Ages! Today the popularity of carrot cake in its simplest and home version derives in large part from the success of carrot cake, the more elaborate the Anglo-Saxon version of the carrot cake; but what I love about this version is its g"&amp;"enuine simplicity, which makes it the perfect dessert for the whole family. even for those who usually vegetables, do not want to just find out!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A87, ""it"", ""en"")"),"the carrot cake is a pure and simple dessert, a classic for the snack and breakfast for adults and children alike with its delicate orange shade, its rich and soft texture and the fragrance of homemade cakes, conquers all the first slice! with a colored f"&amp;"rosting you can even turn it into a delicious cake theme halloween. the practice of using carrots in sweet recipes is very old: thanks to their natural sweetness, in fact, these vegetables could make up for the shortage of sugar and impart flavor to cakes"&amp;" ... in the Middle Ages! Today the popularity of carrot cake in its simplest and home version derives in large part from the success of carrot cake, the more elaborate the Anglo-Saxon version of the carrot cake; but what I love about this version is its g"&amp;"enuine simplicity, which makes it the perfect dessert for the whole family. even for those who usually vegetables, do not want to just find out!")</f>
         <v>the carrot cake is a pure and simple dessert, a classic for the snack and breakfast for adults and children alike with its delicate orange shade, its rich and soft texture and the fragrance of homemade cakes, conquers all the first slice! with a colored frosting you can even turn it into a delicious cake theme halloween. the practice of using carrots in sweet recipes is very old: thanks to their natural sweetness, in fact, these vegetables could make up for the shortage of sugar and impart flavor to cakes ... in the Middle Ages! Today the popularity of carrot cake in its simplest and home version derives in large part from the success of carrot cake, the more elaborate the Anglo-Saxon version of the carrot cake; but what I love about this version is its genuine simplicity, which makes it the perfect dessert for the whole family. even for those who usually vegetables, do not want to just find out!</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A88, ""it"", ""en"")"),"strudel is a typical cake of Trentino Alto Adige, but its origins are Turkish. the Turks, who ruled around the seventeenth century hungary, preparing a dessert like apple called baklava. this recipe was changed and transformed by the current Hungarian str"&amp;"udel that soon took hold in Austria which, in turn, dominating for a while some northern territories of Italy, introduced them this delicious cake. the Trentino Alto Adige is now the custodian of the secrets of the apple strudel, which here has had remark"&amp;"able success thanks to the many apple orchards on its territory, which are the key ingredient of the filling of this roll of dough, along with raisins , pine nuts and cinnamon. in this recipe we propose the variety of golden apples, but the original recip"&amp;"e calls for the use of rennet. prepared apple strudel, enjoy it with a steaming cup of mulled wine and become drunk of his intense!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A88, ""it"", ""en"")"),"strudel is a typical cake of Trentino Alto Adige, but its origins are Turkish. the Turks, who ruled around the seventeenth century hungary, preparing a dessert like apple called baklava. this recipe was changed and transformed by the current Hungarian str"&amp;"udel that soon took hold in Austria which, in turn, dominating for a while some northern territories of Italy, introduced them this delicious cake. the Trentino Alto Adige is now the custodian of the secrets of the apple strudel, which here has had remark"&amp;"able success thanks to the many apple orchards on its territory, which are the key ingredient of the filling of this roll of dough, along with raisins , pine nuts and cinnamon. in this recipe we propose the variety of golden apples, but the original recip"&amp;"e calls for the use of rennet. prepared apple strudel, enjoy it with a steaming cup of mulled wine and become drunk of his intense!")</f>
         <v>strudel is a typical cake of Trentino Alto Adige, but its origins are Turkish. the Turks, who ruled around the seventeenth century hungary, preparing a dessert like apple called baklava. this recipe was changed and transformed by the current Hungarian strudel that soon took hold in Austria which, in turn, dominating for a while some northern territories of Italy, introduced them this delicious cake. the Trentino Alto Adige is now the custodian of the secrets of the apple strudel, which here has had remarkable success thanks to the many apple orchards on its territory, which are the key ingredient of the filling of this roll of dough, along with raisins , pine nuts and cinnamon. in this recipe we propose the variety of golden apples, but the original recipe calls for the use of rennet. prepared apple strudel, enjoy it with a steaming cup of mulled wine and become drunk of his intense!</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A89, ""it"", ""en"")"),"and 'the most spectacular of all, and when brought to the table always collects the applause of the lucky guests ... it is the paella de mariscos, one of the glories of Spanish cuisine! the word ""mariscos"" means shellfish and defines what are now the st"&amp;"ars of this delicious dish: mussels, squid, prawns and scampi, but also clams, crabs or fish depending on what the market offers. such as paella Valenciana, in fact, there is no certified recipe but the many variations that change depending on availabilit"&amp;"y of ingredients and traditions of each family. in this case the rice is flavored with saffron not only but also with paprika, which gives it a flavor boost more. But to make it all incredibly tasty and fragrant will think the mussels with their cooking w"&amp;"ater, and comics of shellfish in which the rice is cooked for consumption. perfect for a special occasion or simply to share with your friends, after a fresh sangria, paella de mariscos is a dish with a guaranteed success ... you hear that applause!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A89, ""it"", ""en"")"),"and 'the most spectacular of all, and when brought to the table always collects the applause of the lucky guests ... it is the paella de mariscos, one of the glories of Spanish cuisine! the word ""mariscos"" means shellfish and defines what are now the st"&amp;"ars of this delicious dish: mussels, squid, prawns and scampi, but also clams, crabs or fish depending on what the market offers. such as paella Valenciana, in fact, there is no certified recipe but the many variations that change depending on availabilit"&amp;"y of ingredients and traditions of each family. in this case the rice is flavored with saffron not only but also with paprika, which gives it a flavor boost more. But to make it all incredibly tasty and fragrant will think the mussels with their cooking w"&amp;"ater, and comics of shellfish in which the rice is cooked for consumption. perfect for a special occasion or simply to share with your friends, after a fresh sangria, paella de mariscos is a dish with a guaranteed success ... you hear that applause!")</f>
         <v>and 'the most spectacular of all, and when brought to the table always collects the applause of the lucky guests ... it is the paella de mariscos, one of the glories of Spanish cuisine! the word "mariscos" means shellfish and defines what are now the stars of this delicious dish: mussels, squid, prawns and scampi, but also clams, crabs or fish depending on what the market offers. such as paella Valenciana, in fact, there is no certified recipe but the many variations that change depending on availability of ingredients and traditions of each family. in this case the rice is flavored with saffron not only but also with paprika, which gives it a flavor boost more. But to make it all incredibly tasty and fragrant will think the mussels with their cooking water, and comics of shellfish in which the rice is cooked for consumption. perfect for a special occasion or simply to share with your friends, after a fresh sangria, paella de mariscos is a dish with a guaranteed success ... you hear that applause!</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A90, ""it"", ""en"")"),"the meatballs are baked according to a tasty dish, and quick to prepare: succulent morsels of cheese enriched with meat, eggs and prezzemolo.le meatballs in the oven, with their rich and strong taste, really like them at all. are accompanied by mashed pot"&amp;"atoes or with a nice mixed salad!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A90, ""it"", ""en"")"),"the meatballs are baked according to a tasty dish, and quick to prepare: succulent morsels of cheese enriched with meat, eggs and prezzemolo.le meatballs in the oven, with their rich and strong taste, really like them at all. are accompanied by mashed pot"&amp;"atoes or with a nice mixed salad!")</f>
         <v>the meatballs are baked according to a tasty dish, and quick to prepare: succulent morsels of cheese enriched with meat, eggs and prezzemolo.le meatballs in the oven, with their rich and strong taste, really like them at all. are accompanied by mashed potatoes or with a nice mixed salad!</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A91, ""it"", ""en"")"),"Today ... raining meatballs meatballs eggplant! small and tasty morsels to be enjoyed one by one to savor a mix of soft and crisp, perfect to be served as a vegetarian alternative to traditional meatballs, which have nothing to envy! there are many Italia"&amp;"n regions that claim paternity, but one thing is certain: the eggplant meatballs are a recipe that belongs to the south, where in summer you capture the most tender and sweet vegetables! follow our recipe and made this tasty finger food perfect to enhance"&amp;" your buffet or a happy hour with friends, you'll have to eat them with your hands consumandole in a single bite!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A91, ""it"", ""en"")"),"Today ... raining meatballs meatballs eggplant! small and tasty morsels to be enjoyed one by one to savor a mix of soft and crisp, perfect to be served as a vegetarian alternative to traditional meatballs, which have nothing to envy! there are many Italia"&amp;"n regions that claim paternity, but one thing is certain: the eggplant meatballs are a recipe that belongs to the south, where in summer you capture the most tender and sweet vegetables! follow our recipe and made this tasty finger food perfect to enhance"&amp;" your buffet or a happy hour with friends, you'll have to eat them with your hands consumandole in a single bite!")</f>
         <v>Today ... raining meatballs meatballs eggplant! small and tasty morsels to be enjoyed one by one to savor a mix of soft and crisp, perfect to be served as a vegetarian alternative to traditional meatballs, which have nothing to envy! there are many Italian regions that claim paternity, but one thing is certain: the eggplant meatballs are a recipe that belongs to the south, where in summer you capture the most tender and sweet vegetables! follow our recipe and made this tasty finger food perfect to enhance your buffet or a happy hour with friends, you'll have to eat them with your hands consumandole in a single bite!</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A92, ""it"", ""en"")"),"baked pasta is the first Sunday dish par excellence. tasty and rich, this recipe really please everyone! version that we propose is very substantial and involves the use of tomato sauce (although there are versions in white and with vegetables), tasty mea"&amp;"tballs, sauce, provolone, parmesan and hard-boiled eggs, which amalgamated with the pasta, will create an unforgettable dish! when preparing baked pasta is very important to pay attention to cooking pasta, which is drained in the mid al dente to prevent o"&amp;"vercook because of the prolonged passage in the oven that will donate a crust on the surface characteristics so inviting!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A92, ""it"", ""en"")"),"baked pasta is the first Sunday dish par excellence. tasty and rich, this recipe really please everyone! version that we propose is very substantial and involves the use of tomato sauce (although there are versions in white and with vegetables), tasty mea"&amp;"tballs, sauce, provolone, parmesan and hard-boiled eggs, which amalgamated with the pasta, will create an unforgettable dish! when preparing baked pasta is very important to pay attention to cooking pasta, which is drained in the mid al dente to prevent o"&amp;"vercook because of the prolonged passage in the oven that will donate a crust on the surface characteristics so inviting!")</f>
         <v>baked pasta is the first Sunday dish par excellence. tasty and rich, this recipe really please everyone! version that we propose is very substantial and involves the use of tomato sauce (although there are versions in white and with vegetables), tasty meatballs, sauce, provolone, parmesan and hard-boiled eggs, which amalgamated with the pasta, will create an unforgettable dish! when preparing baked pasta is very important to pay attention to cooking pasta, which is drained in the mid al dente to prevent overcook because of the prolonged passage in the oven that will donate a crust on the surface characteristics so inviting!</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A93, ""it"", ""en"")"),"right from the Sunday lunch, a timeless classic of our tables: the stuffed zucchini! 2.0 grandmothers can go wild on the web by sharing their versions, kept in precious family recipes, perhaps revealing some little secret or trick to facilitate the prepar"&amp;"ation. as tradition of zucchini do not throw anything and this recipe proves it: the pulp, once extracted, is used to flavor the meat filling, the zucchini itself acts as a small containment vessel that houses the tasty toppings. Finally, the cap used to "&amp;"close the zucchini so nice giving it a shape reminiscent of a little 'ones of the Baroque sugar bowls. funny but mostly good, the stuffed zucchini are a classic of our home cooking that we can not give up! Here we offer a recipe for manuel!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A93, ""it"", ""en"")"),"right from the Sunday lunch, a timeless classic of our tables: the stuffed zucchini! 2.0 grandmothers can go wild on the web by sharing their versions, kept in precious family recipes, perhaps revealing some little secret or trick to facilitate the prepar"&amp;"ation. as tradition of zucchini do not throw anything and this recipe proves it: the pulp, once extracted, is used to flavor the meat filling, the zucchini itself acts as a small containment vessel that houses the tasty toppings. Finally, the cap used to "&amp;"close the zucchini so nice giving it a shape reminiscent of a little 'ones of the Baroque sugar bowls. funny but mostly good, the stuffed zucchini are a classic of our home cooking that we can not give up! Here we offer a recipe for manuel!")</f>
         <v>right from the Sunday lunch, a timeless classic of our tables: the stuffed zucchini! 2.0 grandmothers can go wild on the web by sharing their versions, kept in precious family recipes, perhaps revealing some little secret or trick to facilitate the preparation. as tradition of zucchini do not throw anything and this recipe proves it: the pulp, once extracted, is used to flavor the meat filling, the zucchini itself acts as a small containment vessel that houses the tasty toppings. Finally, the cap used to close the zucchini so nice giving it a shape reminiscent of a little 'ones of the Baroque sugar bowls. funny but mostly good, the stuffed zucchini are a classic of our home cooking that we can not give up! Here we offer a recipe for manuel!</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A94, ""it"", ""en"")"),"When it comes to recipes rich and succulent the piedmont region takes the field pulling some really wonderful dishes. starting dall'intramontabile vitello tonnato to the famous ravioli del plin. then through recipes like green sauce, irresistible companio"&amp;"n boiled and sandwiches. and sweets? the best! bonet or panna cotta, the consistency of which never fails to conquer the palates of gourmands worldwide. and after this irresistible roundup of goodies that even if by design, are part of the heritage of Ita"&amp;"lian cuisine, maybe we go to the top of all recipes: the grilled sea bass. a second course sought to prepare their own using the eponymous red wine of Piedmont. a rich and succulent recipe to dedicate and give guests during special occasions, and why not,"&amp;" for the Christmas holidays. because we do not love him in the kitchen waste we decided to enrich the sauce by blending the vegetables of the marinade, but if you prefer a more bright color and an even stronger flavor, simply discard them and let restrict"&amp;"ing the bottom resulting in a colorful reduction. Now that you know everything there is to know about the grilled sea bass you just need to start cooking to achieve this precious cult of our kitchen!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A94, ""it"", ""en"")"),"When it comes to recipes rich and succulent the piedmont region takes the field pulling some really wonderful dishes. starting dall'intramontabile vitello tonnato to the famous ravioli del plin. then through recipes like green sauce, irresistible companio"&amp;"n boiled and sandwiches. and sweets? the best! bonet or panna cotta, the consistency of which never fails to conquer the palates of gourmands worldwide. and after this irresistible roundup of goodies that even if by design, are part of the heritage of Ita"&amp;"lian cuisine, maybe we go to the top of all recipes: the grilled sea bass. a second course sought to prepare their own using the eponymous red wine of Piedmont. a rich and succulent recipe to dedicate and give guests during special occasions, and why not,"&amp;" for the Christmas holidays. because we do not love him in the kitchen waste we decided to enrich the sauce by blending the vegetables of the marinade, but if you prefer a more bright color and an even stronger flavor, simply discard them and let restrict"&amp;"ing the bottom resulting in a colorful reduction. Now that you know everything there is to know about the grilled sea bass you just need to start cooking to achieve this precious cult of our kitchen!")</f>
         <v>When it comes to recipes rich and succulent the piedmont region takes the field pulling some really wonderful dishes. starting dall'intramontabile vitello tonnato to the famous ravioli del plin. then through recipes like green sauce, irresistible companion boiled and sandwiches. and sweets? the best! bonet or panna cotta, the consistency of which never fails to conquer the palates of gourmands worldwide. and after this irresistible roundup of goodies that even if by design, are part of the heritage of Italian cuisine, maybe we go to the top of all recipes: the grilled sea bass. a second course sought to prepare their own using the eponymous red wine of Piedmont. a rich and succulent recipe to dedicate and give guests during special occasions, and why not, for the Christmas holidays. because we do not love him in the kitchen waste we decided to enrich the sauce by blending the vegetables of the marinade, but if you prefer a more bright color and an even stronger flavor, simply discard them and let restricting the bottom resulting in a colorful reduction. Now that you know everything there is to know about the grilled sea bass you just need to start cooking to achieve this precious cult of our kitchen!</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A95, ""it"", ""en"")"),"some people to own soups can not say no. They have the power to warm the hands, body and, not least, the heart. everyone has their own favorite from that of the farmer, probably the classic of classics, mixed up with those of legumes and cereals. but amon"&amp;"g all the land (is because there are also soups seafood, such as mussels) is one that is above all: the lentil soup. probably the simplest, the most humble and above all the most good. some even said that those looking for the pampering really want chickp"&amp;"eas. then define the pea soup a dish amarcord is absolutely correct, do you agree? that's our recipe, let us know if you have warmed my heart.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A95, ""it"", ""en"")"),"some people to own soups can not say no. They have the power to warm the hands, body and, not least, the heart. everyone has their own favorite from that of the farmer, probably the classic of classics, mixed up with those of legumes and cereals. but amon"&amp;"g all the land (is because there are also soups seafood, such as mussels) is one that is above all: the lentil soup. probably the simplest, the most humble and above all the most good. some even said that those looking for the pampering really want chickp"&amp;"eas. then define the pea soup a dish amarcord is absolutely correct, do you agree? that's our recipe, let us know if you have warmed my heart.")</f>
         <v>some people to own soups can not say no. They have the power to warm the hands, body and, not least, the heart. everyone has their own favorite from that of the farmer, probably the classic of classics, mixed up with those of legumes and cereals. but among all the land (is because there are also soups seafood, such as mussels) is one that is above all: the lentil soup. probably the simplest, the most humble and above all the most good. some even said that those looking for the pampering really want chickpeas. then define the pea soup a dish amarcord is absolutely correct, do you agree? that's our recipe, let us know if you have warmed my heart.</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A96, ""it"", ""en"")"),"lasagna succulent, irresistible baked potatoes and meatloaf inevitable are all typical Sunday dishes, but for a really strong lunch on your table can not miss a baking sheet, still smoking, these delicious cannelloni. these succulent cylinders of pasta fi"&amp;"lled with a mix of meat and sausage, topped with bechamel sauce and tomato are a typical Emilian preparation. a dish so rich and delicious perfect for Sunday lunch, for example, for Easter Sunday! We tasted them all at least once in life. Of course, the i"&amp;"dea of ​​cannelloni prepared by our grandmothers brings back good memories to mind ... following our advice and with a little 'patience you'll get a dish that will conquer all your guests, approval worthy of Grandma! Also prepare them for your Christmas m"&amp;"enu!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A96, ""it"", ""en"")"),"lasagna succulent, irresistible baked potatoes and meatloaf inevitable are all typical Sunday dishes, but for a really strong lunch on your table can not miss a baking sheet, still smoking, these delicious cannelloni. these succulent cylinders of pasta fi"&amp;"lled with a mix of meat and sausage, topped with bechamel sauce and tomato are a typical Emilian preparation. a dish so rich and delicious perfect for Sunday lunch, for example, for Easter Sunday! We tasted them all at least once in life. Of course, the i"&amp;"dea of ​​cannelloni prepared by our grandmothers brings back good memories to mind ... following our advice and with a little 'patience you'll get a dish that will conquer all your guests, approval worthy of Grandma! Also prepare them for your Christmas m"&amp;"enu!")</f>
         <v>lasagna succulent, irresistible baked potatoes and meatloaf inevitable are all typical Sunday dishes, but for a really strong lunch on your table can not miss a baking sheet, still smoking, these delicious cannelloni. these succulent cylinders of pasta filled with a mix of meat and sausage, topped with bechamel sauce and tomato are a typical Emilian preparation. a dish so rich and delicious perfect for Sunday lunch, for example, for Easter Sunday! We tasted them all at least once in life. Of course, the idea of ​​cannelloni prepared by our grandmothers brings back good memories to mind ... following our advice and with a little 'patience you'll get a dish that will conquer all your guests, approval worthy of Grandma! Also prepare them for your Christmas menu!</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A97, ""it"", ""en"")"),"Today we will make a leap in the Middle East to present one of the best-known fast vegetarian dishes: hummus. Many countries claim its paternity, but even today he does not exactly know the source. and 'one of the oldest and widespread preparations in tim"&amp;"e in all Arab countries, thanks to the simplicity of its ingredients. a delicious cream, a very particular taste: delicate and aromatic, for the presence of chickpeas and tahini, but also slightly sour by the addition of lemon juice that gives the right b"&amp;"alance in this recipe. in this version we wanted to revive the ancient tradition, producing the homemade tahini. for the occasion we are armed with ""suribachi"" and ""surikogi"" with which the past they used the flour and we used to mix and crush all the"&amp;" ingredients for a fantastic and even hummus genuine! be captivated by this very versatile dish, used to accompany the felafel, or as spreadable cream. a pinch of smoked paprika and your hummus literally will be snapped during an aperitif!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A97, ""it"", ""en"")"),"Today we will make a leap in the Middle East to present one of the best-known fast vegetarian dishes: hummus. Many countries claim its paternity, but even today he does not exactly know the source. and 'one of the oldest and widespread preparations in tim"&amp;"e in all Arab countries, thanks to the simplicity of its ingredients. a delicious cream, a very particular taste: delicate and aromatic, for the presence of chickpeas and tahini, but also slightly sour by the addition of lemon juice that gives the right b"&amp;"alance in this recipe. in this version we wanted to revive the ancient tradition, producing the homemade tahini. for the occasion we are armed with ""suribachi"" and ""surikogi"" with which the past they used the flour and we used to mix and crush all the"&amp;" ingredients for a fantastic and even hummus genuine! be captivated by this very versatile dish, used to accompany the felafel, or as spreadable cream. a pinch of smoked paprika and your hummus literally will be snapped during an aperitif!")</f>
         <v>Today we will make a leap in the Middle East to present one of the best-known fast vegetarian dishes: hummus. Many countries claim its paternity, but even today he does not exactly know the source. and 'one of the oldest and widespread preparations in time in all Arab countries, thanks to the simplicity of its ingredients. a delicious cream, a very particular taste: delicate and aromatic, for the presence of chickpeas and tahini, but also slightly sour by the addition of lemon juice that gives the right balance in this recipe. in this version we wanted to revive the ancient tradition, producing the homemade tahini. for the occasion we are armed with "suribachi" and "surikogi" with which the past they used the flour and we used to mix and crush all the ingredients for a fantastic and even hummus genuine! be captivated by this very versatile dish, used to accompany the felafel, or as spreadable cream. a pinch of smoked paprika and your hummus literally will be snapped during an aperitif!</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A98, ""it"", ""en"")"),"if you have already achieved our recipe for spaetzle, the famous Tyrolean dumplings, and you are now experts in the use of traditional and ingenious spätzlehobel, you just need to also try another traditional variant of this first dish: the spinach spaetz"&amp;"le with bacon and cream. to realize the mixture of these delicious and colorful gnocchetti using the puree of boiled spinach, which gives that bright green color and the unique flavor of the bitter notes that delightfully contrasts with the cream, which i"&amp;"n turn makes the irresistibly creamy dish. a handful of strips of crispy bacon complete this tasty dish. lovers of Mediterranean flavors can try a perfumed variant of spätzle with tomato and lemon, a tasty meeting of all Italian flavors!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A98, ""it"", ""en"")"),"if you have already achieved our recipe for spaetzle, the famous Tyrolean dumplings, and you are now experts in the use of traditional and ingenious spätzlehobel, you just need to also try another traditional variant of this first dish: the spinach spaetz"&amp;"le with bacon and cream. to realize the mixture of these delicious and colorful gnocchetti using the puree of boiled spinach, which gives that bright green color and the unique flavor of the bitter notes that delightfully contrasts with the cream, which i"&amp;"n turn makes the irresistibly creamy dish. a handful of strips of crispy bacon complete this tasty dish. lovers of Mediterranean flavors can try a perfumed variant of spätzle with tomato and lemon, a tasty meeting of all Italian flavors!")</f>
         <v>if you have already achieved our recipe for spaetzle, the famous Tyrolean dumplings, and you are now experts in the use of traditional and ingenious spätzlehobel, you just need to also try another traditional variant of this first dish: the spinach spaetzle with bacon and cream. to realize the mixture of these delicious and colorful gnocchetti using the puree of boiled spinach, which gives that bright green color and the unique flavor of the bitter notes that delightfully contrasts with the cream, which in turn makes the irresistibly creamy dish. a handful of strips of crispy bacon complete this tasty dish. lovers of Mediterranean flavors can try a perfumed variant of spätzle with tomato and lemon, a tasty meeting of all Italian flavors!</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A99, ""it"", ""en"")"),"""This is a dish that you have to leave it to the people of Milan, being a specialty of the Lombardy region. I intend therefore to describe it without any pretension, in fear of being teased. "" so pilgrim artusi introduces the recipe of the shanks Milane"&amp;"se inside the first recipe of the history of Italian cuisine: a representative dish that even seems to date back to the Middle Ages, characterized by a particular cutting made extremely tender meat from the long cooking and the presence of marrow which di"&amp;"ssolving makes even more succulent preparation. Another distinctive feature of the OS Buus a la Milanesa is the addition of gremolada, chopped parsley and garlic scented with lemon peel that complements and enhances the flavor of veal. usually proposed as"&amp;" a single dish along with the inevitable yellow risotto, ossobuco alla milanese can also be served as a tasty second course of meat, maybe in the version with peas or accompanied with a nice portion of polenta! we, like artusi, we choose to introduce our "&amp;"version of the shanks Milanese so simple and unpretentious ... we let the taste to talk and to transport you on a journey through the traditional flavors of this territory.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A99, ""it"", ""en"")"),"""This is a dish that you have to leave it to the people of Milan, being a specialty of the Lombardy region. I intend therefore to describe it without any pretension, in fear of being teased. "" so pilgrim artusi introduces the recipe of the shanks Milane"&amp;"se inside the first recipe of the history of Italian cuisine: a representative dish that even seems to date back to the Middle Ages, characterized by a particular cutting made extremely tender meat from the long cooking and the presence of marrow which di"&amp;"ssolving makes even more succulent preparation. Another distinctive feature of the OS Buus a la Milanesa is the addition of gremolada, chopped parsley and garlic scented with lemon peel that complements and enhances the flavor of veal. usually proposed as"&amp;" a single dish along with the inevitable yellow risotto, ossobuco alla milanese can also be served as a tasty second course of meat, maybe in the version with peas or accompanied with a nice portion of polenta! we, like artusi, we choose to introduce our "&amp;"version of the shanks Milanese so simple and unpretentious ... we let the taste to talk and to transport you on a journey through the traditional flavors of this territory.")</f>
         <v>"This is a dish that you have to leave it to the people of Milan, being a specialty of the Lombardy region. I intend therefore to describe it without any pretension, in fear of being teased. " so pilgrim artusi introduces the recipe of the shanks Milanese inside the first recipe of the history of Italian cuisine: a representative dish that even seems to date back to the Middle Ages, characterized by a particular cutting made extremely tender meat from the long cooking and the presence of marrow which dissolving makes even more succulent preparation. Another distinctive feature of the OS Buus a la Milanesa is the addition of gremolada, chopped parsley and garlic scented with lemon peel that complements and enhances the flavor of veal. usually proposed as a single dish along with the inevitable yellow risotto, ossobuco alla milanese can also be served as a tasty second course of meat, maybe in the version with peas or accompanied with a nice portion of polenta! we, like artusi, we choose to introduce our version of the shanks Milanese so simple and unpretentious ... we let the taste to talk and to transport you on a journey through the traditional flavors of this territory.</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A100, ""it"", ""en"")"),"focaccia with cheese, or cheese fugassa co, is a typical Ligurian recipe, a specialty of Recco, small town of the Riviera di Levante. the reputation of Recco in terms of buns is recognized throughout the world and surely this focaccia has particularly con"&amp;"tributed to the creation of that reputation. will be for the union particularly successful between focaccia and cheese, but this cake like it at all, young and old. the history of cheese focaccia begins at the time of the Third Crusade when recchesi farme"&amp;"rs, forced to take refuge in the hinterland because of the Saracen invasions, and having only water, semolina flour, oil and formaggetta, invented this cake that has remained the local culinary heritage. the 800, when they began to sprout the first restau"&amp;"rants, the cheese focaccia was included in the ""menu"" but it was only served during the feast of the dead. in the early '50s, with the development of tourism, the cheese focaccia became one of the most popular dishes and requested by tourists and for th"&amp;"is reason, the innkeepers, and bakers, began to serve not only during the celebration of the dead, but all the year. nowadays, find the cheese focaccia is really very simple: it is found in bakeries, restaurants, pizzerias, local all who made the famous f"&amp;"ocaccia their strength.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A100, ""it"", ""en"")"),"focaccia with cheese, or cheese fugassa co, is a typical Ligurian recipe, a specialty of Recco, small town of the Riviera di Levante. the reputation of Recco in terms of buns is recognized throughout the world and surely this focaccia has particularly con"&amp;"tributed to the creation of that reputation. will be for the union particularly successful between focaccia and cheese, but this cake like it at all, young and old. the history of cheese focaccia begins at the time of the Third Crusade when recchesi farme"&amp;"rs, forced to take refuge in the hinterland because of the Saracen invasions, and having only water, semolina flour, oil and formaggetta, invented this cake that has remained the local culinary heritage. the 800, when they began to sprout the first restau"&amp;"rants, the cheese focaccia was included in the ""menu"" but it was only served during the feast of the dead. in the early '50s, with the development of tourism, the cheese focaccia became one of the most popular dishes and requested by tourists and for th"&amp;"is reason, the innkeepers, and bakers, began to serve not only during the celebration of the dead, but all the year. nowadays, find the cheese focaccia is really very simple: it is found in bakeries, restaurants, pizzerias, local all who made the famous f"&amp;"ocaccia their strength.")</f>
         <v>focaccia with cheese, or cheese fugassa co, is a typical Ligurian recipe, a specialty of Recco, small town of the Riviera di Levante. the reputation of Recco in terms of buns is recognized throughout the world and surely this focaccia has particularly contributed to the creation of that reputation. will be for the union particularly successful between focaccia and cheese, but this cake like it at all, young and old. the history of cheese focaccia begins at the time of the Third Crusade when recchesi farmers, forced to take refuge in the hinterland because of the Saracen invasions, and having only water, semolina flour, oil and formaggetta, invented this cake that has remained the local culinary heritage. the 800, when they began to sprout the first restaurants, the cheese focaccia was included in the "menu" but it was only served during the feast of the dead. in the early '50s, with the development of tourism, the cheese focaccia became one of the most popular dishes and requested by tourists and for this reason, the innkeepers, and bakers, began to serve not only during the celebration of the dead, but all the year. nowadays, find the cheese focaccia is really very simple: it is found in bakeries, restaurants, pizzerias, local all who made the famous focaccia their strength.</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A101, ""it"", ""en"")"),"zucchini are among the most versatile and beloved vegetables that allow us to make full of flavor and health! now covers them in their capacity as classical and traditional, the stars of a creamy risotto and very tasty! adding a little butter and grated c"&amp;"heese to cream the result will be really satisfying: a risotto creamy and luscious zucchini makes it special lunch everyday and will win over even those who turn up their nose at vegetables, young and old who are .. . let it bet?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A101, ""it"", ""en"")"),"zucchini are among the most versatile and beloved vegetables that allow us to make full of flavor and health! now covers them in their capacity as classical and traditional, the stars of a creamy risotto and very tasty! adding a little butter and grated c"&amp;"heese to cream the result will be really satisfying: a risotto creamy and luscious zucchini makes it special lunch everyday and will win over even those who turn up their nose at vegetables, young and old who are .. . let it bet?")</f>
         <v>zucchini are among the most versatile and beloved vegetables that allow us to make full of flavor and health! now covers them in their capacity as classical and traditional, the stars of a creamy risotto and very tasty! adding a little butter and grated cheese to cream the result will be really satisfying: a risotto creamy and luscious zucchini makes it special lunch everyday and will win over even those who turn up their nose at vegetables, young and old who are .. . let it bet?</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A102, ""it"", ""en"")"),"easy, fast, fresh and delicious! it seems impossible that a cake can be all of these things together? Perhaps you have not yet tried our cold yogurt cake, a delicate dessert light taste enriched with juicy berries. you're experienced in the kitchen or not"&amp;", does not matter, this delight is realized in a flash and requires no oven or stove, and is therefore perfect for the summer season. cold yogurt cake will become your sweet summer par excellence, have fun testing the sweet tooth of flavor combinations by"&amp;" changing the taste of the yogurt in the cream and garnish the cake with fresh fruit to taste or a more refined coulis served here every time a new cake !")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A102, ""it"", ""en"")"),"easy, fast, fresh and delicious! it seems impossible that a cake can be all of these things together? Perhaps you have not yet tried our cold yogurt cake, a delicate dessert light taste enriched with juicy berries. you're experienced in the kitchen or not"&amp;", does not matter, this delight is realized in a flash and requires no oven or stove, and is therefore perfect for the summer season. cold yogurt cake will become your sweet summer par excellence, have fun testing the sweet tooth of flavor combinations by"&amp;" changing the taste of the yogurt in the cream and garnish the cake with fresh fruit to taste or a more refined coulis served here every time a new cake !")</f>
         <v>easy, fast, fresh and delicious! it seems impossible that a cake can be all of these things together? Perhaps you have not yet tried our cold yogurt cake, a delicate dessert light taste enriched with juicy berries. you're experienced in the kitchen or not, does not matter, this delight is realized in a flash and requires no oven or stove, and is therefore perfect for the summer season. cold yogurt cake will become your sweet summer par excellence, have fun testing the sweet tooth of flavor combinations by changing the taste of the yogurt in the cream and garnish the cake with fresh fruit to taste or a more refined coulis served here every time a new cake !</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A103, ""it"", ""en"")"),"The banana cake is a sweet soft and tasty to serve as an accompaniment to tea or coffee. prepared with banana pulp and chopped nuts, banana cake is perfect as a fruit cake for children and can be a good idea for the snack of children. the banana is a vers"&amp;"atile fruit that, in addition to being eaten alone, lends itself well to realize many other sweets, such as upside-down cake banana or donut bananas and peanuts. The best time to use bananas in the preparation of this cake is when they are ripe so that th"&amp;"e cake will be more tasty and fragrant. This banana cake is in fact also a great way to use overripe bananas that you can not consume. the recipe is really simple to prepare and at the same time a tasty way to consume the fruit!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A103, ""it"", ""en"")"),"The banana cake is a sweet soft and tasty to serve as an accompaniment to tea or coffee. prepared with banana pulp and chopped nuts, banana cake is perfect as a fruit cake for children and can be a good idea for the snack of children. the banana is a vers"&amp;"atile fruit that, in addition to being eaten alone, lends itself well to realize many other sweets, such as upside-down cake banana or donut bananas and peanuts. The best time to use bananas in the preparation of this cake is when they are ripe so that th"&amp;"e cake will be more tasty and fragrant. This banana cake is in fact also a great way to use overripe bananas that you can not consume. the recipe is really simple to prepare and at the same time a tasty way to consume the fruit!")</f>
         <v>The banana cake is a sweet soft and tasty to serve as an accompaniment to tea or coffee. prepared with banana pulp and chopped nuts, banana cake is perfect as a fruit cake for children and can be a good idea for the snack of children. the banana is a versatile fruit that, in addition to being eaten alone, lends itself well to realize many other sweets, such as upside-down cake banana or donut bananas and peanuts. The best time to use bananas in the preparation of this cake is when they are ripe so that the cake will be more tasty and fragrant. This banana cake is in fact also a great way to use overripe bananas that you can not consume. the recipe is really simple to prepare and at the same time a tasty way to consume the fruit!</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A104, ""it"", ""en"")"),"Italian tradition of seafood has many important recipes such as spaghetti with clams or sautéed mussels and clams up finish in regional delicacies such as fish soup Fano or spawning with clams, to name a few. but in many restaurants you happened to read o"&amp;"r enjoy the spaghetti. why not try to make them at home then? in a dish they are concentrated all the scents of the Mediterranean that season spaghetti, risottati in the pan to absorb the flavor of the sea and become even more appetizing! There are countl"&amp;"ess versions of this delicacy, we will propose our own, with clams and mussels along with the delicious meat of the scampi! but you feel free to add or replace ingredients with lupins, razor clams, cuttlefish, octopus and enjoy as well the spaghetti with "&amp;"rock always different, but above all more and more good!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A104, ""it"", ""en"")"),"Italian tradition of seafood has many important recipes such as spaghetti with clams or sautéed mussels and clams up finish in regional delicacies such as fish soup Fano or spawning with clams, to name a few. but in many restaurants you happened to read o"&amp;"r enjoy the spaghetti. why not try to make them at home then? in a dish they are concentrated all the scents of the Mediterranean that season spaghetti, risottati in the pan to absorb the flavor of the sea and become even more appetizing! There are countl"&amp;"ess versions of this delicacy, we will propose our own, with clams and mussels along with the delicious meat of the scampi! but you feel free to add or replace ingredients with lupins, razor clams, cuttlefish, octopus and enjoy as well the spaghetti with "&amp;"rock always different, but above all more and more good!")</f>
         <v>Italian tradition of seafood has many important recipes such as spaghetti with clams or sautéed mussels and clams up finish in regional delicacies such as fish soup Fano or spawning with clams, to name a few. but in many restaurants you happened to read or enjoy the spaghetti. why not try to make them at home then? in a dish they are concentrated all the scents of the Mediterranean that season spaghetti, risottati in the pan to absorb the flavor of the sea and become even more appetizing! There are countless versions of this delicacy, we will propose our own, with clams and mussels along with the delicious meat of the scampi! but you feel free to add or replace ingredients with lupins, razor clams, cuttlefish, octopus and enjoy as well the spaghetti with rock always different, but above all more and more good!</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A105, ""it"", ""en"")"),"is neither a first nor a classic plate of spaghetti frittata to serve as the second, is a unique dish mouth-watering taste and strictly sliced: the omelette spaghetti! just say the name is your mouth: your grandmothers, aunts and mothers guard the secret "&amp;"of the perfect omelette spaghetti pull off the sea as a robust capacity to share at noon or to be served at home as a dish for recycling do not waste the remaining dough the night before. our version includes the addition of smoked cheese and bacon, but t"&amp;"here are those who just adds Parmesan at the base of spaghetti with tomato sauce, as happens in Naples. we tried so many versions that we can not tell you what our favorite, even the simplest variant, the scammaro omelette!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A105, ""it"", ""en"")"),"is neither a first nor a classic plate of spaghetti frittata to serve as the second, is a unique dish mouth-watering taste and strictly sliced: the omelette spaghetti! just say the name is your mouth: your grandmothers, aunts and mothers guard the secret "&amp;"of the perfect omelette spaghetti pull off the sea as a robust capacity to share at noon or to be served at home as a dish for recycling do not waste the remaining dough the night before. our version includes the addition of smoked cheese and bacon, but t"&amp;"here are those who just adds Parmesan at the base of spaghetti with tomato sauce, as happens in Naples. we tried so many versions that we can not tell you what our favorite, even the simplest variant, the scammaro omelette!")</f>
         <v>is neither a first nor a classic plate of spaghetti frittata to serve as the second, is a unique dish mouth-watering taste and strictly sliced: the omelette spaghetti! just say the name is your mouth: your grandmothers, aunts and mothers guard the secret of the perfect omelette spaghetti pull off the sea as a robust capacity to share at noon or to be served at home as a dish for recycling do not waste the remaining dough the night before. our version includes the addition of smoked cheese and bacon, but there are those who just adds Parmesan at the base of spaghetti with tomato sauce, as happens in Naples. we tried so many versions that we can not tell you what our favorite, even the simplest variant, the scammaro omelette!</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A106, ""it"", ""en"")"),"pastry, a delicious and fragrant cream cheese and irresistible chocolate chips! these are the ingredients needed to prepare the recipe today: the ricotta tart. a simple and homely sweet to enjoy at any time of the day, especially for the snack! so if you "&amp;"have friends that soon will ring at your door, or the children who ask their reward for doing all the tasks, know that this is the perfect dessert for them ... even in covered version of jam! do not be surprised if it will be snapped up like hotcakes, the"&amp;" ricotta tart is unsurpassed!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A106, ""it"", ""en"")"),"pastry, a delicious and fragrant cream cheese and irresistible chocolate chips! these are the ingredients needed to prepare the recipe today: the ricotta tart. a simple and homely sweet to enjoy at any time of the day, especially for the snack! so if you "&amp;"have friends that soon will ring at your door, or the children who ask their reward for doing all the tasks, know that this is the perfect dessert for them ... even in covered version of jam! do not be surprised if it will be snapped up like hotcakes, the"&amp;" ricotta tart is unsurpassed!")</f>
         <v>pastry, a delicious and fragrant cream cheese and irresistible chocolate chips! these are the ingredients needed to prepare the recipe today: the ricotta tart. a simple and homely sweet to enjoy at any time of the day, especially for the snack! so if you have friends that soon will ring at your door, or the children who ask their reward for doing all the tasks, know that this is the perfect dessert for them ... even in covered version of jam! do not be surprised if it will be snapped up like hotcakes, the ricotta tart is unsurpassed!</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A107, ""it"", ""en"")"),"What makes the cannelloni with ricotta and spinach so irresistible? their genuine simplicity? the balance between fresh homemade pasta and soft filling? the golden crust of delicious white sauce? or perhaps their scent of home, the Sunday lunch as it once"&amp;" was? We thought about it a lot ', but we could not find a single answer: they are all equally precious ingredients that make this recipe a timeless classic Italian cuisine, much loved by young and old. and to round off a family meal, you can bring to the"&amp;" table a delicious soft tart with cream!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A107, ""it"", ""en"")"),"What makes the cannelloni with ricotta and spinach so irresistible? their genuine simplicity? the balance between fresh homemade pasta and soft filling? the golden crust of delicious white sauce? or perhaps their scent of home, the Sunday lunch as it once"&amp;" was? We thought about it a lot ', but we could not find a single answer: they are all equally precious ingredients that make this recipe a timeless classic Italian cuisine, much loved by young and old. and to round off a family meal, you can bring to the"&amp;" table a delicious soft tart with cream!")</f>
         <v>What makes the cannelloni with ricotta and spinach so irresistible? their genuine simplicity? the balance between fresh homemade pasta and soft filling? the golden crust of delicious white sauce? or perhaps their scent of home, the Sunday lunch as it once was? We thought about it a lot ', but we could not find a single answer: they are all equally precious ingredients that make this recipe a timeless classic Italian cuisine, much loved by young and old. and to round off a family meal, you can bring to the table a delicious soft tart with cream!</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A108, ""it"", ""en"")"),"thinking about the Asian food come to mind at once unique and spicy dishes, like the famous chicken curry! a load of flavor dish, unmistakable color that immediately india. the main feature of this recipe are the spices, a particular and special bouquet t"&amp;"hat varies from country to country and according to their tastes. curry, masala, or more precisely, it is in fact a mixture obtained from the beating of different spices and is commercially ready or you can easily create at home. we opted for the second s"&amp;"olution, and we offer a mixture made using among other turmeric that gives the typical yellow color, cayenne pepper with a light spiciness and the heady scent and cumin which will be the predominant note! awakening the spices in a pan all inzieranno scent"&amp;"s to spread in the house and in a moment you will feel transported to one of the classic spice markets, perhaps directly to new delhi! you even made our chicken curry for ethnically themed dinner and do not forget to prepare a bowl of basmati rice to acco"&amp;"mpany him, just as tradition!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A108, ""it"", ""en"")"),"thinking about the Asian food come to mind at once unique and spicy dishes, like the famous chicken curry! a load of flavor dish, unmistakable color that immediately india. the main feature of this recipe are the spices, a particular and special bouquet t"&amp;"hat varies from country to country and according to their tastes. curry, masala, or more precisely, it is in fact a mixture obtained from the beating of different spices and is commercially ready or you can easily create at home. we opted for the second s"&amp;"olution, and we offer a mixture made using among other turmeric that gives the typical yellow color, cayenne pepper with a light spiciness and the heady scent and cumin which will be the predominant note! awakening the spices in a pan all inzieranno scent"&amp;"s to spread in the house and in a moment you will feel transported to one of the classic spice markets, perhaps directly to new delhi! you even made our chicken curry for ethnically themed dinner and do not forget to prepare a bowl of basmati rice to acco"&amp;"mpany him, just as tradition!")</f>
         <v>thinking about the Asian food come to mind at once unique and spicy dishes, like the famous chicken curry! a load of flavor dish, unmistakable color that immediately india. the main feature of this recipe are the spices, a particular and special bouquet that varies from country to country and according to their tastes. curry, masala, or more precisely, it is in fact a mixture obtained from the beating of different spices and is commercially ready or you can easily create at home. we opted for the second solution, and we offer a mixture made using among other turmeric that gives the typical yellow color, cayenne pepper with a light spiciness and the heady scent and cumin which will be the predominant note! awakening the spices in a pan all inzieranno scents to spread in the house and in a moment you will feel transported to one of the classic spice markets, perhaps directly to new delhi! you even made our chicken curry for ethnically themed dinner and do not forget to prepare a bowl of basmati rice to accompany him, just as tradition!</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A109, ""it"", ""en"")"),"saltimbocca alla romana, as the name suggests, they are one of the horses of battle of Roman cuisine, such as carbonara. regardless of the geographical origin, saltimbocca alla romana abroad represent a great source of pride for the good Italian cuisine, "&amp;"are in fact the main course best known immediately after the spaghetti. can you imagine why? a succulent dish that can not jump directly into the mouth! over the years the recipe has undergone customizations such a short floured before cooking, the saltim"&amp;"bocca are rolled before cooking, there is also the person replacing the butter with the oil. come and discover our own version of this delicious and easy recipe for saltimbocca alla romana.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A109, ""it"", ""en"")"),"saltimbocca alla romana, as the name suggests, they are one of the horses of battle of Roman cuisine, such as carbonara. regardless of the geographical origin, saltimbocca alla romana abroad represent a great source of pride for the good Italian cuisine, "&amp;"are in fact the main course best known immediately after the spaghetti. can you imagine why? a succulent dish that can not jump directly into the mouth! over the years the recipe has undergone customizations such a short floured before cooking, the saltim"&amp;"bocca are rolled before cooking, there is also the person replacing the butter with the oil. come and discover our own version of this delicious and easy recipe for saltimbocca alla romana.")</f>
         <v>saltimbocca alla romana, as the name suggests, they are one of the horses of battle of Roman cuisine, such as carbonara. regardless of the geographical origin, saltimbocca alla romana abroad represent a great source of pride for the good Italian cuisine, are in fact the main course best known immediately after the spaghetti. can you imagine why? a succulent dish that can not jump directly into the mouth! over the years the recipe has undergone customizations such a short floured before cooking, the saltimbocca are rolled before cooking, there is also the person replacing the butter with the oil. come and discover our own version of this delicious and easy recipe for saltimbocca alla romana.</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A110, ""it"", ""en"")"),"in Italy it is often confused with diplomatic cream, while in France is recognized at first glance ... the whipped cream is a basic preparation widely used in confectionery, not only in French, and is perfect for garnishing cakes, puff pastry or puffs wat"&amp;"erfall as profiteroles, majestic cakes like the saint honor and even of simple rolls and sweet tooth such as gluten-free because the preparation does not include ingredients from wheat. contrary to what many Italians think, Chantilly cream is not made up "&amp;"of custard and whipped cream, but only the latter worked with icing sugar and vaniglia.creata from French françois vatel in the seventeenth century, the chantilly cream takes its the name of the castle where vatel was superintendent of the kitchen. then f"&amp;"rom there it spread rapidly, probably because of its simple taste, ease of performance and elegance that gives many desserts!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A110, ""it"", ""en"")"),"in Italy it is often confused with diplomatic cream, while in France is recognized at first glance ... the whipped cream is a basic preparation widely used in confectionery, not only in French, and is perfect for garnishing cakes, puff pastry or puffs wat"&amp;"erfall as profiteroles, majestic cakes like the saint honor and even of simple rolls and sweet tooth such as gluten-free because the preparation does not include ingredients from wheat. contrary to what many Italians think, Chantilly cream is not made up "&amp;"of custard and whipped cream, but only the latter worked with icing sugar and vaniglia.creata from French françois vatel in the seventeenth century, the chantilly cream takes its the name of the castle where vatel was superintendent of the kitchen. then f"&amp;"rom there it spread rapidly, probably because of its simple taste, ease of performance and elegance that gives many desserts!")</f>
         <v>in Italy it is often confused with diplomatic cream, while in France is recognized at first glance ... the whipped cream is a basic preparation widely used in confectionery, not only in French, and is perfect for garnishing cakes, puff pastry or puffs waterfall as profiteroles, majestic cakes like the saint honor and even of simple rolls and sweet tooth such as gluten-free because the preparation does not include ingredients from wheat. contrary to what many Italians think, Chantilly cream is not made up of custard and whipped cream, but only the latter worked with icing sugar and vaniglia.creata from French françois vatel in the seventeenth century, the chantilly cream takes its the name of the castle where vatel was superintendent of the kitchen. then from there it spread rapidly, probably because of its simple taste, ease of performance and elegance that gives many desserts!</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A111, ""it"", ""en"")"),"the omelet is a dish of French origin, which should not be confused with the classic Italian frittata. It may seem like a simple thing to prepare and actually the omelet is accomplished in a few minutes, but this recipe can hide many dangers! Today in the"&amp;" saffron kitchen we had the honor to host Cristina Bowerman, a great chef who explained how to get the perfect omelets! it starts with the choice of eggs, which must be fresh, with only an excellent ingredient can turn a simple dish like the omelet into s"&amp;"omething really special! then you switch to cooking, which must take place at low flame: the egg cooking slowly in fact will give all its softness. but beware, despite all our tips, you'll have to trust your feelings and understand when is the right time "&amp;"to fold the omelet as a kind of crescent! that moment that will allow you to get a slight uniform browning on the outside, creamy inside and an even or, as they say in ""slimy"". enriched the omelet with cheese or salami, maybe you can also taste the vege"&amp;"table omelets! your omelets served with a fruit juice or a juice for a rich and full breakfast ... more ""breakfast"" that breakfast! a moment that can give you the right energy for the whole day ... good and very nutritious!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A111, ""it"", ""en"")"),"the omelet is a dish of French origin, which should not be confused with the classic Italian frittata. It may seem like a simple thing to prepare and actually the omelet is accomplished in a few minutes, but this recipe can hide many dangers! Today in the"&amp;" saffron kitchen we had the honor to host Cristina Bowerman, a great chef who explained how to get the perfect omelets! it starts with the choice of eggs, which must be fresh, with only an excellent ingredient can turn a simple dish like the omelet into s"&amp;"omething really special! then you switch to cooking, which must take place at low flame: the egg cooking slowly in fact will give all its softness. but beware, despite all our tips, you'll have to trust your feelings and understand when is the right time "&amp;"to fold the omelet as a kind of crescent! that moment that will allow you to get a slight uniform browning on the outside, creamy inside and an even or, as they say in ""slimy"". enriched the omelet with cheese or salami, maybe you can also taste the vege"&amp;"table omelets! your omelets served with a fruit juice or a juice for a rich and full breakfast ... more ""breakfast"" that breakfast! a moment that can give you the right energy for the whole day ... good and very nutritious!")</f>
         <v>the omelet is a dish of French origin, which should not be confused with the classic Italian frittata. It may seem like a simple thing to prepare and actually the omelet is accomplished in a few minutes, but this recipe can hide many dangers! Today in the saffron kitchen we had the honor to host Cristina Bowerman, a great chef who explained how to get the perfect omelets! it starts with the choice of eggs, which must be fresh, with only an excellent ingredient can turn a simple dish like the omelet into something really special! then you switch to cooking, which must take place at low flame: the egg cooking slowly in fact will give all its softness. but beware, despite all our tips, you'll have to trust your feelings and understand when is the right time to fold the omelet as a kind of crescent! that moment that will allow you to get a slight uniform browning on the outside, creamy inside and an even or, as they say in "slimy". enriched the omelet with cheese or salami, maybe you can also taste the vegetable omelets! your omelets served with a fruit juice or a juice for a rich and full breakfast ... more "breakfast" that breakfast! a moment that can give you the right energy for the whole day ... good and very nutritious!</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A112, ""it"", ""en"")"),"slices of milk cocoa are greedy snacks homemade fluffy composed of two layers of cookie dough to cocoa stuffed with a tasty and velvety cream milk. prepare at home the cocoa slices milk is simple and fun, and you can also involve your children! a soft can"&amp;"dy to be enjoyed as an afternoon snack, ideal to wear to a party, maybe with our soft cakes and the irresistible cake mars! you will see that is sweeping the little ones ... and more!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A112, ""it"", ""en"")"),"slices of milk cocoa are greedy snacks homemade fluffy composed of two layers of cookie dough to cocoa stuffed with a tasty and velvety cream milk. prepare at home the cocoa slices milk is simple and fun, and you can also involve your children! a soft can"&amp;"dy to be enjoyed as an afternoon snack, ideal to wear to a party, maybe with our soft cakes and the irresistible cake mars! you will see that is sweeping the little ones ... and more!")</f>
         <v>slices of milk cocoa are greedy snacks homemade fluffy composed of two layers of cookie dough to cocoa stuffed with a tasty and velvety cream milk. prepare at home the cocoa slices milk is simple and fun, and you can also involve your children! a soft candy to be enjoyed as an afternoon snack, ideal to wear to a party, maybe with our soft cakes and the irresistible cake mars! you will see that is sweeping the little ones ... and more!</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A113, ""it"", ""en"")"),"what is for lunch? baked meatloaf! who among us has never tasted a genuine and rich homemade meatloaf prepared with loving hands of mothers and grandmothers, inevitable appointment Sunday, churn out this fragrant delight able to muster all guests? the mea"&amp;"tloaf in the oven is a traditional recipe with a thousand variations, such as stuffed with spinach and smoked cheese and the chicken. top secret ingredients are kept in old cookbooks or even just in the historical memory of the cooks at home ... one thing"&amp;" is certain and common to all these versions: the meatloaf is an easy recipe to make, which began as a flat recovery, so it is versatile in the choice meat and aromas. only undisputed rule: the result of this judicious mix must return a soft and juicy dis"&amp;"h to accompany savory contours, such as potatoes, for example, the Mediterranean. to those who already have the perfect recipe, to those who are still searching and finally to those who have never competed in this preparation, our baked meatloaf is dedica"&amp;"ted to all of you!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A113, ""it"", ""en"")"),"what is for lunch? baked meatloaf! who among us has never tasted a genuine and rich homemade meatloaf prepared with loving hands of mothers and grandmothers, inevitable appointment Sunday, churn out this fragrant delight able to muster all guests? the mea"&amp;"tloaf in the oven is a traditional recipe with a thousand variations, such as stuffed with spinach and smoked cheese and the chicken. top secret ingredients are kept in old cookbooks or even just in the historical memory of the cooks at home ... one thing"&amp;" is certain and common to all these versions: the meatloaf is an easy recipe to make, which began as a flat recovery, so it is versatile in the choice meat and aromas. only undisputed rule: the result of this judicious mix must return a soft and juicy dis"&amp;"h to accompany savory contours, such as potatoes, for example, the Mediterranean. to those who already have the perfect recipe, to those who are still searching and finally to those who have never competed in this preparation, our baked meatloaf is dedica"&amp;"ted to all of you!")</f>
         <v>what is for lunch? baked meatloaf! who among us has never tasted a genuine and rich homemade meatloaf prepared with loving hands of mothers and grandmothers, inevitable appointment Sunday, churn out this fragrant delight able to muster all guests? the meatloaf in the oven is a traditional recipe with a thousand variations, such as stuffed with spinach and smoked cheese and the chicken. top secret ingredients are kept in old cookbooks or even just in the historical memory of the cooks at home ... one thing is certain and common to all these versions: the meatloaf is an easy recipe to make, which began as a flat recovery, so it is versatile in the choice meat and aromas. only undisputed rule: the result of this judicious mix must return a soft and juicy dish to accompany savory contours, such as potatoes, for example, the Mediterranean. to those who already have the perfect recipe, to those who are still searching and finally to those who have never competed in this preparation, our baked meatloaf is dedicated to all of you!</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A114, ""it"", ""en"")"),"how to resist a delicious vegetable gratin? we are left groped by so many tempting recipes using pumpkin, endive and mixed vegetables, tasty made from brown and crispy surface that is created with the gratin in the oven. Here we suggest a timeless classic"&amp;", a typical winter home preparation that can make even the least loved sweet tooth vegetables: cauliflower au gratin. the irresistible crust that is created during cooking hides a creamy and flavorful heart of bechamel sauce and parmesan. the result is a "&amp;"vegetarian side dish delicious and genuine that will whet the appetite of the whole family.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A114, ""it"", ""en"")"),"how to resist a delicious vegetable gratin? we are left groped by so many tempting recipes using pumpkin, endive and mixed vegetables, tasty made from brown and crispy surface that is created with the gratin in the oven. Here we suggest a timeless classic"&amp;", a typical winter home preparation that can make even the least loved sweet tooth vegetables: cauliflower au gratin. the irresistible crust that is created during cooking hides a creamy and flavorful heart of bechamel sauce and parmesan. the result is a "&amp;"vegetarian side dish delicious and genuine that will whet the appetite of the whole family.")</f>
         <v>how to resist a delicious vegetable gratin? we are left groped by so many tempting recipes using pumpkin, endive and mixed vegetables, tasty made from brown and crispy surface that is created with the gratin in the oven. Here we suggest a timeless classic, a typical winter home preparation that can make even the least loved sweet tooth vegetables: cauliflower au gratin. the irresistible crust that is created during cooking hides a creamy and flavorful heart of bechamel sauce and parmesan. the result is a vegetarian side dish delicious and genuine that will whet the appetite of the whole family.</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A115, ""it"", ""en"")"),"how many times did you provide a custard or a dessert that only required the use of egg yolks? besides the usual meringues to reuse the egg whites there are sweet tricks like the one we propose here: the cakes with coconut! with three simple ingredients a"&amp;"nd a few minutes you are able to prepare these delicious pastries, characterized by a fragrant outer crust and a soft heart! the cakes with coconut enclose all the taste of this amazing fruit used in the form of small flakes (rapè) in the kitchen give muc"&amp;"h satisfaction; you may have already tried the coconut rapè paired with chocolate, pineapple, lemon .. in this case takes center stage along with the egg whites and allow you to make these lovely tufts perfect for enriching a birthday buffet can be enjoye"&amp;"d while sipping a hot cup of tea, hot chocolate or to serve as a snack together with a cool drink!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A115, ""it"", ""en"")"),"how many times did you provide a custard or a dessert that only required the use of egg yolks? besides the usual meringues to reuse the egg whites there are sweet tricks like the one we propose here: the cakes with coconut! with three simple ingredients a"&amp;"nd a few minutes you are able to prepare these delicious pastries, characterized by a fragrant outer crust and a soft heart! the cakes with coconut enclose all the taste of this amazing fruit used in the form of small flakes (rapè) in the kitchen give muc"&amp;"h satisfaction; you may have already tried the coconut rapè paired with chocolate, pineapple, lemon .. in this case takes center stage along with the egg whites and allow you to make these lovely tufts perfect for enriching a birthday buffet can be enjoye"&amp;"d while sipping a hot cup of tea, hot chocolate or to serve as a snack together with a cool drink!")</f>
         <v>how many times did you provide a custard or a dessert that only required the use of egg yolks? besides the usual meringues to reuse the egg whites there are sweet tricks like the one we propose here: the cakes with coconut! with three simple ingredients and a few minutes you are able to prepare these delicious pastries, characterized by a fragrant outer crust and a soft heart! the cakes with coconut enclose all the taste of this amazing fruit used in the form of small flakes (rapè) in the kitchen give much satisfaction; you may have already tried the coconut rapè paired with chocolate, pineapple, lemon .. in this case takes center stage along with the egg whites and allow you to make these lovely tufts perfect for enriching a birthday buffet can be enjoyed while sipping a hot cup of tea, hot chocolate or to serve as a snack together with a cool drink!</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A116, ""it"", ""en"")"),"Pesto is a versatile cream that lends itself to many variations depending on your taste: pesto zucchini, a very delicate flavor or otherwise to mint for a more intense flavor, or the classic pesto sauce. what we are proposing today is the rocket pesto, a "&amp;"delicate but tasty dressing, quick to prepare and perfect for pasta in the summer season, because of its unique taste freschezza.con this cream you can make tasty fillings such as roll omelet stuffed, but not all. you can make good pasta, using a type of "&amp;"pasta that embraces its creamy consistency, like tonnarelli, but also meat and fish, to give a refined and special touch to each of your reach. really only need a few steps to make this delicious dressing!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A116, ""it"", ""en"")"),"Pesto is a versatile cream that lends itself to many variations depending on your taste: pesto zucchini, a very delicate flavor or otherwise to mint for a more intense flavor, or the classic pesto sauce. what we are proposing today is the rocket pesto, a "&amp;"delicate but tasty dressing, quick to prepare and perfect for pasta in the summer season, because of its unique taste freschezza.con this cream you can make tasty fillings such as roll omelet stuffed, but not all. you can make good pasta, using a type of "&amp;"pasta that embraces its creamy consistency, like tonnarelli, but also meat and fish, to give a refined and special touch to each of your reach. really only need a few steps to make this delicious dressing!")</f>
         <v>Pesto is a versatile cream that lends itself to many variations depending on your taste: pesto zucchini, a very delicate flavor or otherwise to mint for a more intense flavor, or the classic pesto sauce. what we are proposing today is the rocket pesto, a delicate but tasty dressing, quick to prepare and perfect for pasta in the summer season, because of its unique taste freschezza.con this cream you can make tasty fillings such as roll omelet stuffed, but not all. you can make good pasta, using a type of pasta that embraces its creamy consistency, like tonnarelli, but also meat and fish, to give a refined and special touch to each of your reach. really only need a few steps to make this delicious dressing!</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A117, ""it"", ""en"")"),"if you do not know the pasta and potatoes Neapolitan today will open a world! It is not an exaggeration because it is a dish that surprised us first, a tasty variation of the classic pasta and potatoes: his preparation, his cooking methods and, not least,"&amp;" its wonderful flavor. But we proceed with order. This is a dish whose roots are very humble. add the potatoes to the dough is in fact an ingenious way to prepare a very poor farmer plate. to make full preparation is added to the pork fat that let sizzle "&amp;"of fried vegetables. to give a little 'color is added to the concentrate, during the summer, it can be replaced with fresh cherry tomatoes for example. and then there is the key ingredient of pasta and potatoes Neapolitan: the rind! many in the discard, d"&amp;"o not know that you lose not add it in the pan like the recipe for pasta and beans. the crust in fact becomes soft releasing part of the still attached transforming the pot cheese in a creamy delicacy, while the outer part, thoroughly cleaned and scraped,"&amp;" is chewing: our advice, to avoid diplomatic clashes at the table, is to divide it into many pieces as the diners so each will have its portion. you're curious about how to make pasta and potatoes to the Neapolitan? come and discover our version and after"&amp;" trying it, cimentatevia ven bells in other recipes of traditional flavors like fried napolenato or Genoa.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A117, ""it"", ""en"")"),"if you do not know the pasta and potatoes Neapolitan today will open a world! It is not an exaggeration because it is a dish that surprised us first, a tasty variation of the classic pasta and potatoes: his preparation, his cooking methods and, not least,"&amp;" its wonderful flavor. But we proceed with order. This is a dish whose roots are very humble. add the potatoes to the dough is in fact an ingenious way to prepare a very poor farmer plate. to make full preparation is added to the pork fat that let sizzle "&amp;"of fried vegetables. to give a little 'color is added to the concentrate, during the summer, it can be replaced with fresh cherry tomatoes for example. and then there is the key ingredient of pasta and potatoes Neapolitan: the rind! many in the discard, d"&amp;"o not know that you lose not add it in the pan like the recipe for pasta and beans. the crust in fact becomes soft releasing part of the still attached transforming the pot cheese in a creamy delicacy, while the outer part, thoroughly cleaned and scraped,"&amp;" is chewing: our advice, to avoid diplomatic clashes at the table, is to divide it into many pieces as the diners so each will have its portion. you're curious about how to make pasta and potatoes to the Neapolitan? come and discover our version and after"&amp;" trying it, cimentatevia ven bells in other recipes of traditional flavors like fried napolenato or Genoa.")</f>
         <v>if you do not know the pasta and potatoes Neapolitan today will open a world! It is not an exaggeration because it is a dish that surprised us first, a tasty variation of the classic pasta and potatoes: his preparation, his cooking methods and, not least, its wonderful flavor. But we proceed with order. This is a dish whose roots are very humble. add the potatoes to the dough is in fact an ingenious way to prepare a very poor farmer plate. to make full preparation is added to the pork fat that let sizzle of fried vegetables. to give a little 'color is added to the concentrate, during the summer, it can be replaced with fresh cherry tomatoes for example. and then there is the key ingredient of pasta and potatoes Neapolitan: the rind! many in the discard, do not know that you lose not add it in the pan like the recipe for pasta and beans. the crust in fact becomes soft releasing part of the still attached transforming the pot cheese in a creamy delicacy, while the outer part, thoroughly cleaned and scraped, is chewing: our advice, to avoid diplomatic clashes at the table, is to divide it into many pieces as the diners so each will have its portion. you're curious about how to make pasta and potatoes to the Neapolitan? come and discover our version and after trying it, cimentatevia ven bells in other recipes of traditional flavors like fried napolenato or Genoa.</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A118, ""it"", ""en"")"),"although there are many who claim authorship, it seems that the original recipe of chicken cacciatore was born in Tuscany. a recipe with no time has the typical taste of home: the one that restores, that consoles and especially that gives feeling of well "&amp;"being. we can say with absolute certainty that the chicken cacciatore is exactly like the meat with tomato sauce, they are so considerable as the two most important institutions of our popular Italian cuisine. for those who do not know this wonderful reci"&amp;"pe, it's chicken cut into pieces, browned in a pan and fragrant classic smells: onion, celery and carrot. a second very simple dish as delicious even that is capable of becoming very rich recipe and only if it fulfills the most important tasks: the shoe i"&amp;"n tasty sauce! Now we come to the preparation of the chicken cacciatore. that there are so many versions is an absolutely common knowledge, so we have decided to give our own, one that made us feel right at home. if you want to accompany it with a side di"&amp;"sh, we can suggest the flag, an Umbrian version of Ratatouille!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A118, ""it"", ""en"")"),"although there are many who claim authorship, it seems that the original recipe of chicken cacciatore was born in Tuscany. a recipe with no time has the typical taste of home: the one that restores, that consoles and especially that gives feeling of well "&amp;"being. we can say with absolute certainty that the chicken cacciatore is exactly like the meat with tomato sauce, they are so considerable as the two most important institutions of our popular Italian cuisine. for those who do not know this wonderful reci"&amp;"pe, it's chicken cut into pieces, browned in a pan and fragrant classic smells: onion, celery and carrot. a second very simple dish as delicious even that is capable of becoming very rich recipe and only if it fulfills the most important tasks: the shoe i"&amp;"n tasty sauce! Now we come to the preparation of the chicken cacciatore. that there are so many versions is an absolutely common knowledge, so we have decided to give our own, one that made us feel right at home. if you want to accompany it with a side di"&amp;"sh, we can suggest the flag, an Umbrian version of Ratatouille!")</f>
         <v>although there are many who claim authorship, it seems that the original recipe of chicken cacciatore was born in Tuscany. a recipe with no time has the typical taste of home: the one that restores, that consoles and especially that gives feeling of well being. we can say with absolute certainty that the chicken cacciatore is exactly like the meat with tomato sauce, they are so considerable as the two most important institutions of our popular Italian cuisine. for those who do not know this wonderful recipe, it's chicken cut into pieces, browned in a pan and fragrant classic smells: onion, celery and carrot. a second very simple dish as delicious even that is capable of becoming very rich recipe and only if it fulfills the most important tasks: the shoe in tasty sauce! Now we come to the preparation of the chicken cacciatore. that there are so many versions is an absolutely common knowledge, so we have decided to give our own, one that made us feel right at home. if you want to accompany it with a side dish, we can suggest the flag, an Umbrian version of Ratatouille!</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A119, ""it"", ""en"")"),"stuffed, fried, pickled, baked in parmesan or simply jump! zucchini are very versatile vegetable that there is never tired to have in the kitchen! Today we want to prepare with you a first quick and easy dish, the kind you do when you have a few ingredien"&amp;"ts available but do not want to leave anything to chance. even a simple pasta and zucchini can turn into a creamy and delicious recipe that brings all of their agreement! we decided to make the zucchini undisputed protagonists in this preparation, scented"&amp;" only with a few leaves of basil! in this way you will get an enveloping and delicate taste perfect for seasoning of short pasta.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A119, ""it"", ""en"")"),"stuffed, fried, pickled, baked in parmesan or simply jump! zucchini are very versatile vegetable that there is never tired to have in the kitchen! Today we want to prepare with you a first quick and easy dish, the kind you do when you have a few ingredien"&amp;"ts available but do not want to leave anything to chance. even a simple pasta and zucchini can turn into a creamy and delicious recipe that brings all of their agreement! we decided to make the zucchini undisputed protagonists in this preparation, scented"&amp;" only with a few leaves of basil! in this way you will get an enveloping and delicate taste perfect for seasoning of short pasta.")</f>
         <v>stuffed, fried, pickled, baked in parmesan or simply jump! zucchini are very versatile vegetable that there is never tired to have in the kitchen! Today we want to prepare with you a first quick and easy dish, the kind you do when you have a few ingredients available but do not want to leave anything to chance. even a simple pasta and zucchini can turn into a creamy and delicious recipe that brings all of their agreement! we decided to make the zucchini undisputed protagonists in this preparation, scented only with a few leaves of basil! in this way you will get an enveloping and delicate taste perfect for seasoning of short pasta.</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A120, ""it"", ""en"")"),"Father's Day is approaching and the donuts of St. joseph have the typical dessert par excellence, rich in history and traditions! This dessert is prepared in now throughout Italy bell origin and March 19 all the ovens and the best pastry shops are full of"&amp;" donuts .. and not only that, just think of the raviole Emilia. They are definitely the most traditional fried donuts, but many prefer the cooked version in the oven, like the one we are proposing today! the result will be a little 'lighter and more delic"&amp;"ate taste, but the donuts St. joseph baked will still have a rich filling made of a velvety custard. to top it all will be the inevitable black cherry and a cascade of sugar icing. to celebrate Father's Day in an absolutely special and tempting, even try "&amp;"another always baked version: the donuts with chocolate!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A120, ""it"", ""en"")"),"Father's Day is approaching and the donuts of St. joseph have the typical dessert par excellence, rich in history and traditions! This dessert is prepared in now throughout Italy bell origin and March 19 all the ovens and the best pastry shops are full of"&amp;" donuts .. and not only that, just think of the raviole Emilia. They are definitely the most traditional fried donuts, but many prefer the cooked version in the oven, like the one we are proposing today! the result will be a little 'lighter and more delic"&amp;"ate taste, but the donuts St. joseph baked will still have a rich filling made of a velvety custard. to top it all will be the inevitable black cherry and a cascade of sugar icing. to celebrate Father's Day in an absolutely special and tempting, even try "&amp;"another always baked version: the donuts with chocolate!")</f>
         <v>Father's Day is approaching and the donuts of St. joseph have the typical dessert par excellence, rich in history and traditions! This dessert is prepared in now throughout Italy bell origin and March 19 all the ovens and the best pastry shops are full of donuts .. and not only that, just think of the raviole Emilia. They are definitely the most traditional fried donuts, but many prefer the cooked version in the oven, like the one we are proposing today! the result will be a little 'lighter and more delicate taste, but the donuts St. joseph baked will still have a rich filling made of a velvety custard. to top it all will be the inevitable black cherry and a cascade of sugar icing. to celebrate Father's Day in an absolutely special and tempting, even try another always baked version: the donuts with chocolate!</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A121, ""it"", ""en"")"),"will be their characteristic shape or intense and earthy, will that seem to tell a story of fairies and enchanted forests, when it was once narrated to sprout where they had danced the elves ... the mushrooms are one of the most precious gifts that the ea"&amp;"rth gives us and there is no better way to taste a nice risotto with porcini mushrooms! a creamy and enveloping vegetarian main course, the perfect choice to rip applause to your guests, but also to pamper the family when the days begin to shorten. whatev"&amp;"er the occasion, the risotto with porcini mushrooms is a recipe rich in taste and charm ... more than a plate, an autumn fairy tale!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A121, ""it"", ""en"")"),"will be their characteristic shape or intense and earthy, will that seem to tell a story of fairies and enchanted forests, when it was once narrated to sprout where they had danced the elves ... the mushrooms are one of the most precious gifts that the ea"&amp;"rth gives us and there is no better way to taste a nice risotto with porcini mushrooms! a creamy and enveloping vegetarian main course, the perfect choice to rip applause to your guests, but also to pamper the family when the days begin to shorten. whatev"&amp;"er the occasion, the risotto with porcini mushrooms is a recipe rich in taste and charm ... more than a plate, an autumn fairy tale!")</f>
         <v>will be their characteristic shape or intense and earthy, will that seem to tell a story of fairies and enchanted forests, when it was once narrated to sprout where they had danced the elves ... the mushrooms are one of the most precious gifts that the earth gives us and there is no better way to taste a nice risotto with porcini mushrooms! a creamy and enveloping vegetarian main course, the perfect choice to rip applause to your guests, but also to pamper the family when the days begin to shorten. whatever the occasion, the risotto with porcini mushrooms is a recipe rich in taste and charm ... more than a plate, an autumn fairy tale!</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A122, ""it"", ""en"")"),"The tomato risotto is a classic first dish, tasty and fast execution, which will be appreciated by children as by adulti.il tomato risotto is a very simple dish in which the sweet taste of cherry tomato is combined with the freshness and l ' basil aroma t"&amp;"ritato.il tomato risotto of a first plate by the well-balanced nutritional values ​​and can also be consumed as a dish unico.il tomato risotto can be prepared using ready peeled tomatoes or with a mix of fresh cherry tomatoes and tomato puree.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A122, ""it"", ""en"")"),"The tomato risotto is a classic first dish, tasty and fast execution, which will be appreciated by children as by adulti.il tomato risotto is a very simple dish in which the sweet taste of cherry tomato is combined with the freshness and l ' basil aroma t"&amp;"ritato.il tomato risotto of a first plate by the well-balanced nutritional values ​​and can also be consumed as a dish unico.il tomato risotto can be prepared using ready peeled tomatoes or with a mix of fresh cherry tomatoes and tomato puree.")</f>
         <v>The tomato risotto is a classic first dish, tasty and fast execution, which will be appreciated by children as by adulti.il tomato risotto is a very simple dish in which the sweet taste of cherry tomato is combined with the freshness and l ' basil aroma tritato.il tomato risotto of a first plate by the well-balanced nutritional values ​​and can also be consumed as a dish unico.il tomato risotto can be prepared using ready peeled tomatoes or with a mix of fresh cherry tomatoes and tomato puree.</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A123, ""it"", ""en"")"),"the mushroom risotto is a first timeless dish. some like the risotto with porcini, but this type of fungus is often difficult to find and sometimes given their intense flavor is not always appreciated by all. we propose instead a more delicate version, av"&amp;"ailable to everyone, created by chef Fabio abbattista that involves the use of mushrooms and wild mushrooms: two families definitely easier to find not only in the fall but also during the rest of the year ! the secret of this dish? surely the broth made "&amp;"from the stems of the mushrooms ... as you know here in saffron yellow do not like waste; is true that the stems are less valuable but it is also true that enclose all their taste, so why throw them away? laced apron, we prepare together this creamy and d"&amp;"elicious mushroom risotto, creamed to perfection!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A123, ""it"", ""en"")"),"the mushroom risotto is a first timeless dish. some like the risotto with porcini, but this type of fungus is often difficult to find and sometimes given their intense flavor is not always appreciated by all. we propose instead a more delicate version, av"&amp;"ailable to everyone, created by chef Fabio abbattista that involves the use of mushrooms and wild mushrooms: two families definitely easier to find not only in the fall but also during the rest of the year ! the secret of this dish? surely the broth made "&amp;"from the stems of the mushrooms ... as you know here in saffron yellow do not like waste; is true that the stems are less valuable but it is also true that enclose all their taste, so why throw them away? laced apron, we prepare together this creamy and d"&amp;"elicious mushroom risotto, creamed to perfection!")</f>
         <v>the mushroom risotto is a first timeless dish. some like the risotto with porcini, but this type of fungus is often difficult to find and sometimes given their intense flavor is not always appreciated by all. we propose instead a more delicate version, available to everyone, created by chef Fabio abbattista that involves the use of mushrooms and wild mushrooms: two families definitely easier to find not only in the fall but also during the rest of the year ! the secret of this dish? surely the broth made from the stems of the mushrooms ... as you know here in saffron yellow do not like waste; is true that the stems are less valuable but it is also true that enclose all their taste, so why throw them away? laced apron, we prepare together this creamy and delicious mushroom risotto, creamed to perfection!</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A124, ""it"", ""en"")"),"if you want to enjoy a delicious appetizer that includes the delicious flavors of summer, the pumpkin flowers in batter are the perfect recipe for your menus: an ideal dish to color your table with taste and simplicity! and the fried zucchini flowers, cha"&amp;"racterized by a delicate flavor, they are well suited to accommodate delicious fillings, such as those with burrata cheese and sun-dried tomatoes. but you can vary not only on filling: why settle for just one batter? Chef Fabio abbattista offers two varia"&amp;"nts to choose from: the classic with a leavened batter and a more crispy tempura. Once ready, you can serve your pumpkin flowers in batter into small cones cone-shaped and impress your guests: you are undecided? then, you just have to try these delicious "&amp;"fried zucchini flowers in both variants, to find out which suits you!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A124, ""it"", ""en"")"),"if you want to enjoy a delicious appetizer that includes the delicious flavors of summer, the pumpkin flowers in batter are the perfect recipe for your menus: an ideal dish to color your table with taste and simplicity! and the fried zucchini flowers, cha"&amp;"racterized by a delicate flavor, they are well suited to accommodate delicious fillings, such as those with burrata cheese and sun-dried tomatoes. but you can vary not only on filling: why settle for just one batter? Chef Fabio abbattista offers two varia"&amp;"nts to choose from: the classic with a leavened batter and a more crispy tempura. Once ready, you can serve your pumpkin flowers in batter into small cones cone-shaped and impress your guests: you are undecided? then, you just have to try these delicious "&amp;"fried zucchini flowers in both variants, to find out which suits you!")</f>
         <v>if you want to enjoy a delicious appetizer that includes the delicious flavors of summer, the pumpkin flowers in batter are the perfect recipe for your menus: an ideal dish to color your table with taste and simplicity! and the fried zucchini flowers, characterized by a delicate flavor, they are well suited to accommodate delicious fillings, such as those with burrata cheese and sun-dried tomatoes. but you can vary not only on filling: why settle for just one batter? Chef Fabio abbattista offers two variants to choose from: the classic with a leavened batter and a more crispy tempura. Once ready, you can serve your pumpkin flowers in batter into small cones cone-shaped and impress your guests: you are undecided? then, you just have to try these delicious fried zucchini flowers in both variants, to find out which suits you!</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A125, ""it"", ""en"")"),"sea ​​bream baked in foil is a second genuine and tasty dish that enhances the delicate flavor of this seafood. cooking in foil not only preserves the nutrients of the food but it reduces fat and season lightly; we chose herbs such as thyme and parsley, l"&amp;"emon and garlic to make this special dish in its simplicity. once clean sea bream, the preparation will be a breeze. brought to the table the whole sea bream in foil then sfilettarla at the moment, so it unleashes all the aromas and fragrances.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A125, ""it"", ""en"")"),"sea ​​bream baked in foil is a second genuine and tasty dish that enhances the delicate flavor of this seafood. cooking in foil not only preserves the nutrients of the food but it reduces fat and season lightly; we chose herbs such as thyme and parsley, l"&amp;"emon and garlic to make this special dish in its simplicity. once clean sea bream, the preparation will be a breeze. brought to the table the whole sea bream in foil then sfilettarla at the moment, so it unleashes all the aromas and fragrances.")</f>
         <v>sea ​​bream baked in foil is a second genuine and tasty dish that enhances the delicate flavor of this seafood. cooking in foil not only preserves the nutrients of the food but it reduces fat and season lightly; we chose herbs such as thyme and parsley, lemon and garlic to make this special dish in its simplicity. once clean sea bream, the preparation will be a breeze. brought to the table the whole sea bream in foil then sfilettarla at the moment, so it unleashes all the aromas and fragrances.</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A126, ""it"", ""en"")"),"The sponge cake is considered among the basic preparations of pastry, one of the most classic sweet and popular that can not miss in our cookbooks. and 'an old sweet, belongs to the rural tradition of central and northern Italy; was ""the sweetest of part"&amp;"ies"" who suffered then changes in the composition and preparation to become one of the glories of the best laboratories of master pastry chefs, always looking for the perfect whipped mass. The sponge cake is made by a very simple and fragrant dough made "&amp;"with eggs, flour and sugar, enriched by lemon zest, which gives an inviting aromatic touch and dampens the taste of the eggs, the main protagonists of this cake. Daisy cake probably owes its name to the intense yellow color of the dough and the generous s"&amp;"prinkling of powdered sugar that simulate precisely the colors of a daisy. and 'a very soft and delicate sweet, good to enjoy simple, but also ideal to be stuffed. Try our version, to make it cheerful snack for your kids or for a sweet breakfast: will be "&amp;"enraptured by his infinite goodness!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A126, ""it"", ""en"")"),"The sponge cake is considered among the basic preparations of pastry, one of the most classic sweet and popular that can not miss in our cookbooks. and 'an old sweet, belongs to the rural tradition of central and northern Italy; was ""the sweetest of part"&amp;"ies"" who suffered then changes in the composition and preparation to become one of the glories of the best laboratories of master pastry chefs, always looking for the perfect whipped mass. The sponge cake is made by a very simple and fragrant dough made "&amp;"with eggs, flour and sugar, enriched by lemon zest, which gives an inviting aromatic touch and dampens the taste of the eggs, the main protagonists of this cake. Daisy cake probably owes its name to the intense yellow color of the dough and the generous s"&amp;"prinkling of powdered sugar that simulate precisely the colors of a daisy. and 'a very soft and delicate sweet, good to enjoy simple, but also ideal to be stuffed. Try our version, to make it cheerful snack for your kids or for a sweet breakfast: will be "&amp;"enraptured by his infinite goodness!")</f>
         <v>The sponge cake is considered among the basic preparations of pastry, one of the most classic sweet and popular that can not miss in our cookbooks. and 'an old sweet, belongs to the rural tradition of central and northern Italy; was "the sweetest of parties" who suffered then changes in the composition and preparation to become one of the glories of the best laboratories of master pastry chefs, always looking for the perfect whipped mass. The sponge cake is made by a very simple and fragrant dough made with eggs, flour and sugar, enriched by lemon zest, which gives an inviting aromatic touch and dampens the taste of the eggs, the main protagonists of this cake. Daisy cake probably owes its name to the intense yellow color of the dough and the generous sprinkling of powdered sugar that simulate precisely the colors of a daisy. and 'a very soft and delicate sweet, good to enjoy simple, but also ideal to be stuffed. Try our version, to make it cheerful snack for your kids or for a sweet breakfast: will be enraptured by his infinite goodness!</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A127, ""it"", ""en"")"),"grilled, almond salad or breaded and fried! the chicken breast can be prepared in so many ways to satisfy the tastes of all. in this recipe we turn to those who love the taste of citrus: lemon chicken. keep chicken breast strips dipped in a thick, envelop"&amp;"ing creamy sauce that will make this second course irresistible and fragrant. you can decide to spice it with parsley, rosemary or sage ... we prefer the chicken so lemon, pure! We expect to know your version!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A127, ""it"", ""en"")"),"grilled, almond salad or breaded and fried! the chicken breast can be prepared in so many ways to satisfy the tastes of all. in this recipe we turn to those who love the taste of citrus: lemon chicken. keep chicken breast strips dipped in a thick, envelop"&amp;"ing creamy sauce that will make this second course irresistible and fragrant. you can decide to spice it with parsley, rosemary or sage ... we prefer the chicken so lemon, pure! We expect to know your version!")</f>
         <v>grilled, almond salad or breaded and fried! the chicken breast can be prepared in so many ways to satisfy the tastes of all. in this recipe we turn to those who love the taste of citrus: lemon chicken. keep chicken breast strips dipped in a thick, enveloping creamy sauce that will make this second course irresistible and fragrant. you can decide to spice it with parsley, rosemary or sage ... we prefer the chicken so lemon, pure! We expect to know your version!</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A128, ""it"", ""en"")"),"couscous: just the name to drag us into the magical world of African cuisine, made of fragrant spices, pungent aromas and flavors marked. the culinary tradition of these gold grains have traveled from Africa to reach the coasts of Sicily and then spread a"&amp;"cross the European continent. today we propose an interpretation of Mediterranean flavor: couscous with vegetables. a pan of fresh and colorful vegetables meets the couscous, this extraordinary ingredient from ancient history, in a marriage of flavors and"&amp;" aromas that mixes traditions and cultures. you can decide to eat the couscous still warm and serve it in a tagine for dinner from unusual taste or wearing cool as schiscia under the umbrella. however, you decide to assapore this summer dish can accompany"&amp;" it with sauces from aromatic flavors such as traditional harissa: you will conquer the first grain!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A128, ""it"", ""en"")"),"couscous: just the name to drag us into the magical world of African cuisine, made of fragrant spices, pungent aromas and flavors marked. the culinary tradition of these gold grains have traveled from Africa to reach the coasts of Sicily and then spread a"&amp;"cross the European continent. today we propose an interpretation of Mediterranean flavor: couscous with vegetables. a pan of fresh and colorful vegetables meets the couscous, this extraordinary ingredient from ancient history, in a marriage of flavors and"&amp;" aromas that mixes traditions and cultures. you can decide to eat the couscous still warm and serve it in a tagine for dinner from unusual taste or wearing cool as schiscia under the umbrella. however, you decide to assapore this summer dish can accompany"&amp;" it with sauces from aromatic flavors such as traditional harissa: you will conquer the first grain!")</f>
         <v>couscous: just the name to drag us into the magical world of African cuisine, made of fragrant spices, pungent aromas and flavors marked. the culinary tradition of these gold grains have traveled from Africa to reach the coasts of Sicily and then spread across the European continent. today we propose an interpretation of Mediterranean flavor: couscous with vegetables. a pan of fresh and colorful vegetables meets the couscous, this extraordinary ingredient from ancient history, in a marriage of flavors and aromas that mixes traditions and cultures. you can decide to eat the couscous still warm and serve it in a tagine for dinner from unusual taste or wearing cool as schiscia under the umbrella. however, you decide to assapore this summer dish can accompany it with sauces from aromatic flavors such as traditional harissa: you will conquer the first grain!</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A129, ""it"", ""en"")"),"gnocchi, such as meatballs, are loved by everyone and can be cooked in many different ways depending on the tastes and areas. Today we bring you in Trentino-South Tyrol where for centuries they prepare dumplings, dumplings! hearty bread dumplings made fro"&amp;"m stale white bread, chives, eggs, bacon and onion (Tyrolean) or addition of smoked sausage (late twenties). every family has its secrets for preparing the dumplings from the right consistency, neither too hard nor too soft, but all agree that the meat br"&amp;"oth is the most genuine and tasty way to cook and enjoy them. If instead you want to serve them with butter, then you can boil them in salted boiling water before you toss. we have entrusted to the recipe of the Tyrolean dumplings filed on August 8, 2003,"&amp;" but we also listened to some advice from people who make them at home for decades according to the recipe passed down in the family: the dumplings should be ""dirty"", with pieces of meat and chives visible. we preferred a rather rustic version, with a d"&amp;"ough that is compact and blends without losing the view and tasting the bread. Today in restaurants, delis and at fairs you can find so many different flavors of dumplings: with spinach, with herbs, beetroot but we encourage you first to try the classic: "&amp;"Tyrolean dumplings! are you ready to immerse yourself in the atmosphere of the mountains?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A129, ""it"", ""en"")"),"gnocchi, such as meatballs, are loved by everyone and can be cooked in many different ways depending on the tastes and areas. Today we bring you in Trentino-South Tyrol where for centuries they prepare dumplings, dumplings! hearty bread dumplings made fro"&amp;"m stale white bread, chives, eggs, bacon and onion (Tyrolean) or addition of smoked sausage (late twenties). every family has its secrets for preparing the dumplings from the right consistency, neither too hard nor too soft, but all agree that the meat br"&amp;"oth is the most genuine and tasty way to cook and enjoy them. If instead you want to serve them with butter, then you can boil them in salted boiling water before you toss. we have entrusted to the recipe of the Tyrolean dumplings filed on August 8, 2003,"&amp;" but we also listened to some advice from people who make them at home for decades according to the recipe passed down in the family: the dumplings should be ""dirty"", with pieces of meat and chives visible. we preferred a rather rustic version, with a d"&amp;"ough that is compact and blends without losing the view and tasting the bread. Today in restaurants, delis and at fairs you can find so many different flavors of dumplings: with spinach, with herbs, beetroot but we encourage you first to try the classic: "&amp;"Tyrolean dumplings! are you ready to immerse yourself in the atmosphere of the mountains?")</f>
         <v>gnocchi, such as meatballs, are loved by everyone and can be cooked in many different ways depending on the tastes and areas. Today we bring you in Trentino-South Tyrol where for centuries they prepare dumplings, dumplings! hearty bread dumplings made from stale white bread, chives, eggs, bacon and onion (Tyrolean) or addition of smoked sausage (late twenties). every family has its secrets for preparing the dumplings from the right consistency, neither too hard nor too soft, but all agree that the meat broth is the most genuine and tasty way to cook and enjoy them. If instead you want to serve them with butter, then you can boil them in salted boiling water before you toss. we have entrusted to the recipe of the Tyrolean dumplings filed on August 8, 2003, but we also listened to some advice from people who make them at home for decades according to the recipe passed down in the family: the dumplings should be "dirty", with pieces of meat and chives visible. we preferred a rather rustic version, with a dough that is compact and blends without losing the view and tasting the bread. Today in restaurants, delis and at fairs you can find so many different flavors of dumplings: with spinach, with herbs, beetroot but we encourage you first to try the classic: Tyrolean dumplings! are you ready to immerse yourself in the atmosphere of the mountains?</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A130, ""it"", ""en"")"),"for someone mashed potatoes is a real comfort food, basically those foods capable of arousing feelings of well being. and there is no need even to ask how it is possible, especially when it comes to this recipe! Imagine an irresistible creaminess, the sce"&amp;"nt of butter and the hint of tangy given by grated cheese. the mashed potatoes is practically a perfect side dish to accompany main courses of meat, fish or vegetarian, such as lentils! Then there's the creamy version, which is for real sweet tooth, is ma"&amp;"de with cream and its conquest texture even the most skeptical palates and large loyal to the traditional recipe. but in the end the only one able to put all agree, what they like to anyone in short, is always and only the mashed potatoes in its classic v"&amp;"ersion. Ladies and Gentlemen Today in your kitchen is the most famous of comfort food!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A130, ""it"", ""en"")"),"for someone mashed potatoes is a real comfort food, basically those foods capable of arousing feelings of well being. and there is no need even to ask how it is possible, especially when it comes to this recipe! Imagine an irresistible creaminess, the sce"&amp;"nt of butter and the hint of tangy given by grated cheese. the mashed potatoes is practically a perfect side dish to accompany main courses of meat, fish or vegetarian, such as lentils! Then there's the creamy version, which is for real sweet tooth, is ma"&amp;"de with cream and its conquest texture even the most skeptical palates and large loyal to the traditional recipe. but in the end the only one able to put all agree, what they like to anyone in short, is always and only the mashed potatoes in its classic v"&amp;"ersion. Ladies and Gentlemen Today in your kitchen is the most famous of comfort food!")</f>
         <v>for someone mashed potatoes is a real comfort food, basically those foods capable of arousing feelings of well being. and there is no need even to ask how it is possible, especially when it comes to this recipe! Imagine an irresistible creaminess, the scent of butter and the hint of tangy given by grated cheese. the mashed potatoes is practically a perfect side dish to accompany main courses of meat, fish or vegetarian, such as lentils! Then there's the creamy version, which is for real sweet tooth, is made with cream and its conquest texture even the most skeptical palates and large loyal to the traditional recipe. but in the end the only one able to put all agree, what they like to anyone in short, is always and only the mashed potatoes in its classic version. Ladies and Gentlemen Today in your kitchen is the most famous of comfort food!</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A131, ""it"", ""en"")"),"is that once things were simpler, but they were also very good. such as cakes, cookies or donut that her grandmother also prepared to last, knowing that you would be gone for a snack: eggs, sugar and flour. nothing more basic but in her hands, stirring an"&amp;"d firing, became one of the delicacies to accompany the juice in the afternoon or milk and coffee in the morning. that's our recipe of donut at what's atmosphere is inspired, the house and authenticity: a handful of lemon peel and a sprinkling of powdered"&amp;" sugar, you will make this soft and inviting fragrant delight. and for once will be the grandmother to congratulate you for having prepared a soft donut, so good that never goes out of style!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A131, ""it"", ""en"")"),"is that once things were simpler, but they were also very good. such as cakes, cookies or donut that her grandmother also prepared to last, knowing that you would be gone for a snack: eggs, sugar and flour. nothing more basic but in her hands, stirring an"&amp;"d firing, became one of the delicacies to accompany the juice in the afternoon or milk and coffee in the morning. that's our recipe of donut at what's atmosphere is inspired, the house and authenticity: a handful of lemon peel and a sprinkling of powdered"&amp;" sugar, you will make this soft and inviting fragrant delight. and for once will be the grandmother to congratulate you for having prepared a soft donut, so good that never goes out of style!")</f>
         <v>is that once things were simpler, but they were also very good. such as cakes, cookies or donut that her grandmother also prepared to last, knowing that you would be gone for a snack: eggs, sugar and flour. nothing more basic but in her hands, stirring and firing, became one of the delicacies to accompany the juice in the afternoon or milk and coffee in the morning. that's our recipe of donut at what's atmosphere is inspired, the house and authenticity: a handful of lemon peel and a sprinkling of powdered sugar, you will make this soft and inviting fragrant delight. and for once will be the grandmother to congratulate you for having prepared a soft donut, so good that never goes out of style!</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A132, ""it"", ""en"")"),"officially opened the season of picnics! We sfoderiamo our wicker baskets and get ready to prepare so many delicious dishes to bring to our outings such as zucchini quiche! absolute protagonists of our lunches in the open air, the pies are a classic inevi"&amp;"table housewives preparations, perfect to cook in advance and offering delicious to be enjoyed hot or cold. but do not expect your typical pie with pasta brisa, in this recipe we propose an aromatic crazy scented pasta with thyme. Quick and easy, addicted"&amp;" to pasta is a special mixture without perfect butter as an alternative fast to brisè pasta or pizza dough for the filling of the pie zucchini we find solace in the summer with her luscious zucchini and to give a delicious irresistible touch we added dice"&amp;"d bacon. are you ready to get your hands dirty? come and discover our recipe!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A132, ""it"", ""en"")"),"officially opened the season of picnics! We sfoderiamo our wicker baskets and get ready to prepare so many delicious dishes to bring to our outings such as zucchini quiche! absolute protagonists of our lunches in the open air, the pies are a classic inevi"&amp;"table housewives preparations, perfect to cook in advance and offering delicious to be enjoyed hot or cold. but do not expect your typical pie with pasta brisa, in this recipe we propose an aromatic crazy scented pasta with thyme. Quick and easy, addicted"&amp;" to pasta is a special mixture without perfect butter as an alternative fast to brisè pasta or pizza dough for the filling of the pie zucchini we find solace in the summer with her luscious zucchini and to give a delicious irresistible touch we added dice"&amp;"d bacon. are you ready to get your hands dirty? come and discover our recipe!")</f>
         <v>officially opened the season of picnics! We sfoderiamo our wicker baskets and get ready to prepare so many delicious dishes to bring to our outings such as zucchini quiche! absolute protagonists of our lunches in the open air, the pies are a classic inevitable housewives preparations, perfect to cook in advance and offering delicious to be enjoyed hot or cold. but do not expect your typical pie with pasta brisa, in this recipe we propose an aromatic crazy scented pasta with thyme. Quick and easy, addicted to pasta is a special mixture without perfect butter as an alternative fast to brisè pasta or pizza dough for the filling of the pie zucchini we find solace in the summer with her luscious zucchini and to give a delicious irresistible touch we added diced bacon. are you ready to get your hands dirty? come and discover our recipe!</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A133, ""it"", ""en"")"),"many do not know that the vitello tonnato, or vitel tonnè, is a pride of the Piedmont cuisine enough to pass two different versions; the ancient manner, and this we all know. it is a recipe that in the 80 depopulated of all boards of the parties, special "&amp;"occasions, the first made chic cocktails at home and even on cruise ships! vitello tonnato is to appetizers to the ground just as the shrimp cocktail are those of the sea and together are the two real stars of the so-called fabulous years! what really set"&amp;"s this recipe is the tenderness of the meat does not overcook becoming so dark and stringy. So thanks to our tips will get slices of tender and succulent from nappare with delicious sauce of eggs and tuna. ladies and gentlemen, make sure you have everythi"&amp;"ng you need, now prepares the timeless recipe of veal with tuna sauce!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A133, ""it"", ""en"")"),"many do not know that the vitello tonnato, or vitel tonnè, is a pride of the Piedmont cuisine enough to pass two different versions; the ancient manner, and this we all know. it is a recipe that in the 80 depopulated of all boards of the parties, special "&amp;"occasions, the first made chic cocktails at home and even on cruise ships! vitello tonnato is to appetizers to the ground just as the shrimp cocktail are those of the sea and together are the two real stars of the so-called fabulous years! what really set"&amp;"s this recipe is the tenderness of the meat does not overcook becoming so dark and stringy. So thanks to our tips will get slices of tender and succulent from nappare with delicious sauce of eggs and tuna. ladies and gentlemen, make sure you have everythi"&amp;"ng you need, now prepares the timeless recipe of veal with tuna sauce!")</f>
         <v>many do not know that the vitello tonnato, or vitel tonnè, is a pride of the Piedmont cuisine enough to pass two different versions; the ancient manner, and this we all know. it is a recipe that in the 80 depopulated of all boards of the parties, special occasions, the first made chic cocktails at home and even on cruise ships! vitello tonnato is to appetizers to the ground just as the shrimp cocktail are those of the sea and together are the two real stars of the so-called fabulous years! what really sets this recipe is the tenderness of the meat does not overcook becoming so dark and stringy. So thanks to our tips will get slices of tender and succulent from nappare with delicious sauce of eggs and tuna. ladies and gentlemen, make sure you have everything you need, now prepares the timeless recipe of veal with tuna sauce!</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A134, ""it"", ""en"")"),"Soft, white and versatile, the diplomatic cream is one of the basic recipes of pastry around the world. born from the union of custard and whipped cream is really simple to prepare, but by following a few tricks of the master iginio Massari you will get a"&amp;" perfect consistency. diplomatic cream is perfect to stuff lots of desserts, such as cream puffs, a puff pastry or the famous diplomatic cake. but you can also use it to make the dessert spoon and garnish your cups with berries or chocolate chips. its use"&amp;"s are truly endless, in fact you can spice up this base with hazelnut paste, pistachio and pieces of fresh fruit! whatever use we recommend you follow our recipe, you will get a delicious and delicate result.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A134, ""it"", ""en"")"),"Soft, white and versatile, the diplomatic cream is one of the basic recipes of pastry around the world. born from the union of custard and whipped cream is really simple to prepare, but by following a few tricks of the master iginio Massari you will get a"&amp;" perfect consistency. diplomatic cream is perfect to stuff lots of desserts, such as cream puffs, a puff pastry or the famous diplomatic cake. but you can also use it to make the dessert spoon and garnish your cups with berries or chocolate chips. its use"&amp;"s are truly endless, in fact you can spice up this base with hazelnut paste, pistachio and pieces of fresh fruit! whatever use we recommend you follow our recipe, you will get a delicious and delicate result.")</f>
         <v>Soft, white and versatile, the diplomatic cream is one of the basic recipes of pastry around the world. born from the union of custard and whipped cream is really simple to prepare, but by following a few tricks of the master iginio Massari you will get a perfect consistency. diplomatic cream is perfect to stuff lots of desserts, such as cream puffs, a puff pastry or the famous diplomatic cake. but you can also use it to make the dessert spoon and garnish your cups with berries or chocolate chips. its uses are truly endless, in fact you can spice up this base with hazelnut paste, pistachio and pieces of fresh fruit! whatever use we recommend you follow our recipe, you will get a delicious and delicate result.</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A135, ""it"", ""en"")"),"The pumpkin risotto is a real institution of Italian cuisine: a first course which encloses all the heat of baking, the genuine flavors of the good perfume that smells of home. a dish of peasant origins, like many of the best dishes of our tradition: only"&amp;" intuition, practice and imagination have transformed the squash and rice on a plate today celebrated by gourmets and loved by connoisseurs. What's so special about a pumpkin risotto, what makes it irresistible? its simplicity, it would like to answer; a "&amp;"simplicity that embodies wisdom, care, immutable, necessary gestures, devoid of pompous frivolities: roasting of rice, which waterproofs the beans and gives them an extraordinary cooking resistance. cooking followed step by step, a ladle of broth at a tim"&amp;"e, because a boiled rice is different than a risotto. creaming, that moment in which the starch transforms the remnants of broth in a creamy sauce which then makes the butter glossy and dark. many small things of the past, that make this dish a delight ca"&amp;"pable of so much conquer the most refined palates as lovers of simple and authentic flavors. a perfect dish for every occasion, from dinner for two evenings with friends, even the prince pumpkin festival: Halloween! Follow our step-by-step: for you the pu"&amp;"mpkin risotto will have no secrets!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A135, ""it"", ""en"")"),"The pumpkin risotto is a real institution of Italian cuisine: a first course which encloses all the heat of baking, the genuine flavors of the good perfume that smells of home. a dish of peasant origins, like many of the best dishes of our tradition: only"&amp;" intuition, practice and imagination have transformed the squash and rice on a plate today celebrated by gourmets and loved by connoisseurs. What's so special about a pumpkin risotto, what makes it irresistible? its simplicity, it would like to answer; a "&amp;"simplicity that embodies wisdom, care, immutable, necessary gestures, devoid of pompous frivolities: roasting of rice, which waterproofs the beans and gives them an extraordinary cooking resistance. cooking followed step by step, a ladle of broth at a tim"&amp;"e, because a boiled rice is different than a risotto. creaming, that moment in which the starch transforms the remnants of broth in a creamy sauce which then makes the butter glossy and dark. many small things of the past, that make this dish a delight ca"&amp;"pable of so much conquer the most refined palates as lovers of simple and authentic flavors. a perfect dish for every occasion, from dinner for two evenings with friends, even the prince pumpkin festival: Halloween! Follow our step-by-step: for you the pu"&amp;"mpkin risotto will have no secrets!")</f>
         <v>The pumpkin risotto is a real institution of Italian cuisine: a first course which encloses all the heat of baking, the genuine flavors of the good perfume that smells of home. a dish of peasant origins, like many of the best dishes of our tradition: only intuition, practice and imagination have transformed the squash and rice on a plate today celebrated by gourmets and loved by connoisseurs. What's so special about a pumpkin risotto, what makes it irresistible? its simplicity, it would like to answer; a simplicity that embodies wisdom, care, immutable, necessary gestures, devoid of pompous frivolities: roasting of rice, which waterproofs the beans and gives them an extraordinary cooking resistance. cooking followed step by step, a ladle of broth at a time, because a boiled rice is different than a risotto. creaming, that moment in which the starch transforms the remnants of broth in a creamy sauce which then makes the butter glossy and dark. many small things of the past, that make this dish a delight capable of so much conquer the most refined palates as lovers of simple and authentic flavors. a perfect dish for every occasion, from dinner for two evenings with friends, even the prince pumpkin festival: Halloween! Follow our step-by-step: for you the pumpkin risotto will have no secrets!</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A136, ""it"", ""en"")"),"if you say what the octopus is the first ingredient that comes to mind to pull over? undoubtedly the potatoes! the warm octopus salad and potatoes is in fact a summer dish of our tradition that never goes out of fashion, a dish that highlights Mediterrane"&amp;"an flavors with ease. tender octopus and potato cubes, a cascade of fragrant and fresh parsley and finally the aromatic touch of a citronette that flavor to this substantial salad, so rich and nutritious. excellent to be enjoyed in all seasons when you fa"&amp;"ncy a quick and tasty fish dish. once discovered how to clean and how to cook the octopus does not do more for less in your menus!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A136, ""it"", ""en"")"),"if you say what the octopus is the first ingredient that comes to mind to pull over? undoubtedly the potatoes! the warm octopus salad and potatoes is in fact a summer dish of our tradition that never goes out of fashion, a dish that highlights Mediterrane"&amp;"an flavors with ease. tender octopus and potato cubes, a cascade of fragrant and fresh parsley and finally the aromatic touch of a citronette that flavor to this substantial salad, so rich and nutritious. excellent to be enjoyed in all seasons when you fa"&amp;"ncy a quick and tasty fish dish. once discovered how to clean and how to cook the octopus does not do more for less in your menus!")</f>
         <v>if you say what the octopus is the first ingredient that comes to mind to pull over? undoubtedly the potatoes! the warm octopus salad and potatoes is in fact a summer dish of our tradition that never goes out of fashion, a dish that highlights Mediterranean flavors with ease. tender octopus and potato cubes, a cascade of fragrant and fresh parsley and finally the aromatic touch of a citronette that flavor to this substantial salad, so rich and nutritious. excellent to be enjoyed in all seasons when you fancy a quick and tasty fish dish. once discovered how to clean and how to cook the octopus does not do more for less in your menus!</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A137, ""it"", ""en"")"),"the tea ritual of the five is not only the prerogative of the Queen of England but a fad that with his retro-chic character has won local and cafes, as well as living rooms. in the coldest season what's better if you do not have a good aromatic tea, accom"&amp;"panied perhaps with fragrant and delicious cookies, such as those that we propose to accomplish today: chocolate chip cookies. the simplicity of these small dark gems hides all their goodness: with their perfectly round shape and the irresistible aroma th"&amp;"at emit in cooking, it will come conquered ... one pulls the other!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A137, ""it"", ""en"")"),"the tea ritual of the five is not only the prerogative of the Queen of England but a fad that with his retro-chic character has won local and cafes, as well as living rooms. in the coldest season what's better if you do not have a good aromatic tea, accom"&amp;"panied perhaps with fragrant and delicious cookies, such as those that we propose to accomplish today: chocolate chip cookies. the simplicity of these small dark gems hides all their goodness: with their perfectly round shape and the irresistible aroma th"&amp;"at emit in cooking, it will come conquered ... one pulls the other!")</f>
         <v>the tea ritual of the five is not only the prerogative of the Queen of England but a fad that with his retro-chic character has won local and cafes, as well as living rooms. in the coldest season what's better if you do not have a good aromatic tea, accompanied perhaps with fragrant and delicious cookies, such as those that we propose to accomplish today: chocolate chip cookies. the simplicity of these small dark gems hides all their goodness: with their perfectly round shape and the irresistible aroma that emit in cooking, it will come conquered ... one pulls the other!</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A138, ""it"", ""en"")"),"the meatballs are a simple recipe to make and very tasty: these tender morsels of seasoned ground beef with provolone, parmesan, egg and parsley can not really miss the menu of a beautiful festive banquet or a Sunday family lunch. in this version they are"&amp;" fried proposals, but thanks to their versatility, you can cook the meatballs in different ways just as inviting. try them for example the oven, or in a pan with tomato sauce for a second hot plate succulento.se submitted accompanied by a fresh salad and "&amp;"colored toothpicks or mini forks for use in an informal way, no one can resist these delicious meatballs !")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A138, ""it"", ""en"")"),"the meatballs are a simple recipe to make and very tasty: these tender morsels of seasoned ground beef with provolone, parmesan, egg and parsley can not really miss the menu of a beautiful festive banquet or a Sunday family lunch. in this version they are"&amp;" fried proposals, but thanks to their versatility, you can cook the meatballs in different ways just as inviting. try them for example the oven, or in a pan with tomato sauce for a second hot plate succulento.se submitted accompanied by a fresh salad and "&amp;"colored toothpicks or mini forks for use in an informal way, no one can resist these delicious meatballs !")</f>
         <v>the meatballs are a simple recipe to make and very tasty: these tender morsels of seasoned ground beef with provolone, parmesan, egg and parsley can not really miss the menu of a beautiful festive banquet or a Sunday family lunch. in this version they are fried proposals, but thanks to their versatility, you can cook the meatballs in different ways just as inviting. try them for example the oven, or in a pan with tomato sauce for a second hot plate succulento.se submitted accompanied by a fresh salad and colored toothpicks or mini forks for use in an informal way, no one can resist these delicious meatballs !</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A139, ""it"", ""en"")"),"chick peas are legumes that with their wholesomeness and sweetness lend themselves to the preparation of very different recipes each other, with those linked to regional traditions such as chickpea flour, typical Ligurian food, to more rustic dishes such "&amp;"as chickpea soup, up to appetizers or fanciful seconds as the omelette baked chickpeas or chickpea burger. If you fancy a nice plate of pasta ingredients that encompasses simple yet delicious and tasty, we offer a recipe of Italian tradition, with a good "&amp;"taste than once: pasta and chickpeas! a dish that surely will have brought at least once on your table, perhaps in the ""classic white"". however, we suggest you a delicious variant with the addition of tomato sauce and bacon, which offer a touch more to "&amp;"the recipe, creating a delicious contrast with the delicate flavor of the chickpeas. so we just have to try this tasty and succulent version of pasta and chickpeas, who with his genuine goodness will warm you on cold winter evenings!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A139, ""it"", ""en"")"),"chick peas are legumes that with their wholesomeness and sweetness lend themselves to the preparation of very different recipes each other, with those linked to regional traditions such as chickpea flour, typical Ligurian food, to more rustic dishes such "&amp;"as chickpea soup, up to appetizers or fanciful seconds as the omelette baked chickpeas or chickpea burger. If you fancy a nice plate of pasta ingredients that encompasses simple yet delicious and tasty, we offer a recipe of Italian tradition, with a good "&amp;"taste than once: pasta and chickpeas! a dish that surely will have brought at least once on your table, perhaps in the ""classic white"". however, we suggest you a delicious variant with the addition of tomato sauce and bacon, which offer a touch more to "&amp;"the recipe, creating a delicious contrast with the delicate flavor of the chickpeas. so we just have to try this tasty and succulent version of pasta and chickpeas, who with his genuine goodness will warm you on cold winter evenings!")</f>
         <v>chick peas are legumes that with their wholesomeness and sweetness lend themselves to the preparation of very different recipes each other, with those linked to regional traditions such as chickpea flour, typical Ligurian food, to more rustic dishes such as chickpea soup, up to appetizers or fanciful seconds as the omelette baked chickpeas or chickpea burger. If you fancy a nice plate of pasta ingredients that encompasses simple yet delicious and tasty, we offer a recipe of Italian tradition, with a good taste than once: pasta and chickpeas! a dish that surely will have brought at least once on your table, perhaps in the "classic white". however, we suggest you a delicious variant with the addition of tomato sauce and bacon, which offer a touch more to the recipe, creating a delicious contrast with the delicate flavor of the chickpeas. so we just have to try this tasty and succulent version of pasta and chickpeas, who with his genuine goodness will warm you on cold winter evenings!</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A140, ""it"", ""en"")"),"knew better who invented the famous saying ""the farmer not to know how good the cheese with pears"", a sweet-salty combination of the most beloved. and we who know him well, we propose here another famous combination of which many are greedy: Pear and ch"&amp;"ocolate! the sweetness of the pears, soft and juicy goes deliciously with the strong taste of dark chocolate. This delicious combination has given rise to many dishes such as the classic chocolate pears, exotic pear tart, chocolate and pecans, pears the m"&amp;"ost refined to the beautiful elena or soft plum pear and chocolate ... plus of course the most classic desserts: the pear and chocolate cake. a soft dough that hides in its interior all the creaminess of the thigh pears, cooked for yet to unleash more ple"&amp;"asant aromatic notes. we are sure that you already have your mouth watering, you just need to discover our recipe!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A140, ""it"", ""en"")"),"knew better who invented the famous saying ""the farmer not to know how good the cheese with pears"", a sweet-salty combination of the most beloved. and we who know him well, we propose here another famous combination of which many are greedy: Pear and ch"&amp;"ocolate! the sweetness of the pears, soft and juicy goes deliciously with the strong taste of dark chocolate. This delicious combination has given rise to many dishes such as the classic chocolate pears, exotic pear tart, chocolate and pecans, pears the m"&amp;"ost refined to the beautiful elena or soft plum pear and chocolate ... plus of course the most classic desserts: the pear and chocolate cake. a soft dough that hides in its interior all the creaminess of the thigh pears, cooked for yet to unleash more ple"&amp;"asant aromatic notes. we are sure that you already have your mouth watering, you just need to discover our recipe!")</f>
         <v>knew better who invented the famous saying "the farmer not to know how good the cheese with pears", a sweet-salty combination of the most beloved. and we who know him well, we propose here another famous combination of which many are greedy: Pear and chocolate! the sweetness of the pears, soft and juicy goes deliciously with the strong taste of dark chocolate. This delicious combination has given rise to many dishes such as the classic chocolate pears, exotic pear tart, chocolate and pecans, pears the most refined to the beautiful elena or soft plum pear and chocolate ... plus of course the most classic desserts: the pear and chocolate cake. a soft dough that hides in its interior all the creaminess of the thigh pears, cooked for yet to unleash more pleasant aromatic notes. we are sure that you already have your mouth watering, you just need to discover our recipe!</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A141, ""it"", ""en"")"),"pasta with eggplant is a first summer and colorful vegetarian dish, which in the simplicity of its ingredients contains the scents of the Mediterranean. many cubes of aubergine stew gently make the wrapping flat and smooth, and the basil and the tomatoes "&amp;"in the balance freshness. a first good to enjoy warm, but also cold, at the beach or in the office, just like the classic pasta salad or pasta with grilled vegetables! the authenticity and versatility are the winning cards of this pasta with aubergines, a"&amp;" timeless recipe and always tantalizing!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A141, ""it"", ""en"")"),"pasta with eggplant is a first summer and colorful vegetarian dish, which in the simplicity of its ingredients contains the scents of the Mediterranean. many cubes of aubergine stew gently make the wrapping flat and smooth, and the basil and the tomatoes "&amp;"in the balance freshness. a first good to enjoy warm, but also cold, at the beach or in the office, just like the classic pasta salad or pasta with grilled vegetables! the authenticity and versatility are the winning cards of this pasta with aubergines, a"&amp;" timeless recipe and always tantalizing!")</f>
         <v>pasta with eggplant is a first summer and colorful vegetarian dish, which in the simplicity of its ingredients contains the scents of the Mediterranean. many cubes of aubergine stew gently make the wrapping flat and smooth, and the basil and the tomatoes in the balance freshness. a first good to enjoy warm, but also cold, at the beach or in the office, just like the classic pasta salad or pasta with grilled vegetables! the authenticity and versatility are the winning cards of this pasta with aubergines, a timeless recipe and always tantalizing!</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A142, ""it"", ""en"")"),"the recipe for pasta and beans is a classic Italian dishes, a main course with a unique taste that has its roots in the rural tradition. in its most rustic version it is flavored with pork rind, as in the Neapolitan pasta and beans, while other variants l"&amp;"egumes are combined with shellfish that give the dish an intense taste of the sea, as in cicatielli with mussels and beans. a poor and economic plate, therefore, but always extremely tasty and genuine. just like our version of pasta and beans! dense enoug"&amp;"h to ""hold the spoon standing"" (the traditionalists say this is the way to recognize the right texture, creamy and full-bodied at the same time) and rich in aromas, with the inevitable savory note given by the addition of lard and raw ham. a timeless It"&amp;"alian comfort food that warms the heart and arranges all thanks to its timeless flavor, try it even in the summer version with fresh vegetables. taste our pasta and beans and you will see that the longer you leave!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A142, ""it"", ""en"")"),"the recipe for pasta and beans is a classic Italian dishes, a main course with a unique taste that has its roots in the rural tradition. in its most rustic version it is flavored with pork rind, as in the Neapolitan pasta and beans, while other variants l"&amp;"egumes are combined with shellfish that give the dish an intense taste of the sea, as in cicatielli with mussels and beans. a poor and economic plate, therefore, but always extremely tasty and genuine. just like our version of pasta and beans! dense enoug"&amp;"h to ""hold the spoon standing"" (the traditionalists say this is the way to recognize the right texture, creamy and full-bodied at the same time) and rich in aromas, with the inevitable savory note given by the addition of lard and raw ham. a timeless It"&amp;"alian comfort food that warms the heart and arranges all thanks to its timeless flavor, try it even in the summer version with fresh vegetables. taste our pasta and beans and you will see that the longer you leave!")</f>
         <v>the recipe for pasta and beans is a classic Italian dishes, a main course with a unique taste that has its roots in the rural tradition. in its most rustic version it is flavored with pork rind, as in the Neapolitan pasta and beans, while other variants legumes are combined with shellfish that give the dish an intense taste of the sea, as in cicatielli with mussels and beans. a poor and economic plate, therefore, but always extremely tasty and genuine. just like our version of pasta and beans! dense enough to "hold the spoon standing" (the traditionalists say this is the way to recognize the right texture, creamy and full-bodied at the same time) and rich in aromas, with the inevitable savory note given by the addition of lard and raw ham. a timeless Italian comfort food that warms the heart and arranges all thanks to its timeless flavor, try it even in the summer version with fresh vegetables. taste our pasta and beans and you will see that the longer you leave!</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A143, ""it"", ""en"")"),"Simple, rustic flavors to a dish exquisitely Italian: cuttlefish with peas are a second fish that never goes out of style, such as stuffed squid, other recipe housewife timeless. widespread in many coastal regions, very often also inserted in the menus as"&amp;" a second Christmas plate. therefore represents a typical dish that knows several small variations, there makers flavor with a hint of chilli, who uses fresh tomatoes and who concentrated, those who prefer the white version without tomato. only essential "&amp;"rule: the squid must be ... keep the secret to obtain soft cuttlefish is not only in cooking but also in the choice of fresh and quality ingredients that will ensure a good result.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A143, ""it"", ""en"")"),"Simple, rustic flavors to a dish exquisitely Italian: cuttlefish with peas are a second fish that never goes out of style, such as stuffed squid, other recipe housewife timeless. widespread in many coastal regions, very often also inserted in the menus as"&amp;" a second Christmas plate. therefore represents a typical dish that knows several small variations, there makers flavor with a hint of chilli, who uses fresh tomatoes and who concentrated, those who prefer the white version without tomato. only essential "&amp;"rule: the squid must be ... keep the secret to obtain soft cuttlefish is not only in cooking but also in the choice of fresh and quality ingredients that will ensure a good result.")</f>
         <v>Simple, rustic flavors to a dish exquisitely Italian: cuttlefish with peas are a second fish that never goes out of style, such as stuffed squid, other recipe housewife timeless. widespread in many coastal regions, very often also inserted in the menus as a second Christmas plate. therefore represents a typical dish that knows several small variations, there makers flavor with a hint of chilli, who uses fresh tomatoes and who concentrated, those who prefer the white version without tomato. only essential rule: the squid must be ... keep the secret to obtain soft cuttlefish is not only in cooking but also in the choice of fresh and quality ingredients that will ensure a good result.</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A144, ""it"", ""en"")"),"few recipes are so controversial as the Russian salad: what we call Russian salad, first of all, is known in Russia under the name olivier salad while in Germany and Denmark is called ""Italian salad""! each country also use different ingredients ... for "&amp;"example the presence in Russia of meat is deemed essential, while in Poland plus apples and celeriac. amid utter confusion, however, there are some certainties: carrots, potatoes, peas and boiled eggs are almost always found, along with the inevitable may"&amp;"onnaise. and it is precisely from these basic elements will now explain how to prepare the most classic Russian salad, for instance one that always brings families across Italy around the festive table. it served as an appetizer or side dish, or in portio"&amp;"ns of a single tray or decorated with pickles and boiled eggs, Russian salad is perfect for a home in the name of (your) tradition!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A144, ""it"", ""en"")"),"few recipes are so controversial as the Russian salad: what we call Russian salad, first of all, is known in Russia under the name olivier salad while in Germany and Denmark is called ""Italian salad""! each country also use different ingredients ... for "&amp;"example the presence in Russia of meat is deemed essential, while in Poland plus apples and celeriac. amid utter confusion, however, there are some certainties: carrots, potatoes, peas and boiled eggs are almost always found, along with the inevitable may"&amp;"onnaise. and it is precisely from these basic elements will now explain how to prepare the most classic Russian salad, for instance one that always brings families across Italy around the festive table. it served as an appetizer or side dish, or in portio"&amp;"ns of a single tray or decorated with pickles and boiled eggs, Russian salad is perfect for a home in the name of (your) tradition!")</f>
         <v>few recipes are so controversial as the Russian salad: what we call Russian salad, first of all, is known in Russia under the name olivier salad while in Germany and Denmark is called "Italian salad"! each country also use different ingredients ... for example the presence in Russia of meat is deemed essential, while in Poland plus apples and celeriac. amid utter confusion, however, there are some certainties: carrots, potatoes, peas and boiled eggs are almost always found, along with the inevitable mayonnaise. and it is precisely from these basic elements will now explain how to prepare the most classic Russian salad, for instance one that always brings families across Italy around the festive table. it served as an appetizer or side dish, or in portions of a single tray or decorated with pickles and boiled eggs, Russian salad is perfect for a home in the name of (your) tradition!</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A145, ""it"", ""en"")"),"the desert roses are some sweets with almond flour, characterized by a form very pretty incredible. their name derives from the homonymous yellow-ocher mineral formation composed of gypsum crystals, which form in certain climatic conditions, namely in the"&amp;" desert areas. the roses are made with a tender heart made with almond flour and then are coated with light and crispy corn flakes in a tasty mix that will win you over at first taste. brought to the table these tasty treats soft inside and crispy outside"&amp;" and you will see that soon will go like hot cakes!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A145, ""it"", ""en"")"),"the desert roses are some sweets with almond flour, characterized by a form very pretty incredible. their name derives from the homonymous yellow-ocher mineral formation composed of gypsum crystals, which form in certain climatic conditions, namely in the"&amp;" desert areas. the roses are made with a tender heart made with almond flour and then are coated with light and crispy corn flakes in a tasty mix that will win you over at first taste. brought to the table these tasty treats soft inside and crispy outside"&amp;" and you will see that soon will go like hot cakes!")</f>
         <v>the desert roses are some sweets with almond flour, characterized by a form very pretty incredible. their name derives from the homonymous yellow-ocher mineral formation composed of gypsum crystals, which form in certain climatic conditions, namely in the desert areas. the roses are made with a tender heart made with almond flour and then are coated with light and crispy corn flakes in a tasty mix that will win you over at first taste. brought to the table these tasty treats soft inside and crispy outside and you will see that soon will go like hot cakes!</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A146, ""it"", ""en"")"),"Fortunately there are the scallops! delicate slices of veal that make special dinners, even in the fastest and frugal, provided that every time you choose the right seasoning that can tantalize the taste buds. This time we turn to those who love the fresh"&amp;" and pungent essence of lemon, which will become a thickening prelibatissima sauce! the scallops with lemon, as well as the lemon chicken, will win you over immediately with their delicate and fragrant taste. this recommendation? surely to be generous wit"&amp;"h the doses, because the scallops with lemon are truly irresistible!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A146, ""it"", ""en"")"),"Fortunately there are the scallops! delicate slices of veal that make special dinners, even in the fastest and frugal, provided that every time you choose the right seasoning that can tantalize the taste buds. This time we turn to those who love the fresh"&amp;" and pungent essence of lemon, which will become a thickening prelibatissima sauce! the scallops with lemon, as well as the lemon chicken, will win you over immediately with their delicate and fragrant taste. this recommendation? surely to be generous wit"&amp;"h the doses, because the scallops with lemon are truly irresistible!")</f>
         <v>Fortunately there are the scallops! delicate slices of veal that make special dinners, even in the fastest and frugal, provided that every time you choose the right seasoning that can tantalize the taste buds. This time we turn to those who love the fresh and pungent essence of lemon, which will become a thickening prelibatissima sauce! the scallops with lemon, as well as the lemon chicken, will win you over immediately with their delicate and fragrant taste. this recommendation? surely to be generous with the doses, because the scallops with lemon are truly irresistible!</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A147, ""it"", ""en"")"),"you have guests for dinner and little time to cook? be it of your in-laws, a couple of friends or a small group of colleagues, we offer a simple and elegant recipe that will make a great impression: baked salmon! in a few steps you will discover how to tu"&amp;"rn a slice of salmon in an elegant medallion. thanks to the coverage of thin potato slices and the perfect browning will get a fish from perfect cooking, tender and juicy. a second looking inviting dish that can be combined with a cream pasta and shrimp, "&amp;"for informal evenings, or spaghetti with roe, for the most important occasions for a menu by the success assured!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A147, ""it"", ""en"")"),"you have guests for dinner and little time to cook? be it of your in-laws, a couple of friends or a small group of colleagues, we offer a simple and elegant recipe that will make a great impression: baked salmon! in a few steps you will discover how to tu"&amp;"rn a slice of salmon in an elegant medallion. thanks to the coverage of thin potato slices and the perfect browning will get a fish from perfect cooking, tender and juicy. a second looking inviting dish that can be combined with a cream pasta and shrimp, "&amp;"for informal evenings, or spaghetti with roe, for the most important occasions for a menu by the success assured!")</f>
         <v>you have guests for dinner and little time to cook? be it of your in-laws, a couple of friends or a small group of colleagues, we offer a simple and elegant recipe that will make a great impression: baked salmon! in a few steps you will discover how to turn a slice of salmon in an elegant medallion. thanks to the coverage of thin potato slices and the perfect browning will get a fish from perfect cooking, tender and juicy. a second looking inviting dish that can be combined with a cream pasta and shrimp, for informal evenings, or spaghetti with roe, for the most important occasions for a menu by the success assured!</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A148, ""it"", ""en"")"),"green is the color of spring, which spreads when the trees are covered in their leaves and flowers begin to bloom. but in this fantastic season we are not just the flowers to be protagonists, nature offers us also wonderful vegetables ready to enrich our "&amp;"dishes! this is precisely the case of asparagus, so delicate and delicious taste are perfect for giving to a first plate of the season. them we have already combined in so many ways, one among all the cream! today we present the pasta with asparagus and b"&amp;"acon. sedanini stripes are perfect to accommodate this enveloping cream, a pastel nuances and sweet flavor that is enhanced by a cascade of crispy bacon cubes ... but if you are a vegetarian version, simply omit them and make a tasty pasta with asparagus "&amp;"and fontina cheese, for example! ideal for a family lunch or a dinner with friends, pasta with asparagus and bacon waiting to be tasted!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A148, ""it"", ""en"")"),"green is the color of spring, which spreads when the trees are covered in their leaves and flowers begin to bloom. but in this fantastic season we are not just the flowers to be protagonists, nature offers us also wonderful vegetables ready to enrich our "&amp;"dishes! this is precisely the case of asparagus, so delicate and delicious taste are perfect for giving to a first plate of the season. them we have already combined in so many ways, one among all the cream! today we present the pasta with asparagus and b"&amp;"acon. sedanini stripes are perfect to accommodate this enveloping cream, a pastel nuances and sweet flavor that is enhanced by a cascade of crispy bacon cubes ... but if you are a vegetarian version, simply omit them and make a tasty pasta with asparagus "&amp;"and fontina cheese, for example! ideal for a family lunch or a dinner with friends, pasta with asparagus and bacon waiting to be tasted!")</f>
         <v>green is the color of spring, which spreads when the trees are covered in their leaves and flowers begin to bloom. but in this fantastic season we are not just the flowers to be protagonists, nature offers us also wonderful vegetables ready to enrich our dishes! this is precisely the case of asparagus, so delicate and delicious taste are perfect for giving to a first plate of the season. them we have already combined in so many ways, one among all the cream! today we present the pasta with asparagus and bacon. sedanini stripes are perfect to accommodate this enveloping cream, a pastel nuances and sweet flavor that is enhanced by a cascade of crispy bacon cubes ... but if you are a vegetarian version, simply omit them and make a tasty pasta with asparagus and fontina cheese, for example! ideal for a family lunch or a dinner with friends, pasta with asparagus and bacon waiting to be tasted!</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A149, ""it"", ""en"")"),"typical Emilian cuisine, tortellini are among the stuffed egg pasta, the best known in the world; Etymologically speaking, the name ""tortellini"" is a diminutive of tortelli which in turn derives from the word ""cake"", just to indicate that as a small c"&amp;"ake, also can be stuffed tortellini. tortellini have always been considered a purely flat Bologna, perhaps few know that even today bologna and modena it for its paternity, and it is to this eternal rivalry that is linked to the history of tortellini. vie"&amp;"w of the great confusion has always created over the filling ""perfect"" for the tortellini, the ""Brotherhood of tortellini"" in 1974 filed the original recipe for tortellini filling consisting of: pork loin, prosciutto, mortadella bologna, cheese cheese"&amp;", eggs and nutmeg. Always according to the original recipe filed, the puff of tortellini must be simply prepared with flour and eggs and each tortellini must be obtained from a piece of sheet of 4 cm per side. in fact, as each regional recipe, tortellini "&amp;"filling undergoes change from family to family: someone using veal or chicken along with the pig, who puts nutmeg. moreover, having a very ancient tradition, the tortellini were prepared with what the housewives had at home. GialloZafferano also has its o"&amp;"wn recipe for the filling: to make it more tasty we used half of lean veal and half pork loin and the inevitable Parma ham and mortadella bologna! tortellini are one of the most delicious Italian dishes that require patience and dedication in the preparat"&amp;"ion, elements that make this dish unique and inimitable!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A149, ""it"", ""en"")"),"typical Emilian cuisine, tortellini are among the stuffed egg pasta, the best known in the world; Etymologically speaking, the name ""tortellini"" is a diminutive of tortelli which in turn derives from the word ""cake"", just to indicate that as a small c"&amp;"ake, also can be stuffed tortellini. tortellini have always been considered a purely flat Bologna, perhaps few know that even today bologna and modena it for its paternity, and it is to this eternal rivalry that is linked to the history of tortellini. vie"&amp;"w of the great confusion has always created over the filling ""perfect"" for the tortellini, the ""Brotherhood of tortellini"" in 1974 filed the original recipe for tortellini filling consisting of: pork loin, prosciutto, mortadella bologna, cheese cheese"&amp;", eggs and nutmeg. Always according to the original recipe filed, the puff of tortellini must be simply prepared with flour and eggs and each tortellini must be obtained from a piece of sheet of 4 cm per side. in fact, as each regional recipe, tortellini "&amp;"filling undergoes change from family to family: someone using veal or chicken along with the pig, who puts nutmeg. moreover, having a very ancient tradition, the tortellini were prepared with what the housewives had at home. GialloZafferano also has its o"&amp;"wn recipe for the filling: to make it more tasty we used half of lean veal and half pork loin and the inevitable Parma ham and mortadella bologna! tortellini are one of the most delicious Italian dishes that require patience and dedication in the preparat"&amp;"ion, elements that make this dish unique and inimitable!")</f>
         <v>typical Emilian cuisine, tortellini are among the stuffed egg pasta, the best known in the world; Etymologically speaking, the name "tortellini" is a diminutive of tortelli which in turn derives from the word "cake", just to indicate that as a small cake, also can be stuffed tortellini. tortellini have always been considered a purely flat Bologna, perhaps few know that even today bologna and modena it for its paternity, and it is to this eternal rivalry that is linked to the history of tortellini. view of the great confusion has always created over the filling "perfect" for the tortellini, the "Brotherhood of tortellini" in 1974 filed the original recipe for tortellini filling consisting of: pork loin, prosciutto, mortadella bologna, cheese cheese, eggs and nutmeg. Always according to the original recipe filed, the puff of tortellini must be simply prepared with flour and eggs and each tortellini must be obtained from a piece of sheet of 4 cm per side. in fact, as each regional recipe, tortellini filling undergoes change from family to family: someone using veal or chicken along with the pig, who puts nutmeg. moreover, having a very ancient tradition, the tortellini were prepared with what the housewives had at home. GialloZafferano also has its own recipe for the filling: to make it more tasty we used half of lean veal and half pork loin and the inevitable Parma ham and mortadella bologna! tortellini are one of the most delicious Italian dishes that require patience and dedication in the preparation, elements that make this dish unique and inimitable!</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A150, ""it"", ""en"")"),"a first course he dedicated to all lovers of delicate flavors. pasta with asparagus is a delicious dish made with a single ingredient: asparagus. a recipe especially suited to savor the subtle and refined taste of this typical vegetable of spring. Here as"&amp;"paragus they are simply blown up in a pan to preserve their typical flavor. prepared this dish when friends to dinner: with a few easy steps you will bring to the table a balanced dish, simple but tasty just like that at all!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A150, ""it"", ""en"")"),"a first course he dedicated to all lovers of delicate flavors. pasta with asparagus is a delicious dish made with a single ingredient: asparagus. a recipe especially suited to savor the subtle and refined taste of this typical vegetable of spring. Here as"&amp;"paragus they are simply blown up in a pan to preserve their typical flavor. prepared this dish when friends to dinner: with a few easy steps you will bring to the table a balanced dish, simple but tasty just like that at all!")</f>
         <v>a first course he dedicated to all lovers of delicate flavors. pasta with asparagus is a delicious dish made with a single ingredient: asparagus. a recipe especially suited to savor the subtle and refined taste of this typical vegetable of spring. Here asparagus they are simply blown up in a pan to preserve their typical flavor. prepared this dish when friends to dinner: with a few easy steps you will bring to the table a balanced dish, simple but tasty just like that at all!</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B151" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A151, ""it"", ""en"")"),"crescentine (from dough that grows), commonly known as tigelle, are typical Modena scones, prepared with a dough made of flour, lard, yeast and water. once crescentine were cooked in special earthenware discs or refractory stone called ""tigelle"", hence "&amp;"the current name of this typical Emilian bread. after leavening the dough is rolled out and cut with a circular coppapasta finally crescentine are cooked for a few minutes in a hot tigelliera well. when ready and golden brown, crescentine can be stuffed w"&amp;"ith the typical ""cunza"", made of lard, rosemary and garlic, or can be served with vegetables, meats and cheeses to taste. to you the choice!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A151, ""it"", ""en"")"),"crescentine (from dough that grows), commonly known as tigelle, are typical Modena scones, prepared with a dough made of flour, lard, yeast and water. once crescentine were cooked in special earthenware discs or refractory stone called ""tigelle"", hence "&amp;"the current name of this typical Emilian bread. after leavening the dough is rolled out and cut with a circular coppapasta finally crescentine are cooked for a few minutes in a hot tigelliera well. when ready and golden brown, crescentine can be stuffed w"&amp;"ith the typical ""cunza"", made of lard, rosemary and garlic, or can be served with vegetables, meats and cheeses to taste. to you the choice!")</f>
         <v>crescentine (from dough that grows), commonly known as tigelle, are typical Modena scones, prepared with a dough made of flour, lard, yeast and water. once crescentine were cooked in special earthenware discs or refractory stone called "tigelle", hence the current name of this typical Emilian bread. after leavening the dough is rolled out and cut with a circular coppapasta finally crescentine are cooked for a few minutes in a hot tigelliera well. when ready and golden brown, crescentine can be stuffed with the typical "cunza", made of lard, rosemary and garlic, or can be served with vegetables, meats and cheeses to taste. to you the choice!</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B152" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A152, ""it"", ""en"")"),"prezzemolata octopus salad is a tasty appetizer typical of Mediterranean cooking, always appreciated on our tables for its freshness. topped with lemon, parsley and oil, this salad is great accompanied with a garnish of potatoes or olives. the secret of t"&amp;"he success of this dish is due to the right cooking time and the freshness of the octopus that must have a very vivid and intense color in all its shades.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A152, ""it"", ""en"")"),"prezzemolata octopus salad is a tasty appetizer typical of Mediterranean cooking, always appreciated on our tables for its freshness. topped with lemon, parsley and oil, this salad is great accompanied with a garnish of potatoes or olives. the secret of t"&amp;"he success of this dish is due to the right cooking time and the freshness of the octopus that must have a very vivid and intense color in all its shades.")</f>
         <v>prezzemolata octopus salad is a tasty appetizer typical of Mediterranean cooking, always appreciated on our tables for its freshness. topped with lemon, parsley and oil, this salad is great accompanied with a garnish of potatoes or olives. the secret of the success of this dish is due to the right cooking time and the freshness of the octopus that must have a very vivid and intense color in all its shades.</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B153" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A153, ""it"", ""en"")"),"welcome autumn! what better way to celebrate this season full of warm colors, bright and delicious flavors than with a good plate of tagliatelle with porcini mushrooms! a first course of pasta among the autumn classic, intense and enveloping taste. noodle"&amp;"s, made strictly by hand, have the right porosity to absorb all the flavor of fleshy mushrooms, popular and undisputed protagonists of the season. easy to prepare and very tasty, this succulent recipe is perfect for your Sunday menu! gathered for lunch th"&amp;"e whole family: following step by step the process discover the secrets to show off a perfect dish of tagliatelle with porcini mushrooms!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A153, ""it"", ""en"")"),"welcome autumn! what better way to celebrate this season full of warm colors, bright and delicious flavors than with a good plate of tagliatelle with porcini mushrooms! a first course of pasta among the autumn classic, intense and enveloping taste. noodle"&amp;"s, made strictly by hand, have the right porosity to absorb all the flavor of fleshy mushrooms, popular and undisputed protagonists of the season. easy to prepare and very tasty, this succulent recipe is perfect for your Sunday menu! gathered for lunch th"&amp;"e whole family: following step by step the process discover the secrets to show off a perfect dish of tagliatelle with porcini mushrooms!")</f>
         <v>welcome autumn! what better way to celebrate this season full of warm colors, bright and delicious flavors than with a good plate of tagliatelle with porcini mushrooms! a first course of pasta among the autumn classic, intense and enveloping taste. noodles, made strictly by hand, have the right porosity to absorb all the flavor of fleshy mushrooms, popular and undisputed protagonists of the season. easy to prepare and very tasty, this succulent recipe is perfect for your Sunday menu! gathered for lunch the whole family: following step by step the process discover the secrets to show off a perfect dish of tagliatelle with porcini mushrooms!</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B154" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A154, ""it"", ""en"")"),"for many children is the only way to eat vegetables, and the fashion of street food has revived success. I am an evergreen of the recovery kitchen, but their origins are very noble and unexpectedly go back at least to the Renaissance. there are many diffe"&amp;"rent versions, but for all the most delicious are those of grandmother. we are talking about the meatballs! Today we prepare together one of the poorest and best versions: Meatballs with zucchini! we will reveal all secrets of preparation and cooking to a"&amp;" golden and crisp results, so tasty that dinner will turn into a race to the last meatball! and you, you will leave to win smaller, or the irresistible goodness of zucchini patties will make you forget your manners ?! If you can not resist, even try the m"&amp;"eatballs with tomato zucchini: dipped in a wonderful tomato sauce!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A154, ""it"", ""en"")"),"for many children is the only way to eat vegetables, and the fashion of street food has revived success. I am an evergreen of the recovery kitchen, but their origins are very noble and unexpectedly go back at least to the Renaissance. there are many diffe"&amp;"rent versions, but for all the most delicious are those of grandmother. we are talking about the meatballs! Today we prepare together one of the poorest and best versions: Meatballs with zucchini! we will reveal all secrets of preparation and cooking to a"&amp;" golden and crisp results, so tasty that dinner will turn into a race to the last meatball! and you, you will leave to win smaller, or the irresistible goodness of zucchini patties will make you forget your manners ?! If you can not resist, even try the m"&amp;"eatballs with tomato zucchini: dipped in a wonderful tomato sauce!")</f>
         <v>for many children is the only way to eat vegetables, and the fashion of street food has revived success. I am an evergreen of the recovery kitchen, but their origins are very noble and unexpectedly go back at least to the Renaissance. there are many different versions, but for all the most delicious are those of grandmother. we are talking about the meatballs! Today we prepare together one of the poorest and best versions: Meatballs with zucchini! we will reveal all secrets of preparation and cooking to a golden and crisp results, so tasty that dinner will turn into a race to the last meatball! and you, you will leave to win smaller, or the irresistible goodness of zucchini patties will make you forget your manners ?! If you can not resist, even try the meatballs with tomato zucchini: dipped in a wonderful tomato sauce!</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B155" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A155, ""it"", ""en"")"),"the scallops are a second flat simple to implement and extremely tasty! in this recipe we offer a classic scallops with lemon twist: the scallops with mushrooms! an appetizing and tasty main course of meat, full contour with the scents of the undergrowth "&amp;"... a classic that allows you to give a refined touch to your so simple menu but especially in a short time. for this recipe we chose pulpy and very versatile fungi: the mushrooms cream mushrooms, a perfect accompaniment for the veal slices who, according"&amp;" to the traditional recipe, are skillfully gilded in the pan to create the tasty golden crust that makes this irresistible dish. the scallops with mushrooms will be the trump card of your most delicious menu, and do not forget to uncork a good wine!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A155, ""it"", ""en"")"),"the scallops are a second flat simple to implement and extremely tasty! in this recipe we offer a classic scallops with lemon twist: the scallops with mushrooms! an appetizing and tasty main course of meat, full contour with the scents of the undergrowth "&amp;"... a classic that allows you to give a refined touch to your so simple menu but especially in a short time. for this recipe we chose pulpy and very versatile fungi: the mushrooms cream mushrooms, a perfect accompaniment for the veal slices who, according"&amp;" to the traditional recipe, are skillfully gilded in the pan to create the tasty golden crust that makes this irresistible dish. the scallops with mushrooms will be the trump card of your most delicious menu, and do not forget to uncork a good wine!")</f>
         <v>the scallops are a second flat simple to implement and extremely tasty! in this recipe we offer a classic scallops with lemon twist: the scallops with mushrooms! an appetizing and tasty main course of meat, full contour with the scents of the undergrowth ... a classic that allows you to give a refined touch to your so simple menu but especially in a short time. for this recipe we chose pulpy and very versatile fungi: the mushrooms cream mushrooms, a perfect accompaniment for the veal slices who, according to the traditional recipe, are skillfully gilded in the pan to create the tasty golden crust that makes this irresistible dish. the scallops with mushrooms will be the trump card of your most delicious menu, and do not forget to uncork a good wine!</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B156" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A156, ""it"", ""en"")"),"the best recipes of the Italian cuisine competed from north to south, and just like the eggplant parmigiana this is also the case of meat with tomato sauce. the ingredients simple and Mediterranean are strictly the same as the pizza marinara and probably "&amp;"the meat with tomato sauce is so named for this reason. versions are many, such as someone prefers first browning the meat, but the ingredients remain the same ... tomato, garlic and oregano turn into a sauce that will allow the meat to cook remaining ten"&amp;"der! But while the meat is cooking you will have to make a choice very, very difficult! You will use the sauce on pasta or to make a shoe with a good homemade bread?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A156, ""it"", ""en"")"),"the best recipes of the Italian cuisine competed from north to south, and just like the eggplant parmigiana this is also the case of meat with tomato sauce. the ingredients simple and Mediterranean are strictly the same as the pizza marinara and probably "&amp;"the meat with tomato sauce is so named for this reason. versions are many, such as someone prefers first browning the meat, but the ingredients remain the same ... tomato, garlic and oregano turn into a sauce that will allow the meat to cook remaining ten"&amp;"der! But while the meat is cooking you will have to make a choice very, very difficult! You will use the sauce on pasta or to make a shoe with a good homemade bread?")</f>
         <v>the best recipes of the Italian cuisine competed from north to south, and just like the eggplant parmigiana this is also the case of meat with tomato sauce. the ingredients simple and Mediterranean are strictly the same as the pizza marinara and probably the meat with tomato sauce is so named for this reason. versions are many, such as someone prefers first browning the meat, but the ingredients remain the same ... tomato, garlic and oregano turn into a sauce that will allow the meat to cook remaining tender! But while the meat is cooking you will have to make a choice very, very difficult! You will use the sauce on pasta or to make a shoe with a good homemade bread?</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B157" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A157, ""it"", ""en"")"),"what is the typical Sunday dish? hard to pick one that is shared by everyone, each of us will remember the family dishes because the end is so, are the roots that influence our food. but after taking a virtual tour from north to south and have explored th"&amp;"e numerous recipes of our tradition, the typical Neapolitan ragu to the timeless lasagna, we found an agreement when someone said the word ""roast."" some people suggested that milk, the lard or stuffed with plums. we opted for a classic in the end, what "&amp;"juicy served with diced potatoes! within an hour we were all at the table to talk about how good, and succulent roast veal with potatoes. here's how to prepare it to us, a few ingredients the right time for cooking and efforts are then rewarded the effort"&amp;". You should also be prepared to receive many compliments: a roast so it is not just for Sundays, but for all the great occasions when even finish the meal with a fabulous soft tart with cream!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A157, ""it"", ""en"")"),"what is the typical Sunday dish? hard to pick one that is shared by everyone, each of us will remember the family dishes because the end is so, are the roots that influence our food. but after taking a virtual tour from north to south and have explored th"&amp;"e numerous recipes of our tradition, the typical Neapolitan ragu to the timeless lasagna, we found an agreement when someone said the word ""roast."" some people suggested that milk, the lard or stuffed with plums. we opted for a classic in the end, what "&amp;"juicy served with diced potatoes! within an hour we were all at the table to talk about how good, and succulent roast veal with potatoes. here's how to prepare it to us, a few ingredients the right time for cooking and efforts are then rewarded the effort"&amp;". You should also be prepared to receive many compliments: a roast so it is not just for Sundays, but for all the great occasions when even finish the meal with a fabulous soft tart with cream!")</f>
         <v>what is the typical Sunday dish? hard to pick one that is shared by everyone, each of us will remember the family dishes because the end is so, are the roots that influence our food. but after taking a virtual tour from north to south and have explored the numerous recipes of our tradition, the typical Neapolitan ragu to the timeless lasagna, we found an agreement when someone said the word "roast." some people suggested that milk, the lard or stuffed with plums. we opted for a classic in the end, what juicy served with diced potatoes! within an hour we were all at the table to talk about how good, and succulent roast veal with potatoes. here's how to prepare it to us, a few ingredients the right time for cooking and efforts are then rewarded the effort. You should also be prepared to receive many compliments: a roast so it is not just for Sundays, but for all the great occasions when even finish the meal with a fabulous soft tart with cream!</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A158, ""it"", ""en"")"),"every time you find yourself in front of the fish counter you leave disconsolate because you never know how to cook it? you have to organize an intimate dinner and discarded a priori the fish dishes for fear of the dreaded bones? do not worry: clean and c"&amp;"ook fish is easier than you think! then if the fish is a very tasty bream will make a great impression with your guests. maybe you can start with a plate of pasta. choosing such harmony between sea and mountains thanks to the dressing pistachio pesto, shr"&amp;"imp and tomatoes that we did for gluten-free pasta! the baked sea bream is a main course of fish easy to prepare, to enjoy all the good fish enhanced by the scent of lemon and herbs that enhancing it in cooking. accompanied with tasty potatoes, baked sea "&amp;"bream is ideal for a dinner or an important dinner, where the taste marries lightness. What are you waiting for? Set aside the doubts, once brought to the table that you will not receive the compliments of your guests!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A158, ""it"", ""en"")"),"every time you find yourself in front of the fish counter you leave disconsolate because you never know how to cook it? you have to organize an intimate dinner and discarded a priori the fish dishes for fear of the dreaded bones? do not worry: clean and c"&amp;"ook fish is easier than you think! then if the fish is a very tasty bream will make a great impression with your guests. maybe you can start with a plate of pasta. choosing such harmony between sea and mountains thanks to the dressing pistachio pesto, shr"&amp;"imp and tomatoes that we did for gluten-free pasta! the baked sea bream is a main course of fish easy to prepare, to enjoy all the good fish enhanced by the scent of lemon and herbs that enhancing it in cooking. accompanied with tasty potatoes, baked sea "&amp;"bream is ideal for a dinner or an important dinner, where the taste marries lightness. What are you waiting for? Set aside the doubts, once brought to the table that you will not receive the compliments of your guests!")</f>
         <v>every time you find yourself in front of the fish counter you leave disconsolate because you never know how to cook it? you have to organize an intimate dinner and discarded a priori the fish dishes for fear of the dreaded bones? do not worry: clean and cook fish is easier than you think! then if the fish is a very tasty bream will make a great impression with your guests. maybe you can start with a plate of pasta. choosing such harmony between sea and mountains thanks to the dressing pistachio pesto, shrimp and tomatoes that we did for gluten-free pasta! the baked sea bream is a main course of fish easy to prepare, to enjoy all the good fish enhanced by the scent of lemon and herbs that enhancing it in cooking. accompanied with tasty potatoes, baked sea bream is ideal for a dinner or an important dinner, where the taste marries lightness. What are you waiting for? Set aside the doubts, once brought to the table that you will not receive the compliments of your guests!</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B159" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A159, ""it"", ""en"")"),"in any way you prepare them, the damage squid always great satisfaction! fried squid, calamari grilled, baked or stewed ... are inevitable in the seaside restaurant menus, from the most popular to the most sophisticated, but they are also a good solution "&amp;"for your homemade dinners of fish. the recipe for stuffed squid is a classic Mediterranean cuisine and here we offer a version as simple as appetizing: you will need just a little 'bread, parmesan, anchovies and parsley to make a soft, dense filling, whic"&amp;"h will reveal a tasting 'explosion of flavors! you just have to be careful to not cook them too long in the pan, so as not to ruin the delicate texture of these molluscs. beautiful to look at and good for food, stuffed squid have a second effect looks out"&amp;"standing even with the most demanding guests ... follow our instructions and you can not go wrong!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A159, ""it"", ""en"")"),"in any way you prepare them, the damage squid always great satisfaction! fried squid, calamari grilled, baked or stewed ... are inevitable in the seaside restaurant menus, from the most popular to the most sophisticated, but they are also a good solution "&amp;"for your homemade dinners of fish. the recipe for stuffed squid is a classic Mediterranean cuisine and here we offer a version as simple as appetizing: you will need just a little 'bread, parmesan, anchovies and parsley to make a soft, dense filling, whic"&amp;"h will reveal a tasting 'explosion of flavors! you just have to be careful to not cook them too long in the pan, so as not to ruin the delicate texture of these molluscs. beautiful to look at and good for food, stuffed squid have a second effect looks out"&amp;"standing even with the most demanding guests ... follow our instructions and you can not go wrong!")</f>
         <v>in any way you prepare them, the damage squid always great satisfaction! fried squid, calamari grilled, baked or stewed ... are inevitable in the seaside restaurant menus, from the most popular to the most sophisticated, but they are also a good solution for your homemade dinners of fish. the recipe for stuffed squid is a classic Mediterranean cuisine and here we offer a version as simple as appetizing: you will need just a little 'bread, parmesan, anchovies and parsley to make a soft, dense filling, which will reveal a tasting 'explosion of flavors! you just have to be careful to not cook them too long in the pan, so as not to ruin the delicate texture of these molluscs. beautiful to look at and good for food, stuffed squid have a second effect looks outstanding even with the most demanding guests ... follow our instructions and you can not go wrong!</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A160, ""it"", ""en"")"),"you are looking for a truly appetizing and delicious first course ready in just 20 minutes? here it is served! penne al mustache are the perfect recipe to prepare for a family lunch, when you have little time to cook but a great desire for something tasty"&amp;" ... and why not, even when you are going to get your hungry friends! few simple steps will ensure an amazing result ... the pens are perfect for this type of condiments, such as the version of the old tavern and again absorb the velvety cream made with c"&amp;"ream and tomato, to release it with every bite! we have chosen to enrich the cream with the ham, but the variations are many: you can use bacon or opt for a completely different version using cubes of fish or squid! we recommend that you try them all and "&amp;"choose the one that suits you!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A160, ""it"", ""en"")"),"you are looking for a truly appetizing and delicious first course ready in just 20 minutes? here it is served! penne al mustache are the perfect recipe to prepare for a family lunch, when you have little time to cook but a great desire for something tasty"&amp;" ... and why not, even when you are going to get your hungry friends! few simple steps will ensure an amazing result ... the pens are perfect for this type of condiments, such as the version of the old tavern and again absorb the velvety cream made with c"&amp;"ream and tomato, to release it with every bite! we have chosen to enrich the cream with the ham, but the variations are many: you can use bacon or opt for a completely different version using cubes of fish or squid! we recommend that you try them all and "&amp;"choose the one that suits you!")</f>
         <v>you are looking for a truly appetizing and delicious first course ready in just 20 minutes? here it is served! penne al mustache are the perfect recipe to prepare for a family lunch, when you have little time to cook but a great desire for something tasty ... and why not, even when you are going to get your hungry friends! few simple steps will ensure an amazing result ... the pens are perfect for this type of condiments, such as the version of the old tavern and again absorb the velvety cream made with cream and tomato, to release it with every bite! we have chosen to enrich the cream with the ham, but the variations are many: you can use bacon or opt for a completely different version using cubes of fish or squid! we recommend that you try them all and choose the one that suits you!</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B161" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A161, ""it"", ""en"")"),"the soup of legumes and cereals is a first course very easy to prepare, healthy and hearty. enriched with vegetables and herbs, the soup of legumes and cereals is ideal to eat well heated during the cold days of winter but also warm during the rest of the"&amp;" year. to prepare this soup you should use the packaging of legumes and mixed cereals that are sold ready-made in supermarkets. the soup that we propose in this recipe was made with 10 kinds of vegetables and two varieties of cereals. especially the soup "&amp;"contains: cannellini beans, beans, brown beans, black-eyed beans, blacks beans, adzuki beans green peas, green and red lentils, spelled and barley in the refrigerator perlato.se have crusts or leftover cheese for grating , also included those in the soup "&amp;"during cooking: you will see that flavor! soup legumes and cereals is a substantial first plate which for its nutritional characteristics may also be considered a balanced single dish.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A161, ""it"", ""en"")"),"the soup of legumes and cereals is a first course very easy to prepare, healthy and hearty. enriched with vegetables and herbs, the soup of legumes and cereals is ideal to eat well heated during the cold days of winter but also warm during the rest of the"&amp;" year. to prepare this soup you should use the packaging of legumes and mixed cereals that are sold ready-made in supermarkets. the soup that we propose in this recipe was made with 10 kinds of vegetables and two varieties of cereals. especially the soup "&amp;"contains: cannellini beans, beans, brown beans, black-eyed beans, blacks beans, adzuki beans green peas, green and red lentils, spelled and barley in the refrigerator perlato.se have crusts or leftover cheese for grating , also included those in the soup "&amp;"during cooking: you will see that flavor! soup legumes and cereals is a substantial first plate which for its nutritional characteristics may also be considered a balanced single dish.")</f>
         <v>the soup of legumes and cereals is a first course very easy to prepare, healthy and hearty. enriched with vegetables and herbs, the soup of legumes and cereals is ideal to eat well heated during the cold days of winter but also warm during the rest of the year. to prepare this soup you should use the packaging of legumes and mixed cereals that are sold ready-made in supermarkets. the soup that we propose in this recipe was made with 10 kinds of vegetables and two varieties of cereals. especially the soup contains: cannellini beans, beans, brown beans, black-eyed beans, blacks beans, adzuki beans green peas, green and red lentils, spelled and barley in the refrigerator perlato.se have crusts or leftover cheese for grating , also included those in the soup during cooking: you will see that flavor! soup legumes and cereals is a substantial first plate which for its nutritional characteristics may also be considered a balanced single dish.</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A162, ""it"", ""en"")"),"risotto with artichokes is a dish very delicate and at the same time simple to preparare.il typical bitter taste of the artichoke is here enhanced with the addition of a few simple ingredients but which make this wrap-scale and very gustosa.i artichoke he"&amp;"arts, stir a few minutes in the pan, are added to the risotto halfway through cooking, in order to preserve the softness and integrity, so that they can pleasantly enjoy at every taste! there are numerous variants of risotto, a first course always well re"&amp;"ceived on the table, especially in the autumn or winter season, which gives great satisfaction both to those who prepare it to diners! this refined version of risotto with artichokes is also suitable for a special occasion, perhaps accompanied by a good s"&amp;"till white wine: success is guaranteed and your guests gladly ask for an encore!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A162, ""it"", ""en"")"),"risotto with artichokes is a dish very delicate and at the same time simple to preparare.il typical bitter taste of the artichoke is here enhanced with the addition of a few simple ingredients but which make this wrap-scale and very gustosa.i artichoke he"&amp;"arts, stir a few minutes in the pan, are added to the risotto halfway through cooking, in order to preserve the softness and integrity, so that they can pleasantly enjoy at every taste! there are numerous variants of risotto, a first course always well re"&amp;"ceived on the table, especially in the autumn or winter season, which gives great satisfaction both to those who prepare it to diners! this refined version of risotto with artichokes is also suitable for a special occasion, perhaps accompanied by a good s"&amp;"till white wine: success is guaranteed and your guests gladly ask for an encore!")</f>
         <v>risotto with artichokes is a dish very delicate and at the same time simple to preparare.il typical bitter taste of the artichoke is here enhanced with the addition of a few simple ingredients but which make this wrap-scale and very gustosa.i artichoke hearts, stir a few minutes in the pan, are added to the risotto halfway through cooking, in order to preserve the softness and integrity, so that they can pleasantly enjoy at every taste! there are numerous variants of risotto, a first course always well received on the table, especially in the autumn or winter season, which gives great satisfaction both to those who prepare it to diners! this refined version of risotto with artichokes is also suitable for a special occasion, perhaps accompanied by a good still white wine: success is guaranteed and your guests gladly ask for an encore!</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B163" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A163, ""it"", ""en"")"),"the chicken breasts milk is an alternative view to the traditional scallops! many times you have asked us how to replace the wine to allow your children to enjoy together with you this second course, so today we will satisfied! the milk chicken breasts ar"&amp;"e a quick and easy recipe to prepare, with their delicate and creamy taste will delight young and old and you will avoid to cook two different dishes ... the addition of milk in fact creates a creamy sauce, very pleasant to palate. following our step will"&amp;" get the tender slices and you will not even need a knife to cut them! you also made the chicken breasts with milk, in a few minutes be able to bring to the table a genuine and tasty dish.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A163, ""it"", ""en"")"),"the chicken breasts milk is an alternative view to the traditional scallops! many times you have asked us how to replace the wine to allow your children to enjoy together with you this second course, so today we will satisfied! the milk chicken breasts ar"&amp;"e a quick and easy recipe to prepare, with their delicate and creamy taste will delight young and old and you will avoid to cook two different dishes ... the addition of milk in fact creates a creamy sauce, very pleasant to palate. following our step will"&amp;" get the tender slices and you will not even need a knife to cut them! you also made the chicken breasts with milk, in a few minutes be able to bring to the table a genuine and tasty dish.")</f>
         <v>the chicken breasts milk is an alternative view to the traditional scallops! many times you have asked us how to replace the wine to allow your children to enjoy together with you this second course, so today we will satisfied! the milk chicken breasts are a quick and easy recipe to prepare, with their delicate and creamy taste will delight young and old and you will avoid to cook two different dishes ... the addition of milk in fact creates a creamy sauce, very pleasant to palate. following our step will get the tender slices and you will not even need a knife to cut them! you also made the chicken breasts with milk, in a few minutes be able to bring to the table a genuine and tasty dish.</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B164" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A164, ""it"", ""en"")"),"zucchini and shrimps? an unbeatable duo, that will satisfy the taste buds of your guests ... the sweetness of these elements, in fact, makes it one of the most popular combinations! from starters to main it is suitable for many preparations, such as garga"&amp;"nelli! pasta with zucchini and shrimp is one of the great classics ... a must in Italian cuisine, suitable for many occasions. our recipe involves adding a pinch of saffron to give a stronger flavor and a touch of color to the plate! the tips, also called"&amp;" trenette or linguine, will marry perfectly with this mix of land and sea and, thanks to the addition of fresh cream, you will get a perfect balance! if you also love the uppermost fish this union of flavors and colors, made linguine shrimp zucchini and s"&amp;"affron and serve at a dinner party!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A164, ""it"", ""en"")"),"zucchini and shrimps? an unbeatable duo, that will satisfy the taste buds of your guests ... the sweetness of these elements, in fact, makes it one of the most popular combinations! from starters to main it is suitable for many preparations, such as garga"&amp;"nelli! pasta with zucchini and shrimp is one of the great classics ... a must in Italian cuisine, suitable for many occasions. our recipe involves adding a pinch of saffron to give a stronger flavor and a touch of color to the plate! the tips, also called"&amp;" trenette or linguine, will marry perfectly with this mix of land and sea and, thanks to the addition of fresh cream, you will get a perfect balance! if you also love the uppermost fish this union of flavors and colors, made linguine shrimp zucchini and s"&amp;"affron and serve at a dinner party!")</f>
         <v>zucchini and shrimps? an unbeatable duo, that will satisfy the taste buds of your guests ... the sweetness of these elements, in fact, makes it one of the most popular combinations! from starters to main it is suitable for many preparations, such as garganelli! pasta with zucchini and shrimp is one of the great classics ... a must in Italian cuisine, suitable for many occasions. our recipe involves adding a pinch of saffron to give a stronger flavor and a touch of color to the plate! the tips, also called trenette or linguine, will marry perfectly with this mix of land and sea and, thanks to the addition of fresh cream, you will get a perfect balance! if you also love the uppermost fish this union of flavors and colors, made linguine shrimp zucchini and saffron and serve at a dinner party!</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B165" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A165, ""it"", ""en"")"),"if you are a first recipe refined dish risotto with radicchio and pancetta is for you. ideal for a casual lunch and a dinner with guests. risotto with radicchio is a classic of Venetian culinary tradition, we have revisited enriching it with tasty bacon t"&amp;"hat gives this dish a definite touch and that balances the unmistakable flavor and bitterness of radicchio. radicchio of Chioggia is a cross between endive and radicchio. latter 'has a slightly less bitter, if you prefer this variety we recommend you try "&amp;"the lasagna with radicchio and montasio.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A165, ""it"", ""en"")"),"if you are a first recipe refined dish risotto with radicchio and pancetta is for you. ideal for a casual lunch and a dinner with guests. risotto with radicchio is a classic of Venetian culinary tradition, we have revisited enriching it with tasty bacon t"&amp;"hat gives this dish a definite touch and that balances the unmistakable flavor and bitterness of radicchio. radicchio of Chioggia is a cross between endive and radicchio. latter 'has a slightly less bitter, if you prefer this variety we recommend you try "&amp;"the lasagna with radicchio and montasio.")</f>
         <v>if you are a first recipe refined dish risotto with radicchio and pancetta is for you. ideal for a casual lunch and a dinner with guests. risotto with radicchio is a classic of Venetian culinary tradition, we have revisited enriching it with tasty bacon that gives this dish a definite touch and that balances the unmistakable flavor and bitterness of radicchio. radicchio of Chioggia is a cross between endive and radicchio. latter 'has a slightly less bitter, if you prefer this variety we recommend you try the lasagna with radicchio and montasio.</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B166" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A166, ""it"", ""en"")"),"the classic rice salad is the quintessential summer dish: fresh, light and full of tantalizing toppings to customize according to your taste, just that they are colorful, tasty and above all season! you can have fun creating always new combinations using "&amp;"different ingredients, just that they are all meticulously cut into small cubes, and if you are looking for some greedy variant, you can be inspired by our other recipes like mango and pineapple rice salad, rice salad full salad or rice with sea fish. fas"&amp;"t and easy to implement, the rice salad is a dish perfect for your summer menu, you can prepare in advance and refrigerate until ready to serve. the classic rice salad will bring a wave of joy on your table and thanks to its eye-catching colors like very "&amp;"well to children. Moreover, thanks to its light weight, you can bring to the table an equally simple dessert, fresh and delicious, like our cheesecake with peaches gluten and lactose free: in short, an idea for this irresistible summer!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A166, ""it"", ""en"")"),"the classic rice salad is the quintessential summer dish: fresh, light and full of tantalizing toppings to customize according to your taste, just that they are colorful, tasty and above all season! you can have fun creating always new combinations using "&amp;"different ingredients, just that they are all meticulously cut into small cubes, and if you are looking for some greedy variant, you can be inspired by our other recipes like mango and pineapple rice salad, rice salad full salad or rice with sea fish. fas"&amp;"t and easy to implement, the rice salad is a dish perfect for your summer menu, you can prepare in advance and refrigerate until ready to serve. the classic rice salad will bring a wave of joy on your table and thanks to its eye-catching colors like very "&amp;"well to children. Moreover, thanks to its light weight, you can bring to the table an equally simple dessert, fresh and delicious, like our cheesecake with peaches gluten and lactose free: in short, an idea for this irresistible summer!")</f>
         <v>the classic rice salad is the quintessential summer dish: fresh, light and full of tantalizing toppings to customize according to your taste, just that they are colorful, tasty and above all season! you can have fun creating always new combinations using different ingredients, just that they are all meticulously cut into small cubes, and if you are looking for some greedy variant, you can be inspired by our other recipes like mango and pineapple rice salad, rice salad full salad or rice with sea fish. fast and easy to implement, the rice salad is a dish perfect for your summer menu, you can prepare in advance and refrigerate until ready to serve. the classic rice salad will bring a wave of joy on your table and thanks to its eye-catching colors like very well to children. Moreover, thanks to its light weight, you can bring to the table an equally simple dessert, fresh and delicious, like our cheesecake with peaches gluten and lactose free: in short, an idea for this irresistible summer!</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B167" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A167, ""it"", ""en"")"),"the confit tomatoes are delicious and tasty tomatoes caramelized in the oven, ideal to be served as an appetizer or side dish and as a versatile seasoning. after having cut them in half, just season with salt, pepper and sugar, but also with a mixture of "&amp;"garlic and thyme. once added a sprinkling of dried oregano and a little oil, they are baked for two hours, until they wither. the secret is to evaporate and dry the tomatoes from the vegetable water, without letting them dry out! the confit tomatoes have "&amp;"a very intense flavor and sweet and are perfect for dressing a paste or as an appetizer of bruschetta. the word ""confit"" comes from the French verb ""confire"", which means preserving: you say ""confit"", in fact, all the processed fruit and vegetables "&amp;"that provide a low heat prolonged cooking, with sugar or vinegar. you just have to prepare the confit tomatoes and season your dishes and your recipes!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A167, ""it"", ""en"")"),"the confit tomatoes are delicious and tasty tomatoes caramelized in the oven, ideal to be served as an appetizer or side dish and as a versatile seasoning. after having cut them in half, just season with salt, pepper and sugar, but also with a mixture of "&amp;"garlic and thyme. once added a sprinkling of dried oregano and a little oil, they are baked for two hours, until they wither. the secret is to evaporate and dry the tomatoes from the vegetable water, without letting them dry out! the confit tomatoes have "&amp;"a very intense flavor and sweet and are perfect for dressing a paste or as an appetizer of bruschetta. the word ""confit"" comes from the French verb ""confire"", which means preserving: you say ""confit"", in fact, all the processed fruit and vegetables "&amp;"that provide a low heat prolonged cooking, with sugar or vinegar. you just have to prepare the confit tomatoes and season your dishes and your recipes!")</f>
         <v>the confit tomatoes are delicious and tasty tomatoes caramelized in the oven, ideal to be served as an appetizer or side dish and as a versatile seasoning. after having cut them in half, just season with salt, pepper and sugar, but also with a mixture of garlic and thyme. once added a sprinkling of dried oregano and a little oil, they are baked for two hours, until they wither. the secret is to evaporate and dry the tomatoes from the vegetable water, without letting them dry out! the confit tomatoes have a very intense flavor and sweet and are perfect for dressing a paste or as an appetizer of bruschetta. the word "confit" comes from the French verb "confire", which means preserving: you say "confit", in fact, all the processed fruit and vegetables that provide a low heat prolonged cooking, with sugar or vinegar. you just have to prepare the confit tomatoes and season your dishes and your recipes!</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A168, ""it"", ""en"")"),"the rice balls on the phone are a widespread recipe in particular in Lazio, but they prepare throughout Italy although with diverse.il recipes supplì the phone owes its name to the fact that the original contained within mozzarella, during cooking melts a"&amp;"nd thus, by dividing the croquettes in half the two sides remain ""joined"" by strands of mozzarella. the name of the phone supplì dall'italianizzazione derive the French word surprise, which in Italian means surprise. the rice balls on the phone come wit"&amp;"h a rice cooked in a gravy. with the rice then are formed of species of meatballs from the shape of a little 'elongated where the center is inserted a secret diced mozzarella.uno for the success of the phone is supplì frying which must take place in hot o"&amp;"il at 180 degrees, they should not fry too much otherwise will darken too much on the surface, but if you keep them too little immersed in oil will not be able to obtain a ""phone."" the rice balls on the phone can be served as an appetizer in a buffet, p"&amp;"erhaps with other versions like the one with radicchio and gorgonzola or some tasty fried mozzarella and a tasty focaccia rolled ... but take care to serve hot otherwise you will not get the effect racy!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A168, ""it"", ""en"")"),"the rice balls on the phone are a widespread recipe in particular in Lazio, but they prepare throughout Italy although with diverse.il recipes supplì the phone owes its name to the fact that the original contained within mozzarella, during cooking melts a"&amp;"nd thus, by dividing the croquettes in half the two sides remain ""joined"" by strands of mozzarella. the name of the phone supplì dall'italianizzazione derive the French word surprise, which in Italian means surprise. the rice balls on the phone come wit"&amp;"h a rice cooked in a gravy. with the rice then are formed of species of meatballs from the shape of a little 'elongated where the center is inserted a secret diced mozzarella.uno for the success of the phone is supplì frying which must take place in hot o"&amp;"il at 180 degrees, they should not fry too much otherwise will darken too much on the surface, but if you keep them too little immersed in oil will not be able to obtain a ""phone."" the rice balls on the phone can be served as an appetizer in a buffet, p"&amp;"erhaps with other versions like the one with radicchio and gorgonzola or some tasty fried mozzarella and a tasty focaccia rolled ... but take care to serve hot otherwise you will not get the effect racy!")</f>
         <v>the rice balls on the phone are a widespread recipe in particular in Lazio, but they prepare throughout Italy although with diverse.il recipes supplì the phone owes its name to the fact that the original contained within mozzarella, during cooking melts and thus, by dividing the croquettes in half the two sides remain "joined" by strands of mozzarella. the name of the phone supplì dall'italianizzazione derive the French word surprise, which in Italian means surprise. the rice balls on the phone come with a rice cooked in a gravy. with the rice then are formed of species of meatballs from the shape of a little 'elongated where the center is inserted a secret diced mozzarella.uno for the success of the phone is supplì frying which must take place in hot oil at 180 degrees, they should not fry too much otherwise will darken too much on the surface, but if you keep them too little immersed in oil will not be able to obtain a "phone." the rice balls on the phone can be served as an appetizer in a buffet, perhaps with other versions like the one with radicchio and gorgonzola or some tasty fried mozzarella and a tasty focaccia rolled ... but take care to serve hot otherwise you will not get the effect racy!</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A169, ""it"", ""en"")"),"a product of the earth that comes from the ancient East, and has found its natural habitat in the south of our country: we speak of eggplant, summer fruits rich in vitamins and water, are perfect for savory and tasty dishes like eggplant parmesan, caponat"&amp;"a or wrapped around creamy fillings for delicious rolls. They go perfectly with a wide variety of ingredients. Today we prepare our dishes in combination with a classic pairing: cherry tomatoes and smoked cheese for delicious baked eggplant! soft discs fr"&amp;"om the Mediterranean taste, an appetizer or light and delicate side dish: baked eggplant are also ideal as finger food for a buffet ... good warm but will also enjoy delicious at room temperature!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A169, ""it"", ""en"")"),"a product of the earth that comes from the ancient East, and has found its natural habitat in the south of our country: we speak of eggplant, summer fruits rich in vitamins and water, are perfect for savory and tasty dishes like eggplant parmesan, caponat"&amp;"a or wrapped around creamy fillings for delicious rolls. They go perfectly with a wide variety of ingredients. Today we prepare our dishes in combination with a classic pairing: cherry tomatoes and smoked cheese for delicious baked eggplant! soft discs fr"&amp;"om the Mediterranean taste, an appetizer or light and delicate side dish: baked eggplant are also ideal as finger food for a buffet ... good warm but will also enjoy delicious at room temperature!")</f>
         <v>a product of the earth that comes from the ancient East, and has found its natural habitat in the south of our country: we speak of eggplant, summer fruits rich in vitamins and water, are perfect for savory and tasty dishes like eggplant parmesan, caponata or wrapped around creamy fillings for delicious rolls. They go perfectly with a wide variety of ingredients. Today we prepare our dishes in combination with a classic pairing: cherry tomatoes and smoked cheese for delicious baked eggplant! soft discs from the Mediterranean taste, an appetizer or light and delicate side dish: baked eggplant are also ideal as finger food for a buffet ... good warm but will also enjoy delicious at room temperature!</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A170, ""it"", ""en"")"),"Sicilian cuisine has its roots in the poor tradition based around some typical ingredients such as eggplant, tomatoes and basil, which are protagonists of caponata, the delicious side dish that we present today. these ingredients, already common to other "&amp;"recipes such as pasta alla norma and eggplant parmigiana, creates a mix of scents, colors and flavors that recalls the charm of a beautiful land. the extension of the surface of Sicily allows you to have numerous variations of caponata. from province to p"&amp;"rovince, but also from family to family each has its perfect recipe: with or without raisins, with or without concentrated ... just move a few meters to discover a caponata always different, but all with a common denominator unmistakable : the use of swee"&amp;"t and sour sauce, which gives a unique flavor to vegetables. this recommendation? try all possible versions until you find your favorite, to be handed down in your family!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A170, ""it"", ""en"")"),"Sicilian cuisine has its roots in the poor tradition based around some typical ingredients such as eggplant, tomatoes and basil, which are protagonists of caponata, the delicious side dish that we present today. these ingredients, already common to other "&amp;"recipes such as pasta alla norma and eggplant parmigiana, creates a mix of scents, colors and flavors that recalls the charm of a beautiful land. the extension of the surface of Sicily allows you to have numerous variations of caponata. from province to p"&amp;"rovince, but also from family to family each has its perfect recipe: with or without raisins, with or without concentrated ... just move a few meters to discover a caponata always different, but all with a common denominator unmistakable : the use of swee"&amp;"t and sour sauce, which gives a unique flavor to vegetables. this recommendation? try all possible versions until you find your favorite, to be handed down in your family!")</f>
         <v>Sicilian cuisine has its roots in the poor tradition based around some typical ingredients such as eggplant, tomatoes and basil, which are protagonists of caponata, the delicious side dish that we present today. these ingredients, already common to other recipes such as pasta alla norma and eggplant parmigiana, creates a mix of scents, colors and flavors that recalls the charm of a beautiful land. the extension of the surface of Sicily allows you to have numerous variations of caponata. from province to province, but also from family to family each has its perfect recipe: with or without raisins, with or without concentrated ... just move a few meters to discover a caponata always different, but all with a common denominator unmistakable : the use of sweet and sour sauce, which gives a unique flavor to vegetables. this recommendation? try all possible versions until you find your favorite, to be handed down in your family!</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B171" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A171, ""it"", ""en"")"),"the fluffy pancakes or Japanese pancakes are fluffy pancakes, perfect for breakfast or brunch! unlike the American version they are much higher and texture reminiscent almost that of a souffle. just as in the case of cotton cheesecake this time the Asian "&amp;"nation has won us over with the lightness and airiness of this cake. find out how to make them grow tall and fluffy paying attention to cooking to get a perfect result! the fluffy pancakes can be enriched with fresh fruit, whipped cream, honey or maple sy"&amp;"rup! not the usual pancakes, but the clouds of sweetness with which to start the day with the whole family!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A171, ""it"", ""en"")"),"the fluffy pancakes or Japanese pancakes are fluffy pancakes, perfect for breakfast or brunch! unlike the American version they are much higher and texture reminiscent almost that of a souffle. just as in the case of cotton cheesecake this time the Asian "&amp;"nation has won us over with the lightness and airiness of this cake. find out how to make them grow tall and fluffy paying attention to cooking to get a perfect result! the fluffy pancakes can be enriched with fresh fruit, whipped cream, honey or maple sy"&amp;"rup! not the usual pancakes, but the clouds of sweetness with which to start the day with the whole family!")</f>
         <v>the fluffy pancakes or Japanese pancakes are fluffy pancakes, perfect for breakfast or brunch! unlike the American version they are much higher and texture reminiscent almost that of a souffle. just as in the case of cotton cheesecake this time the Asian nation has won us over with the lightness and airiness of this cake. find out how to make them grow tall and fluffy paying attention to cooking to get a perfect result! the fluffy pancakes can be enriched with fresh fruit, whipped cream, honey or maple syrup! not the usual pancakes, but the clouds of sweetness with which to start the day with the whole family!</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B172" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A172, ""it"", ""en"")"),"Imagine coming home tired after a long day of work. open the pantry and ... remember that you could not even do the shopping. at the bottom of the shelf only tuna in oil ... but do not despair! He can become the star of a tasty recipe: spaghetti with tuna"&amp;"! an easy dish to make, ideal for last minute and a spaghetti-bath perfect dinner because even with the simplest ingredients you can prepare tasty food. then choose the tuna meatier, a few leaves of basil to flavor and the best extra virgin olive oil! the"&amp;" sauce that you will achieve will make this dish even more flavorful and full-bodied ... and dinner is served!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A172, ""it"", ""en"")"),"Imagine coming home tired after a long day of work. open the pantry and ... remember that you could not even do the shopping. at the bottom of the shelf only tuna in oil ... but do not despair! He can become the star of a tasty recipe: spaghetti with tuna"&amp;"! an easy dish to make, ideal for last minute and a spaghetti-bath perfect dinner because even with the simplest ingredients you can prepare tasty food. then choose the tuna meatier, a few leaves of basil to flavor and the best extra virgin olive oil! the"&amp;" sauce that you will achieve will make this dish even more flavorful and full-bodied ... and dinner is served!")</f>
         <v>Imagine coming home tired after a long day of work. open the pantry and ... remember that you could not even do the shopping. at the bottom of the shelf only tuna in oil ... but do not despair! He can become the star of a tasty recipe: spaghetti with tuna! an easy dish to make, ideal for last minute and a spaghetti-bath perfect dinner because even with the simplest ingredients you can prepare tasty food. then choose the tuna meatier, a few leaves of basil to flavor and the best extra virgin olive oil! the sauce that you will achieve will make this dish even more flavorful and full-bodied ... and dinner is served!</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B173" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A173, ""it"", ""en"")"),"churros are typical fried cakes of spain, also popular in South America, particularly in Argentina. churros are prepared with a compound which is similar to choux pastry: water, sugar, butter and a pinch of salt. Once created the dough, they are usually f"&amp;"ried and sprinkled with sugar and cinnamon. we also tried the baked version, which makes the mixture less crunchy but equally delicious! churros can be purchased at the stalls on street corners in Spain, but it is being used to prepare them at home, espec"&amp;"ially for Sunday breakfast or during the holidays, dipped in a cup of hot chocolate. in argentina it is used also enjoy churros filled with dulce de leche once cooked. to be enjoyed the best churros are prepared and eaten when still warm!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A173, ""it"", ""en"")"),"churros are typical fried cakes of spain, also popular in South America, particularly in Argentina. churros are prepared with a compound which is similar to choux pastry: water, sugar, butter and a pinch of salt. Once created the dough, they are usually f"&amp;"ried and sprinkled with sugar and cinnamon. we also tried the baked version, which makes the mixture less crunchy but equally delicious! churros can be purchased at the stalls on street corners in Spain, but it is being used to prepare them at home, espec"&amp;"ially for Sunday breakfast or during the holidays, dipped in a cup of hot chocolate. in argentina it is used also enjoy churros filled with dulce de leche once cooked. to be enjoyed the best churros are prepared and eaten when still warm!")</f>
         <v>churros are typical fried cakes of spain, also popular in South America, particularly in Argentina. churros are prepared with a compound which is similar to choux pastry: water, sugar, butter and a pinch of salt. Once created the dough, they are usually fried and sprinkled with sugar and cinnamon. we also tried the baked version, which makes the mixture less crunchy but equally delicious! churros can be purchased at the stalls on street corners in Spain, but it is being used to prepare them at home, especially for Sunday breakfast or during the holidays, dipped in a cup of hot chocolate. in argentina it is used also enjoy churros filled with dulce de leche once cooked. to be enjoyed the best churros are prepared and eaten when still warm!</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B174" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A174, ""it"", ""en"")"),"limoncello it is the popular liquor made with the peel of citrus fruits of Campania, traditionally prepared with typical lemons of the territory of Amalfi: sfusato amalfitano or oval sorrento. the history of limoncello is crossed by many different legends"&amp;" and anecdotes, his invention is indeed contended by sorrentini, amalfitani and Capri. to record first the brand 'limoncello' in 1988, was the maximum channel entrepreneur, and goats, many argue that his birth is linked to the history of this family; it s"&amp;"eems that this liqueur was born in the early '900 by a grandmother's recipe. born as a home preparation, limoncello it has gained great popularity since the 80's, becoming the subject of large-scale industrial production. to the point of becoming a real l"&amp;"ittle thought to do during the holidays. In fact, in a beautiful bottle it will be given at Christmas or at Easter, perhaps combining it with colored Easter biscuits. the preparation of limoncello is easy but you have to practice it meticulously, and if w"&amp;"ell observed, in just over a couple of months this fragrant yellow liquor aroma decided, which can be savored, more often as a digestive, but also on sweets or fruit salads.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A174, ""it"", ""en"")"),"limoncello it is the popular liquor made with the peel of citrus fruits of Campania, traditionally prepared with typical lemons of the territory of Amalfi: sfusato amalfitano or oval sorrento. the history of limoncello is crossed by many different legends"&amp;" and anecdotes, his invention is indeed contended by sorrentini, amalfitani and Capri. to record first the brand 'limoncello' in 1988, was the maximum channel entrepreneur, and goats, many argue that his birth is linked to the history of this family; it s"&amp;"eems that this liqueur was born in the early '900 by a grandmother's recipe. born as a home preparation, limoncello it has gained great popularity since the 80's, becoming the subject of large-scale industrial production. to the point of becoming a real l"&amp;"ittle thought to do during the holidays. In fact, in a beautiful bottle it will be given at Christmas or at Easter, perhaps combining it with colored Easter biscuits. the preparation of limoncello is easy but you have to practice it meticulously, and if w"&amp;"ell observed, in just over a couple of months this fragrant yellow liquor aroma decided, which can be savored, more often as a digestive, but also on sweets or fruit salads.")</f>
         <v>limoncello it is the popular liquor made with the peel of citrus fruits of Campania, traditionally prepared with typical lemons of the territory of Amalfi: sfusato amalfitano or oval sorrento. the history of limoncello is crossed by many different legends and anecdotes, his invention is indeed contended by sorrentini, amalfitani and Capri. to record first the brand 'limoncello' in 1988, was the maximum channel entrepreneur, and goats, many argue that his birth is linked to the history of this family; it seems that this liqueur was born in the early '900 by a grandmother's recipe. born as a home preparation, limoncello it has gained great popularity since the 80's, becoming the subject of large-scale industrial production. to the point of becoming a real little thought to do during the holidays. In fact, in a beautiful bottle it will be given at Christmas or at Easter, perhaps combining it with colored Easter biscuits. the preparation of limoncello is easy but you have to practice it meticulously, and if well observed, in just over a couple of months this fragrant yellow liquor aroma decided, which can be savored, more often as a digestive, but also on sweets or fruit salads.</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B175" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175, ""it"", ""en"")"),"the flavors of Calabria are so many ... cedar, licorice and onions are just a few examples, but they all catch our taste buds! today we bring you in the Vibo Valentia province, where there is a variety of onion that is much more special than the others. I"&amp;"t has a slightly rounded shape that stretches out towards the end and hides the delicious and sweet membranes alternating colors going from typical red ruby ​​up to a lit white. Obviously we are talking of Tropea onions'll probably know for the typical ja"&amp;"m, but we we prepare our dishes in a new version! caramelized red onions of Tropea are an unusual choice to accompany meat or cheese, and will transform the simple slices of toasted bread croutons very special. strolling through the streets of Tropea you "&amp;"may encounter in the shops that have the good habit to offer small samples, but in the meantime, thanks to the recipe of tropical caramelized onions, you can get an idea about their goodness! and to enrich your aperitif, also prepared delicious fritters T"&amp;"ropea onions!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175, ""it"", ""en"")"),"the flavors of Calabria are so many ... cedar, licorice and onions are just a few examples, but they all catch our taste buds! today we bring you in the Vibo Valentia province, where there is a variety of onion that is much more special than the others. I"&amp;"t has a slightly rounded shape that stretches out towards the end and hides the delicious and sweet membranes alternating colors going from typical red ruby ​​up to a lit white. Obviously we are talking of Tropea onions'll probably know for the typical ja"&amp;"m, but we we prepare our dishes in a new version! caramelized red onions of Tropea are an unusual choice to accompany meat or cheese, and will transform the simple slices of toasted bread croutons very special. strolling through the streets of Tropea you "&amp;"may encounter in the shops that have the good habit to offer small samples, but in the meantime, thanks to the recipe of tropical caramelized onions, you can get an idea about their goodness! and to enrich your aperitif, also prepared delicious fritters T"&amp;"ropea onions!")</f>
         <v>the flavors of Calabria are so many ... cedar, licorice and onions are just a few examples, but they all catch our taste buds! today we bring you in the Vibo Valentia province, where there is a variety of onion that is much more special than the others. It has a slightly rounded shape that stretches out towards the end and hides the delicious and sweet membranes alternating colors going from typical red ruby ​​up to a lit white. Obviously we are talking of Tropea onions'll probably know for the typical jam, but we we prepare our dishes in a new version! caramelized red onions of Tropea are an unusual choice to accompany meat or cheese, and will transform the simple slices of toasted bread croutons very special. strolling through the streets of Tropea you may encounter in the shops that have the good habit to offer small samples, but in the meantime, thanks to the recipe of tropical caramelized onions, you can get an idea about their goodness! and to enrich your aperitif, also prepared delicious fritters Tropea onions!</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B176" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A176, ""it"", ""en"")"),"Venetian liver is one of the many recipes of traditional cuisine veneta.tra the various dishes, this is definitely one of the best known worldwide for his unique and unmistakable flavor that combines the strong flavor of the liver aroma of cipolla.le orig"&amp;"ins of this dish, called in Venetian figà AEA venessiana, date back to Roman times they used to cook the liver along with figs to cover up the smell a little Venetian forte.i over time replaced the figs with onions and they made this recipe to become one "&amp;"of the most popular of Venetian cuisine.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A176, ""it"", ""en"")"),"Venetian liver is one of the many recipes of traditional cuisine veneta.tra the various dishes, this is definitely one of the best known worldwide for his unique and unmistakable flavor that combines the strong flavor of the liver aroma of cipolla.le orig"&amp;"ins of this dish, called in Venetian figà AEA venessiana, date back to Roman times they used to cook the liver along with figs to cover up the smell a little Venetian forte.i over time replaced the figs with onions and they made this recipe to become one "&amp;"of the most popular of Venetian cuisine.")</f>
         <v>Venetian liver is one of the many recipes of traditional cuisine veneta.tra the various dishes, this is definitely one of the best known worldwide for his unique and unmistakable flavor that combines the strong flavor of the liver aroma of cipolla.le origins of this dish, called in Venetian figà AEA venessiana, date back to Roman times they used to cook the liver along with figs to cover up the smell a little Venetian forte.i over time replaced the figs with onions and they made this recipe to become one of the most popular of Venetian cuisine.</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B177" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A177, ""it"", ""en"")"),"felafel just say it to someone without recalling scented alleys of spices and evocative atmosphere and colorful Middle Eastern markets that echo of voices. others, however, the thought comes back with a bit 'of nostalgia to smoldering husks bought at the "&amp;"doner kebab late at night in college when we were resident students always hungry and with empty fridge. whatever your version of the story, with this recipe you can relive it in the kitchen of your home: felafel infallible, crisp and golden brown! dinner"&amp;"s with friends, parties or unusual snacks, these nuggets of spicy street food tradition of the Arab countries will delight your palate and light up your evenings. you are ready to prepare with us? felafel: here is our version!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A177, ""it"", ""en"")"),"felafel just say it to someone without recalling scented alleys of spices and evocative atmosphere and colorful Middle Eastern markets that echo of voices. others, however, the thought comes back with a bit 'of nostalgia to smoldering husks bought at the "&amp;"doner kebab late at night in college when we were resident students always hungry and with empty fridge. whatever your version of the story, with this recipe you can relive it in the kitchen of your home: felafel infallible, crisp and golden brown! dinner"&amp;"s with friends, parties or unusual snacks, these nuggets of spicy street food tradition of the Arab countries will delight your palate and light up your evenings. you are ready to prepare with us? felafel: here is our version!")</f>
         <v>felafel just say it to someone without recalling scented alleys of spices and evocative atmosphere and colorful Middle Eastern markets that echo of voices. others, however, the thought comes back with a bit 'of nostalgia to smoldering husks bought at the doner kebab late at night in college when we were resident students always hungry and with empty fridge. whatever your version of the story, with this recipe you can relive it in the kitchen of your home: felafel infallible, crisp and golden brown! dinners with friends, parties or unusual snacks, these nuggets of spicy street food tradition of the Arab countries will delight your palate and light up your evenings. you are ready to prepare with us? felafel: here is our version!</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B178" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A178, ""it"", ""en"")"),"the tomato soup is a first plate of poor peasant origin, typically Tuscan, for the accuracy of sienna; prepared with stale Tuscan bread, tomatoes, garlic, basil and plenty of extra virgin olive oil, it was originally designed as a plate of leftover bread "&amp;"recovery. excellent winter as hot soup, tomato soup is just as inviting and tasty summer at room temperature, served sprinkled with good and plenty of extra virgin olive oil and basil leaves spezzettate.come often happened with simple dishes , and poor re"&amp;"covery, even the tomato soup has undergone small variations applied by each family, depending on personal tastes, for example, the addition of fried onions or leeks or onions, carrots and celery.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A178, ""it"", ""en"")"),"the tomato soup is a first plate of poor peasant origin, typically Tuscan, for the accuracy of sienna; prepared with stale Tuscan bread, tomatoes, garlic, basil and plenty of extra virgin olive oil, it was originally designed as a plate of leftover bread "&amp;"recovery. excellent winter as hot soup, tomato soup is just as inviting and tasty summer at room temperature, served sprinkled with good and plenty of extra virgin olive oil and basil leaves spezzettate.come often happened with simple dishes , and poor re"&amp;"covery, even the tomato soup has undergone small variations applied by each family, depending on personal tastes, for example, the addition of fried onions or leeks or onions, carrots and celery.")</f>
         <v>the tomato soup is a first plate of poor peasant origin, typically Tuscan, for the accuracy of sienna; prepared with stale Tuscan bread, tomatoes, garlic, basil and plenty of extra virgin olive oil, it was originally designed as a plate of leftover bread recovery. excellent winter as hot soup, tomato soup is just as inviting and tasty summer at room temperature, served sprinkled with good and plenty of extra virgin olive oil and basil leaves spezzettate.come often happened with simple dishes , and poor recovery, even the tomato soup has undergone small variations applied by each family, depending on personal tastes, for example, the addition of fried onions or leeks or onions, carrots and celery.</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B179" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A179, ""it"", ""en"")"),"the boiled egg for many is the first test to test their basic culinary skills; a ""save dinner"" simple and perhaps one of the first recipes that are learned in the single life! Yet how many pitfalls: the eggs are inserted before or after the water boils?"&amp;" how many minutes you have to cook for perfect boiled eggs and avoid the unpleasant effect of greenish yolk or the fact that proves too liquid? small attentions that will make you prepare excellent boiled eggs, served with a simple drizzle of olive oil or"&amp;" mayonnaise, or can be filled with imagination, to be fried like those the little nun or even to prepare delicious cookies as the scallops! and if you are among lovers of the yolk but not too hard (barzotte eggs), we also thought of you! just cook a few m"&amp;"inutes in less eggs to obtain a compact but still very soft inside, maybe to make delicious stuffed eggs. we will give you tips on the process, you think of the raw material: always best to choose organic free range eggs, so be sure not only of taste but "&amp;"you get a load of vitamins, minerals and proteins that eggs are rich !")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A179, ""it"", ""en"")"),"the boiled egg for many is the first test to test their basic culinary skills; a ""save dinner"" simple and perhaps one of the first recipes that are learned in the single life! Yet how many pitfalls: the eggs are inserted before or after the water boils?"&amp;" how many minutes you have to cook for perfect boiled eggs and avoid the unpleasant effect of greenish yolk or the fact that proves too liquid? small attentions that will make you prepare excellent boiled eggs, served with a simple drizzle of olive oil or"&amp;" mayonnaise, or can be filled with imagination, to be fried like those the little nun or even to prepare delicious cookies as the scallops! and if you are among lovers of the yolk but not too hard (barzotte eggs), we also thought of you! just cook a few m"&amp;"inutes in less eggs to obtain a compact but still very soft inside, maybe to make delicious stuffed eggs. we will give you tips on the process, you think of the raw material: always best to choose organic free range eggs, so be sure not only of taste but "&amp;"you get a load of vitamins, minerals and proteins that eggs are rich !")</f>
         <v>the boiled egg for many is the first test to test their basic culinary skills; a "save dinner" simple and perhaps one of the first recipes that are learned in the single life! Yet how many pitfalls: the eggs are inserted before or after the water boils? how many minutes you have to cook for perfect boiled eggs and avoid the unpleasant effect of greenish yolk or the fact that proves too liquid? small attentions that will make you prepare excellent boiled eggs, served with a simple drizzle of olive oil or mayonnaise, or can be filled with imagination, to be fried like those the little nun or even to prepare delicious cookies as the scallops! and if you are among lovers of the yolk but not too hard (barzotte eggs), we also thought of you! just cook a few minutes in less eggs to obtain a compact but still very soft inside, maybe to make delicious stuffed eggs. we will give you tips on the process, you think of the raw material: always best to choose organic free range eggs, so be sure not only of taste but you get a load of vitamins, minerals and proteins that eggs are rich !</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B180" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A180, ""it"", ""en"")"),"want to fish but little time to devote to the kitchen? here is our quick and easy solution: prawns baked, the flavor of the sea in a recipe with just the basic ingredients will allow you to serve a second fragrant fish dish, all the goodness of the shellf"&amp;"ish. but not all, we also thought of those who want to be lightweight with a baking and a very light dressing! savor the fresh meaty and tender king prawns with fresh parsley citronette: will be perfect to be enjoyed in every occasion and season combined "&amp;"with side dishes you prefer as an aromatic salad of zucchini with mint and basil on hot summer days or with a crunchy salad orange and fennel can be enjoyed in the winter months. with prawns baked success at the table is guaranteed!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A180, ""it"", ""en"")"),"want to fish but little time to devote to the kitchen? here is our quick and easy solution: prawns baked, the flavor of the sea in a recipe with just the basic ingredients will allow you to serve a second fragrant fish dish, all the goodness of the shellf"&amp;"ish. but not all, we also thought of those who want to be lightweight with a baking and a very light dressing! savor the fresh meaty and tender king prawns with fresh parsley citronette: will be perfect to be enjoyed in every occasion and season combined "&amp;"with side dishes you prefer as an aromatic salad of zucchini with mint and basil on hot summer days or with a crunchy salad orange and fennel can be enjoyed in the winter months. with prawns baked success at the table is guaranteed!")</f>
         <v>want to fish but little time to devote to the kitchen? here is our quick and easy solution: prawns baked, the flavor of the sea in a recipe with just the basic ingredients will allow you to serve a second fragrant fish dish, all the goodness of the shellfish. but not all, we also thought of those who want to be lightweight with a baking and a very light dressing! savor the fresh meaty and tender king prawns with fresh parsley citronette: will be perfect to be enjoyed in every occasion and season combined with side dishes you prefer as an aromatic salad of zucchini with mint and basil on hot summer days or with a crunchy salad orange and fennel can be enjoyed in the winter months. with prawns baked success at the table is guaranteed!</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B181" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A181, ""it"", ""en"")"),"the tenets of Roman cuisine: the creamy carbonara, amatriciana tasty and genuine cheese and pepper. a visit in the capital can not be separated from the tasting of these delicacies of the poor tradition, now become gourmet dishes along with many other typ"&amp;"ical dishes such as artichokes and saltimbocca, to stay on the classic. There is a dish that combines all the best of the three recipes for pasta dishes: pasta alla zozzona. Perhaps not everyone knows, we have discovered recently and we loved it! romano c"&amp;"heese, egg yolks, bacon, sausage and tomatoes are the most expensive ingredients as the Lazio culinary tradition, blended together to return a hearty dish and godurioso, ""filthy"" in the sense of very rich and very far from the concept of lightness. past"&amp;"a alla zozzona is a feast for the palate, the true celebration of the Roman Empire at the table, a super recipe for those who love strong flavors and the main dishes! We just need to be inspired by our version!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A181, ""it"", ""en"")"),"the tenets of Roman cuisine: the creamy carbonara, amatriciana tasty and genuine cheese and pepper. a visit in the capital can not be separated from the tasting of these delicacies of the poor tradition, now become gourmet dishes along with many other typ"&amp;"ical dishes such as artichokes and saltimbocca, to stay on the classic. There is a dish that combines all the best of the three recipes for pasta dishes: pasta alla zozzona. Perhaps not everyone knows, we have discovered recently and we loved it! romano c"&amp;"heese, egg yolks, bacon, sausage and tomatoes are the most expensive ingredients as the Lazio culinary tradition, blended together to return a hearty dish and godurioso, ""filthy"" in the sense of very rich and very far from the concept of lightness. past"&amp;"a alla zozzona is a feast for the palate, the true celebration of the Roman Empire at the table, a super recipe for those who love strong flavors and the main dishes! We just need to be inspired by our version!")</f>
         <v>the tenets of Roman cuisine: the creamy carbonara, amatriciana tasty and genuine cheese and pepper. a visit in the capital can not be separated from the tasting of these delicacies of the poor tradition, now become gourmet dishes along with many other typical dishes such as artichokes and saltimbocca, to stay on the classic. There is a dish that combines all the best of the three recipes for pasta dishes: pasta alla zozzona. Perhaps not everyone knows, we have discovered recently and we loved it! romano cheese, egg yolks, bacon, sausage and tomatoes are the most expensive ingredients as the Lazio culinary tradition, blended together to return a hearty dish and godurioso, "filthy" in the sense of very rich and very far from the concept of lightness. pasta alla zozzona is a feast for the palate, the true celebration of the Roman Empire at the table, a super recipe for those who love strong flavors and the main dishes! We just need to be inspired by our version!</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B182" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A182, ""it"", ""en"")"),"you are in the office ... it's only Monday, but you're already thinking about the next sweet to prepare over the weekend, when the weather in the morning is not a tyrant and you can enjoy moments with the family. you have already tried the traditional pan"&amp;"cakes or the tarts and wonderful alternative soft, perfect for breakfast? the soft cake nutella will captivate from the first slice, you will be entranced by both the taste from what is easy to prepare! Guests can take the cream of hazelnuts and some othe"&amp;"r ingredient in the pantry, the ones that never fail ... make sure you have an electric mixer to ensure a great result, maximum softness! Once in the oven, the smell of chocolate and hazelnuts invade your kitchen and we are sure you will not want to wait "&amp;"until it is completely cool before tasting!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A182, ""it"", ""en"")"),"you are in the office ... it's only Monday, but you're already thinking about the next sweet to prepare over the weekend, when the weather in the morning is not a tyrant and you can enjoy moments with the family. you have already tried the traditional pan"&amp;"cakes or the tarts and wonderful alternative soft, perfect for breakfast? the soft cake nutella will captivate from the first slice, you will be entranced by both the taste from what is easy to prepare! Guests can take the cream of hazelnuts and some othe"&amp;"r ingredient in the pantry, the ones that never fail ... make sure you have an electric mixer to ensure a great result, maximum softness! Once in the oven, the smell of chocolate and hazelnuts invade your kitchen and we are sure you will not want to wait "&amp;"until it is completely cool before tasting!")</f>
         <v>you are in the office ... it's only Monday, but you're already thinking about the next sweet to prepare over the weekend, when the weather in the morning is not a tyrant and you can enjoy moments with the family. you have already tried the traditional pancakes or the tarts and wonderful alternative soft, perfect for breakfast? the soft cake nutella will captivate from the first slice, you will be entranced by both the taste from what is easy to prepare! Guests can take the cream of hazelnuts and some other ingredient in the pantry, the ones that never fail ... make sure you have an electric mixer to ensure a great result, maximum softness! Once in the oven, the smell of chocolate and hazelnuts invade your kitchen and we are sure you will not want to wait until it is completely cool before tasting!</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B183" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A183, ""it"", ""en"")"),"an Italian abroad feel homesick for pasta and coffee; a Lombard of polenta. few dishes have such a strong identity and emotional value, and not just for the northern regions, but for the mountain people from all over Italy, the polenta, poor but good and "&amp;"substantial, has fed for centuries with great dignity. It understood as the polenta flour legumes or grains cooked in water has very ancient origins, but it has become as we know it only after the discovery of america, because the corn that gives it its y"&amp;"ellow sun came precisely from the new continent. since then the polenta became the staple food especially the working classes, creating the ""civilization of polenta"". this traditional dish there are many varieties: the taragna, corn and buckwheat, the V"&amp;"enetian made with white polenta. once the polenta is cooked in a suspended copper kettle over the fire. Here, however, we offer a more modern version that will allow you to still get a good polenta to accompany juicy meat stews, delicious mushrooms or cre"&amp;"amy cheeses to create robust and appetizing dishes such as polenta with sausage and cheese or savory dishes recovery as the polenta pie and sausage!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A183, ""it"", ""en"")"),"an Italian abroad feel homesick for pasta and coffee; a Lombard of polenta. few dishes have such a strong identity and emotional value, and not just for the northern regions, but for the mountain people from all over Italy, the polenta, poor but good and "&amp;"substantial, has fed for centuries with great dignity. It understood as the polenta flour legumes or grains cooked in water has very ancient origins, but it has become as we know it only after the discovery of america, because the corn that gives it its y"&amp;"ellow sun came precisely from the new continent. since then the polenta became the staple food especially the working classes, creating the ""civilization of polenta"". this traditional dish there are many varieties: the taragna, corn and buckwheat, the V"&amp;"enetian made with white polenta. once the polenta is cooked in a suspended copper kettle over the fire. Here, however, we offer a more modern version that will allow you to still get a good polenta to accompany juicy meat stews, delicious mushrooms or cre"&amp;"amy cheeses to create robust and appetizing dishes such as polenta with sausage and cheese or savory dishes recovery as the polenta pie and sausage!")</f>
         <v>an Italian abroad feel homesick for pasta and coffee; a Lombard of polenta. few dishes have such a strong identity and emotional value, and not just for the northern regions, but for the mountain people from all over Italy, the polenta, poor but good and substantial, has fed for centuries with great dignity. It understood as the polenta flour legumes or grains cooked in water has very ancient origins, but it has become as we know it only after the discovery of america, because the corn that gives it its yellow sun came precisely from the new continent. since then the polenta became the staple food especially the working classes, creating the "civilization of polenta". this traditional dish there are many varieties: the taragna, corn and buckwheat, the Venetian made with white polenta. once the polenta is cooked in a suspended copper kettle over the fire. Here, however, we offer a more modern version that will allow you to still get a good polenta to accompany juicy meat stews, delicious mushrooms or creamy cheeses to create robust and appetizing dishes such as polenta with sausage and cheese or savory dishes recovery as the polenta pie and sausage!</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B184" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A184, ""it"", ""en"")"),"the warm mellow evening, the voices from the mixed sweet lilt to music and laughter, the glint of smiles reflected in the glasses filled with a scented liquid and ruby ​​... travel memories and film suggestions overlap, but it is certain that one can not "&amp;"imagine a summer evening in spain no one recalls the sangria. alcoholic drink made from dyed full-bodied wine, fruit and spices, the sangria is widespread throughout Spain, where they know many different versions including also the white sangria, typical "&amp;"of Catalonia. a popular saying states that if the red wine makes good blood, sangria makes it spectacular! a play on words accompanies the adage, because the name of sangria comes from ""sangre"", blood, because of its deep red color and sensual imagery t"&amp;"hat accompanies it. with its intense and spicy taste, and the habit of drinking it ice cold, picking fruit with a spoon and drink in equal measure to be paid in each glass, the sangria has every right between the indispensable every summer respecting fest"&amp;"ival. and what do you expect? run to prepare with our recipe, and do not forget to invite all your friends!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A184, ""it"", ""en"")"),"the warm mellow evening, the voices from the mixed sweet lilt to music and laughter, the glint of smiles reflected in the glasses filled with a scented liquid and ruby ​​... travel memories and film suggestions overlap, but it is certain that one can not "&amp;"imagine a summer evening in spain no one recalls the sangria. alcoholic drink made from dyed full-bodied wine, fruit and spices, the sangria is widespread throughout Spain, where they know many different versions including also the white sangria, typical "&amp;"of Catalonia. a popular saying states that if the red wine makes good blood, sangria makes it spectacular! a play on words accompanies the adage, because the name of sangria comes from ""sangre"", blood, because of its deep red color and sensual imagery t"&amp;"hat accompanies it. with its intense and spicy taste, and the habit of drinking it ice cold, picking fruit with a spoon and drink in equal measure to be paid in each glass, the sangria has every right between the indispensable every summer respecting fest"&amp;"ival. and what do you expect? run to prepare with our recipe, and do not forget to invite all your friends!")</f>
         <v>the warm mellow evening, the voices from the mixed sweet lilt to music and laughter, the glint of smiles reflected in the glasses filled with a scented liquid and ruby ​​... travel memories and film suggestions overlap, but it is certain that one can not imagine a summer evening in spain no one recalls the sangria. alcoholic drink made from dyed full-bodied wine, fruit and spices, the sangria is widespread throughout Spain, where they know many different versions including also the white sangria, typical of Catalonia. a popular saying states that if the red wine makes good blood, sangria makes it spectacular! a play on words accompanies the adage, because the name of sangria comes from "sangre", blood, because of its deep red color and sensual imagery that accompanies it. with its intense and spicy taste, and the habit of drinking it ice cold, picking fruit with a spoon and drink in equal measure to be paid in each glass, the sangria has every right between the indispensable every summer respecting festival. and what do you expect? run to prepare with our recipe, and do not forget to invite all your friends!</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B185" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A185, ""it"", ""en"")"),"if you think a healthy dish, a recipe whale immediately to mind: vegetable soup. he, the great classic of Italian plates, is a recipe that can change appearance depending on the season: cool in summer and warm in winter, changes its ""habit"" wearing the "&amp;"scents and colors of the vegetables the garden offers. Today we offer a winter version, good to taste hot and steaming, which will surely be able to warm yourself when outside the weather forces you to retreat to the fireplace. the preparation of this veg"&amp;"etable soup is quite simple but quite long and laborious, because of the cleaning and cutting of the ingredients that make it up. we will, however, guarantee that is really worth taking the time to be able to enjoy this simple first dish of vegetables bec"&amp;"ause it is a recipe that combine natural and excellent. make way to the vegetables in the kitchen today is preparing a delicious vegetable soup!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A185, ""it"", ""en"")"),"if you think a healthy dish, a recipe whale immediately to mind: vegetable soup. he, the great classic of Italian plates, is a recipe that can change appearance depending on the season: cool in summer and warm in winter, changes its ""habit"" wearing the "&amp;"scents and colors of the vegetables the garden offers. Today we offer a winter version, good to taste hot and steaming, which will surely be able to warm yourself when outside the weather forces you to retreat to the fireplace. the preparation of this veg"&amp;"etable soup is quite simple but quite long and laborious, because of the cleaning and cutting of the ingredients that make it up. we will, however, guarantee that is really worth taking the time to be able to enjoy this simple first dish of vegetables bec"&amp;"ause it is a recipe that combine natural and excellent. make way to the vegetables in the kitchen today is preparing a delicious vegetable soup!")</f>
         <v>if you think a healthy dish, a recipe whale immediately to mind: vegetable soup. he, the great classic of Italian plates, is a recipe that can change appearance depending on the season: cool in summer and warm in winter, changes its "habit" wearing the scents and colors of the vegetables the garden offers. Today we offer a winter version, good to taste hot and steaming, which will surely be able to warm yourself when outside the weather forces you to retreat to the fireplace. the preparation of this vegetable soup is quite simple but quite long and laborious, because of the cleaning and cutting of the ingredients that make it up. we will, however, guarantee that is really worth taking the time to be able to enjoy this simple first dish of vegetables because it is a recipe that combine natural and excellent. make way to the vegetables in the kitchen today is preparing a delicious vegetable soup!</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B186" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A186, ""it"", ""en"")"),"those who do not know or have never sipped a spritz? from 2011 also known as Venetian Spritz IBA, the international association of bartenders, it is undoubtedly the alcoholic long drink most famous Italian with the Negroni and the American. This cocktail "&amp;"has a history rather radicata.partiamo by saying that he was born in the Veneto and from there has spread the Italian aperitif before in all our country and then around the world. its origins date back to 1800, when the Austrian Empire troops in Lombard-V"&amp;"enetian kingdom used to stretch the local wines, for them too much of alcohol content, with a sparkling water splash. it is from spritzen, the German word that describes this custom, which derives its name spritz! you knew? Instead maybe what you do not k"&amp;"now is how to prepare the original version directly to your home. here is the recipe step by step, perfect to share with friends for a drink, a casual meal, or, why not, for a brunch ... prepared with us spritz!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A186, ""it"", ""en"")"),"those who do not know or have never sipped a spritz? from 2011 also known as Venetian Spritz IBA, the international association of bartenders, it is undoubtedly the alcoholic long drink most famous Italian with the Negroni and the American. This cocktail "&amp;"has a history rather radicata.partiamo by saying that he was born in the Veneto and from there has spread the Italian aperitif before in all our country and then around the world. its origins date back to 1800, when the Austrian Empire troops in Lombard-V"&amp;"enetian kingdom used to stretch the local wines, for them too much of alcohol content, with a sparkling water splash. it is from spritzen, the German word that describes this custom, which derives its name spritz! you knew? Instead maybe what you do not k"&amp;"now is how to prepare the original version directly to your home. here is the recipe step by step, perfect to share with friends for a drink, a casual meal, or, why not, for a brunch ... prepared with us spritz!")</f>
         <v>those who do not know or have never sipped a spritz? from 2011 also known as Venetian Spritz IBA, the international association of bartenders, it is undoubtedly the alcoholic long drink most famous Italian with the Negroni and the American. This cocktail has a history rather radicata.partiamo by saying that he was born in the Veneto and from there has spread the Italian aperitif before in all our country and then around the world. its origins date back to 1800, when the Austrian Empire troops in Lombard-Venetian kingdom used to stretch the local wines, for them too much of alcohol content, with a sparkling water splash. it is from spritzen, the German word that describes this custom, which derives its name spritz! you knew? Instead maybe what you do not know is how to prepare the original version directly to your home. here is the recipe step by step, perfect to share with friends for a drink, a casual meal, or, why not, for a brunch ... prepared with us spritz!</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B187" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A187, ""it"", ""en"")"),"You are looking for the recipe batter fried to mark in your notebook to be able to show off at every moment? before doing so you must try it some ways to prepare the batter have a lot! Today we offer a version with egg whites, which will allow you to obta"&amp;"in a thick, which adheres perfectly to the vegetables, such as cauliflower, zucchini, eggplant or onions to a golden brown result when baked. but if you are looking for a gluten free version do not worry, simply replace the flour 00 to rice to obtain an e"&amp;"qually fragrant result! but if what you want is a really crispy fried opt for a batter without eggs, made with only flour and water. Finally, if you prefer a full version, you have to try absolutely one with beer we used to fry the hen, for example! choos"&amp;"e the batter for you and to get a dry and light fried pay proper attention to the type of oil chosen and reach the right temperature! So what are you waiting for? artichokes, carrots, mushrooms, shrimp, chicken and zucchini are ready to be dipped in this "&amp;"batter and fried! enjoy them still smoking!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A187, ""it"", ""en"")"),"You are looking for the recipe batter fried to mark in your notebook to be able to show off at every moment? before doing so you must try it some ways to prepare the batter have a lot! Today we offer a version with egg whites, which will allow you to obta"&amp;"in a thick, which adheres perfectly to the vegetables, such as cauliflower, zucchini, eggplant or onions to a golden brown result when baked. but if you are looking for a gluten free version do not worry, simply replace the flour 00 to rice to obtain an e"&amp;"qually fragrant result! but if what you want is a really crispy fried opt for a batter without eggs, made with only flour and water. Finally, if you prefer a full version, you have to try absolutely one with beer we used to fry the hen, for example! choos"&amp;"e the batter for you and to get a dry and light fried pay proper attention to the type of oil chosen and reach the right temperature! So what are you waiting for? artichokes, carrots, mushrooms, shrimp, chicken and zucchini are ready to be dipped in this "&amp;"batter and fried! enjoy them still smoking!")</f>
         <v>You are looking for the recipe batter fried to mark in your notebook to be able to show off at every moment? before doing so you must try it some ways to prepare the batter have a lot! Today we offer a version with egg whites, which will allow you to obtain a thick, which adheres perfectly to the vegetables, such as cauliflower, zucchini, eggplant or onions to a golden brown result when baked. but if you are looking for a gluten free version do not worry, simply replace the flour 00 to rice to obtain an equally fragrant result! but if what you want is a really crispy fried opt for a batter without eggs, made with only flour and water. Finally, if you prefer a full version, you have to try absolutely one with beer we used to fry the hen, for example! choose the batter for you and to get a dry and light fried pay proper attention to the type of oil chosen and reach the right temperature! So what are you waiting for? artichokes, carrots, mushrooms, shrimp, chicken and zucchini are ready to be dipped in this batter and fried! enjoy them still smoking!</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B188" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A188, ""it"", ""en"")"),"the mushrooms are part of the culinary tradition of the Piedmont region, I am a very simple side dish to prepare, tasty and delicate flavors for the mountain lovers. think in fact to a creamy first dish based on truffles such as risotto, meat as a second "&amp;"and a tasty garnish of mushrooms! are a very versatile dish suitable for different uses: they can become an excellent dressing for a risotto, you can pull the game, or, together with the zucchini slices in the oven and a little polenta can become a rich v"&amp;"egetarian dish. but who prefer can choose to accompany the dish with a little 'home-made bread, maybe gluten-flavored nuts with mushrooms go to a wedding! In any case, the recipe for mushrooms is the one that gives greater emphasis to flavor and taste of "&amp;"mushrooms; that's why it is so proposed and used in the preparation of numerous other piatti.i mushrooms can not miss on your table this season!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A188, ""it"", ""en"")"),"the mushrooms are part of the culinary tradition of the Piedmont region, I am a very simple side dish to prepare, tasty and delicate flavors for the mountain lovers. think in fact to a creamy first dish based on truffles such as risotto, meat as a second "&amp;"and a tasty garnish of mushrooms! are a very versatile dish suitable for different uses: they can become an excellent dressing for a risotto, you can pull the game, or, together with the zucchini slices in the oven and a little polenta can become a rich v"&amp;"egetarian dish. but who prefer can choose to accompany the dish with a little 'home-made bread, maybe gluten-flavored nuts with mushrooms go to a wedding! In any case, the recipe for mushrooms is the one that gives greater emphasis to flavor and taste of "&amp;"mushrooms; that's why it is so proposed and used in the preparation of numerous other piatti.i mushrooms can not miss on your table this season!")</f>
         <v>the mushrooms are part of the culinary tradition of the Piedmont region, I am a very simple side dish to prepare, tasty and delicate flavors for the mountain lovers. think in fact to a creamy first dish based on truffles such as risotto, meat as a second and a tasty garnish of mushrooms! are a very versatile dish suitable for different uses: they can become an excellent dressing for a risotto, you can pull the game, or, together with the zucchini slices in the oven and a little polenta can become a rich vegetarian dish. but who prefer can choose to accompany the dish with a little 'home-made bread, maybe gluten-flavored nuts with mushrooms go to a wedding! In any case, the recipe for mushrooms is the one that gives greater emphasis to flavor and taste of mushrooms; that's why it is so proposed and used in the preparation of numerous other piatti.i mushrooms can not miss on your table this season!</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B189" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A189, ""it"", ""en"")"),"if you are a meat lover and wintry dishes, the festive menu or Sunday can not miss the pork shank with potatoes! This cut of meat considered less noble, is no less tasty than others ... indeed! with the preparation we suggest you become a second dish so r"&amp;"ich and flavorful that will literally capitulate your guests! the secret ingredient of this recipe? the weather! cooking must be slow in order to obtain a soft and juicy meat. and while the shank baked in the oven you can devote to the preparation of the "&amp;"rest of the dinner! in a nutshell, pork shank with potatoes: superb!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A189, ""it"", ""en"")"),"if you are a meat lover and wintry dishes, the festive menu or Sunday can not miss the pork shank with potatoes! This cut of meat considered less noble, is no less tasty than others ... indeed! with the preparation we suggest you become a second dish so r"&amp;"ich and flavorful that will literally capitulate your guests! the secret ingredient of this recipe? the weather! cooking must be slow in order to obtain a soft and juicy meat. and while the shank baked in the oven you can devote to the preparation of the "&amp;"rest of the dinner! in a nutshell, pork shank with potatoes: superb!")</f>
         <v>if you are a meat lover and wintry dishes, the festive menu or Sunday can not miss the pork shank with potatoes! This cut of meat considered less noble, is no less tasty than others ... indeed! with the preparation we suggest you become a second dish so rich and flavorful that will literally capitulate your guests! the secret ingredient of this recipe? the weather! cooking must be slow in order to obtain a soft and juicy meat. and while the shank baked in the oven you can devote to the preparation of the rest of the dinner! in a nutshell, pork shank with potatoes: superb!</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B190" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A190, ""it"", ""en"")"),"the omelette is a classic dish, perhaps one of the first test in the kitchen. you can indulge with rich versions of fresh ingredients, for example perfect for the spring season as the spring frittata, asparagus or radishes. before creating elaborate versi"&amp;"ons, we aim to work out with the recipe of the classic tortilla prepared simply with beaten eggs and flavored with parmesan and pecorino, from even bake. there are those who cook on high heat, or those who, like us, prefer a slow cooker with the lid ... g"&amp;"randmothers suggest some thyme leaves that enhances the flavor and there are those who do not would never without at least one sprinkling of pepper. and you as the cook? but above all, as you prefer: by myself, in a sandwich or served as a delicious appet"&amp;"izer serving it cut into small cubes? while I think about it, come with us in the kitchen to prepare a tender and tasty omelette!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A190, ""it"", ""en"")"),"the omelette is a classic dish, perhaps one of the first test in the kitchen. you can indulge with rich versions of fresh ingredients, for example perfect for the spring season as the spring frittata, asparagus or radishes. before creating elaborate versi"&amp;"ons, we aim to work out with the recipe of the classic tortilla prepared simply with beaten eggs and flavored with parmesan and pecorino, from even bake. there are those who cook on high heat, or those who, like us, prefer a slow cooker with the lid ... g"&amp;"randmothers suggest some thyme leaves that enhances the flavor and there are those who do not would never without at least one sprinkling of pepper. and you as the cook? but above all, as you prefer: by myself, in a sandwich or served as a delicious appet"&amp;"izer serving it cut into small cubes? while I think about it, come with us in the kitchen to prepare a tender and tasty omelette!")</f>
         <v>the omelette is a classic dish, perhaps one of the first test in the kitchen. you can indulge with rich versions of fresh ingredients, for example perfect for the spring season as the spring frittata, asparagus or radishes. before creating elaborate versions, we aim to work out with the recipe of the classic tortilla prepared simply with beaten eggs and flavored with parmesan and pecorino, from even bake. there are those who cook on high heat, or those who, like us, prefer a slow cooker with the lid ... grandmothers suggest some thyme leaves that enhances the flavor and there are those who do not would never without at least one sprinkling of pepper. and you as the cook? but above all, as you prefer: by myself, in a sandwich or served as a delicious appetizer serving it cut into small cubes? while I think about it, come with us in the kitchen to prepare a tender and tasty omelette!</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B191" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A191, ""it"", ""en"")"),"fresh, genuine and colorful! our tasty chicken salad is a charge of energy, perfect to wear as schiscetta for a lunch break in the office or to be served at a buffet dinner with friends but it is also a perfect salvacena solution to be prepared in advance"&amp;" for those days we have little time to spend in the kitchen. Chicken breasts grilled and raw vegetables of tasty vegetables, to vary according to your personal taste and availability of the season. to complete the dish a wraparound sauce that will make it"&amp;" even more tempting preparation. the tasty chicken salad is the perfect recipe to bring to the table a healthy and tasty meal!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A191, ""it"", ""en"")"),"fresh, genuine and colorful! our tasty chicken salad is a charge of energy, perfect to wear as schiscetta for a lunch break in the office or to be served at a buffet dinner with friends but it is also a perfect salvacena solution to be prepared in advance"&amp;" for those days we have little time to spend in the kitchen. Chicken breasts grilled and raw vegetables of tasty vegetables, to vary according to your personal taste and availability of the season. to complete the dish a wraparound sauce that will make it"&amp;" even more tempting preparation. the tasty chicken salad is the perfect recipe to bring to the table a healthy and tasty meal!")</f>
         <v>fresh, genuine and colorful! our tasty chicken salad is a charge of energy, perfect to wear as schiscetta for a lunch break in the office or to be served at a buffet dinner with friends but it is also a perfect salvacena solution to be prepared in advance for those days we have little time to spend in the kitchen. Chicken breasts grilled and raw vegetables of tasty vegetables, to vary according to your personal taste and availability of the season. to complete the dish a wraparound sauce that will make it even more tempting preparation. the tasty chicken salad is the perfect recipe to bring to the table a healthy and tasty meal!</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B192" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A192, ""it"", ""en"")"),"that magical scent coming from the kitchen! what's cooking? a succulent meat broth, one of the basic preparations of Italian cuisine together with the close relative, the vegetable broth. every grandmother, mother or family that respects holds the secret "&amp;"to the perfect broth, but today we have decided to share with you our version. Imagine that convenience always have a ready broth to cook your favorite winter dishes: ravioli, cappelletti, passatelli or extraordinary cook risotto! the broth in recipes mak"&amp;"es a difference, in fact, and if prepared at home has a completely different flavor, thanks to the use of natural ingredients, flavorings that embellish and a long cooking time to give it the right body. Once ready, you can also use the boiled meat to cre"&amp;"ate the tasty boiled meatballs and ricotta!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A192, ""it"", ""en"")"),"that magical scent coming from the kitchen! what's cooking? a succulent meat broth, one of the basic preparations of Italian cuisine together with the close relative, the vegetable broth. every grandmother, mother or family that respects holds the secret "&amp;"to the perfect broth, but today we have decided to share with you our version. Imagine that convenience always have a ready broth to cook your favorite winter dishes: ravioli, cappelletti, passatelli or extraordinary cook risotto! the broth in recipes mak"&amp;"es a difference, in fact, and if prepared at home has a completely different flavor, thanks to the use of natural ingredients, flavorings that embellish and a long cooking time to give it the right body. Once ready, you can also use the boiled meat to cre"&amp;"ate the tasty boiled meatballs and ricotta!")</f>
         <v>that magical scent coming from the kitchen! what's cooking? a succulent meat broth, one of the basic preparations of Italian cuisine together with the close relative, the vegetable broth. every grandmother, mother or family that respects holds the secret to the perfect broth, but today we have decided to share with you our version. Imagine that convenience always have a ready broth to cook your favorite winter dishes: ravioli, cappelletti, passatelli or extraordinary cook risotto! the broth in recipes makes a difference, in fact, and if prepared at home has a completely different flavor, thanks to the use of natural ingredients, flavorings that embellish and a long cooking time to give it the right body. Once ready, you can also use the boiled meat to create the tasty boiled meatballs and ricotta!</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B193" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A193, ""it"", ""en"")"),"or because the meat after a while 'becomes stringy, or because the flavor is likely to be monotonous, but the boiled meat, let's all, however good it may be - sometimes - a company becomes dispose. But fortunately for the Piedmont were able to come up wit"&amp;"h the right sauce to accompany it and make it once again good and tasty, that is, the green sauce. a flavorful mix of common ingredients in many traditional recipes of the region, such as garlic, anchovies and parsley, the real star of the recipe, make th"&amp;"e Bagnet verd, that is, the green sauce, the perfect marriage of a spent recipe of flavor and seasoning perfect to bring it back into vogue ... or better still make it a special time!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A193, ""it"", ""en"")"),"or because the meat after a while 'becomes stringy, or because the flavor is likely to be monotonous, but the boiled meat, let's all, however good it may be - sometimes - a company becomes dispose. But fortunately for the Piedmont were able to come up wit"&amp;"h the right sauce to accompany it and make it once again good and tasty, that is, the green sauce. a flavorful mix of common ingredients in many traditional recipes of the region, such as garlic, anchovies and parsley, the real star of the recipe, make th"&amp;"e Bagnet verd, that is, the green sauce, the perfect marriage of a spent recipe of flavor and seasoning perfect to bring it back into vogue ... or better still make it a special time!")</f>
         <v>or because the meat after a while 'becomes stringy, or because the flavor is likely to be monotonous, but the boiled meat, let's all, however good it may be - sometimes - a company becomes dispose. But fortunately for the Piedmont were able to come up with the right sauce to accompany it and make it once again good and tasty, that is, the green sauce. a flavorful mix of common ingredients in many traditional recipes of the region, such as garlic, anchovies and parsley, the real star of the recipe, make the Bagnet verd, that is, the green sauce, the perfect marriage of a spent recipe of flavor and seasoning perfect to bring it back into vogue ... or better still make it a special time!</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B194" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A194, ""it"", ""en"")"),"the vegetable stock, closely related to meat and fish, is a basic knowledge of Italian cuisine, including simple and versatile than we are. in fact it is the ideal companion for risotto, velvety and, last but not least, the neutral base indispensable to b"&amp;"ake fresh homemade pasta, instead of plain water. but what is important to get a good vegetable broth is the choice of vegetables: strictly fresh and seasonal and especially choosing the ones you prefer most. therefore they are entered all the customizati"&amp;"ons that you want, including the choice of various spices to perfume it and really make it special. and with the advanced vegetables? Well, try to mash them with a fork and put them back in the broth, cuoceteci pasta (strictly broken spaghetti) and served"&amp;" with a generous sprinkling of grated cheese at the time ... well, at the end we found ourselves even give you another recipe. the broth is simple but fantastic, is not it?")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A194, ""it"", ""en"")"),"the vegetable stock, closely related to meat and fish, is a basic knowledge of Italian cuisine, including simple and versatile than we are. in fact it is the ideal companion for risotto, velvety and, last but not least, the neutral base indispensable to b"&amp;"ake fresh homemade pasta, instead of plain water. but what is important to get a good vegetable broth is the choice of vegetables: strictly fresh and seasonal and especially choosing the ones you prefer most. therefore they are entered all the customizati"&amp;"ons that you want, including the choice of various spices to perfume it and really make it special. and with the advanced vegetables? Well, try to mash them with a fork and put them back in the broth, cuoceteci pasta (strictly broken spaghetti) and served"&amp;" with a generous sprinkling of grated cheese at the time ... well, at the end we found ourselves even give you another recipe. the broth is simple but fantastic, is not it?")</f>
         <v>the vegetable stock, closely related to meat and fish, is a basic knowledge of Italian cuisine, including simple and versatile than we are. in fact it is the ideal companion for risotto, velvety and, last but not least, the neutral base indispensable to bake fresh homemade pasta, instead of plain water. but what is important to get a good vegetable broth is the choice of vegetables: strictly fresh and seasonal and especially choosing the ones you prefer most. therefore they are entered all the customizations that you want, including the choice of various spices to perfume it and really make it special. and with the advanced vegetables? Well, try to mash them with a fork and put them back in the broth, cuoceteci pasta (strictly broken spaghetti) and served with a generous sprinkling of grated cheese at the time ... well, at the end we found ourselves even give you another recipe. the broth is simple but fantastic, is not it?</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B195" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A195, ""it"", ""en"")"),"and 'artichoke time! with their unmistakable flavor notes from bitter artichokes tease you but you've never ventured into their preparation? here is the perfect recipe for you: artichokes in the pan, a preparation that emphasizes the unique and decisive f"&amp;"lavor of these vegetables with a simple cooking seasoned with pepper, garlic and a handful of parsley. and for a perfect result just follow our cooking school as clean the artichokes, to find out step by step how to clean these vegetables, which under the"&amp;"ir leathery leaves hide a tender heart. once they become experts there will only have to choose from the many delicious recipes, as well as what we propose today: the traditional artichokes or the Jewish style, the tasty pan artichoke gratin, irresistible"&amp;" fried artichokes with mustard and flans artichokes with Parmesan cheese for those who want to give a gourmet twist to its menu. We just need to start cooking!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A195, ""it"", ""en"")"),"and 'artichoke time! with their unmistakable flavor notes from bitter artichokes tease you but you've never ventured into their preparation? here is the perfect recipe for you: artichokes in the pan, a preparation that emphasizes the unique and decisive f"&amp;"lavor of these vegetables with a simple cooking seasoned with pepper, garlic and a handful of parsley. and for a perfect result just follow our cooking school as clean the artichokes, to find out step by step how to clean these vegetables, which under the"&amp;"ir leathery leaves hide a tender heart. once they become experts there will only have to choose from the many delicious recipes, as well as what we propose today: the traditional artichokes or the Jewish style, the tasty pan artichoke gratin, irresistible"&amp;" fried artichokes with mustard and flans artichokes with Parmesan cheese for those who want to give a gourmet twist to its menu. We just need to start cooking!")</f>
         <v>and 'artichoke time! with their unmistakable flavor notes from bitter artichokes tease you but you've never ventured into their preparation? here is the perfect recipe for you: artichokes in the pan, a preparation that emphasizes the unique and decisive flavor of these vegetables with a simple cooking seasoned with pepper, garlic and a handful of parsley. and for a perfect result just follow our cooking school as clean the artichokes, to find out step by step how to clean these vegetables, which under their leathery leaves hide a tender heart. once they become experts there will only have to choose from the many delicious recipes, as well as what we propose today: the traditional artichokes or the Jewish style, the tasty pan artichoke gratin, irresistible fried artichokes with mustard and flans artichokes with Parmesan cheese for those who want to give a gourmet twist to its menu. We just need to start cooking!</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B196" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A196, ""it"", ""en"")"),"Roman chicory salad is a fresh and tasty dish, widespread in Lazio and in some areas of Campania, because the chicory are typical of this area, even if there are readily available on the shelves of markets and supermarkets throughout Italy, even already c"&amp;"leaned and ready to be dressed by the typical emulsion which enhances the taste. chicory are a popular vegetable, even the Romans, known gourmets, loved this slightly bitter ingredient that look similar to asparagus although the chicory are harvested in l"&amp;"arge clumps. the appearance of puntarelle vaguely reminiscent of the asparagus but are collected in large clumps, belonging to the fact catalogna chicory. cleaning is definitely the most arduous but you could always get help as well, between a chat and th"&amp;"e other, the salad is ready to chicory.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A196, ""it"", ""en"")"),"Roman chicory salad is a fresh and tasty dish, widespread in Lazio and in some areas of Campania, because the chicory are typical of this area, even if there are readily available on the shelves of markets and supermarkets throughout Italy, even already c"&amp;"leaned and ready to be dressed by the typical emulsion which enhances the taste. chicory are a popular vegetable, even the Romans, known gourmets, loved this slightly bitter ingredient that look similar to asparagus although the chicory are harvested in l"&amp;"arge clumps. the appearance of puntarelle vaguely reminiscent of the asparagus but are collected in large clumps, belonging to the fact catalogna chicory. cleaning is definitely the most arduous but you could always get help as well, between a chat and th"&amp;"e other, the salad is ready to chicory.")</f>
         <v>Roman chicory salad is a fresh and tasty dish, widespread in Lazio and in some areas of Campania, because the chicory are typical of this area, even if there are readily available on the shelves of markets and supermarkets throughout Italy, even already cleaned and ready to be dressed by the typical emulsion which enhances the taste. chicory are a popular vegetable, even the Romans, known gourmets, loved this slightly bitter ingredient that look similar to asparagus although the chicory are harvested in large clumps. the appearance of puntarelle vaguely reminiscent of the asparagus but are collected in large clumps, belonging to the fact catalogna chicory. cleaning is definitely the most arduous but you could always get help as well, between a chat and the other, the salad is ready to chicory.</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B197" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A197, ""it"", ""en"")"),"lentils are legumes rich in nutrients, which generally are savored as a side dish and associated with sausage tradition, but are an excellent dish even if you enjoy alone or when used to enrich soups. lentils flavored with herbs are cooked with fried onio"&amp;"n, flavored with bay leaves, juniper and cloves and flavored with red wine and bacon. preparatene in quantities, as they are a symbol of luck and abundance! and if they were to move forward .. do not worry! you can prepare crispy and delicious lentil rost"&amp;"i!")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A197, ""it"", ""en"")"),"lentils are legumes rich in nutrients, which generally are savored as a side dish and associated with sausage tradition, but are an excellent dish even if you enjoy alone or when used to enrich soups. lentils flavored with herbs are cooked with fried onio"&amp;"n, flavored with bay leaves, juniper and cloves and flavored with red wine and bacon. preparatene in quantities, as they are a symbol of luck and abundance! and if they were to move forward .. do not worry! you can prepare crispy and delicious lentil rost"&amp;"i!")</f>
         <v>lentils are legumes rich in nutrients, which generally are savored as a side dish and associated with sausage tradition, but are an excellent dish even if you enjoy alone or when used to enrich soups. lentils flavored with herbs are cooked with fried onion, flavored with bay leaves, juniper and cloves and flavored with red wine and bacon. preparatene in quantities, as they are a symbol of luck and abundance! and if they were to move forward .. do not worry! you can prepare crispy and delicious lentil rosti!</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B198" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A198, ""it"", ""en"")"),"bagna cauda or bagna cauda is a typical preparation of piedmont prepared with anchovies, olive oil and garlic and used as a dip for fresh vegetables of the autumn season. being a substantial dish, usually, is considered a single dish but sometimes it can "&amp;"also be served as a starter for a dinner between friends ... in fact, in ancient times, it was precisely during the gatherings and dinners between friends who prepared this dish that over time It has become a symbol of friendship and happy atmosphere. the"&amp;" origins of bagna cauda are actually half-shrouded in mystery because no one knows exactly when, where and who invented this dish, which in fact does not even have a city of residence, but you know, instead of the tenants of the late Middle Ages adopted t"&amp;"his recipe to celebrate an important event as it could be tapping new wine. for a long time, bagna cauda, ​​there was only the pot of the poor and peasants as the aristocrats of the abhorred by the abundance of garlic. over time, this dish was rather re-e"&amp;"valuated and, nowadays, there are many trattorias and restaurants, especially in Piedmont, offering on their menu the bagna cauda. regarding the origin of the name, we know that bagna cauda is derived from two words, ""wet"" which means in Piedmontese sau"&amp;"ce or gravy, and ""cauda"" that is rather hot: so calda.ed sauce is for this reason that bagna cauda is served in ""fujot"", in particular terracotta containers or with copper under a hot flame that holds the sauce. Here we present the classic recipe file"&amp;"d with the Italian Academy of the kitchen and prepared a version with the equally tasty milk. bagna cauda accompanied with typical autumn vegetables in the region among which the famous hunchback cardoons from Nizza Monferrato, to be eaten raw.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A198, ""it"", ""en"")"),"bagna cauda or bagna cauda is a typical preparation of piedmont prepared with anchovies, olive oil and garlic and used as a dip for fresh vegetables of the autumn season. being a substantial dish, usually, is considered a single dish but sometimes it can "&amp;"also be served as a starter for a dinner between friends ... in fact, in ancient times, it was precisely during the gatherings and dinners between friends who prepared this dish that over time It has become a symbol of friendship and happy atmosphere. the"&amp;" origins of bagna cauda are actually half-shrouded in mystery because no one knows exactly when, where and who invented this dish, which in fact does not even have a city of residence, but you know, instead of the tenants of the late Middle Ages adopted t"&amp;"his recipe to celebrate an important event as it could be tapping new wine. for a long time, bagna cauda, ​​there was only the pot of the poor and peasants as the aristocrats of the abhorred by the abundance of garlic. over time, this dish was rather re-e"&amp;"valuated and, nowadays, there are many trattorias and restaurants, especially in Piedmont, offering on their menu the bagna cauda. regarding the origin of the name, we know that bagna cauda is derived from two words, ""wet"" which means in Piedmontese sau"&amp;"ce or gravy, and ""cauda"" that is rather hot: so calda.ed sauce is for this reason that bagna cauda is served in ""fujot"", in particular terracotta containers or with copper under a hot flame that holds the sauce. Here we present the classic recipe file"&amp;"d with the Italian Academy of the kitchen and prepared a version with the equally tasty milk. bagna cauda accompanied with typical autumn vegetables in the region among which the famous hunchback cardoons from Nizza Monferrato, to be eaten raw.")</f>
         <v>bagna cauda or bagna cauda is a typical preparation of piedmont prepared with anchovies, olive oil and garlic and used as a dip for fresh vegetables of the autumn season. being a substantial dish, usually, is considered a single dish but sometimes it can also be served as a starter for a dinner between friends ... in fact, in ancient times, it was precisely during the gatherings and dinners between friends who prepared this dish that over time It has become a symbol of friendship and happy atmosphere. the origins of bagna cauda are actually half-shrouded in mystery because no one knows exactly when, where and who invented this dish, which in fact does not even have a city of residence, but you know, instead of the tenants of the late Middle Ages adopted this recipe to celebrate an important event as it could be tapping new wine. for a long time, bagna cauda, ​​there was only the pot of the poor and peasants as the aristocrats of the abhorred by the abundance of garlic. over time, this dish was rather re-evaluated and, nowadays, there are many trattorias and restaurants, especially in Piedmont, offering on their menu the bagna cauda. regarding the origin of the name, we know that bagna cauda is derived from two words, "wet" which means in Piedmontese sauce or gravy, and "cauda" that is rather hot: so calda.ed sauce is for this reason that bagna cauda is served in "fujot", in particular terracotta containers or with copper under a hot flame that holds the sauce. Here we present the classic recipe filed with the Italian Academy of the kitchen and prepared a version with the equally tasty milk. bagna cauda accompanied with typical autumn vegetables in the region among which the famous hunchback cardoons from Nizza Monferrato, to be eaten raw.</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="4">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="4">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="4">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B101" s="4">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B47">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57">
+        <v>895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.6059957173447537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.9271948608137044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.6231263383297643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0685224839400425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="4">
+        <v>13.597430406852249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="4">
+        <v>14.132762312633833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="4">
+        <v>14.828693790149893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15.417558886509635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19.271948608137045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="6">
+        <f>19.9678800856531+1.23</f>
+        <v>21.1978800856531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.9630754849263847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.0098153774246321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.0098153774246321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.0098153774246321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.0331853236737554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.1032951624211265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.1734050011684971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.2201448936667445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.2435148399158682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.2902547324141156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2.3369946249123625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.3837345174106099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.3837345174106099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.4304744099088573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.4304744099088573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2.453844356157981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2.4772143024071043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2.5473241411544754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2.5473241411544754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.5706940874035991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2.5706940874035991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2.617433979901846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2.617433979901846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2.6408039261509697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2.7342837111474645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2.8043935498948351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.8277634961439588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3.014723066136948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3.0614629586351954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3.0848329048843186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3.1549427436316897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3.1783126898808134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3.1783126898808134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3.1783126898808134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3.2016826361299371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3.2250525823790603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3.3886422061229258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3.4587520448702969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3.5522318298667912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3.5756017761159149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3.6924515073615329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3.8093012386071514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3.8326711848562747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4.2299602710913762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4.323440056087871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4.323440056087871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4.440289787333489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4.5805094648282312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4.7440990885720966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4.8142089273194673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4.8843187660668379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4.907688712315962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54" s="4">
+        <v>5.0011684973124559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5.0245384435615801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5.0479083898107033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.0479083898107033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" s="4">
+        <v>5.2114980135545688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="4">
+        <v>5.3049777985510636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B60" s="4">
+        <v>5.3517176910493109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B61" s="4">
+        <v>5.5153073147931764</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B62" s="4">
+        <v>5.6788969385370418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="4">
+        <v>5.7957466697826598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="4">
+        <v>6.0995559710212666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B65" s="4">
+        <v>6.1930357560177614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="4">
+        <v>6.4968450572563681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B67" s="4">
+        <v>6.5903248422528629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="4">
+        <v>7.0810937134844592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7.3381631222248185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="4">
+        <v>7.6419724234634261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B71" s="4">
+        <v>8.0626314559476508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="4">
+        <v>8.7403598971722367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B73" s="4">
+        <v>8.8338396821687315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B74" s="4">
+        <v>8.9740593596634728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B75" s="4">
+        <v>9.0675391446599676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B76" s="4">
+        <v>9.7452675858845517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="4">
+        <v>10.89039495209161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" s="4">
+        <v>10.983874737088104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" s="4">
+        <v>11.077354522084599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="4">
+        <v>11.638233232063566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B81" s="4">
+        <v>11.755082963309185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B82" s="4">
+        <v>12.479551297032017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83">
+        <v>13.274100000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B84" s="4">
+        <v>13.320869362000467</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="4">
+        <v>13.437719093246086</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="4">
+        <v>13.975227856975929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="4">
+        <v>16.17200280439355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B88" s="4">
+        <v>17.550829633091844</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B89" s="4">
+        <v>21.173171301706006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B90" s="4">
+        <v>25.543351250292126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="4">
+        <v>27.062397756485161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="4">
+        <v>33.605982706239779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="4">
+        <v>41.715354054685676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="4">
+        <v>43.70179948586118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B95" s="4">
+        <v>44.332788034587523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="4">
+        <v>45.571395185791076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B97" s="4">
+        <v>72.002804393549894</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B97">
+    <sortState ref="A2:B97">
+      <sortCondition ref="B1:B97"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.46791443850267378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.66844919786096257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.73529411764705888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.3368983957219251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.1390374331550803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.4064171122994651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.4732620320855614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.5401069518716577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3.6764705882352939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3.7433155080213902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.8101604278074865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.2780748663101607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4.4786096256684491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5.4144385026737964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5.5481283422459891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.6818181818181817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5.6818181818181817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5.7486631016042784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6.2165775401069521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6.5508021390374331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7.6203208556149731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23" s="4">
+        <v>9.8930481283422456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="4">
+        <v>9.8930481283422456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="4">
+        <v>11.363636363636363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="4">
+        <v>12.032085561497325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="4">
+        <v>13.168449197860962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="4">
+        <v>15.508021390374331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="4">
+        <v>18.582887700534759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B30" s="4">
+        <v>29.946524064171122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="4">
+        <v>34.959893048128343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="4">
+        <v>36.63101604278075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="4">
+        <v>47.326203208556151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="4">
+        <v>52.272727272727273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="4">
+        <v>74.131016042780743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>